--- a/Report/uaeReport.xlsx
+++ b/Report/uaeReport.xlsx
@@ -4386,7 +4386,7 @@
     <t>{"developer_id":"30d9c37d7fa3a9ea534c90251771a3c272571e69924b318e9f13a87105bb31b6","dev_type":"web","dev_name":"Chrome 80.0.3987.149","os":"Mac OS X 10_15_3","time_zone":120}</t>
   </si>
   <si>
-    <t>{"translations":{"hold_title":"Online Payment Confirmation","card_JM":"Credit/debit card","wu_ios":"Western Union IOS App","card_ending_in":"","find_location":"Find Locations","relationship_to_receiver":"Relationship to receiver","est_total":"Estimated total to receiver","source":"Source of funds","mywu_rewards":"My WU Rewards","success_info_JM":"Your online payment was accepted. To pick up the money {first_name} {middle_name} {last_name} will have to bring a government-issued photo ID and tracking number (MTCN) {mtcn} to any Western Union location in the expected payout area. If you require more information, please email {email} or call us at {phone}","beneficiar":"Beneficiary's code","success_message":"{payProcessor} payment was successful - your money has been sent","pay_by":"Payment by","payment":"Payment","nf_title":"This is not the page you are looking for","yes":"Yes","knet_ref":"Ref. No.","money_avaliable":"Money available","title":"Payment Details","reject_name":"Dear, {first_name} {last_name}","review":"Review","knet_date":"Date","td_details_JM":"Payment details","add_info":"Additional information","november":"November","no_history":"No transactions yet","total":"Total","customer_support":"Customer Support","cash_agent":"Cash","account_not_verified":"Dear Customer, In order to make an online transaction, we will have to verify your profile identity. Please visit one of [url=https://www.westernunion.com/ae/en/contact-us.html#verificationlocations]Al Fardan exchange locations[/url] and have a valid Identity document with you","reject_message":"Your money transfer was rejected","view_receipt":"View receipt","details_send":"Sending details","month":"Month","amount":"Transfer amount","serviceInMin":"Service: In minutes","send_money":"Send Money","promocode":"Promocode","exp_expires":"Session expires in:","tax":"Tax (GCT)","year":"Year","card_AE":"Real Time Account Debit","receive_amount":"Receive amount","account_overview":"History","card_CI":"Direct debit","hold_name":"Dear, {first_name} {last_name}","success_message_JM":"Payment was successful - your money has been sent","phone_num":"Phone number","greet":"Thank you for being My WU member. Send money with Western Union online now and earn points for eligible transactions. You can use your points to redeem up ... fee discount for your transactions!","free_google_app":"FREE - In Google App","summary_review":"Summary","exchange_wu":"WU Payout rate","wu_aos":"Western Union Android App","receipt":"This is not a receipt","exp_message":"As a security precaution, session end after 15 minutes of inactivity. Click OK to continue your current session.","received_from":"Received from","top_corridors":"Frequently selected countries","total_points":"Total points","menu":"Menu","not_member":"You are not a member yet","october":"October","trans_hist":"Transaction history","success_info":"Your Online payment is complete. To pick up the money {first_name} {middle_name} {last_name} will have to bring a government-issued photo ID and tracking number (MTCN) {mtcn} to any Western Union location in the expected payout area. If you require more information, please email {email} or call us at {phone}, please check with your carrier for charges and local rates.","open_receipt":"Receipt","security_code":"Security Code","send_to":"Sending money to","progress_title":"Your Receipt","td_ref":"Ref. No.","get_app":"Get App","exp_title":"Your session will expire soon","april":"April","partners_text_KW":"This service is offered through","points_redeem":"Redeem points","td_amount":"Amount","reject_info":"Your transaction was rejected. We apologize for the inconvenience. For further information, please email wu.support@alfardanexchange.com or call us at 800 736398 or 800 SENDWU, please check with your carrier for charges and local rates.","partners_text_JM":"This service is offered through","partners_licensed_bh":"Licensed and Regulated by Central Bank of Bahrain","december":"December","partners_licensed":"42-56 Harbour Street, Downtown, Kingston, Jamaica West Indies","debit_card_JM":"Credit/debit card","relation":"Relationship to receiver","january":"January","knet_p_amount":"Amount","county_tax":"TTHU","method_pay":"Payment method","otp_code":"Code","partners_text_BH":"This service is offered through","verified":"Profile verified","country_code":"Country code","knet_status":"Status","general_consumption":"General Consumption","edit":"Edit Profile","trans_fee":"WU Transfer fee","delete":"Delete","delivery":"Delivery method","nf_desc":"Sorry, unless you really were hoping to find our 404 message, the page you were looking for has been moved or deleted. You can get back to safety using one of these links","march":"March","success_title":"Your Receipt","slogan":"My world. My way.","phone_error_msg":"Phone number","td_pay_code":"Response code","estimate":"Estimate","td_status":"Status","apn_success_info":"If you require more information, please email {email} or call us at {phone}, Please check with your carrier for charges and local rates.","sign_out":"Sign out","points_title":"Available My WU points:","success_message_apn":"Your money is on its way","show":"show","subtitle":"Click \"PRINT\" to retain a copy of your receipt","nf_home":"Home Page","no":"No","gold_card":"[b]Gold Card[/b] program - now [b]My WU[/b], with all the same benefits","edit_resend":"Edit &amp; resend","receivers_amount":"Receivers amount","req":"Password Requirements","method_delivery":"Delivery method","my_receivers":"My Receivers","track_no":"Tracking No (MTCN)","share_mtcn":"Share MTCN","continue_to_review":"Continue to review","edit_KW":"View Profile","in_min":"In minutes","trans_amount":"Transfer amount","estimated_receive_amount":"Estimated receive amount","copyright":"Western Union Holdings, Inc. All Rights Reserved","june":"June","details_receive":"Receiving details","status":"Status","payment_id":"Payment ID","money_sent_to":"Money sent to","show_details":"Show details","location":"Payout location","exchange":"Exchange rate","editReceiver":"Edit","service":"Service","hi":"Hi","recipient":"Recipient","progress_subtitle":"Click \"PRINT\" to retain a copy of your receipt","register":"Register","discount":"Promotional discount","phone_no_verify":"Your telephone numberis still not verified.","td_pid":"Payment ID","success_info_apn":"If you require more information, please email wu.support@alfardanexchange.com or call us at 800 736398 or 800 SENDWU.","card_num":"Card number","track_num":"Tracking number","resend_amount":"Resend amount","card":"Debit card","add_new_receiver":"Add a new receiver","free_ios_app":"FREE - In App Sore","debit_card_AE":"Direct debit (UAE PGS)","send_amount":"Send amount","time":"Delivery time","mtcn":"MTCN","alert_remove_receiver":"Are you sure you want to delete this receiver?","estimated_exchange":"Estimated exchange rate","td_date":"Date","online_receipt":"Online Receipt","nf_care":"Customer Care","since":"Member since:","hide_details":"Hide details","hide":"hide","august":"August","date":"Date","estimate_price":"Estimate Price","hold_subtitle":"Click \"PRINT\" to retain a copy of your receipt","cash_at_loc":"Cash1","apn_success_message":"Your money is on its way","max_image_size":"File size can't exceed ","security_code_hint":"These are the last 3 digits on the back of you card","mywu_title":"My WU number:","print":"Print","login":"Log In","sending_money_to":"Sending money to:","fee":"In minutes, fee:","february":"February","mob_phone":"Mobile phone","july":"July","track_transf":"Track Transfer","profile_overview":"Profile","sent_to":"Sent to","may":"May","conv_fee":"Convenience fee","nf_send":"Send Money","td_details":"{payProcessor} transfer details","min_image_size":"File size can't be less ","limits_title":"Your current limits:","alert_info":"You will see important alerts and notifications here.","receive_as":"Money received as","pick_up":"Pick up cash","show_full_history":"Show full history","knet_pid":"Payment ID","card_info":"Accepted credit/debit card types:","send_code":"Send Code","point_earned":"Point earned","summary":"Your summary","success_name":"Dear, {first_name} {last_name}","september":"September","day":"Day","debit_card":"Credit/Debit Card","not_verified":"Profile not verified","partners_text":"This service is offered through","state_tax":"VAT","no_hist":"Your transaction history will appear here.","td_details_AE":"{payProcessor} PAYMENT DETAILS","success_subtitle":"Click \"PRINT\" to retain a copy of your receipt","card_expire":"","receiver":"Receiver","sign_up":"Sign up","not_selected":"Not selected","verify_code":"Verify Code","terms_of_profile_creation":"Terms of profile creation","history":"History","knet_details":"Al Fardan exchange transfer details","card_error":"We're sorry, but the card details you have entered is invalid. Please check your card details and try again. Only cards issued in UAE are allowed.","redeem_points":"Redeem points now","purpose":"Purpose of transaction"},"status":"ok","sessionData":{"user":{"currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE"},"timeout":900,"limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"events":{"braze":[{"event_key":"LAUNCHED","data":{"Language App":"en","Country From":"ae"}}]},"auth":false,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"","page_name":"/log_in","marketing_opt-in":"false","logged_in":"false","TransactionID":""},"_time_zone":120},"deviceKey":"0cd61ed4f91affb4b514d28f59ac33d2cac0300c627113b9c455d5ce81326257","data":{"terms":"https://www.westernunion.com/ae/en/legal/terms-conditions.html","privacy":"https://www.westernunion.com/ae/en/legal/privacy-statement.html","extra":{"translations":{"hold_title":"Online Payment Confirmation","card_JM":"Credit/debit card","wu_ios":"Western Union IOS App","card_ending_in":"","find_location":"Find Locations","relationship_to_receiver":"Relationship to receiver","est_total":"Estimated total to receiver","source":"Source of funds","mywu_rewards":"My WU Rewards","success_info_JM":"Your online payment was accepted. To pick up the money {first_name} {middle_name} {last_name} will have to bring a government-issued photo ID and tracking number (MTCN) {mtcn} to any Western Union location in the expected payout area. If you require more information, please email {email} or call us at {phone}","beneficiar":"Beneficiary's code","success_message":"{payProcessor} payment was successful - your money has been sent","pay_by":"Payment by","payment":"Payment","nf_title":"This is not the page you are looking for","yes":"Yes","knet_ref":"Ref. No.","money_avaliable":"Money available","title":"Payment Details","reject_name":"Dear, {first_name} {last_name}","review":"Review","knet_date":"Date","td_details_JM":"Payment details","add_info":"Additional information","november":"November","no_history":"No transactions yet","total":"Total","customer_support":"Customer Support","cash_agent":"Cash","account_not_verified":"Dear Customer, In order to make an online transaction, we will have to verify your profile identity. Please visit one of [url=https://www.westernunion.com/ae/en/contact-us.html#verificationlocations]Al Fardan exchange locations[/url] and have a valid Identity document with you","reject_message":"Your money transfer was rejected","view_receipt":"View receipt","details_send":"Sending details","month":"Month","amount":"Transfer amount","serviceInMin":"Service: In minutes","send_money":"Send Money","promocode":"Promocode","exp_expires":"Session expires in:","tax":"Tax (GCT)","year":"Year","card_AE":"Real Time Account Debit","receive_amount":"Receive amount","account_overview":"History","card_CI":"Direct debit","hold_name":"Dear, {first_name} {last_name}","success_message_JM":"Payment was successful - your money has been sent","phone_num":"Phone number","greet":"Thank you for being My WU member. Send money with Western Union online now and earn points for eligible transactions. You can use your points to redeem up ... fee discount for your transactions!","free_google_app":"FREE - In Google App","summary_review":"Summary","exchange_wu":"WU Payout rate","wu_aos":"Western Union Android App","receipt":"This is not a receipt","exp_message":"As a security precaution, session end after 15 minutes of inactivity. Click OK to continue your current session.","received_from":"Received from","top_corridors":"Frequently selected countries","total_points":"Total points","menu":"Menu","not_member":"You are not a member yet","october":"October","trans_hist":"Transaction history","success_info":"Your Online payment is complete. To pick up the money {first_name} {middle_name} {last_name} will have to bring a government-issued photo ID and tracking number (MTCN) {mtcn} to any Western Union location in the expected payout area. If you require more information, please email {email} or call us at {phone}, please check with your carrier for charges and local rates.","open_receipt":"Receipt","security_code":"Security Code","send_to":"Sending money to","progress_title":"Your Receipt","td_ref":"Ref. No.","get_app":"Get App","exp_title":"Your session will expire soon","april":"April","partners_text_KW":"This service is offered through","points_redeem":"Redeem points","td_amount":"Amount","reject_info":"Your transaction was rejected. We apologize for the inconvenience. For further information, please email wu.support@alfardanexchange.com or call us at 800 736398 or 800 SENDWU, please check with your carrier for charges and local rates.","partners_text_JM":"This service is offered through","partners_licensed_bh":"Licensed and Regulated by Central Bank of Bahrain","december":"December","partners_licensed":"42-56 Harbour Street, Downtown, Kingston, Jamaica West Indies","debit_card_JM":"Credit/debit card","relation":"Relationship to receiver","january":"January","knet_p_amount":"Amount","county_tax":"TTHU","method_pay":"Payment method","otp_code":"Code","partners_text_BH":"This service is offered through","verified":"Profile verified","country_code":"Country code","knet_status":"Status","general_consumption":"General Consumption","edit":"Edit Profile","trans_fee":"WU Transfer fee","delete":"Delete","delivery":"Delivery method","nf_desc":"Sorry, unless you really were hoping to find our 404 message, the page you were looking for has been moved or deleted. You can get back to safety using one of these links","march":"March","success_title":"Your Receipt","slogan":"My world. My way.","phone_error_msg":"Phone number","td_pay_code":"Response code","estimate":"Estimate","td_status":"Status","apn_success_info":"If you require more information, please email {email} or call us at {phone}, Please check with your carrier for charges and local rates.","sign_out":"Sign out","points_title":"Available My WU points:","success_message_apn":"Your money is on its way","show":"show","subtitle":"Click \"PRINT\" to retain a copy of your receipt","nf_home":"Home Page","no":"No","gold_card":"[b]Gold Card[/b] program - now [b]My WU[/b], with all the same benefits","edit_resend":"Edit &amp; resend","receivers_amount":"Receivers amount","req":"Password Requirements","method_delivery":"Delivery method","my_receivers":"My Receivers","track_no":"Tracking No (MTCN)","share_mtcn":"Share MTCN","continue_to_review":"Continue to review","edit_KW":"View Profile","in_min":"In minutes","trans_amount":"Transfer amount","estimated_receive_amount":"Estimated receive amount","copyright":"Western Union Holdings, Inc. All Rights Reserved","june":"June","details_receive":"Receiving details","status":"Status","payment_id":"Payment ID","money_sent_to":"Money sent to","show_details":"Show details","location":"Payout location","exchange":"Exchange rate","editReceiver":"Edit","service":"Service","hi":"Hi","recipient":"Recipient","progress_subtitle":"Click \"PRINT\" to retain a copy of your receipt","register":"Register","discount":"Promotional discount","phone_no_verify":"Your telephone numberis still not verified.","td_pid":"Payment ID","success_info_apn":"If you require more information, please email wu.support@alfardanexchange.com or call us at 800 736398 or 800 SENDWU.","card_num":"Card number","track_num":"Tracking number","resend_amount":"Resend amount","card":"Debit card","add_new_receiver":"Add a new receiver","free_ios_app":"FREE - In App Sore","debit_card_AE":"Direct debit (UAE PGS)","send_amount":"Send amount","time":"Delivery time","mtcn":"MTCN","alert_remove_receiver":"Are you sure you want to delete this receiver?","estimated_exchange":"Estimated exchange rate","td_date":"Date","online_receipt":"Online Receipt","nf_care":"Customer Care","since":"Member since:","hide_details":"Hide details","hide":"hide","august":"August","date":"Date","estimate_price":"Estimate Price","hold_subtitle":"Click \"PRINT\" to retain a copy of your receipt","cash_at_loc":"Cash1","apn_success_message":"Your money is on its way","max_image_size":"File size can't exceed ","security_code_hint":"These are the last 3 digits on the back of you card","mywu_title":"My WU number:","print":"Print","login":"Log In","sending_money_to":"Sending money to:","fee":"In minutes, fee:","february":"February","mob_phone":"Mobile phone","july":"July","track_transf":"Track Transfer","profile_overview":"Profile","sent_to":"Sent to","may":"May","conv_fee":"Convenience fee","nf_send":"Send Money","td_details":"{payProcessor} transfer details","min_image_size":"File size can't be less ","limits_title":"Your current limits:","alert_info":"You will see important alerts and notifications here.","receive_as":"Money received as","pick_up":"Pick up cash","show_full_history":"Show full history","knet_pid":"Payment ID","card_info":"Accepted credit/debit card types:","send_code":"Send Code","point_earned":"Point earned","summary":"Your summary","success_name":"Dear, {first_name} {last_name}","september":"September","day":"Day","debit_card":"Credit/Debit Card","not_verified":"Profile not verified","partners_text":"This service is offered through","state_tax":"VAT","no_hist":"Your transaction history will appear here.","td_details_AE":"{payProcessor} PAYMENT DETAILS","success_subtitle":"Click \"PRINT\" to retain a copy of your receipt","card_expire":"","receiver":"Receiver","sign_up":"Sign up","not_selected":"Not selected","verify_code":"Verify Code","terms_of_profile_creation":"Terms of profile creation","history":"History","knet_details":"Al Fardan exchange transfer details","card_error":"We're sorry, but the card details you have entered is invalid. Please check your card details and try again. Only cards issued in UAE are allowed.","redeem_points":"Redeem points now","purpose":"Purpose of transaction"},"right_to_left":"false"}},"code":0,"challenge":"ac58599fbde0fa571c9572a29a96c57914b22098ee8e4ea398f6c361703f5744"}</t>
+    <t>{"translations":{"hold_title":"Online Payment Confirmation","card_JM":"Credit/debit card","wu_ios":"Western Union IOS App","card_ending_in":"","find_location":"Find Locations","relationship_to_receiver":"Relationship to receiver","est_total":"Estimated total to receiver","source":"Source of funds","mywu_rewards":"My WU Rewards","success_info_JM":"Your online payment was accepted. To pick up the money {first_name} {middle_name} {last_name} will have to bring a government-issued photo ID and tracking number (MTCN) {mtcn} to any Western Union location in the expected payout area. If you require more information, please email {email} or call us at {phone}","beneficiar":"Beneficiary's code","success_message":"{payProcessor} payment was successful - your money has been sent","pay_by":"Payment by","payment":"Payment","nf_title":"This is not the page you are looking for","yes":"Yes","knet_ref":"Ref. No.","money_avaliable":"Money available","title":"Payment Details","reject_name":"Dear, {first_name} {last_name}","review":"Review","knet_date":"Date","td_details_JM":"Payment details","add_info":"Additional information","november":"November","no_history":"No transactions yet","total":"Total","customer_support":"Customer Support","cash_agent":"Cash","account_not_verified":"Dear Customer, In order to make an online transaction, we will have to verify your profile identity. Please visit one of [url=https://www.westernunion.com/ae/en/contact-us.html#verificationlocations]Al Fardan exchange locations[/url] and have a valid Identity document with you","reject_message":"Your money transfer was rejected","view_receipt":"View receipt","details_send":"Sending details","month":"Month","amount":"Transfer amount","serviceInMin":"Service: In minutes","send_money":"Send Money","promocode":"Promocode","exp_expires":"Session expires in:","tax":"Tax (GCT)","year":"Year","card_AE":"Real Time Account Debit","receive_amount":"Receive amount","account_overview":"History","card_CI":"Direct debit","hold_name":"Dear, {first_name} {last_name}","success_message_JM":"Payment was successful - your money has been sent","phone_num":"Phone number","greet":"Thank you for being My WU member. Send money with Western Union online now and earn points for eligible transactions. You can use your points to redeem up ... fee discount for your transactions!","free_google_app":"FREE - In Google App","summary_review":"Summary","exchange_wu":"WU Payout rate","wu_aos":"Western Union Android App","receipt":"This is not a receipt","exp_message":"As a security precaution, session end after 15 minutes of inactivity. Click OK to continue your current session.","received_from":"Received from","top_corridors":"Frequently selected countries","total_points":"Total points","menu":"Menu","not_member":"You are not a member yet","october":"October","trans_hist":"Transaction history","success_info":"Your Online payment is complete. To pick up the money {first_name} {middle_name} {last_name} will have to bring a government-issued photo ID and tracking number (MTCN) {mtcn} to any Western Union location in the expected payout area. If you require more information, please email {email} or call us at {phone}, please check with your carrier for charges and local rates.","open_receipt":"Receipt","security_code":"Security Code","send_to":"Sending money to","progress_title":"Your Receipt","td_ref":"Ref. No.","get_app":"Get App","exp_title":"Your session will expire soon","april":"April","partners_text_KW":"This service is offered through","points_redeem":"Redeem points","td_amount":"Amount","reject_info":"Your transaction was rejected. We apologize for the inconvenience. For further information, please email wu.support@alfardanexchange.com or call us at 800 736398 or 800 SENDWU, please check with your carrier for charges and local rates.","partners_text_JM":"This service is offered through","partners_licensed_bh":"Licensed and Regulated by Central Bank of Bahrain","december":"December","partners_licensed":"42-56 Harbour Street, Downtown, Kingston, Jamaica West Indies","debit_card_JM":"Credit/debit card","relation":"Relationship to receiver","january":"January","knet_p_amount":"Amount","county_tax":"TTHU","method_pay":"Payment method","otp_code":"Code","partners_text_BH":"This service is offered through","verified":"Profile verified","country_code":"Country code","knet_status":"Status","general_consumption":"General Consumption","edit":"Edit Profile","trans_fee":"WU Transfer fee","delete":"Delete","delivery":"Delivery method","nf_desc":"Sorry, unless you really were hoping to find our 404 message, the page you were looking for has been moved or deleted. You can get back to safety using one of these links","march":"March","success_title":"Your Receipt","slogan":"My world. My way.","phone_error_msg":"Phone number","td_pay_code":"Response code","estimate":"Estimate","td_status":"Status","apn_success_info":"If you require more information, please email {email} or call us at {phone}, Please check with your carrier for charges and local rates.","sign_out":"Sign out","points_title":"Available My WU points:","success_message_apn":"Your money is on its way","show":"show","subtitle":"Click \"PRINT\" to retain a copy of your receipt","nf_home":"Home Page","no":"No","gold_card":"[b]Gold Card[/b] program - now [b]My WU[/b], with all the same benefits","edit_resend":"Edit &amp; resend","receivers_amount":"Receivers amount","req":"Password Requirements","method_delivery":"Delivery method","my_receivers":"My Receivers","track_no":"Tracking No (MTCN)","share_mtcn":"Share MTCN","continue_to_review":"Continue to review","edit_KW":"View Profile","in_min":"In minutes","trans_amount":"Transfer amount","estimated_receive_amount":"Estimated receive amount","copyright":"Western Union Holdings, Inc. All Rights Reserved","june":"June","details_receive":"Receiving details","status":"Status","payment_id":"Payment ID","money_sent_to":"Money sent to","show_details":"Show details","location":"Payout location","exchange":"Exchange rate","editReceiver":"Edit","service":"Service","hi":"Hi","recipient":"Recipient","progress_subtitle":"Click \"PRINT\" to retain a copy of your receipt","register":"Register","discount":"Promotional discount","phone_no_verify":"Your telephone numberis still not verified.","td_pid":"Payment ID","success_info_apn":"If you require more information, please email wu.support@alfardanexchange.com or call us at 800 736398 or 800 SENDWU.","card_num":"Card number","track_num":"Tracking number","resend_amount":"Resend amount","card":"Debit card","add_new_receiver":"Add a new receiver","free_ios_app":"FREE - In App Sore","debit_card_AE":"Direct debit (UAE PGS)","send_amount":"Send amount","time":"Delivery time","mtcn":"MTCN","alert_remove_receiver":"Are you sure you want to delete this receiver?","estimated_exchange":"Estimated exchange rate","td_date":"Date","online_receipt":"Online Receipt","nf_care":"Customer Care","since":"Member since:","hide_details":"Hide details","hide":"hide","august":"August","date":"Date","estimate_price":"Estimate Price","hold_subtitle":"Click \"PRINT\" to retain a copy of your receipt","cash_at_loc":"Cash1","apn_success_message":"Your money is on its way","max_image_size":"File size can't exceed ","security_code_hint":"These are the last 3 digits on the back of you card","mywu_title":"My WU number:","print":"Print","login":"Log In","sending_money_to":"Sending money to:","fee":"In minutes, fee:","february":"February","mob_phone":"Mobile phone","july":"July","track_transf":"Track Transfer","profile_overview":"Profile","sent_to":"Sent to","may":"May","conv_fee":"Convenience fee","nf_send":"Send Money","td_details":"{payProcessor} transfer details","min_image_size":"File size can't be less ","limits_title":"Your current limits:","alert_info":"You will see important alerts and notifications here.","receive_as":"Money received as","pick_up":"Pick up cash","show_full_history":"Show full history","knet_pid":"Payment ID","card_info":"Accepted credit/debit card types:","send_code":"Send Code","point_earned":"Point earned","summary":"Your summary","success_name":"Dear, {first_name} {last_name}","september":"September","day":"Day","debit_card":"Credit/Debit Card","not_verified":"Profile not verified","partners_text":"This service is offered through","state_tax":"VAT","no_hist":"Your transaction history will appear here.","td_details_AE":"{payProcessor} PAYMENT DETAILS","success_subtitle":"Click \"PRINT\" to retain a copy of your receipt","card_expire":"","receiver":"Receiver","sign_up":"Sign up","not_selected":"Not selected","verify_code":"Verify Code","terms_of_profile_creation":"Terms of profile creation","history":"History","knet_details":"Al Fardan exchange transfer details","card_error":"We're sorry, but the card details you have entered is invalid. Please check your card details and try again. Only cards issued in UAE are allowed.","redeem_points":"Redeem points now","purpose":"Purpose of transaction"},"status":"ok","sessionData":{"user":{"currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE"},"timeout":900,"limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"events":{"braze":[{"event_key":"LAUNCHED","data":{"Language App":"en","Country From":"ae"}}]},"auth":false,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"","page_name":"/log_in","marketing_opt-in":"false","logged_in":"false","TransactionID":""},"_time_zone":120},"deviceKey":"7e794792309d3dc8fffca3912a6ccd7727ea0350de86e1def1d6e584dd018226","data":{"terms":"https://www.westernunion.com/ae/en/legal/terms-conditions.html","privacy":"https://www.westernunion.com/ae/en/legal/privacy-statement.html","extra":{"translations":{"hold_title":"Online Payment Confirmation","card_JM":"Credit/debit card","wu_ios":"Western Union IOS App","card_ending_in":"","find_location":"Find Locations","relationship_to_receiver":"Relationship to receiver","est_total":"Estimated total to receiver","source":"Source of funds","mywu_rewards":"My WU Rewards","success_info_JM":"Your online payment was accepted. To pick up the money {first_name} {middle_name} {last_name} will have to bring a government-issued photo ID and tracking number (MTCN) {mtcn} to any Western Union location in the expected payout area. If you require more information, please email {email} or call us at {phone}","beneficiar":"Beneficiary's code","success_message":"{payProcessor} payment was successful - your money has been sent","pay_by":"Payment by","payment":"Payment","nf_title":"This is not the page you are looking for","yes":"Yes","knet_ref":"Ref. No.","money_avaliable":"Money available","title":"Payment Details","reject_name":"Dear, {first_name} {last_name}","review":"Review","knet_date":"Date","td_details_JM":"Payment details","add_info":"Additional information","november":"November","no_history":"No transactions yet","total":"Total","customer_support":"Customer Support","cash_agent":"Cash","account_not_verified":"Dear Customer, In order to make an online transaction, we will have to verify your profile identity. Please visit one of [url=https://www.westernunion.com/ae/en/contact-us.html#verificationlocations]Al Fardan exchange locations[/url] and have a valid Identity document with you","reject_message":"Your money transfer was rejected","view_receipt":"View receipt","details_send":"Sending details","month":"Month","amount":"Transfer amount","serviceInMin":"Service: In minutes","send_money":"Send Money","promocode":"Promocode","exp_expires":"Session expires in:","tax":"Tax (GCT)","year":"Year","card_AE":"Real Time Account Debit","receive_amount":"Receive amount","account_overview":"History","card_CI":"Direct debit","hold_name":"Dear, {first_name} {last_name}","success_message_JM":"Payment was successful - your money has been sent","phone_num":"Phone number","greet":"Thank you for being My WU member. Send money with Western Union online now and earn points for eligible transactions. You can use your points to redeem up ... fee discount for your transactions!","free_google_app":"FREE - In Google App","summary_review":"Summary","exchange_wu":"WU Payout rate","wu_aos":"Western Union Android App","receipt":"This is not a receipt","exp_message":"As a security precaution, session end after 15 minutes of inactivity. Click OK to continue your current session.","received_from":"Received from","top_corridors":"Frequently selected countries","total_points":"Total points","menu":"Menu","not_member":"You are not a member yet","october":"October","trans_hist":"Transaction history","success_info":"Your Online payment is complete. To pick up the money {first_name} {middle_name} {last_name} will have to bring a government-issued photo ID and tracking number (MTCN) {mtcn} to any Western Union location in the expected payout area. If you require more information, please email {email} or call us at {phone}, please check with your carrier for charges and local rates.","open_receipt":"Receipt","security_code":"Security Code","send_to":"Sending money to","progress_title":"Your Receipt","td_ref":"Ref. No.","get_app":"Get App","exp_title":"Your session will expire soon","april":"April","partners_text_KW":"This service is offered through","points_redeem":"Redeem points","td_amount":"Amount","reject_info":"Your transaction was rejected. We apologize for the inconvenience. For further information, please email wu.support@alfardanexchange.com or call us at 800 736398 or 800 SENDWU, please check with your carrier for charges and local rates.","partners_text_JM":"This service is offered through","partners_licensed_bh":"Licensed and Regulated by Central Bank of Bahrain","december":"December","partners_licensed":"42-56 Harbour Street, Downtown, Kingston, Jamaica West Indies","debit_card_JM":"Credit/debit card","relation":"Relationship to receiver","january":"January","knet_p_amount":"Amount","county_tax":"TTHU","method_pay":"Payment method","otp_code":"Code","partners_text_BH":"This service is offered through","verified":"Profile verified","country_code":"Country code","knet_status":"Status","general_consumption":"General Consumption","edit":"Edit Profile","trans_fee":"WU Transfer fee","delete":"Delete","delivery":"Delivery method","nf_desc":"Sorry, unless you really were hoping to find our 404 message, the page you were looking for has been moved or deleted. You can get back to safety using one of these links","march":"March","success_title":"Your Receipt","slogan":"My world. My way.","phone_error_msg":"Phone number","td_pay_code":"Response code","estimate":"Estimate","td_status":"Status","apn_success_info":"If you require more information, please email {email} or call us at {phone}, Please check with your carrier for charges and local rates.","sign_out":"Sign out","points_title":"Available My WU points:","success_message_apn":"Your money is on its way","show":"show","subtitle":"Click \"PRINT\" to retain a copy of your receipt","nf_home":"Home Page","no":"No","gold_card":"[b]Gold Card[/b] program - now [b]My WU[/b], with all the same benefits","edit_resend":"Edit &amp; resend","receivers_amount":"Receivers amount","req":"Password Requirements","method_delivery":"Delivery method","my_receivers":"My Receivers","track_no":"Tracking No (MTCN)","share_mtcn":"Share MTCN","continue_to_review":"Continue to review","edit_KW":"View Profile","in_min":"In minutes","trans_amount":"Transfer amount","estimated_receive_amount":"Estimated receive amount","copyright":"Western Union Holdings, Inc. All Rights Reserved","june":"June","details_receive":"Receiving details","status":"Status","payment_id":"Payment ID","money_sent_to":"Money sent to","show_details":"Show details","location":"Payout location","exchange":"Exchange rate","editReceiver":"Edit","service":"Service","hi":"Hi","recipient":"Recipient","progress_subtitle":"Click \"PRINT\" to retain a copy of your receipt","register":"Register","discount":"Promotional discount","phone_no_verify":"Your telephone numberis still not verified.","td_pid":"Payment ID","success_info_apn":"If you require more information, please email wu.support@alfardanexchange.com or call us at 800 736398 or 800 SENDWU.","card_num":"Card number","track_num":"Tracking number","resend_amount":"Resend amount","card":"Debit card","add_new_receiver":"Add a new receiver","free_ios_app":"FREE - In App Sore","debit_card_AE":"Direct debit (UAE PGS)","send_amount":"Send amount","time":"Delivery time","mtcn":"MTCN","alert_remove_receiver":"Are you sure you want to delete this receiver?","estimated_exchange":"Estimated exchange rate","td_date":"Date","online_receipt":"Online Receipt","nf_care":"Customer Care","since":"Member since:","hide_details":"Hide details","hide":"hide","august":"August","date":"Date","estimate_price":"Estimate Price","hold_subtitle":"Click \"PRINT\" to retain a copy of your receipt","cash_at_loc":"Cash1","apn_success_message":"Your money is on its way","max_image_size":"File size can't exceed ","security_code_hint":"These are the last 3 digits on the back of you card","mywu_title":"My WU number:","print":"Print","login":"Log In","sending_money_to":"Sending money to:","fee":"In minutes, fee:","february":"February","mob_phone":"Mobile phone","july":"July","track_transf":"Track Transfer","profile_overview":"Profile","sent_to":"Sent to","may":"May","conv_fee":"Convenience fee","nf_send":"Send Money","td_details":"{payProcessor} transfer details","min_image_size":"File size can't be less ","limits_title":"Your current limits:","alert_info":"You will see important alerts and notifications here.","receive_as":"Money received as","pick_up":"Pick up cash","show_full_history":"Show full history","knet_pid":"Payment ID","card_info":"Accepted credit/debit card types:","send_code":"Send Code","point_earned":"Point earned","summary":"Your summary","success_name":"Dear, {first_name} {last_name}","september":"September","day":"Day","debit_card":"Credit/Debit Card","not_verified":"Profile not verified","partners_text":"This service is offered through","state_tax":"VAT","no_hist":"Your transaction history will appear here.","td_details_AE":"{payProcessor} PAYMENT DETAILS","success_subtitle":"Click \"PRINT\" to retain a copy of your receipt","card_expire":"","receiver":"Receiver","sign_up":"Sign up","not_selected":"Not selected","verify_code":"Verify Code","terms_of_profile_creation":"Terms of profile creation","history":"History","knet_details":"Al Fardan exchange transfer details","card_error":"We're sorry, but the card details you have entered is invalid. Please check your card details and try again. Only cards issued in UAE are allowed.","redeem_points":"Redeem points now","purpose":"Purpose of transaction"},"right_to_left":"false"}},"code":0,"challenge":"353f985b454f146931a811e36cba32111498815754a0eb5aff953b3cc439b24f"}</t>
   </si>
   <si>
     <t>{"key":"email", "val":"alex.mywu.qa@gmail.com"}</t>
@@ -4410,10 +4410,2039 @@
     <t>{"val":1.99,"status":"ok","new_val":1.99}</t>
   </si>
   <si>
-    <t>{"token":"3c1428a9fe43a18019db87e33fec48e5cb434f62415b126c66c355e82de92e72"}</t>
+    <t>{"token":"086ee5443762ebceea49ddcedf989ad56bc4757b8f242cb62bd5fac4c9943d16"}</t>
   </si>
   <si>
     <t>{"status":"ok","sessionData":{"user":{"currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE"},"timeout":900,"limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"auth":false,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"","page_name":"/log_in","marketing_opt-in":"false","logged_in":"false","TransactionID":""},"_time_zone":120},"configurations":{"supportPhone":"800 736398 or 800 SENDWU","supportEmail":"wu.support@alfardanexchange.com","source_funds":[{"value":"Salary/Income","title":"Salary/Income"},{"value":"Savings","title":"Savings"},{"value":"Borrowed Funds/Loan","title":"Borrowed Funds/Loan"},{"value":"Gift","title":"Gift"},{"value":"Pension/Government/Welfare","title":"Pension/Government/Welfare"},{"value":"Inheritance","title":"Inheritance"}],"siftScienceKey_prod":"a5895a6abd","siftScienceKey_dev":"a5895a6abd","purpose_transaction":[{"value":"Family Support","title":"Family Support"},{"value":"Education","title":"Education"},{"value":"Regular Labour Transfers (expatriates)","title":"Regular Labour Transfers (expatriates)"},{"value":"Investment","title":"Investment"},{"value":"Other Personal Needs","title":"Other Personal Needs"},{"value":"Investment Related","title":"Investment Related"},{"value":"Trade","title":"Trade"}],"payProcessor":"Al Fardan exchange","myReceivers":true,"lang":"en","headersSteps":["estimate","receiver","payment","review"],"headerMenuLinks":[{"url":"https://www.westernunion.com/global-service/track-transfer","title":"Track Transfer"},{"url":"https://www.westernunion.com/ae/en/find-locations.html","title":"Find Locations"},{"url":"https://www.westernunion.com/ae/en/find-locations.html","title":"Find Locations for verification"},{"url":"https://www.westernunion.com/ae/en/frequently-asked-questions.html","title":"Customer Support"},{"url":"/verification_page","title":"Profile verification"}],"ga":"","footersSend":[{"url":"https://www.westernunion.com/ae/en/send-money-to-philippines.html","title":"Send money to Philippines"},{"url":"https://www.westernunion.com/ae/en/send-money-to-india.html","title":"Send money to India"},{"url":"https://www.westernunion.com/ae/en/send-money-to-pakistan.html","title":"Send money to Pakistan"},{"url":"https://www.westernunion.com/ae/en/send-money-to-egypt.html","title":"Send money to Egypt"},{"url":"https://www.westernunion.com/ae/en/send-money-to-lebanon.html","title":"Send money to Lebanon"}],"footers":[{"url":"https://www.westernunion.com/ae/en/home.html","title":"Home"},{"url":"https://corporate.westernunion.com/index.html","title":"About us"},{"url":"https://www.westernunion.com/ae/en/contact-us.html","title":"Contact us"},{"url":"https://www.westernunion.com/ae/en/frequently-asked-questions.html","title":"Help"},{"url":"https://www.westernunion.com/ae/en/fraud-awareness.html","title":"Fraud awareness"},{"url":"http://ir.westernunion.com/investor-relations/default.aspx","title":"Investor relations"},{"url":"https://corporate.westernunion.com/careers/index.html","title":"Careers"},{"url":"https://foundation.westernunion.com/index.html","title":"Western Union foundation"},{"url":"https://www.westernunion.com/ae/en/become-agent.html","title":"Become an agent"},{"url":"https://www.westernunion.com/ae/en/legal/intellectual-property.html","title":"Intellectual property"},{"url":"https://www.westernunion.com/ae/en/legal/privacy-statement.html","title":"Online Privacy statement"},{"url":"https://www.westernunion.com/ae/en/legal/terms-conditions.html","title":"Terms and conditions"},{"url":"https://www.westernunion.com/ae/en/legal/privacy-statement-ar.html","title":"Online Privacy statement (Arabic)"},{"url":"https://www.westernunion.com/ae/en/legal/terms-conditions-ar.html","title":"Terms and conditions (Arabic)"}],"doubleClickTags":{"web/sign_up/done":"DC-3388366/aepri001/aepri0+standard","web/sign_up":"DC-3388366/aepri001/aepri00+standard","web/send_money/success":"DC-3388366/aepri000/aepri0+transactions","web/send_money/rejected":"DC-3388366/aepri000/aepri0+transactions","web/send_money/receiver":"DC-3388366/aepri00/aepri000+standard","web/send_money/in_progress":"DC-3388366/aepri000/aepri0+transactions","web/send_money/hold":"DC-3388366/aepri001/aepri0+transactions","web/send_money":"DC-3388366/aepri00/aepri0+standard","web/profile":"DC-3388366/aepri0/aepri005+standard"},"defaultHeaderLang":{"value":"en","title":"English"},"defaultHeaderCounty":{"value":"AE","title":"United Arab Emirates"},"countryCode":"AE","appMarket":{"ios":"https://apps.apple.com/us/app/westernunion-ae-money-transfer/id1171330611?ls=1","aos":"market://details?id=com.westernunion.moneytransferr3app.ae"},"amoutDigitsLimit":8,"adWords":{"targetId":"AW-1026534010","pages":{"web/sign_up/done":"AW-1026534010/gZXdCI2V_HsQ-tS-6QM","web/send_money/success":"AW-123456789/AbC-D_efG-h12_34-567","web/send_money/in_progress":"AW-123456789/AbC-D_efG-h12_34-567"}}},"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"086ee5443762ebceea49ddcedf989ad56bc4757b8f242cb62bd5fac4c9943d16","page":"web/sign_up"}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE"},"timeout":900,"limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"events":{"braze":[{"event_key":"REGISTRATION STARTED","data":{"Language App":"en","Country From":"ae"}}]},"auth":false,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/log_in","page_name":"/sign_up","marketing_opt-in":"false","logged_in":"false","TransactionID":""},"_time_zone":120},"data":{"next_page":"web/sign_up","grid":{"type":"one_column","header":"HeaderSend","extra":{"steper":{"value":1,"items":[{"title":"Profile"},{"title":"Contacts"},{"title":"Privacy"}]}},"components":{"center":["web/sign_up"]}},"forms":[{"type":"body","title":"Profile","sections":[{"header":[{"value":"Personal information","id":"label_77511","class":"label"}],"footer":[],"content":[{"type":"text","title":"First name","row":1,"required":true,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"first_name","error_msg":"Please check first name","class":"edit"},{"type":"text","title":"Last name","row":1,"required":true,"regexp":".*(?=^([a-zA-Z' -]{2,35})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"last_name","error_msg":"Please check last name","class":"edit"},{"title":"Date of birth","required":true,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"birth","extra":{"min":{"y":-100},"max":{"y":-21,"m":0,"d":0}},"error_msg":"Only UAE residents who are 21 years or older may initiate remittances via the Western Union Online channel","class":"calendar","actions":[]},{"visibility":"visible","type":"country","title":"Country of birth","required":true,"regexp":"^[A-Z]{2}$","options":[],"id":"country_birthday","extra":{"top_countries":["AE","IN","MA","ID","PH","TR","EG","US","TN","RU","LB","UA","SA","UG","CN","PS","CA","PK","TH","GB","FR","UZ","TZ","DE","CO"]},"error_msg":"Please select place of birth","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","type":"country","title":"Nationality","required":true,"options":[],"id":"country_nationality","extra":{"top_countries":["AE","IN","MA","ID","PH","TR","EG","US","TN","RU","LB","UA","SA","UG","CN","PS","CA","PK","TH","GB","FR","UZ","TZ","DE","CO"]},"error_msg":"Please select nationality","class":"select","actions":[{"url":"/items/country_nationality","oper":"init"}]},{"visibility":"visible","title":"Occupation","required":true,"options":[{"value":"Airline/Maritime Employee","title":"Airline/Maritime Employee"},{"value":"Art/Entertainment/Media","title":"Art/Entertainment/Media Professional"},{"value":"Civil/Government Employee","title":"Civil/Government Employee"},{"value":"Domestic Helper","title":"Domestic Helper"},{"value":"Driver","title":"Driver"},{"value":"Teacher/Educator","title":"Teacher/Educator"},{"value":"Hotel/Restaurant/Leisure","title":"Hotel/Restaurant/Leisure Services Employee"},{"value":"Housewife/Child Care","title":"Housewife/Child Care"},{"value":"IT and Tech Professional","title":"IT and Tech Professional"},{"value":"Laborer-Agriculture","title":"Laborer-Agriculture"},{"value":"Laborer-Construction","title":"Laborer-Construction"},{"value":"Laborer-Manufacturing","title":"Laborer-Manufacturing"},{"value":"Laborer- Oil/Gas/Mining","title":"Laborer- Oil/Gas/Mining/Forestry"},{"value":"Medical/Health Care","title":"Medical and Health Care Professional"},{"value":"Non-profit/Volunteer","title":"Non-profit/Volunteer"},{"value":"Cosmetic/Personal Care","title":"Cosmetic/Personal Care Services"},{"value":"Law Enforcement/Military","title":"Law Enforcement/Military Professional"},{"value":"Office Professional","title":"Office Professional"},{"value":"Religious/Church Servant","title":"Religious/Church Servant"},{"value":"Retail Sales","title":"Retail Sales"},{"value":"Retired","title":"Retired"},{"value":"Sales/Insurance/Real Estate","title":"Sales/Insurance/Real Estate Professional"},{"value":"Science/Research Professional","title":"Science/Research Professional"},{"value":"Security Guard","title":"Security Guard"},{"value":"Self-Employed","title":"Self-Employed"},{"value":"Skilled Trade/Specialist","title":"Skilled Trade/Specialist"},{"value":"Student","title":"Student"},{"value":"Unemployed","title":"Unemployed"}],"id":"occupation","error_msg":"Please check occupation","class":"select","actions":[]}]},{"header":[{"value":"Identification details","id":"label_15214","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":"Emirates ID","title":"ID Type","required":false,"options":[{"value":"Emirates ID","title":"Emirates ID","actions":[]},{"value":"Diplomatic ID","title":"Diplomatic ID","actions":[{"oper":"clearValue","items":["id_issuer"]},{"oper":"toggleEnabled","items":["id_issuer"]}]}],"id":"id_type","error_msg":"Please check ID Type","class":"select"},{"visibility":"disabled","value":"AE","type":"country","title":"ID Issuer","required":false,"options":[],"id":"id_issuer","error_msg":"Please check ID Issuer","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"","type":"text","title":"ID Number","required":true,"regexp":"^[0-9]{15}$","length":15,"id":"id_number","error_msg":"Please check ID Number","class":"edit","actions":[{"url":"/items/validate_id_number?preloader=false","oper":"validate"}]},{"visibility":"visible","title":"ID Expiration Date","required":true,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"expiration","extra":{"min":{"y":0,"m":0,"d":0},"max":{"y":20}},"error_msg":"Please check expiration date","class":"calendar"},{"visibility":"visible","title":"As per the regulation from Central bank of UAE, you must verify your identity. Please select this option if you would like an agent to visit you at your convenient place and time to verify your identity on the spot. Agent will call you to confirm the date and time of the visit. [br] By clicking this checkbox you confirm that you have provided correct contact information.","required":false,"regexp":"^(true|false)$","id":"nec_visit","class":"check"}]},{"header":[],"footer":[{"visibility":"visible","value":"submit","type":"submit","title":"Next","id":"button","extra":{"validate":false},"class":"button"},{"value":"cancel","type":"cancel","title":"Cancel","id":"button_cancel","class":"button"}],"content":[]}],"object_id":"profile","id":"web/sign_up"}]},"code":0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResponseCode - PASS
+"status":"ok"&lt;&lt;Required&gt;&gt; - PASS
+"code":0&lt;&lt;Required&gt;&gt; - PASS
+Airline/Maritime Employee - PASS
+Art/Entertainment/Media - PASS
+Art/Entertainment/Media Professional - PASS
+Civil/Government Employee - PASS
+Domestic Helper - PASS
+Teacher/Educator - PASS
+Hotel/Restaurant/Leisure - PASS
+Housewife/Child Care - PASS
+IT and Tech Professional - PASS
+Laborer-Agriculture - PASS
+Laborer-Construction - PASS
+Laborer-Manufacturing - PASS
+Laborer- Oil/Gas/Mining - PASS
+Medical/Health Care - PASS
+Non-profit/Volunteer - PASS
+Cosmetic/Personal Care - PASS
+Law Enforcement/Military - PASS
+Office Professional - PASS
+Religious/Church Servant - PASS
+Retail Sales - PASS
+Retired - PASS
+Sales/Insurance/Real Estate - PASS
+Science/Research Professional - PASS
+Security Guard - PASS
+Self-Employed - PASS
+Skilled Trade/Specialist - PASS
+Student - PASS
+Unemployed - PASS
+</t>
+  </si>
+  <si>
+    <t>{"token":"086ee5443762ebceea49ddcedf989ad56bc4757b8f242cb62bd5fac4c9943d16","form_id":"web/sign_up","item_id":"country_birthday"}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE"},"timeout":900,"limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"auth":false,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/log_in","page_name":"/sign_up","marketing_opt-in":"false","logged_in":"false","TransactionID":""},"_time_zone":120},"data":[{"type":"resp","data":[{"value":"AF","title":"Afghanistan"},{"value":"AX","title":"Aland Islands"},{"value":"AL","title":"Albania"},{"value":"DZ","title":"Algeria"},{"value":"AS","title":"American Samoa"},{"value":"AD","title":"Andorra"},{"value":"AO","title":"Angola"},{"value":"AI","title":"Anguilla"},{"value":"AQ","title":"Antarctica"},{"value":"AG","title":"Antigua And Barbuda"},{"value":"AR","title":"Argentina"},{"value":"AM","title":"Armenia"},{"value":"AW","title":"Aruba"},{"value":"AU","title":"Australia"},{"value":"AT","title":"Austria"},{"value":"AZ","title":"Azerbaijan"},{"value":"BS","title":"Bahamas"},{"value":"BH","title":"Bahrain"},{"value":"BD","title":"Bangladesh"},{"value":"BB","title":"Barbados"},{"value":"BY","title":"Belarus"},{"value":"BE","title":"Belgium"},{"value":"BZ","title":"Belize"},{"value":"BJ","title":"Benin"},{"value":"BM","title":"Bermuda"},{"value":"BT","title":"Bhutan"},{"value":"BO","title":"Bolivia"},{"value":"VW","title":"Bonaire, Sint Eustatius and Saba"},{"value":"BA","title":"Bosnia and Herzegovina"},{"value":"BW","title":"Botswana"},{"value":"BV","title":"Bouvet Island"},{"value":"BR","title":"Brazil"},{"value":"IO","title":"British Indian Ocean Territory"},{"value":"VG","title":"British Virgin Islands"},{"value":"BN","title":"Brunei Darussalam"},{"value":"BG","title":"Bulgaria"},{"value":"BF","title":"Burkina Faso"},{"value":"BI","title":"Burundi"},{"value":"KH","title":"Cambodia"},{"value":"CM","title":"Cameroon"},{"value":"CA","title":"Canada"},{"value":"CV","title":"Cape Verde"},{"value":"KY","title":"Cayman Islands"},{"value":"CF","title":"Central African Republic"},{"value":"TD","title":"Chad"},{"value":"CL","title":"Chile"},{"value":"CN","title":"China"},{"value":"CX","title":"Christmas Island"},{"value":"CC","title":"Cocos (Keeling) Islands"},{"value":"CO","title":"Colombia"},{"value":"KM","title":"Comoros"},{"value":"CG","title":"Congo, People's Republic of"},{"value":"CK","title":"Cook Islands"},{"value":"CR","title":"Costa Rica"},{"value":"HR","title":"Croatia"},{"value":"CU","title":"Cuba"},{"value":"AN","title":"Curacao"},{"value":"CY","title":"Cyprus"},{"value":"NY","title":"Cyprus (Northern)"},{"value":"CZ","title":"Czech Republic"},{"value":"CD","title":"Democratic Republic of Congo"},{"value":"DK","title":"Denmark"},{"value":"DJ","title":"Djibouti"},{"value":"DM","title":"Dominica"},{"value":"DO","title":"Dominican Republic"},{"value":"TP","title":"East Timor"},{"value":"TL","title":"East Timor"},{"value":"EC","title":"Ecuador"},{"value":"EG","title":"Egypt"},{"value":"SV","title":"El Salvador"},{"value":"GQ","title":"Equatorial Guinea"},{"value":"ER","title":"Eritrea"},{"value":"EE","title":"Estonia"},{"value":"ET","title":"Ethiopia"},{"value":"FK","title":"Falkland Islands (Malvinas)"},{"value":"FO","title":"Faroe Islands"},{"value":"FJ","title":"Fiji"},{"value":"FI","title":"Finland"},{"value":"FR","title":"France"},{"value":"GF","title":"French Guiana"},{"value":"PF","title":"French Polynesia"},{"value":"TF","title":"French Southern Territories"},{"value":"GA","title":"Gabon"},{"value":"GM","title":"Gambia"},{"value":"GE","title":"Georgia"},{"value":"DE","title":"Germany"},{"value":"GH","title":"Ghana"},{"value":"GI","title":"Gibraltar"},{"value":"GR","title":"Greece"},{"value":"GL","title":"Greenland"},{"value":"GD","title":"Grenada"},{"value":"GP","title":"Guadeloupe"},{"value":"GU","title":"Guam"},{"value":"GT","title":"Guatemala"},{"value":"GG","title":"Guernsey"},{"value":"GN","title":"Guinea"},{"value":"GW","title":"Guinea-Bissau"},{"value":"GY","title":"Guyana"},{"value":"HT","title":"Haiti"},{"value":"HM","title":"Heard Island and McDonald Islands"},{"value":"VA","title":"Holy See (Vatican)"},{"value":"HN","title":"Honduras"},{"value":"HK","title":"Hong Kong"},{"value":"HU","title":"Hungary"},{"value":"IS","title":"Iceland"},{"value":"IN","title":"India"},{"value":"ID","title":"Indonesia"},{"value":"IR","title":"Iran, Islamic Republic of"},{"value":"IQ","title":"Iraq"},{"value":"IE","title":"Ireland"},{"value":"IM","title":"Isle of Man"},{"value":"IL","title":"Israel"},{"value":"IT","title":"Italy"},{"value":"CI","title":"Ivory Coast"},{"value":"JM","title":"Jamaica"},{"value":"JP","title":"Japan"},{"value":"JE","title":"Jersey"},{"value":"JO","title":"Jordan"},{"value":"KZ","title":"Kazakhstan"},{"value":"KE","title":"Kenya"},{"value":"KI","title":"Kiribati"},{"value":"KV","title":"Kosovo"},{"value":"KW","title":"Kuwait"},{"value":"KG","title":"Kyrghyz Republic"},{"value":"LA","title":"Laos"},{"value":"LV","title":"Latvia"},{"value":"LB","title":"Lebanon"},{"value":"LS","title":"Lesotho"},{"value":"LR","title":"Liberia"},{"value":"LY","title":"Libya"},{"value":"LI","title":"Liechtenstein"},{"value":"LT","title":"Lithuania"},{"value":"LU","title":"Luxembourg"},{"value":"MO","title":"Macau"},{"value":"MK","title":"Macedonia"},{"value":"MG","title":"Madagascar"},{"value":"MW","title":"Malawi"},{"value":"MY","title":"Malaysia"},{"value":"MV","title":"Maldives"},{"value":"ML","title":"Mali"},{"value":"MT","title":"Malta"},{"value":"MH","title":"Marshall Islands"},{"value":"MQ","title":"Martinique"},{"value":"MR","title":"Mauritania"},{"value":"MU","title":"Mauritius"},{"value":"YT","title":"Mayotte"},{"value":"MX","title":"Mexico"},{"value":"FM","title":"Micronesia"},{"value":"MD","title":"Moldova"},{"value":"MC","title":"Monaco"},{"value":"MN","title":"Mongolia"},{"value":"ME","title":"Montenegro"},{"value":"MS","title":"Montserrat"},{"value":"MA","title":"Morocco"},{"value":"MZ","title":"Mozambique"},{"value":"MM","title":"Myanmar"},{"value":"NA","title":"Namibia"},{"value":"NR","title":"Nauru"},{"value":"NP","title":"Nepal"},{"value":"NL","title":"Netherlands"},{"value":"NC","title":"New Caledonia"},{"value":"NZ","title":"New Zealand"},{"value":"NI","title":"Nicaragua"},{"value":"NE","title":"Niger"},{"value":"NG","title":"Nigeria"},{"value":"NU","title":"Niue"},{"value":"NF","title":"Norfolk Island"},{"value":"KP","title":"North Korea"},{"value":"MP","title":"Northern Mariana Islands"},{"value":"NO","title":"Norway"},{"value":"OM","title":"Oman"},{"value":"PK","title":"Pakistan"},{"value":"PW","title":"Palau"},{"value":"PS","title":"Palestinian Authority"},{"value":"PA","title":"Panama"},{"value":"PG","title":"Papua New Guinea"},{"value":"PY","title":"Paraguay"},{"value":"PE","title":"Peru"},{"value":"PH","title":"Philippines"},{"value":"PN","title":"Pitcairn"},{"value":"PL","title":"Poland"},{"value":"PT","title":"Portugal"},{"value":"PR","title":"Puerto Rico"},{"value":"QA","title":"Qatar"},{"value":"RE","title":"Reunion Island"},{"value":"RO","title":"Romania"},{"value":"RU","title":"Russia"},{"value":"RW","title":"Rwanda"},{"value":"BL","title":"Saint Barthelemy"},{"value":"SH","title":"Saint Helena, Ascension and Tristan da Cunha"},{"value":"KN","title":"Saint Kitts And Nevis"},{"value":"LC","title":"Saint Lucia"},{"value":"PM","title":"Saint Pierre and Miquelon"},{"value":"VC","title":"Saint Vincent and The Grenadines"},{"value":"WS","title":"Samoa"},{"value":"SM","title":"San Marino"},{"value":"ST","title":"Sao Tome and Principe"},{"value":"SA","title":"Saudi Arabia"},{"value":"SN","title":"Senegal"},{"value":"YU","title":"Serbia"},{"value":"SC","title":"Seychelles"},{"value":"SL","title":"Sierra Leone"},{"value":"SG","title":"Singapore"},{"value":"SK","title":"Slovakia"},{"value":"SI","title":"Slovenia"},{"value":"SB","title":"Solomon Islands"},{"value":"SO","title":"Somalia"},{"value":"XA","title":"Somaliland"},{"value":"ZA","title":"South Africa"},{"value":"GS","title":"South Georgia and the South Sandwich Islands"},{"value":"KR","title":"South Korea"},{"value":"SS","title":"South Sudan"},{"value":"ES","title":"Spain"},{"value":"LK","title":"Sri Lanka"},{"value":"SX","title":"St. Maarten"},{"value":"MF","title":"St. Martin"},{"value":"SD","title":"Sudan"},{"value":"SR","title":"Suriname"},{"value":"SJ","title":"Svalbard and Jan Mayen"},{"value":"SZ","title":"Swaziland"},{"value":"SE","title":"Sweden"},{"value":"CH","title":"Switzerland"},{"value":"SY","title":"Syria"},{"value":"TW","title":"Taiwan"},{"value":"TJ","title":"Tajikistan"},{"value":"TZ","title":"Tanzania"},{"value":"TH","title":"Thailand"},{"value":"TG","title":"Togo"},{"value":"TK","title":"Tokelau"},{"value":"TO","title":"Tonga"},{"value":"TT","title":"Trinidad and Tobago"},{"value":"TN","title":"Tunisia"},{"value":"TR","title":"Turkey"},{"value":"TM","title":"Turkmenistan"},{"value":"TC","title":"Turks and Caicos Islands"},{"value":"TV","title":"Tuvalu"},{"value":"UG","title":"Uganda"},{"value":"UA","title":"Ukraine"},{"value":"AE","title":"United Arab Emirates"},{"value":"GB","title":"United Kingdom"},{"value":"US","title":"United States"},{"value":"UM","title":"United States Minor Outlying Islands"},{"value":"UY","title":"Uruguay"},{"value":"UZ","title":"Uzbekistan"},{"value":"VU","title":"Vanuatu"},{"value":"VE","title":"Venezuela"},{"value":"VN","title":"Vietnam"},{"value":"VI","title":"Virgin Islands (U.S.)"},{"value":"WF","title":"Wallis and Futuna"},{"value":"EH","title":"Western Sahara"},{"value":"YE","title":"Yemen"},{"value":"ZM","title":"Zambia"},{"value":"ZW","title":"Zimbabwe"}]}],"code":0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResponseCode - PASS
+"status":"ok" - PASS
+"code":0 - PASS
+</t>
+  </si>
+  <si>
+    <t>{"token":"086ee5443762ebceea49ddcedf989ad56bc4757b8f242cb62bd5fac4c9943d16","form_id":"web/sign_up","item_id":"country_nationality"}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE"},"timeout":900,"limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"auth":false,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/log_in","page_name":"/sign_up","marketing_opt-in":"false","logged_in":"false","TransactionID":""},"_time_zone":120},"data":[{"type":"resp","data":[{"value":"AF","title":"Afghanistan"},{"value":"AX","title":"Aland Islands"},{"value":"AL","title":"Albania"},{"value":"DZ","title":"Algeria"},{"value":"AS","title":"American Samoa"},{"value":"AD","title":"Andorra"},{"value":"AO","title":"Angola"},{"value":"AI","title":"Anguilla"},{"value":"AQ","title":"Antarctica"},{"value":"AG","title":"Antigua And Barbuda"},{"value":"AR","title":"Argentina"},{"value":"AM","title":"Armenia"},{"value":"AW","title":"Aruba"},{"value":"AU","title":"Australia"},{"value":"AT","title":"Austria"},{"value":"AZ","title":"Azerbaijan"},{"value":"BS","title":"Bahamas"},{"value":"BH","title":"Bahrain"},{"value":"BD","title":"Bangladesh"},{"value":"BB","title":"Barbados"},{"value":"BY","title":"Belarus"},{"value":"BE","title":"Belgium"},{"value":"BZ","title":"Belize"},{"value":"BJ","title":"Benin"},{"value":"BM","title":"Bermuda"},{"value":"BT","title":"Bhutan"},{"value":"BO","title":"Bolivia"},{"value":"VW","title":"Bonaire, Sint Eustatius and Saba"},{"value":"BA","title":"Bosnia and Herzegovina"},{"value":"BW","title":"Botswana"},{"value":"BV","title":"Bouvet Island"},{"value":"BR","title":"Brazil"},{"value":"IO","title":"British Indian Ocean Territory"},{"value":"VG","title":"British Virgin Islands"},{"value":"BN","title":"Brunei Darussalam"},{"value":"BG","title":"Bulgaria"},{"value":"BF","title":"Burkina Faso"},{"value":"BI","title":"Burundi"},{"value":"KH","title":"Cambodia"},{"value":"CM","title":"Cameroon"},{"value":"CA","title":"Canada"},{"value":"CV","title":"Cape Verde"},{"value":"KY","title":"Cayman Islands"},{"value":"CF","title":"Central African Republic"},{"value":"TD","title":"Chad"},{"value":"CL","title":"Chile"},{"value":"CN","title":"China"},{"value":"CX","title":"Christmas Island"},{"value":"CC","title":"Cocos (Keeling) Islands"},{"value":"CO","title":"Colombia"},{"value":"KM","title":"Comoros"},{"value":"CG","title":"Congo, People's Republic of"},{"value":"CK","title":"Cook Islands"},{"value":"CR","title":"Costa Rica"},{"value":"HR","title":"Croatia"},{"value":"CU","title":"Cuba"},{"value":"AN","title":"Curacao"},{"value":"CY","title":"Cyprus"},{"value":"NY","title":"Cyprus (Northern)"},{"value":"CZ","title":"Czech Republic"},{"value":"CD","title":"Democratic Republic of Congo"},{"value":"DK","title":"Denmark"},{"value":"DJ","title":"Djibouti"},{"value":"DM","title":"Dominica"},{"value":"DO","title":"Dominican Republic"},{"value":"TP","title":"East Timor"},{"value":"TL","title":"East Timor"},{"value":"EC","title":"Ecuador"},{"value":"EG","title":"Egypt"},{"value":"SV","title":"El Salvador"},{"value":"GQ","title":"Equatorial Guinea"},{"value":"ER","title":"Eritrea"},{"value":"EE","title":"Estonia"},{"value":"ET","title":"Ethiopia"},{"value":"FK","title":"Falkland Islands (Malvinas)"},{"value":"FO","title":"Faroe Islands"},{"value":"FJ","title":"Fiji"},{"value":"FI","title":"Finland"},{"value":"FR","title":"France"},{"value":"GF","title":"French Guiana"},{"value":"PF","title":"French Polynesia"},{"value":"TF","title":"French Southern Territories"},{"value":"GA","title":"Gabon"},{"value":"GM","title":"Gambia"},{"value":"GE","title":"Georgia"},{"value":"DE","title":"Germany"},{"value":"GH","title":"Ghana"},{"value":"GI","title":"Gibraltar"},{"value":"GR","title":"Greece"},{"value":"GL","title":"Greenland"},{"value":"GD","title":"Grenada"},{"value":"GP","title":"Guadeloupe"},{"value":"GU","title":"Guam"},{"value":"GT","title":"Guatemala"},{"value":"GG","title":"Guernsey"},{"value":"GN","title":"Guinea"},{"value":"GW","title":"Guinea-Bissau"},{"value":"GY","title":"Guyana"},{"value":"HT","title":"Haiti"},{"value":"HM","title":"Heard Island and McDonald Islands"},{"value":"VA","title":"Holy See (Vatican)"},{"value":"HN","title":"Honduras"},{"value":"HK","title":"Hong Kong"},{"value":"HU","title":"Hungary"},{"value":"IS","title":"Iceland"},{"value":"IN","title":"India"},{"value":"ID","title":"Indonesia"},{"value":"IR","title":"Iran, Islamic Republic of"},{"value":"IQ","title":"Iraq"},{"value":"IE","title":"Ireland"},{"value":"IM","title":"Isle of Man"},{"value":"IT","title":"Italy"},{"value":"CI","title":"Ivory Coast"},{"value":"JM","title":"Jamaica"},{"value":"JP","title":"Japan"},{"value":"JE","title":"Jersey"},{"value":"JO","title":"Jordan"},{"value":"KZ","title":"Kazakhstan"},{"value":"KE","title":"Kenya"},{"value":"KI","title":"Kiribati"},{"value":"KV","title":"Kosovo"},{"value":"KW","title":"Kuwait"},{"value":"KG","title":"Kyrghyz Republic"},{"value":"LA","title":"Laos"},{"value":"LV","title":"Latvia"},{"value":"LB","title":"Lebanon"},{"value":"LS","title":"Lesotho"},{"value":"LR","title":"Liberia"},{"value":"LY","title":"Libya"},{"value":"LI","title":"Liechtenstein"},{"value":"LT","title":"Lithuania"},{"value":"LU","title":"Luxembourg"},{"value":"MO","title":"Macau"},{"value":"MK","title":"Macedonia"},{"value":"MG","title":"Madagascar"},{"value":"MW","title":"Malawi"},{"value":"MY","title":"Malaysia"},{"value":"MV","title":"Maldives"},{"value":"ML","title":"Mali"},{"value":"MT","title":"Malta"},{"value":"MH","title":"Marshall Islands"},{"value":"MQ","title":"Martinique"},{"value":"MR","title":"Mauritania"},{"value":"MU","title":"Mauritius"},{"value":"YT","title":"Mayotte"},{"value":"MX","title":"Mexico"},{"value":"FM","title":"Micronesia"},{"value":"MD","title":"Moldova"},{"value":"MC","title":"Monaco"},{"value":"MN","title":"Mongolia"},{"value":"ME","title":"Montenegro"},{"value":"MS","title":"Montserrat"},{"value":"MA","title":"Morocco"},{"value":"MZ","title":"Mozambique"},{"value":"MM","title":"Myanmar"},{"value":"NA","title":"Namibia"},{"value":"NR","title":"Nauru"},{"value":"NP","title":"Nepal"},{"value":"NL","title":"Netherlands"},{"value":"NC","title":"New Caledonia"},{"value":"NZ","title":"New Zealand"},{"value":"NI","title":"Nicaragua"},{"value":"NE","title":"Niger"},{"value":"NG","title":"Nigeria"},{"value":"NU","title":"Niue"},{"value":"NF","title":"Norfolk Island"},{"value":"MP","title":"Northern Mariana Islands"},{"value":"NO","title":"Norway"},{"value":"OM","title":"Oman"},{"value":"PK","title":"Pakistan"},{"value":"PW","title":"Palau"},{"value":"PS","title":"Palestinian Authority"},{"value":"PA","title":"Panama"},{"value":"PG","title":"Papua New Guinea"},{"value":"PY","title":"Paraguay"},{"value":"PE","title":"Peru"},{"value":"PH","title":"Philippines"},{"value":"PN","title":"Pitcairn"},{"value":"PL","title":"Poland"},{"value":"PT","title":"Portugal"},{"value":"PR","title":"Puerto Rico"},{"value":"QA","title":"Qatar"},{"value":"RE","title":"Reunion Island"},{"value":"RO","title":"Romania"},{"value":"RU","title":"Russia"},{"value":"RW","title":"Rwanda"},{"value":"BL","title":"Saint Barthelemy"},{"value":"SH","title":"Saint Helena, Ascension and Tristan da Cunha"},{"value":"KN","title":"Saint Kitts And Nevis"},{"value":"LC","title":"Saint Lucia"},{"value":"PM","title":"Saint Pierre and Miquelon"},{"value":"VC","title":"Saint Vincent and The Grenadines"},{"value":"WS","title":"Samoa"},{"value":"SM","title":"San Marino"},{"value":"ST","title":"Sao Tome and Principe"},{"value":"SA","title":"Saudi Arabia"},{"value":"SN","title":"Senegal"},{"value":"YU","title":"Serbia"},{"value":"SC","title":"Seychelles"},{"value":"SL","title":"Sierra Leone"},{"value":"SG","title":"Singapore"},{"value":"SK","title":"Slovakia"},{"value":"SI","title":"Slovenia"},{"value":"SB","title":"Solomon Islands"},{"value":"SO","title":"Somalia"},{"value":"XA","title":"Somaliland"},{"value":"ZA","title":"South Africa"},{"value":"GS","title":"South Georgia and the South Sandwich Islands"},{"value":"KR","title":"South Korea"},{"value":"SS","title":"South Sudan"},{"value":"ES","title":"Spain"},{"value":"LK","title":"Sri Lanka"},{"value":"SX","title":"St. Maarten"},{"value":"MF","title":"St. Martin"},{"value":"SD","title":"Sudan"},{"value":"SR","title":"Suriname"},{"value":"SJ","title":"Svalbard and Jan Mayen"},{"value":"SZ","title":"Swaziland"},{"value":"SE","title":"Sweden"},{"value":"CH","title":"Switzerland"},{"value":"SY","title":"Syria"},{"value":"TW","title":"Taiwan"},{"value":"TJ","title":"Tajikistan"},{"value":"TZ","title":"Tanzania"},{"value":"TH","title":"Thailand"},{"value":"TG","title":"Togo"},{"value":"TK","title":"Tokelau"},{"value":"TO","title":"Tonga"},{"value":"TT","title":"Trinidad and Tobago"},{"value":"TN","title":"Tunisia"},{"value":"TR","title":"Turkey"},{"value":"TM","title":"Turkmenistan"},{"value":"TC","title":"Turks and Caicos Islands"},{"value":"TV","title":"Tuvalu"},{"value":"UG","title":"Uganda"},{"value":"UA","title":"Ukraine"},{"value":"AE","title":"United Arab Emirates"},{"value":"GB","title":"United Kingdom"},{"value":"US","title":"United States"},{"value":"UM","title":"United States Minor Outlying Islands"},{"value":"UY","title":"Uruguay"},{"value":"UZ","title":"Uzbekistan"},{"value":"VU","title":"Vanuatu"},{"value":"VE","title":"Venezuela"},{"value":"VN","title":"Vietnam"},{"value":"VI","title":"Virgin Islands (U.S.)"},{"value":"WF","title":"Wallis and Futuna"},{"value":"EH","title":"Western Sahara"},{"value":"YE","title":"Yemen"},{"value":"ZM","title":"Zambia"},{"value":"ZW","title":"Zimbabwe"}]}],"code":0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResponseCode - PASS
+"status":"ok"&lt;&lt;Required&gt;&gt; - PASS
+"code":0&lt;&lt;Required&gt;&gt; - PASS
+</t>
+  </si>
+  <si>
+    <t>{"token":"086ee5443762ebceea49ddcedf989ad56bc4757b8f242cb62bd5fac4c9943d16","form_id":"web/sign_up","item_id":"id_issuer"}</t>
+  </si>
+  <si>
+    <t>{"token":"086ee5443762ebceea49ddcedf989ad56bc4757b8f242cb62bd5fac4c9943d16","form_id":"web/sign_up","item_id":"id_number","data":{"first_name":"JozhQPHHj","last_name":"UQyfzosZsD","birth":{"day":"01","month":"01","year":"1975"},"country_birthday":"SA","country_nationality":"AR","occupation":"Airline/Maritime Employee","id_type":"Emirates ID","id_issuer":"AE","id_number":"275654345658985"}}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE"},"timeout":900,"limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"auth":false,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/log_in","page_name":"/sign_up","marketing_opt-in":"false","logged_in":"false","TransactionID":""},"_time_zone":120},"data":[],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"086ee5443762ebceea49ddcedf989ad56bc4757b8f242cb62bd5fac4c9943d16","id":"web/sign_up","data":{"first_name":"JozhQPHHj","last_name":"UQyfzosZsD","birth":{"day":"01","month":"01","year":"1975"},"country_birthday":"SA","country_nationality":"AR","occupation":"Airline/Maritime Employee","id_type":"Emirates ID","id_issuer":"AE","id_number":"275654345658985","expiration":{"day":"01","month":"01","year":"2025"},"nec_visit":true,"button":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE"},"timeout":900,"limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"auth":false,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/sign_up","page_name":"/sign_up","marketing_opt-in":"false","logged_in":"false","TransactionID":""},"_time_zone":120},"data":{"next_page":"web/sign_up/address","grid":{"type":"one_column","header":"HeaderSend","extra":{"steper":{"value":2,"items":[{"title":"Profile"},{"title":"Contacts"},{"title":"Privacy"}]}},"components":{"center":["web/sign_up/address"]}},"forms":[{"type":"body","title":"Contacts","sections":[{"header":[{"value":"Contact information","id":"label_96214","class":"label"}],"footer":[],"content":[{"visibility":"visible","type":"email","title":"Login/Email address","required":true,"regexp":"^[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~@]+(?:\\.[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~@]+)*@(?:[a-z0-9]([-a-z0-9]{0,61}[a-z0-9])?\\.)*(?:aero|arpa|asia|biz|cat|com|coop|edu|gov|info|int|jobs|mil|mobi|museum|name|net|org|pro|tel|travel|[a-z][a-z])$","id":"email","icon":"email","error_msg":"Please check email","class":"edit","actions":[]},{"visibility":"visible","value":{"type":"mob","number":"","country_code":"971"},"title":"","required":true,"regexp":"^mob-[0-9]{1,4}-[0-9]{4,17}$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone"},{"visibility":"disabled","value":"AE","type":"country","title":"Country","required":false,"regexp":"^[A-Z]{2}$","options":[],"id":"country","extra":{"top_countries":["AE","IN","MA","ID","PH","TR","EG","US","TN","RU","LB","UA","SA","UG","CN","PS","CA","PK","TH","GB","FR","UZ","TZ","DE","CO"]},"error_msg":"Please select country","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","type":"text","title":"Street address 1","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street1","error_msg":"Street address 1 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=true","oper":"validate"}]},{"title":"Add Street address (optional)","id":"expander_2","class":"expander","actions":[{"oper":"toggleVisible","items":["street2"]}]},{"visibility":"hidden","type":"text","title":"Street address 2","required":false,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{2,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street2","error_msg":"Street address 2 field should be between 2 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=true","oper":"validate"}]},{"visibility":"visible","title":"Emirate","required":true,"options":[{"value":"Abu Dhabi","title":"Abu Dhabi"},{"value":"Ajman","title":"Ajman"},{"value":"Dubai","title":"Dubai"},{"value":"Fujairah","title":"Fujairah"},{"value":"Ras Al Khaimah","title":"Ras Al Khaimah"},{"value":"Sharjah","title":"Sharjah"},{"value":"Umm Al Quwain","title":"Umm Al Quwain"}],"id":"emirate","error_msg":"Please select emirate","class":"select","actions":[{"url":"/items/get_emirate?preloader=false","oper":"loadOnClick"},{"oper":"clearValue","items":["area"]}]},{"visibility":"disabled","title":"Area","required":true,"options":[],"id":"area","error_msg":"Please select area","class":"select","actions":[{"url":"/items/get_area?preloader=false","oper":"loadOnClick"}]},{"visibility":"visible","type":"text","title":"Zip code (optional)","required":false,"regexp":"^[0-9a-zA-Z]{1,9}$","id":"zip_code","error_msg":"Please check Zip/Postal code. It should consist from 1 to 9 symbols and no special characters","class":"edit"}]},{"header":[],"footer":[{"visibility":"visible","value":"submit","type":"submit","title":"Next","id":"button","extra":{"validate":false},"class":"button"},{"value":"cancel","type":"cancel","title":"Cancel","id":"button_cancel","class":"button"}],"content":[]}],"object_id":"profile","id":"web/sign_up/address"}]},"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"086ee5443762ebceea49ddcedf989ad56bc4757b8f242cb62bd5fac4c9943d16","page":"web/sign_up/address"}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE"},"timeout":900,"limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"auth":false,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/sign_up","page_name":"/sign_up/address","marketing_opt-in":"false","logged_in":"false","TransactionID":""},"_time_zone":120},"data":{"next_page":"web/sign_up/address","grid":{"type":"one_column","header":"HeaderSend","extra":{"steper":{"value":2,"items":[{"title":"Profile"},{"title":"Contacts"},{"title":"Privacy"}]}},"components":{"center":["web/sign_up/address"]}},"forms":[{"type":"body","title":"Contacts","sections":[{"header":[{"value":"Contact information","id":"label_96214","class":"label"}],"footer":[],"content":[{"visibility":"visible","type":"email","title":"Login/Email address","required":true,"regexp":"^[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~@]+(?:\\.[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~@]+)*@(?:[a-z0-9]([-a-z0-9]{0,61}[a-z0-9])?\\.)*(?:aero|arpa|asia|biz|cat|com|coop|edu|gov|info|int|jobs|mil|mobi|museum|name|net|org|pro|tel|travel|[a-z][a-z])$","id":"email","icon":"email","error_msg":"Please check email","class":"edit","actions":[]},{"visibility":"visible","value":{"type":"mob","number":"","country_code":"971"},"title":"","required":true,"regexp":"^mob-[0-9]{1,4}-[0-9]{4,17}$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone"},{"visibility":"disabled","value":"AE","type":"country","title":"Country","required":false,"regexp":"^[A-Z]{2}$","options":[],"id":"country","extra":{"top_countries":["AE","IN","MA","ID","PH","TR","EG","US","TN","RU","LB","UA","SA","UG","CN","PS","CA","PK","TH","GB","FR","UZ","TZ","DE","CO"]},"error_msg":"Please select country","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","type":"text","title":"Street address 1","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street1","error_msg":"Street address 1 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=true","oper":"validate"}]},{"title":"Add Street address (optional)","id":"expander_2","class":"expander","actions":[{"oper":"toggleVisible","items":["street2"]}]},{"visibility":"hidden","type":"text","title":"Street address 2","required":false,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{2,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street2","error_msg":"Street address 2 field should be between 2 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=true","oper":"validate"}]},{"visibility":"visible","title":"Emirate","required":true,"options":[{"value":"Abu Dhabi","title":"Abu Dhabi"},{"value":"Ajman","title":"Ajman"},{"value":"Dubai","title":"Dubai"},{"value":"Fujairah","title":"Fujairah"},{"value":"Ras Al Khaimah","title":"Ras Al Khaimah"},{"value":"Sharjah","title":"Sharjah"},{"value":"Umm Al Quwain","title":"Umm Al Quwain"}],"id":"emirate","error_msg":"Please select emirate","class":"select","actions":[{"url":"/items/get_emirate?preloader=false","oper":"loadOnClick"},{"oper":"clearValue","items":["area"]}]},{"visibility":"disabled","title":"Area","required":true,"options":[],"id":"area","error_msg":"Please select area","class":"select","actions":[{"url":"/items/get_area?preloader=false","oper":"loadOnClick"}]},{"visibility":"visible","type":"text","title":"Zip code (optional)","required":false,"regexp":"^[0-9a-zA-Z]{1,9}$","id":"zip_code","error_msg":"Please check Zip/Postal code. It should consist from 1 to 9 symbols and no special characters","class":"edit"}]},{"header":[],"footer":[{"visibility":"visible","value":"submit","type":"submit","title":"Next","id":"button","extra":{"validate":false},"class":"button"},{"value":"cancel","type":"cancel","title":"Cancel","id":"button_cancel","class":"button"}],"content":[]}],"object_id":"profile","id":"web/sign_up/address"}]},"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"086ee5443762ebceea49ddcedf989ad56bc4757b8f242cb62bd5fac4c9943d16","form_id":"web/sign_up/address","item_id":"country"}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE"},"timeout":900,"limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"auth":false,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/sign_up","page_name":"/sign_up/address","marketing_opt-in":"false","logged_in":"false","TransactionID":""},"_time_zone":120},"data":[{"type":"resp","data":[{"value":"AF","title":"Afghanistan"},{"value":"AX","title":"Aland Islands"},{"value":"AL","title":"Albania"},{"value":"DZ","title":"Algeria"},{"value":"AS","title":"American Samoa"},{"value":"AD","title":"Andorra"},{"value":"AO","title":"Angola"},{"value":"AI","title":"Anguilla"},{"value":"AQ","title":"Antarctica"},{"value":"AG","title":"Antigua And Barbuda"},{"value":"AR","title":"Argentina"},{"value":"AM","title":"Armenia"},{"value":"AW","title":"Aruba"},{"value":"AU","title":"Australia"},{"value":"AT","title":"Austria"},{"value":"AZ","title":"Azerbaijan"},{"value":"BS","title":"Bahamas"},{"value":"BH","title":"Bahrain"},{"value":"BD","title":"Bangladesh"},{"value":"BB","title":"Barbados"},{"value":"BY","title":"Belarus"},{"value":"BE","title":"Belgium"},{"value":"BZ","title":"Belize"},{"value":"BJ","title":"Benin"},{"value":"BM","title":"Bermuda"},{"value":"BT","title":"Bhutan"},{"value":"BO","title":"Bolivia"},{"value":"VW","title":"Bonaire, Sint Eustatius and Saba"},{"value":"BA","title":"Bosnia and Herzegovina"},{"value":"BW","title":"Botswana"},{"value":"BV","title":"Bouvet Island"},{"value":"BR","title":"Brazil"},{"value":"IO","title":"British Indian Ocean Territory"},{"value":"VG","title":"British Virgin Islands"},{"value":"BN","title":"Brunei Darussalam"},{"value":"BG","title":"Bulgaria"},{"value":"BF","title":"Burkina Faso"},{"value":"BI","title":"Burundi"},{"value":"KH","title":"Cambodia"},{"value":"CM","title":"Cameroon"},{"value":"CA","title":"Canada"},{"value":"CV","title":"Cape Verde"},{"value":"KY","title":"Cayman Islands"},{"value":"CF","title":"Central African Republic"},{"value":"TD","title":"Chad"},{"value":"CL","title":"Chile"},{"value":"CN","title":"China"},{"value":"CX","title":"Christmas Island"},{"value":"CC","title":"Cocos (Keeling) Islands"},{"value":"CO","title":"Colombia"},{"value":"KM","title":"Comoros"},{"value":"CG","title":"Congo, People's Republic of"},{"value":"CK","title":"Cook Islands"},{"value":"CR","title":"Costa Rica"},{"value":"HR","title":"Croatia"},{"value":"CU","title":"Cuba"},{"value":"AN","title":"Curacao"},{"value":"CY","title":"Cyprus"},{"value":"NY","title":"Cyprus (Northern)"},{"value":"CZ","title":"Czech Republic"},{"value":"CD","title":"Democratic Republic of Congo"},{"value":"DK","title":"Denmark"},{"value":"DJ","title":"Djibouti"},{"value":"DM","title":"Dominica"},{"value":"DO","title":"Dominican Republic"},{"value":"TP","title":"East Timor"},{"value":"TL","title":"East Timor"},{"value":"EC","title":"Ecuador"},{"value":"EG","title":"Egypt"},{"value":"SV","title":"El Salvador"},{"value":"GQ","title":"Equatorial Guinea"},{"value":"ER","title":"Eritrea"},{"value":"EE","title":"Estonia"},{"value":"ET","title":"Ethiopia"},{"value":"FK","title":"Falkland Islands (Malvinas)"},{"value":"FO","title":"Faroe Islands"},{"value":"FJ","title":"Fiji"},{"value":"FI","title":"Finland"},{"value":"FR","title":"France"},{"value":"GF","title":"French Guiana"},{"value":"PF","title":"French Polynesia"},{"value":"TF","title":"French Southern Territories"},{"value":"GA","title":"Gabon"},{"value":"GM","title":"Gambia"},{"value":"GE","title":"Georgia"},{"value":"DE","title":"Germany"},{"value":"GH","title":"Ghana"},{"value":"GI","title":"Gibraltar"},{"value":"GR","title":"Greece"},{"value":"GL","title":"Greenland"},{"value":"GD","title":"Grenada"},{"value":"GP","title":"Guadeloupe"},{"value":"GU","title":"Guam"},{"value":"GT","title":"Guatemala"},{"value":"GG","title":"Guernsey"},{"value":"GN","title":"Guinea"},{"value":"GW","title":"Guinea-Bissau"},{"value":"GY","title":"Guyana"},{"value":"HT","title":"Haiti"},{"value":"HM","title":"Heard Island and McDonald Islands"},{"value":"VA","title":"Holy See (Vatican)"},{"value":"HN","title":"Honduras"},{"value":"HK","title":"Hong Kong"},{"value":"HU","title":"Hungary"},{"value":"IS","title":"Iceland"},{"value":"IN","title":"India"},{"value":"ID","title":"Indonesia"},{"value":"IR","title":"Iran, Islamic Republic of"},{"value":"IQ","title":"Iraq"},{"value":"IE","title":"Ireland"},{"value":"IM","title":"Isle of Man"},{"value":"IL","title":"Israel"},{"value":"IT","title":"Italy"},{"value":"CI","title":"Ivory Coast"},{"value":"JM","title":"Jamaica"},{"value":"JP","title":"Japan"},{"value":"JE","title":"Jersey"},{"value":"JO","title":"Jordan"},{"value":"KZ","title":"Kazakhstan"},{"value":"KE","title":"Kenya"},{"value":"KI","title":"Kiribati"},{"value":"KV","title":"Kosovo"},{"value":"KW","title":"Kuwait"},{"value":"KG","title":"Kyrghyz Republic"},{"value":"LA","title":"Laos"},{"value":"LV","title":"Latvia"},{"value":"LB","title":"Lebanon"},{"value":"LS","title":"Lesotho"},{"value":"LR","title":"Liberia"},{"value":"LY","title":"Libya"},{"value":"LI","title":"Liechtenstein"},{"value":"LT","title":"Lithuania"},{"value":"LU","title":"Luxembourg"},{"value":"MO","title":"Macau"},{"value":"MK","title":"Macedonia"},{"value":"MG","title":"Madagascar"},{"value":"MW","title":"Malawi"},{"value":"MY","title":"Malaysia"},{"value":"MV","title":"Maldives"},{"value":"ML","title":"Mali"},{"value":"MT","title":"Malta"},{"value":"MH","title":"Marshall Islands"},{"value":"MQ","title":"Martinique"},{"value":"MR","title":"Mauritania"},{"value":"MU","title":"Mauritius"},{"value":"YT","title":"Mayotte"},{"value":"MX","title":"Mexico"},{"value":"FM","title":"Micronesia"},{"value":"MD","title":"Moldova"},{"value":"MC","title":"Monaco"},{"value":"MN","title":"Mongolia"},{"value":"ME","title":"Montenegro"},{"value":"MS","title":"Montserrat"},{"value":"MA","title":"Morocco"},{"value":"MZ","title":"Mozambique"},{"value":"MM","title":"Myanmar"},{"value":"NA","title":"Namibia"},{"value":"NR","title":"Nauru"},{"value":"NP","title":"Nepal"},{"value":"NL","title":"Netherlands"},{"value":"NC","title":"New Caledonia"},{"value":"NZ","title":"New Zealand"},{"value":"NI","title":"Nicaragua"},{"value":"NE","title":"Niger"},{"value":"NG","title":"Nigeria"},{"value":"NU","title":"Niue"},{"value":"NF","title":"Norfolk Island"},{"value":"KP","title":"North Korea"},{"value":"MP","title":"Northern Mariana Islands"},{"value":"NO","title":"Norway"},{"value":"OM","title":"Oman"},{"value":"PK","title":"Pakistan"},{"value":"PW","title":"Palau"},{"value":"PS","title":"Palestinian Authority"},{"value":"PA","title":"Panama"},{"value":"PG","title":"Papua New Guinea"},{"value":"PY","title":"Paraguay"},{"value":"PE","title":"Peru"},{"value":"PH","title":"Philippines"},{"value":"PN","title":"Pitcairn"},{"value":"PL","title":"Poland"},{"value":"PT","title":"Portugal"},{"value":"PR","title":"Puerto Rico"},{"value":"QA","title":"Qatar"},{"value":"RE","title":"Reunion Island"},{"value":"RO","title":"Romania"},{"value":"RU","title":"Russia"},{"value":"RW","title":"Rwanda"},{"value":"BL","title":"Saint Barthelemy"},{"value":"SH","title":"Saint Helena, Ascension and Tristan da Cunha"},{"value":"KN","title":"Saint Kitts And Nevis"},{"value":"LC","title":"Saint Lucia"},{"value":"PM","title":"Saint Pierre and Miquelon"},{"value":"VC","title":"Saint Vincent and The Grenadines"},{"value":"WS","title":"Samoa"},{"value":"SM","title":"San Marino"},{"value":"ST","title":"Sao Tome and Principe"},{"value":"SA","title":"Saudi Arabia"},{"value":"SN","title":"Senegal"},{"value":"YU","title":"Serbia"},{"value":"SC","title":"Seychelles"},{"value":"SL","title":"Sierra Leone"},{"value":"SG","title":"Singapore"},{"value":"SK","title":"Slovakia"},{"value":"SI","title":"Slovenia"},{"value":"SB","title":"Solomon Islands"},{"value":"SO","title":"Somalia"},{"value":"XA","title":"Somaliland"},{"value":"ZA","title":"South Africa"},{"value":"GS","title":"South Georgia and the South Sandwich Islands"},{"value":"KR","title":"South Korea"},{"value":"SS","title":"South Sudan"},{"value":"ES","title":"Spain"},{"value":"LK","title":"Sri Lanka"},{"value":"SX","title":"St. Maarten"},{"value":"MF","title":"St. Martin"},{"value":"SD","title":"Sudan"},{"value":"SR","title":"Suriname"},{"value":"SJ","title":"Svalbard and Jan Mayen"},{"value":"SZ","title":"Swaziland"},{"value":"SE","title":"Sweden"},{"value":"CH","title":"Switzerland"},{"value":"SY","title":"Syria"},{"value":"TW","title":"Taiwan"},{"value":"TJ","title":"Tajikistan"},{"value":"TZ","title":"Tanzania"},{"value":"TH","title":"Thailand"},{"value":"TG","title":"Togo"},{"value":"TK","title":"Tokelau"},{"value":"TO","title":"Tonga"},{"value":"TT","title":"Trinidad and Tobago"},{"value":"TN","title":"Tunisia"},{"value":"TR","title":"Turkey"},{"value":"TM","title":"Turkmenistan"},{"value":"TC","title":"Turks and Caicos Islands"},{"value":"TV","title":"Tuvalu"},{"value":"UG","title":"Uganda"},{"value":"UA","title":"Ukraine"},{"value":"AE","title":"United Arab Emirates"},{"value":"GB","title":"United Kingdom"},{"value":"US","title":"United States"},{"value":"UM","title":"United States Minor Outlying Islands"},{"value":"UY","title":"Uruguay"},{"value":"UZ","title":"Uzbekistan"},{"value":"VU","title":"Vanuatu"},{"value":"VE","title":"Venezuela"},{"value":"VN","title":"Vietnam"},{"value":"VI","title":"Virgin Islands (U.S.)"},{"value":"WF","title":"Wallis and Futuna"},{"value":"EH","title":"Western Sahara"},{"value":"YE","title":"Yemen"},{"value":"ZM","title":"Zambia"},{"value":"ZW","title":"Zimbabwe"}]}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"086ee5443762ebceea49ddcedf989ad56bc4757b8f242cb62bd5fac4c9943d16","form_id":"web/sign_up/address","item_id":"street1","data":{"email":"alex.mywu.qa@gmail.com","phone":{"type":"mob","number":"711111111","country_code":"380"},"country":"AE","street1":"dsfsf"}}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE"},"timeout":900,"limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"auth":false,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/sign_up","page_name":"/sign_up/address","marketing_opt-in":"false","logged_in":"false","TransactionID":""},"_time_zone":120},"data":[{"type":"set","item_id":"area","form_id":"web/sign_up/address","field":"error","data":false},{"type":"set","item_id":"street1","form_id":"web/sign_up/address","field":"error","data":false},{"type":"set","item_id":"street2","form_id":"web/sign_up/address","field":"error","data":false}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"086ee5443762ebceea49ddcedf989ad56bc4757b8f242cb62bd5fac4c9943d16","form_id":"web/sign_up/address","item_id":"emirate","data":{"email":"alex.mywu.qa@gmail.com","phone":{"type":"mob","number":"711111111","country_code":"380"},"country":"AE","street1":"dsfsf"}}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE"},"timeout":900,"limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"auth":false,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/sign_up","page_name":"/sign_up/address","marketing_opt-in":"false","logged_in":"false","TransactionID":""},"_time_zone":120},"data":[{"type":"resp","data":[{"value":"Abu Dhabi","title":"Abu Dhabi"},{"value":"Ajman","title":"Ajman"},{"value":"Dubai","title":"Dubai"},{"value":"Fujairah","title":"Fujairah"},{"value":"Ras Al Khaimah","title":"Ras Al Khaimah"},{"value":"Sharjah","title":"Sharjah"},{"value":"Umm Al Quwain","title":"Umm Al Quwain"}]},{"type":"set","item_id":"area","form_id":"web/sign_up/address","field":"visibility","data":"visible"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"086ee5443762ebceea49ddcedf989ad56bc4757b8f242cb62bd5fac4c9943d16","form_id":"web/sign_up/address","item_id":"area","data":{"email":"alex.mywu.qa@gmail.com","phone":{"type":"mob","number":"711111111","country_code":"380"},"country":"AE","street1":"dsfsf","emirate":"Ajman"}}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE"},"timeout":900,"limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"auth":false,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/sign_up","page_name":"/sign_up/address","marketing_opt-in":"false","logged_in":"false","TransactionID":""},"_time_zone":120},"data":[{"type":"resp","data":[{"value":"Ajman City","title":"Ajman City"},{"value":"Ajman Free Zone","title":"Ajman Free Zone"},{"value":"Ajman Port","title":"Ajman Port"},{"value":"Al Ameera village","title":"Al Ameera village"},{"value":"Al Bustan","title":"Al Bustan"},{"value":"Al Butain","title":"Al Butain"},{"value":"Al Dhran","title":"Al Dhran"},{"value":"Al Hamidiyah","title":"Al Hamidiyah"},{"value":"Al Hamriya","title":"Al Hamriya"},{"value":"Al Helio","title":"Al Helio"},{"value":"Al Jarif","title":"Al Jarif"},{"value":"Al Jurf","title":"Al Jurf"},{"value":"Al Muntazi","title":"Al Muntazi"},{"value":"Al Mushairef","title":"Al Mushairef"},{"value":"Al Muwayhat","title":"Al Muwayhat"},{"value":"Al Naemiyah","title":"Al Naemiyah"},{"value":"Al Nakhil","title":"Al Nakhil"},{"value":"Al Naseem","title":"Al Naseem"},{"value":"Al Owan","title":"Al Owan"},{"value":"Al ramila","title":"Al ramila"},{"value":"Al Rashdiyah","title":"Al Rashdiyah"},{"value":"Al Rifaah","title":"Al Rifaah"},{"value":"Al Rowdha","title":"Al Rowdha"},{"value":"Al Rumailah","title":"Al Rumailah"},{"value":"Al Sawan","title":"Al Sawan"},{"value":"Al Zahra","title":"Al Zahra"},{"value":"Awali City","title":"Awali City"},{"value":"Green City","title":"Green City"},{"value":"Hadhf","title":"Hadhf"},{"value":"Khor","title":"Khor"},{"value":"Ma'ali","title":"Ma'ali"},{"value":"Manama","title":"Manama"},{"value":"Marina","title":"Marina"},{"value":"Marmooka City","title":"Marmooka City"},{"value":"Masfout","title":"Masfout"},{"value":"Mazeria","title":"Mazeria"},{"value":"Safia Island","title":"Safia Island"}]}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"086ee5443762ebceea49ddcedf989ad56bc4757b8f242cb62bd5fac4c9943d16","id":"web/sign_up/address","data":{"email":"alex.mywu.qa@gmail.com","phone":{"type":"mob","number":"711111111","country_code":"380"},"country":"AE","street1":"dsfsf","emirate":"Ajman","area":"Ajman City","zip_code":"34534","button":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE"},"timeout":900,"limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"auth":false,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/sign_up/address","page_name":"/sign_up/address","marketing_opt-in":"false","logged_in":"false","TransactionID":""},"_time_zone":120},"data":{"next_page":"web/sign_up/password","grid":{"type":"one_column","header":"HeaderSend","extra":{"steper":{"value":3,"items":[{"title":"Profile"},{"title":"Contacts"},{"title":"Privacy"}]}},"components":{"center":["web/sign_up/password"]}},"forms":[{"type":"body","title":"Privacy","sections":[{"header":[{"value":"Other details","id":"label_27329","class":"label"}],"footer":[],"content":[{"visibility":"visible","title":"Security question","required":true,"options":[{"value":"Where did you spend childhood summers?","title":"Where did you spend childhood summers?"},{"value":"What is your favorite pet's name?","title":"What is your favorite pet's name?"},{"value":"What is your mother's maiden name?","title":"What is your mother's maiden name?"},{"value":"What street did you grow up on?","title":"What street did you grow up on?"},{"value":"What is your best friend's name?","title":"What is your best friend's name?"},{"value":"What is your favorite hobby?","title":"What is your favorite hobby?"},{"value":"What is your favorite movie?","title":"What is your favorite movie?"},{"value":"What is your place of birth?","title":"What is your place of birth?"},{"value":"What is your favorite TV show?","title":"What is your favorite TV show?"},{"value":"What is your favorite teacher's name?","title":"What is your favorite teacher's name?"},{"value":"What is your high school mascot?","title":"What is your high school mascot?"}],"id":"question","class":"select"},{"visibility":"visible","value":"","type":"text","title":"Answer","required":true,"regexp":"^[a-zA-Z0-9\\s]{1,30}$","id":"answer","error_msg":"Please enter answer","class":"edit"}]},{"header":[{"value":"Password","id":"label_27329","class":"label"}],"footer":[{"title":"I agree to the [url=https://www.westernunion.com/ae/en/legal/terms-conditions.html  ]Western Union terms of service[/url] and [url=https://www.westernunion.com/ae/en/legal/privacy-statement.html]online privacy statement[/url].","required":true,"regexp":"^(true)$","id":"i_agree","error_msg":"Mandatory field","class":"check","actions":[]},{"title":"I would like to enroll in the My WU program, and earn rewards and experience a higher level of customer service. I agree to the [url=https://cdn.mywu.com/corp/terms/UAE_MY-WU_TC-20160711_VERSION-1_EN.pdf]My WU Membership terms and conditions[/url] and [url=https://westernunion.com/content/wucom/global/en/privacy-statement.html]online privacy statement[/url], and I expressly consent to receiving information by mail and electronic means, including email, phone, SMS/MMS and online messages including via social media about products and services from Western Union and selected partners. Standard message and data rates may apply for SMS/MMS. I understand that I can cancel or change this consent at any time as stated in the My WU Terms and Conditions. [br][b]If you already have a My WU number, you can link it to your profile after your profile is [url=https://www.westernunion.com/ae/en/frequently-asked-questions.html#faq-identification-process-Q2]verified[/url].[/b]","required":false,"regexp":"^(true|false)$","id":"i_enroll","class":"check","actions":[{"oper":"toggleEnabled","items":["expander_3","mywu"]}]},{"title":"Keep me up to date with new Western Union services and other special offers. Communications may be by text, email, phone and post. I can edit these settings anytime in my profile.","required":false,"regexp":"^(true|false)$","id":"keep","class":"check"},{"visibility":"visible","value":"submit","type":"submit","title":"Next","id":"button","extra":{"validate":false},"class":"button"},{"value":"cancel","type":"cancel","title":"Cancel","id":"button_cancel","class":"button"}],"content":[{"visibility":"visible","title":"password_title","required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","options":[{"title":"8-16 characters","regexp":"^.{8,16}$"},{"title":"1 lowercase letter","regexp":".*[a-z].*"},{"title":"1 UPPERCASE letter","regexp":".*[A-Z].*"},{"title":"1 number character","regexp":".*[0-9].*"},{"title":"1 special character","regexp":".*[ !#$%&amp;'\\(\\)*+,-./:;&lt;=&gt;?@\\[\\]\\^_`{|}~].*"}],"id":"password","extra":{"title2":"Confirm password","title1":"Password"},"class":"password"}]}],"object_id":"profile","id":"web/sign_up/password"}]},"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"086ee5443762ebceea49ddcedf989ad56bc4757b8f242cb62bd5fac4c9943d16","page":"web/sign_up/password"}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE"},"timeout":900,"limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"auth":false,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/sign_up/address","page_name":"/sign_up/password","marketing_opt-in":"false","logged_in":"false","TransactionID":""},"_time_zone":120},"data":{"next_page":"web/sign_up/password","grid":{"type":"one_column","header":"HeaderSend","extra":{"steper":{"value":3,"items":[{"title":"Profile"},{"title":"Contacts"},{"title":"Privacy"}]}},"components":{"center":["web/sign_up/password"]}},"forms":[{"type":"body","title":"Privacy","sections":[{"header":[{"value":"Other details","id":"label_27329","class":"label"}],"footer":[],"content":[{"visibility":"visible","title":"Security question","required":true,"options":[{"value":"Where did you spend childhood summers?","title":"Where did you spend childhood summers?"},{"value":"What is your favorite pet's name?","title":"What is your favorite pet's name?"},{"value":"What is your mother's maiden name?","title":"What is your mother's maiden name?"},{"value":"What street did you grow up on?","title":"What street did you grow up on?"},{"value":"What is your best friend's name?","title":"What is your best friend's name?"},{"value":"What is your favorite hobby?","title":"What is your favorite hobby?"},{"value":"What is your favorite movie?","title":"What is your favorite movie?"},{"value":"What is your place of birth?","title":"What is your place of birth?"},{"value":"What is your favorite TV show?","title":"What is your favorite TV show?"},{"value":"What is your favorite teacher's name?","title":"What is your favorite teacher's name?"},{"value":"What is your high school mascot?","title":"What is your high school mascot?"}],"id":"question","class":"select"},{"visibility":"visible","value":"","type":"text","title":"Answer","required":true,"regexp":"^[a-zA-Z0-9\\s]{1,30}$","id":"answer","error_msg":"Please enter answer","class":"edit"}]},{"header":[{"value":"Password","id":"label_27329","class":"label"}],"footer":[{"title":"I agree to the [url=https://www.westernunion.com/ae/en/legal/terms-conditions.html  ]Western Union terms of service[/url] and [url=https://www.westernunion.com/ae/en/legal/privacy-statement.html]online privacy statement[/url].","required":true,"regexp":"^(true)$","id":"i_agree","error_msg":"Mandatory field","class":"check","actions":[]},{"title":"I would like to enroll in the My WU program, and earn rewards and experience a higher level of customer service. I agree to the [url=https://cdn.mywu.com/corp/terms/UAE_MY-WU_TC-20160711_VERSION-1_EN.pdf]My WU Membership terms and conditions[/url] and [url=https://westernunion.com/content/wucom/global/en/privacy-statement.html]online privacy statement[/url], and I expressly consent to receiving information by mail and electronic means, including email, phone, SMS/MMS and online messages including via social media about products and services from Western Union and selected partners. Standard message and data rates may apply for SMS/MMS. I understand that I can cancel or change this consent at any time as stated in the My WU Terms and Conditions. [br][b]If you already have a My WU number, you can link it to your profile after your profile is [url=https://www.westernunion.com/ae/en/frequently-asked-questions.html#faq-identification-process-Q2]verified[/url].[/b]","required":false,"regexp":"^(true|false)$","id":"i_enroll","class":"check","actions":[{"oper":"toggleEnabled","items":["expander_3","mywu"]}]},{"title":"Keep me up to date with new Western Union services and other special offers. Communications may be by text, email, phone and post. I can edit these settings anytime in my profile.","required":false,"regexp":"^(true|false)$","id":"keep","class":"check"},{"visibility":"visible","value":"submit","type":"submit","title":"Next","id":"button","extra":{"validate":false},"class":"button"},{"value":"cancel","type":"cancel","title":"Cancel","id":"button_cancel","class":"button"}],"content":[{"visibility":"visible","title":"password_title","required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","options":[{"title":"8-16 characters","regexp":"^.{8,16}$"},{"title":"1 lowercase letter","regexp":".*[a-z].*"},{"title":"1 UPPERCASE letter","regexp":".*[A-Z].*"},{"title":"1 number character","regexp":".*[0-9].*"},{"title":"1 special character","regexp":".*[ !#$%&amp;'\\(\\)*+,-./:;&lt;=&gt;?@\\[\\]\\^_`{|}~].*"}],"id":"password","extra":{"title2":"Confirm password","title1":"Password"},"class":"password"}]}],"object_id":"profile","id":"web/sign_up/password"}]},"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"086ee5443762ebceea49ddcedf989ad56bc4757b8f242cb62bd5fac4c9943d16","id":"web/sign_up/password","data":{"question":"Where did you spend childhood summers?","answer":"strike","password":"Password_01","i_agree":true,"i_enroll":true,"keep":true,"button":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE"},"timeout":900,"limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"events":{"kochava":[{"event_key":"SIGNUP COMPLETED","data":{"app_version":"1.144.0","ACCOUNT_ID":41601}}]},"auth":false,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/sign_up/password","phone_verified":"false","page_name":"/sign_up/password","marketing_opt-in":"true","logged_in":"false","account_verified":"false","account_id":41601,"TransactionID":""},"_time_zone":120},"error_msg":[{"type":"warning","id":"web/sign_up/done","error_msg":"We’re sorry but your My WU[sup]SM[/sup] enrollment or request to add your existing My WU account was not successful. Once logged in, please make sure that you are using a unique email address for enrollment. If you want to use an existing My WU account, make sure that your First name, Last name and Phone number match your existing My WU account. If any assistance is needed, please call Customer Care on 8000-3570-4469."}],"data":{"next_page":"web/sign_up/done","grid":{"type":"one_column","header":"HeaderLogin","components":{"center":["web/sign_up/done"]}},"forms":[{"type":"body","title":"You’re almost done!","sections":[{"header":[],"footer":[{"visibility":"visible","value":"log_in","type":"submit","title":"Log In","id":"button_log_in","class":"button"},{"value":"[b]Note[/b]: Always check the address bar of any page asking for your username or password to make sure it can be trusted. Western Union will never ask for your username or password in an email, and you should never disclose personal information such as your sign-in credentials, bank information, or credit card number over email.","id":"label_33624","class":"label"}],"content":[{"value":"We've sent a verification link to your email. Please click it to complete the registration process. If you haven't yet received the email, please check your spam and junk mail folder or we can re-send the link again.","id":"label_8618","class":"label"},{"visibility":"visible","value":"re_send","type":"submit","title":"Re-send link","id":"button_re_send","class":"button"}]}],"id":"web/sign_up/done"}]},"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"086ee5443762ebceea49ddcedf989ad56bc4757b8f242cb62bd5fac4c9943d16","page":"web/sign_up/done"}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE"},"timeout":900,"limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"auth":false,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/sign_up/password","phone_verified":"false","page_name":"/sign_up/done","marketing_opt-in":"true","logged_in":"false","account_verified":"false","account_id":41601,"TransactionID":""},"_time_zone":120},"error_msg":[{"type":"warning","id":"web/sign_up/done","error_msg":"We’re sorry but your My WU[sup]SM[/sup] enrollment or request to add your existing My WU account was not successful. Once logged in, please make sure that you are using a unique email address for enrollment. If you want to use an existing My WU account, make sure that your First name, Last name and Phone number match your existing My WU account. If any assistance is needed, please call Customer Care on 8000-3570-4469."}],"data":{"next_page":"web/sign_up/done","grid":{"type":"one_column","header":"HeaderLogin","components":{"center":["web/sign_up/done"]}},"forms":[{"type":"body","title":"You’re almost done!","sections":[{"header":[],"footer":[{"visibility":"visible","value":"log_in","type":"submit","title":"Log In","id":"button_log_in","class":"button"},{"value":"[b]Note[/b]: Always check the address bar of any page asking for your username or password to make sure it can be trusted. Western Union will never ask for your username or password in an email, and you should never disclose personal information such as your sign-in credentials, bank information, or credit card number over email.","id":"label_33624","class":"label"}],"content":[{"value":"We've sent a verification link to your email. Please click it to complete the registration process. If you haven't yet received the email, please check your spam and junk mail folder or we can re-send the link again.","id":"label_8618","class":"label"},{"visibility":"visible","value":"re_send","type":"submit","title":"Re-send link","id":"button_re_send","class":"button"}]}],"id":"web/sign_up/done"}]},"code":0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"object_id" : "profile","name_key" : "email","name_value": "alex.mywu.qa@gmail.com","key":"email_verified","val": "true"}
+</t>
+  </si>
+  <si>
+    <t>{"val":false,"status":"ok","new_val":"true"}</t>
+  </si>
+  <si>
+    <t>{"object_id" : "profile","name_key" : "email","name_value": "alex.mywu.qa@gmail.com","key":"verified_channel","val": "F2F KYC"}</t>
+  </si>
+  <si>
+    <t>{"val":null,"status":"ok","new_val":"F2F KYC"}</t>
+  </si>
+  <si>
+    <t>{"translations":{"hold_title":"Online Payment Confirmation","card_JM":"Credit/debit card","wu_ios":"Western Union IOS App","card_ending_in":"","find_location":"Find Locations","relationship_to_receiver":"Relationship to receiver","est_total":"Estimated total to receiver","source":"Source of funds","mywu_rewards":"My WU Rewards","success_info_JM":"Your online payment was accepted. To pick up the money {first_name} {middle_name} {last_name} will have to bring a government-issued photo ID and tracking number (MTCN) {mtcn} to any Western Union location in the expected payout area. If you require more information, please email {email} or call us at {phone}","beneficiar":"Beneficiary's code","success_message":"{payProcessor} payment was successful - your money has been sent","pay_by":"Payment by","payment":"Payment","nf_title":"This is not the page you are looking for","yes":"Yes","knet_ref":"Ref. No.","money_avaliable":"Money available","title":"Payment Details","reject_name":"Dear, {first_name} {last_name}","review":"Review","knet_date":"Date","td_details_JM":"Payment details","add_info":"Additional information","november":"November","no_history":"No transactions yet","total":"Total","customer_support":"Customer Support","cash_agent":"Cash","account_not_verified":"Dear Customer, In order to make an online transaction, we will have to verify your profile identity. Please visit one of [url=https://www.westernunion.com/ae/en/contact-us.html#verificationlocations]Al Fardan exchange locations[/url] and have a valid Identity document with you","reject_message":"Your money transfer was rejected","view_receipt":"View receipt","details_send":"Sending details","month":"Month","amount":"Transfer amount","serviceInMin":"Service: In minutes","send_money":"Send Money","promocode":"Promocode","exp_expires":"Session expires in:","tax":"Tax (GCT)","year":"Year","card_AE":"Real Time Account Debit","receive_amount":"Receive amount","account_overview":"History","card_CI":"Direct debit","hold_name":"Dear, {first_name} {last_name}","success_message_JM":"Payment was successful - your money has been sent","phone_num":"Phone number","greet":"Thank you for being My WU member. Send money with Western Union online now and earn points for eligible transactions. You can use your points to redeem up ... fee discount for your transactions!","free_google_app":"FREE - In Google App","summary_review":"Summary","exchange_wu":"WU Payout rate","wu_aos":"Western Union Android App","receipt":"This is not a receipt","exp_message":"As a security precaution, session end after 15 minutes of inactivity. Click OK to continue your current session.","received_from":"Received from","top_corridors":"Frequently selected countries","total_points":"Total points","menu":"Menu","not_member":"You are not a member yet","october":"October","trans_hist":"Transaction history","success_info":"Your Online payment is complete. To pick up the money {first_name} {middle_name} {last_name} will have to bring a government-issued photo ID and tracking number (MTCN) {mtcn} to any Western Union location in the expected payout area. If you require more information, please email {email} or call us at {phone}, please check with your carrier for charges and local rates.","open_receipt":"Receipt","security_code":"Security Code","send_to":"Sending money to","progress_title":"Your Receipt","td_ref":"Ref. No.","get_app":"Get App","exp_title":"Your session will expire soon","april":"April","partners_text_KW":"This service is offered through","points_redeem":"Redeem points","td_amount":"Amount","reject_info":"Your transaction was rejected. We apologize for the inconvenience. For further information, please email wu.support@alfardanexchange.com or call us at 800 736398 or 800 SENDWU, please check with your carrier for charges and local rates.","partners_text_JM":"This service is offered through","partners_licensed_bh":"Licensed and Regulated by Central Bank of Bahrain","december":"December","partners_licensed":"42-56 Harbour Street, Downtown, Kingston, Jamaica West Indies","debit_card_JM":"Credit/debit card","relation":"Relationship to receiver","january":"January","knet_p_amount":"Amount","county_tax":"TTHU","method_pay":"Payment method","otp_code":"Code","partners_text_BH":"This service is offered through","verified":"Profile verified","country_code":"Country code","knet_status":"Status","general_consumption":"General Consumption","edit":"Edit Profile","trans_fee":"WU Transfer fee","delete":"Delete","delivery":"Delivery method","nf_desc":"Sorry, unless you really were hoping to find our 404 message, the page you were looking for has been moved or deleted. You can get back to safety using one of these links","march":"March","success_title":"Your Receipt","slogan":"My world. My way.","phone_error_msg":"Phone number","td_pay_code":"Response code","estimate":"Estimate","td_status":"Status","apn_success_info":"If you require more information, please email {email} or call us at {phone}, Please check with your carrier for charges and local rates.","sign_out":"Sign out","points_title":"Available My WU points:","success_message_apn":"Your money is on its way","show":"show","subtitle":"Click \"PRINT\" to retain a copy of your receipt","nf_home":"Home Page","no":"No","gold_card":"[b]Gold Card[/b] program - now [b]My WU[/b], with all the same benefits","edit_resend":"Edit &amp; resend","receivers_amount":"Receivers amount","req":"Password Requirements","method_delivery":"Delivery method","my_receivers":"My Receivers","track_no":"Tracking No (MTCN)","share_mtcn":"Share MTCN","continue_to_review":"Continue to review","edit_KW":"View Profile","in_min":"In minutes","trans_amount":"Transfer amount","estimated_receive_amount":"Estimated receive amount","copyright":"Western Union Holdings, Inc. All Rights Reserved","june":"June","details_receive":"Receiving details","status":"Status","payment_id":"Payment ID","money_sent_to":"Money sent to","show_details":"Show details","location":"Payout location","exchange":"Exchange rate","editReceiver":"Edit","service":"Service","hi":"Hi","recipient":"Recipient","progress_subtitle":"Click \"PRINT\" to retain a copy of your receipt","register":"Register","discount":"Promotional discount","phone_no_verify":"Your telephone numberis still not verified.","td_pid":"Payment ID","success_info_apn":"If you require more information, please email wu.support@alfardanexchange.com or call us at 800 736398 or 800 SENDWU.","card_num":"Card number","track_num":"Tracking number","resend_amount":"Resend amount","card":"Debit card","add_new_receiver":"Add a new receiver","free_ios_app":"FREE - In App Sore","debit_card_AE":"Direct debit (UAE PGS)","send_amount":"Send amount","time":"Delivery time","mtcn":"MTCN","alert_remove_receiver":"Are you sure you want to delete this receiver?","estimated_exchange":"Estimated exchange rate","td_date":"Date","online_receipt":"Online Receipt","nf_care":"Customer Care","since":"Member since:","hide_details":"Hide details","hide":"hide","august":"August","date":"Date","estimate_price":"Estimate Price","hold_subtitle":"Click \"PRINT\" to retain a copy of your receipt","cash_at_loc":"Cash1","apn_success_message":"Your money is on its way","max_image_size":"File size can't exceed ","security_code_hint":"These are the last 3 digits on the back of you card","mywu_title":"My WU number:","print":"Print","login":"Log In","sending_money_to":"Sending money to:","fee":"In minutes, fee:","february":"February","mob_phone":"Mobile phone","july":"July","track_transf":"Track Transfer","profile_overview":"Profile","sent_to":"Sent to","may":"May","conv_fee":"Convenience fee","nf_send":"Send Money","td_details":"{payProcessor} transfer details","min_image_size":"File size can't be less ","limits_title":"Your current limits:","alert_info":"You will see important alerts and notifications here.","receive_as":"Money received as","pick_up":"Pick up cash","show_full_history":"Show full history","knet_pid":"Payment ID","card_info":"Accepted credit/debit card types:","send_code":"Send Code","point_earned":"Point earned","summary":"Your summary","success_name":"Dear, {first_name} {last_name}","september":"September","day":"Day","debit_card":"Credit/Debit Card","not_verified":"Profile not verified","partners_text":"This service is offered through","state_tax":"VAT","no_hist":"Your transaction history will appear here.","td_details_AE":"{payProcessor} PAYMENT DETAILS","success_subtitle":"Click \"PRINT\" to retain a copy of your receipt","card_expire":"","receiver":"Receiver","sign_up":"Sign up","not_selected":"Not selected","verify_code":"Verify Code","terms_of_profile_creation":"Terms of profile creation","history":"History","knet_details":"Al Fardan exchange transfer details","card_error":"We're sorry, but the card details you have entered is invalid. Please check your card details and try again. Only cards issued in UAE are allowed.","redeem_points":"Redeem points now","purpose":"Purpose of transaction"},"status":"ok","sessionData":{"user":{"currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE"},"timeout":900,"limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"events":{"braze":[{"event_key":"LAUNCHED","data":{"Language App":"en","Country From":"ae"}}]},"auth":false,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"","page_name":"/log_in","marketing_opt-in":"false","logged_in":"false","TransactionID":""},"_time_zone":120},"deviceKey":"6614e3cc1617abae3bfa56c09c7cb4b509951191f5c4548c052197736d913317","data":{"terms":"https://www.westernunion.com/ae/en/legal/terms-conditions.html","privacy":"https://www.westernunion.com/ae/en/legal/privacy-statement.html","extra":{"translations":{"hold_title":"Online Payment Confirmation","card_JM":"Credit/debit card","wu_ios":"Western Union IOS App","card_ending_in":"","find_location":"Find Locations","relationship_to_receiver":"Relationship to receiver","est_total":"Estimated total to receiver","source":"Source of funds","mywu_rewards":"My WU Rewards","success_info_JM":"Your online payment was accepted. To pick up the money {first_name} {middle_name} {last_name} will have to bring a government-issued photo ID and tracking number (MTCN) {mtcn} to any Western Union location in the expected payout area. If you require more information, please email {email} or call us at {phone}","beneficiar":"Beneficiary's code","success_message":"{payProcessor} payment was successful - your money has been sent","pay_by":"Payment by","payment":"Payment","nf_title":"This is not the page you are looking for","yes":"Yes","knet_ref":"Ref. No.","money_avaliable":"Money available","title":"Payment Details","reject_name":"Dear, {first_name} {last_name}","review":"Review","knet_date":"Date","td_details_JM":"Payment details","add_info":"Additional information","november":"November","no_history":"No transactions yet","total":"Total","customer_support":"Customer Support","cash_agent":"Cash","account_not_verified":"Dear Customer, In order to make an online transaction, we will have to verify your profile identity. Please visit one of [url=https://www.westernunion.com/ae/en/contact-us.html#verificationlocations]Al Fardan exchange locations[/url] and have a valid Identity document with you","reject_message":"Your money transfer was rejected","view_receipt":"View receipt","details_send":"Sending details","month":"Month","amount":"Transfer amount","serviceInMin":"Service: In minutes","send_money":"Send Money","promocode":"Promocode","exp_expires":"Session expires in:","tax":"Tax (GCT)","year":"Year","card_AE":"Real Time Account Debit","receive_amount":"Receive amount","account_overview":"History","card_CI":"Direct debit","hold_name":"Dear, {first_name} {last_name}","success_message_JM":"Payment was successful - your money has been sent","phone_num":"Phone number","greet":"Thank you for being My WU member. Send money with Western Union online now and earn points for eligible transactions. You can use your points to redeem up ... fee discount for your transactions!","free_google_app":"FREE - In Google App","summary_review":"Summary","exchange_wu":"WU Payout rate","wu_aos":"Western Union Android App","receipt":"This is not a receipt","exp_message":"As a security precaution, session end after 15 minutes of inactivity. Click OK to continue your current session.","received_from":"Received from","top_corridors":"Frequently selected countries","total_points":"Total points","menu":"Menu","not_member":"You are not a member yet","october":"October","trans_hist":"Transaction history","success_info":"Your Online payment is complete. To pick up the money {first_name} {middle_name} {last_name} will have to bring a government-issued photo ID and tracking number (MTCN) {mtcn} to any Western Union location in the expected payout area. If you require more information, please email {email} or call us at {phone}, please check with your carrier for charges and local rates.","open_receipt":"Receipt","security_code":"Security Code","send_to":"Sending money to","progress_title":"Your Receipt","td_ref":"Ref. No.","get_app":"Get App","exp_title":"Your session will expire soon","april":"April","partners_text_KW":"This service is offered through","points_redeem":"Redeem points","td_amount":"Amount","reject_info":"Your transaction was rejected. We apologize for the inconvenience. For further information, please email wu.support@alfardanexchange.com or call us at 800 736398 or 800 SENDWU, please check with your carrier for charges and local rates.","partners_text_JM":"This service is offered through","partners_licensed_bh":"Licensed and Regulated by Central Bank of Bahrain","december":"December","partners_licensed":"42-56 Harbour Street, Downtown, Kingston, Jamaica West Indies","debit_card_JM":"Credit/debit card","relation":"Relationship to receiver","january":"January","knet_p_amount":"Amount","county_tax":"TTHU","method_pay":"Payment method","otp_code":"Code","partners_text_BH":"This service is offered through","verified":"Profile verified","country_code":"Country code","knet_status":"Status","general_consumption":"General Consumption","edit":"Edit Profile","trans_fee":"WU Transfer fee","delete":"Delete","delivery":"Delivery method","nf_desc":"Sorry, unless you really were hoping to find our 404 message, the page you were looking for has been moved or deleted. You can get back to safety using one of these links","march":"March","success_title":"Your Receipt","slogan":"My world. My way.","phone_error_msg":"Phone number","td_pay_code":"Response code","estimate":"Estimate","td_status":"Status","apn_success_info":"If you require more information, please email {email} or call us at {phone}, Please check with your carrier for charges and local rates.","sign_out":"Sign out","points_title":"Available My WU points:","success_message_apn":"Your money is on its way","show":"show","subtitle":"Click \"PRINT\" to retain a copy of your receipt","nf_home":"Home Page","no":"No","gold_card":"[b]Gold Card[/b] program - now [b]My WU[/b], with all the same benefits","edit_resend":"Edit &amp; resend","receivers_amount":"Receivers amount","req":"Password Requirements","method_delivery":"Delivery method","my_receivers":"My Receivers","track_no":"Tracking No (MTCN)","share_mtcn":"Share MTCN","continue_to_review":"Continue to review","edit_KW":"View Profile","in_min":"In minutes","trans_amount":"Transfer amount","estimated_receive_amount":"Estimated receive amount","copyright":"Western Union Holdings, Inc. All Rights Reserved","june":"June","details_receive":"Receiving details","status":"Status","payment_id":"Payment ID","money_sent_to":"Money sent to","show_details":"Show details","location":"Payout location","exchange":"Exchange rate","editReceiver":"Edit","service":"Service","hi":"Hi","recipient":"Recipient","progress_subtitle":"Click \"PRINT\" to retain a copy of your receipt","register":"Register","discount":"Promotional discount","phone_no_verify":"Your telephone numberis still not verified.","td_pid":"Payment ID","success_info_apn":"If you require more information, please email wu.support@alfardanexchange.com or call us at 800 736398 or 800 SENDWU.","card_num":"Card number","track_num":"Tracking number","resend_amount":"Resend amount","card":"Debit card","add_new_receiver":"Add a new receiver","free_ios_app":"FREE - In App Sore","debit_card_AE":"Direct debit (UAE PGS)","send_amount":"Send amount","time":"Delivery time","mtcn":"MTCN","alert_remove_receiver":"Are you sure you want to delete this receiver?","estimated_exchange":"Estimated exchange rate","td_date":"Date","online_receipt":"Online Receipt","nf_care":"Customer Care","since":"Member since:","hide_details":"Hide details","hide":"hide","august":"August","date":"Date","estimate_price":"Estimate Price","hold_subtitle":"Click \"PRINT\" to retain a copy of your receipt","cash_at_loc":"Cash1","apn_success_message":"Your money is on its way","max_image_size":"File size can't exceed ","security_code_hint":"These are the last 3 digits on the back of you card","mywu_title":"My WU number:","print":"Print","login":"Log In","sending_money_to":"Sending money to:","fee":"In minutes, fee:","february":"February","mob_phone":"Mobile phone","july":"July","track_transf":"Track Transfer","profile_overview":"Profile","sent_to":"Sent to","may":"May","conv_fee":"Convenience fee","nf_send":"Send Money","td_details":"{payProcessor} transfer details","min_image_size":"File size can't be less ","limits_title":"Your current limits:","alert_info":"You will see important alerts and notifications here.","receive_as":"Money received as","pick_up":"Pick up cash","show_full_history":"Show full history","knet_pid":"Payment ID","card_info":"Accepted credit/debit card types:","send_code":"Send Code","point_earned":"Point earned","summary":"Your summary","success_name":"Dear, {first_name} {last_name}","september":"September","day":"Day","debit_card":"Credit/Debit Card","not_verified":"Profile not verified","partners_text":"This service is offered through","state_tax":"VAT","no_hist":"Your transaction history will appear here.","td_details_AE":"{payProcessor} PAYMENT DETAILS","success_subtitle":"Click \"PRINT\" to retain a copy of your receipt","card_expire":"","receiver":"Receiver","sign_up":"Sign up","not_selected":"Not selected","verify_code":"Verify Code","terms_of_profile_creation":"Terms of profile creation","history":"History","knet_details":"Al Fardan exchange transfer details","card_error":"We're sorry, but the card details you have entered is invalid. Please check your card details and try again. Only cards issued in UAE are allowed.","redeem_points":"Redeem points now","purpose":"Purpose of transaction"},"right_to_left":"false"}},"code":0,"challenge":"41d7cb5c85b52826651a3c7e822723f1784ec16f3c433a37b27fb3040d3f818f"}</t>
+  </si>
+  <si>
+    <t>{"token":"de9997fb46d03dfe061eda9229b5d0ce74b267c1e2ca2fc9d79ebb4bbd5c836f","page":"web/log_in"}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE"},"timeout":900,"limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"auth":false,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"","page_name":"/log_in","marketing_opt-in":"false","logged_in":"false","TransactionID":""},"_time_zone":120},"data":{"next_page":"web/log_in","grid":{"type":"one_column","header":"HeaderStart","components":{"modal":["web/log_in/uae_pass"],"center":["web/log_in"]}},"forms":[{"type":"body","sections":[{"id":"guest","header":[{"visibility":"hidden","value":"Haven't signed up?","class":"label"},{"visibility":"hidden","value":"Continuing as Guest you'll be able to make the payment in more Agent locations","type":"warning","id":"notify_70900","class":"notify"}],"footer":[{"visibility":"hidden","type":"submit","title":"Continue as Guest","id":"button_guest","class":"button"}],"content":[]},{"visibility":"visibility","id":"s_civil_id","header":[{"visibility":"visible","value":"Log In","class":"label"}],"footer":[{"visibility":"visibility","type":"submit","title":"Continue","id":"button_submit","class":"button"},{"visibility":"visible","value":"OR","class":"label","align":"center"},{"visibility":"visible","value":"uaepass","type":"submit","title":"Login With [img]/static/uae_pass.png[/img] UAE PASS","style":{"padding":"10px 20px","color":"#44433d","borderRadius":10,"border":"1px solid #44433d","backgroundColor":"#ffffff"},"id":"uaepass","class":"button","actions":[{"url":"/items/show_uae_pass","oper":"modal"}]}],"content":[{"visibility":"visible","value":"web/sign_up","type":"page","title":"Register","id":"sign_up_link","class":"link"},{"visibility":"visible","type":"email","title":"Login/Email address","required":true,"regexp":"^[-A-Z-a-z0-9!#$%&amp;'*+\\/=?^_`{|}~@]+(?:\\.[-A-Z-a-z0-9!#$%&amp;'*+\\/=?^_`{|}~@]+)*@(?:[a-z0-9]([-a-z0-9]{0,61}[a-z0-9])?\\.)*(?:aero|arpa|asia|biz|cat|com|coop|edu|gov|info|int|jobs|mil|mobi|museum|name|net|org|pro|tel|travel|[a-z][a-z])$","id":"email","icon":"email","error_msg":"Please enter your email address","class":"edit","actions":[]},{"value":"","type":"password","title":"Password","required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","id":"password","icon":"secure","error_msg":"Please check password","class":"edit"},{"visibility":"visible","type":"link","title":"Forgot password?","required":false,"id":"forgot","class":"button","align":"right"}]}],"id":"web/log_in"},{"type":"modal","sections":[{"header":[{"w":5,"url":"/static/uae_pass.png","style":{"height":"60px"},"row":1,"id":"upi_logo","class":"image","align":"right"},{"w":5,"visibility":"visible","value":"[size=20]UAE PASS[/size]","row":1,"id":"uae_pass_title","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"[size=20][b]Redirecting ...[/b][/size]","id":"uae_pass_title_2","class":"label","align":"center"},{"visibility":"visible","value":"We will redirect you to UAE PASS application, where you are required to log in to complete your verification.","id":"uae_pass_title_3","class":"label","align":"center"},{"visibility":"visible","value":"Please make sure to install UAE PASS application in your phone before performing the identification.","id":"uae_pass_title_4","class":"label","align":"center"},{"visibility":"visible","title":"Don’t show me this again","regexp":"^(true|false)$","id":"uae_pass_popup_check","class":"check","align":"center","actions":[{"url":"/items/uae_pass_popup_check","oper":"validate"}]},{"visibility":"visible","type":"submit","title":"Continue","id":"uae_pass_continue","class":"button"}]}],"id":"web/log_in/uae_pass"}]},"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"de9997fb46d03dfe061eda9229b5d0ce74b267c1e2ca2fc9d79ebb4bbd5c836f","id":"web/log_in","data":{"email":"alex.mywu.qa@gmail.com","password":"Password_01","button_submit":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE"},"timeout":900,"limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"auth":false,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"","phone_verified":"false","page_name":"/log_in","otp_sender":"AWS","marketing_opt-in":true,"logged_in":"false","account_verified":"false","account_id":"41601","TransactionID":""},"_time_zone":120},"data":{"next_page":"web/log_in","grid":{"type":"one_column","header":"HeaderStart","components":{"modal":["web/log_in/uae_pass"],"center":["web/log_in"]}},"forms":[{"type":"body","sections":[{"id":"guest","header":[{"visibility":"hidden","value":"Haven't signed up?","class":"label"},{"visibility":"hidden","value":"Continuing as Guest you'll be able to make the payment in more Agent locations","type":"warning","id":"notify_70900","class":"notify"}],"footer":[{"visibility":"hidden","type":"submit","title":"Continue as Guest","id":"button_guest","class":"button"}],"content":[]},{"visibility":"visibility","id":"login_phone","header":[],"footer":[{"value":"log_in","type":"submit","title":"Login","id":"button_login","class":"button"}],"content":[{"visibility":"visible","value":"Please enter the code you will receive via SMS and Email.","title":"label_title","id":"label_otp","class":"label"},{"title":"Code","required":true,"regexp":"^[0-9]{4}$","id":"otp_code","extra":{"validate":false,"disabled":false,"button_title":"Resend Code","api_check":"/items/otp_verification"},"error_msg":"Please check your code and try again. If you have not received an SMS message with your code, use the \"RESEND CODE\" option and try again.","class":"inputButton","button_title":"Send","actions":[{"oper_model":{"value":"log_in","id":"button_login"},"oper":"submit"}]}]}],"id":"web/log_in"},{"type":"modal","sections":[{"header":[{"w":5,"url":"/static/uae_pass.png","style":{"height":"60px"},"row":1,"id":"upi_logo","class":"image","align":"right"},{"w":5,"visibility":"visible","value":"[size=20]UAE PASS[/size]","row":1,"id":"uae_pass_title","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"[size=20][b]Redirecting ...[/b][/size]","id":"uae_pass_title_2","class":"label","align":"center"},{"visibility":"visible","value":"We will redirect you to UAE PASS application, where you are required to log in to complete your verification.","id":"uae_pass_title_3","class":"label","align":"center"},{"visibility":"visible","value":"Please make sure to install UAE PASS application in your phone before performing the identification.","id":"uae_pass_title_4","class":"label","align":"center"},{"visibility":"visible","title":"Don’t show me this again","regexp":"^(true|false)$","id":"uae_pass_popup_check","class":"check","align":"center","actions":[{"url":"/items/uae_pass_popup_check","oper":"validate"}]},{"visibility":"visible","type":"submit","title":"Continue","id":"uae_pass_continue","class":"button"}]}],"id":"web/log_in/uae_pass"}]},"code":0}</t>
+  </si>
+  <si>
+    <t>{"ops":[{"limit":10,"offset":0,"type":"list","obj":"node","conv_id":"50","obj_id":"5f048df609a8af26c1e4f34b"}]}</t>
+  </si>
+  <si>
+    <t>{"request_proc":"ok","ops":[{"id":"","obj":"node","obj_id":"5f048df609a8af26c1e4f34b","count":1310,"proc":"ok","list":[{"obj":"task","obj_id":"5f85b58209a8af531721b5e7","ref":null,"status":"processed","user_id":4,"create_time":1602598274,"change_time":1602598274,"node_prev_id":"5f048df609a8af26c1e4f347","data":{"phone":"380711111111","sys":{"ref":"c9726_n5f842683a4a271122000b7d3_t5f85b581da6fe2436120b270","obj_id":"5f85b581da6fe2436120b271","conv_id":9727,"node_id":"5f842683a4a271122000b814"},"text":"0286 is your Western Union verification code."}},{"obj":"task","obj_id":"5f8598cf09a8af5317218eab","ref":null,"status":"processed","user_id":4,"create_time":1602590927,"change_time":1602590927,"node_prev_id":"5f048df609a8af26c1e4f347","data":{"phone":"380711111111","sys":{"ref":"c9726_n5f842683a4a271122000b7d3_t5f8598ceb8ef636ec61ed226","obj_id":"5f8598ceda6fe24361208e34","conv_id":9727,"node_id":"5f842683a4a271122000b814"},"text":"You are almost done. Finish your profile set up by visiting Orabank location and present a valid Identity document."}},{"obj":"task","obj_id":"5f8598c709a8af5317218e90","ref":null,"status":"processed","user_id":4,"create_time":1602590919,"change_time":1602590919,"node_prev_id":"5f048df609a8af26c1e4f347","data":{"phone":"380711111111","sys":{"ref":"c9726_n5f842683a4a271122000b7d3_t5f8598c6b8ef636ec61ed1ee","obj_id":"5f8598c6da6fe24361208e0f","conv_id":9727,"node_id":"5f842683a4a271122000b814"},"text":"Your Western Union one-time password is 2398"}},{"obj":"task","obj_id":"5f8571ad09a8af531721585f","ref":null,"status":"processed","user_id":4,"create_time":1602580909,"change_time":1602580909,"node_prev_id":"5f048df609a8af26c1e4f347","data":{"phone":"380711111111","sys":{"ref":"c9726_n5f842683a4a271122000b7d3_t5f8571abb8ef636ec61ea793","obj_id":"5f8571abda6fe24361205eb7","conv_id":9727,"node_id":"5f842683a4a271122000b814"},"text":"You are almost done. Make a bank payment within 4 days or it will be cancelled. Payment details will follow in the second SMS."}},{"obj":"task","obj_id":"5f8571ad09a8af5317215862","ref":null,"status":"processed","user_id":4,"create_time":1602580909,"change_time":1602580909,"node_prev_id":"5f048df609a8af26c1e4f347","data":{"phone":"380711111111","sys":{"ref":"c9726_n5f842683a4a271122000b7d3_t5f8571adb8ef636ec61ea7aa","obj_id":"5f8571adda6fe24361205ec3","conv_id":9727,"node_id":"5f842683a4a271122000b814"},"text":"Account name: \nBank name: \nAccount Number: "}},{"obj":"task","obj_id":"5f85717b09a8af531721582b","ref":null,"status":"processed","user_id":4,"create_time":1602580859,"change_time":1602580859,"node_prev_id":"5f048df609a8af26c1e4f347","data":{"phone":"380711111111","sys":{"ref":"c9726_n5f842683a4a271122000b7d3_t5f85717ada6fe24361205e26","obj_id":"5f85717ab8ef636ec61ea6fb","conv_id":9727,"node_id":"5f842683a4a271122000b814"},"text":"You are almost done. Complete your profile set up by visiting locations of CKB bank or Podgoricka bank https://www.westernunion.com/me/en/verification-locations.html and present a valid identity document."}},{"obj":"task","obj_id":"5f85716309a8af5317215803","ref":null,"status":"processed","user_id":4,"create_time":1602580835,"change_time":1602580835,"node_prev_id":"5f048df609a8af26c1e4f347","data":{"phone":"380711111111","sys":{"ref":"c9726_n5f842683a4a271122000b7d3_t5f857162da6fe24361205ddd","obj_id":"5f857162b8ef636ec61ea6c7","conv_id":9727,"node_id":"5f842683a4a271122000b814"},"text":"Your one-time WU password is 3099."}},{"obj":"task","obj_id":"5f856f4f09a8af531721554f","ref":null,"status":"processed","user_id":4,"create_time":1602580303,"change_time":1602580303,"node_prev_id":"5f048df609a8af26c1e4f347","data":{"phone":"380711111111","sys":{"ref":"c9726_n5f842683a4a271122000b7d3_t5f856f4fda6fe24361205b52","obj_id":"5f856f4fda6fe24361205b53","conv_id":9727,"node_id":"5f842683a4a271122000b814"},"text":"You’re almost done. Finish your profile set up, visit a Central, Robinson or participating Big C store in person http://on.wu.com/CentralTH and present a valid ID. Learn more about how to send money online with WU https://youtu.be/3xV4R1OOsYg"}},{"obj":"task","obj_id":"5f856f4609a8af5317215548","ref":null,"status":"processed","user_id":4,"create_time":1602580294,"change_time":1602580294,"node_prev_id":"5f048df609a8af26c1e4f347","data":{"phone":"380711111111","sys":{"ref":"c9726_n5f842683a4a271122000b7d3_t5f856f46da6fe24361205b13","obj_id":"5f856f46da6fe24361205b14","conv_id":9727,"node_id":"5f842683a4a271122000b814"},"text":"Your Western Union one-time password is 1897"}},{"obj":"task","obj_id":"5f84cfd609a8af5317209e70","ref":null,"status":"processed","user_id":4,"create_time":1602539478,"change_time":1602539478,"node_prev_id":"5f048df609a8af26c1e4f347","data":{"phone":"380711111111","sys":{"ref":"c9726_n5f842683a4a271122000b7d3_t5f84cfd6da6fe243611fe449","obj_id":"5f84cfd6b8ef636ec61e3484","conv_id":9727,"node_id":"5f842683a4a271122000b814"},"text":"You are almost done. Finish your profile set up by visiting Orabank location and present a valid Identity document."}}]}]}</t>
+  </si>
+  <si>
+    <t>{"token":"de9997fb46d03dfe061eda9229b5d0ce74b267c1e2ca2fc9d79ebb4bbd5c836f","id":"web/log_in","data":{"otp_code":"0286","button_login":"log_in"}}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":false},"timeout":900,"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","events":{"braze":[{"event_key":"LOGIN COMPLETED","data":{"phone_verified":true,"Nationality":"AR","Middle Name":"","Marketing Opt-in":true,"Last Name":"UQyfzosZsD","Language App":"en","ID Verification Status":false,"ID Expiration datetime":"2025-01-01","First Name":"JozhQPHHj","External User ID":"41601","Email":"alex.mywu.qa@gmail.com","Country From":"ae","Birthdate":"1975-01-01"}}]},"auth":true,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/log_in","phone_verified":"true","page_name":"/log_in","otp_validate":"AWS","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"41601","TransactionID":""},"_time_zone":120},"data":{"next_page":"web/profile","grid":{"type":"two_column","header":"HeaderStart","components":{"right":["web/profile/right"],"modal":["web/profile/join","web/profile/link"],"left":["web/profile"]}},"forms":[{"type":"body","sections":[{"visibility":"visible","header":[],"footer":[],"content":[{"visibility":"visible","value":"To make an online transfer your identity must be verified","style":{"padding":"10px","marginTop":-20,"margin-right":0,"margin-left":0,"font-size":"18px","color":"white","background-color":"#368ABB"},"id":"label_289121","class":"label","align":"center"},{"visibility":"visible","value":"According to Central Bank of the UAE regulations, we must verify your identity before you can start sending money online.","style":{"font-size":"15px"},"id":"label_28911","class":"label","align":"left"},{"visibility":"visible","type":"link","title":"Verification Options","style":{"margin":"20px 20px 0px"},"required":false,"id":"button_verified","class":"button","align":"center"}]},{"header":[{"type":"ProfileMain","id":"divider_32102","class":"divider"},{"visibility":"visible","id":"transaction","extra":{"history_info":"/items/history_info_new","buttons":["receipt","repeat","mtcn"],"amoutDigitsLimit":6},"class":"history","actions":[{"url":"/items/att_share","oper":"modal"},{"url":"/items/transaction_history","oper":"init"}]}],"footer":[],"content":[]}],"object_id":"profile","id":"web/profile"},{"type":"modal","title":"My WU [sup]SM[/sup] Rewards","sections":[{"header":[],"footer":[],"content":[{"value":"Join Western Union's My WU rewards program","id":"label_28911","class":"label","align":"center"},{"title":"I would like to enroll in the My WU program, and earn rewards and experience a higher level of customer service. I agree to the [url=https://cdn.mywu.com/corp/terms/UAE_MY-WU_TC-20160711_VERSION-1_EN.pdf]My WU Membership terms and conditions[/url] and [url=https://westernunion.com/content/wucom/global/en/privacy-statement.html]online privacy statement[/url], and I expressly consent to receiving information by mail and electronic means, including email, phone, SMS/MMS and online messages including via social media about products and services from Western Union and selected partners. Standard message and data rates may apply for SMS/MMS. I understand that I can cancel or change this consent at any time as stated in the My WU Terms and Conditions. [br][b]If you already have a My WU number, you can link it to your profile after your profile is [url=https://www.westernunion.com/ae/en/frequently-asked-questions.html#faq-identification-process-Q2]verified[/url].[/b]","required":true,"regexp":"^(true)$","id":"i_agree","class":"check","actions":[{"oper":"toggleEnabled","items":["submit"]}]},{"visibility":"disabled","type":"submit","title":"Join My WU","id":"submit","class":"button"}]}],"id":"web/profile/join"},{"type":"modal","sections":[{"header":[],"footer":[],"content":[{"visibility":"hidden","value":"Already a Member? Enter your WU Membership number below","id":"label_72752","class":"label","align":"center"},{"visibility":"hidden","type":"int","title":"My WU number:","required":true,"regexp":"^[0-9]{9,9}$","id":"mywu","error_msg":"Please check My WU number","class":"edit"},{"visibility":"hidden","type":"submit","title":"Link your My WU number","id":"submit","class":"button","actions":[{"oper":"submit"}]},{"visibility":"visible","type":"cancel","title":"Cancel","id":"button_cancel","class":"button","actions":[]}]}],"id":"web/profile/link"},{"type":"modal","title":"","sections":[{"header":[],"footer":[],"content":[{"value":"email","options":[{"value":"email","title":"E-mail"},{"value":"sms","title":"SMS"}],"id":"tabs","class":"tabs","align":"center","actions":[{"url":"/items/validate_share","oper":"validate"}]},{"visibility":"visible","type":"email","title":"E-mail","required":true,"regexp":"^[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~@]+(?:\\.[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~@]+)*@(?:[a-z0-9]([-a-z0-9]{0,61}[a-z0-9])?\\.)*(?:aero|arpa|asia|biz|cat|com|coop|edu|gov|info|int|jobs|mil|mobi|museum|name|net|org|pro|tel|travel|[a-z][a-z])$","id":"email","error_msg":"Please check email","class":"edit","actions":[]},{"visibility":"hidden","required":true,"regexp":"^mob-[0-9]{1,4}-[0-9]{4,17}$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone"},{"visibility":"disabled","value":"continue","type":"submit","title":"Continue","id":"submit","class":"button"},{"visibility":"visible","value":"cancel","type":"cancel","title":"Cancel","id":"button_no","class":"button"}]}],"id":"web/send_money/success/show_share"},{"type":"modal","title":"","sections":[{"header":[],"footer":[],"content":[{"value":"Don't share your tracking number (MTCN) with strangers or on social media.","class":"label","align":"center"},{"visibility":"visible","value":"continue","type":"submit","title":"Ok","id":"submit","class":"button","actions":[{"url":"/items/show_share","style":{"height":450},"oper":"modal"}]}]}],"id":"web/send_money/success/att_share"},{"type":"body","sections":[{"header":[{"type":"ProfileSummary","id":"divider_72490","extra":{"mywu_error_msg":"Your My WU[sup]SM[/sup] account was not matched with your WU.com account. If you would like to add your existing My WU account to your online profile, please retry. If you need assistance, please contact Customer Care on 8000-3570-4469"},"class":"divider"}],"footer":[],"content":[]}],"id":"web/profile/right"}]},"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"de9997fb46d03dfe061eda9229b5d0ce74b267c1e2ca2fc9d79ebb4bbd5c836f","page":"web/profile"}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":false},"timeout":900,"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/log_in","phone_verified":"true","page_name":"/profile","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"41601","TransactionID":""},"_time_zone":120},"data":{"next_page":"web/profile","grid":{"type":"two_column","header":"HeaderStart","components":{"right":["web/profile/right"],"modal":["web/profile/join","web/profile/link"],"left":["web/profile"]}},"forms":[{"type":"body","sections":[{"visibility":"visible","header":[],"footer":[],"content":[{"visibility":"visible","value":"To make an online transfer your identity must be verified","style":{"padding":"10px","marginTop":-20,"margin-right":0,"margin-left":0,"font-size":"18px","color":"white","background-color":"#368ABB"},"id":"label_289121","class":"label","align":"center"},{"visibility":"visible","value":"According to Central Bank of the UAE regulations, we must verify your identity before you can start sending money online.","style":{"font-size":"15px"},"id":"label_28911","class":"label","align":"left"},{"visibility":"visible","type":"link","title":"Verification Options","style":{"margin":"20px 20px 0px"},"required":false,"id":"button_verified","class":"button","align":"center"}]},{"header":[{"type":"ProfileMain","id":"divider_32102","class":"divider"},{"visibility":"visible","id":"transaction","extra":{"history_info":"/items/history_info_new","buttons":["receipt","repeat","mtcn"],"amoutDigitsLimit":6},"class":"history","actions":[{"url":"/items/att_share","oper":"modal"},{"url":"/items/transaction_history","oper":"init"}]}],"footer":[],"content":[]}],"object_id":"profile","id":"web/profile"},{"type":"modal","title":"My WU [sup]SM[/sup] Rewards","sections":[{"header":[],"footer":[],"content":[{"value":"Join Western Union's My WU rewards program","id":"label_28911","class":"label","align":"center"},{"title":"I would like to enroll in the My WU program, and earn rewards and experience a higher level of customer service. I agree to the [url=https://cdn.mywu.com/corp/terms/UAE_MY-WU_TC-20160711_VERSION-1_EN.pdf]My WU Membership terms and conditions[/url] and [url=https://westernunion.com/content/wucom/global/en/privacy-statement.html]online privacy statement[/url], and I expressly consent to receiving information by mail and electronic means, including email, phone, SMS/MMS and online messages including via social media about products and services from Western Union and selected partners. Standard message and data rates may apply for SMS/MMS. I understand that I can cancel or change this consent at any time as stated in the My WU Terms and Conditions. [br][b]If you already have a My WU number, you can link it to your profile after your profile is [url=https://www.westernunion.com/ae/en/frequently-asked-questions.html#faq-identification-process-Q2]verified[/url].[/b]","required":true,"regexp":"^(true)$","id":"i_agree","class":"check","actions":[{"oper":"toggleEnabled","items":["submit"]}]},{"visibility":"disabled","type":"submit","title":"Join My WU","id":"submit","class":"button"}]}],"id":"web/profile/join"},{"type":"modal","sections":[{"header":[],"footer":[],"content":[{"visibility":"hidden","value":"Already a Member? Enter your WU Membership number below","id":"label_72752","class":"label","align":"center"},{"visibility":"hidden","type":"int","title":"My WU number:","required":true,"regexp":"^[0-9]{9,9}$","id":"mywu","error_msg":"Please check My WU number","class":"edit"},{"visibility":"hidden","type":"submit","title":"Link your My WU number","id":"submit","class":"button","actions":[{"oper":"submit"}]},{"visibility":"visible","type":"cancel","title":"Cancel","id":"button_cancel","class":"button","actions":[]}]}],"id":"web/profile/link"},{"type":"modal","title":"","sections":[{"header":[],"footer":[],"content":[{"value":"email","options":[{"value":"email","title":"E-mail"},{"value":"sms","title":"SMS"}],"id":"tabs","class":"tabs","align":"center","actions":[{"url":"/items/validate_share","oper":"validate"}]},{"visibility":"visible","type":"email","title":"E-mail","required":true,"regexp":"^[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~@]+(?:\\.[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~@]+)*@(?:[a-z0-9]([-a-z0-9]{0,61}[a-z0-9])?\\.)*(?:aero|arpa|asia|biz|cat|com|coop|edu|gov|info|int|jobs|mil|mobi|museum|name|net|org|pro|tel|travel|[a-z][a-z])$","id":"email","error_msg":"Please check email","class":"edit","actions":[]},{"visibility":"hidden","required":true,"regexp":"^mob-[0-9]{1,4}-[0-9]{4,17}$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone"},{"visibility":"disabled","value":"continue","type":"submit","title":"Continue","id":"submit","class":"button"},{"visibility":"visible","value":"cancel","type":"cancel","title":"Cancel","id":"button_no","class":"button"}]}],"id":"web/send_money/success/show_share"},{"type":"modal","title":"","sections":[{"header":[],"footer":[],"content":[{"value":"Don't share your tracking number (MTCN) with strangers or on social media.","class":"label","align":"center"},{"visibility":"visible","value":"continue","type":"submit","title":"Ok","id":"submit","class":"button","actions":[{"url":"/items/show_share","style":{"height":450},"oper":"modal"}]}]}],"id":"web/send_money/success/att_share"},{"type":"body","sections":[{"header":[{"type":"ProfileSummary","id":"divider_72490","extra":{"mywu_error_msg":"Your My WU[sup]SM[/sup] account was not matched with your WU.com account. If you would like to add your existing My WU account to your online profile, please retry. If you need assistance, please contact Customer Care on 8000-3570-4469"},"class":"divider"}],"footer":[],"content":[]}],"id":"web/profile/right"}]},"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"de9997fb46d03dfe061eda9229b5d0ce74b267c1e2ca2fc9d79ebb4bbd5c836f","id":"web/profile/edit","data":{"first_name":"TOLLhiOyxXTGzGSISadcqYtaHEcjKkZ","last_name":"UQyfzosZsD","email":"alex.mywu.qa@gmail.com","birth":{"year":"1975","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"SA","country_nationality":"AR","occupation":"Airline/Maritime Employee","phone":{"type":"mob","plus":"+","number":"711111111","country_code":"380"},"button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":false},"timeout":900,"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/log_in","phone_verified":"true","page_name":"/log_in","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"41601","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"first_name","error_msg":"Please check first name"}],"code":0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResponseCode - PASS
+status":"error" - PASS
+"code":0 - PASS
+Please check first name - PASS
+</t>
+  </si>
+  <si>
+    <t>{"token":"de9997fb46d03dfe061eda9229b5d0ce74b267c1e2ca2fc9d79ebb4bbd5c836f","id":"web/profile/edit","data":{"first_name":"wewe1","last_name":"UQyfzosZsD","email":"alex.mywu.qa@gmail.com","birth":{"year":"1975","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"SA","country_nationality":"AR","occupation":"Airline/Maritime Employee","phone":{"type":"mob","plus":"+","number":"711111111","country_code":"380"},"button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"token":"de9997fb46d03dfe061eda9229b5d0ce74b267c1e2ca2fc9d79ebb4bbd5c836f","id":"web/profile/edit","data":{"first_name":"'test","last_name":"UQyfzosZsD","email":"alex.mywu.qa@gmail.com","birth":{"year":"1975","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"SA","country_nationality":"AR","occupation":"Airline/Maritime Employee","phone":{"type":"mob","plus":"+","number":"711111111","country_code":"380"},"button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"'test","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":false},"timeout":900,"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/log_in","phone_verified":"true","page_name":"/profile/edit","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"41601","TransactionID":""},"_time_zone":120},"error_msg":[{"type":"success","id":"web/profile/edit","error_msg":"Personal information has been updated"}],"data":{"next_page":"web/profile/edit","grid":{"type":"two_column","title":"Profile information","header":"HeaderStart","components":{"right":["web/profile/edit/verification","web/profile/edit/identification","web/profile/edit/nec","web/profile/edit/password","web/profile/edit/marketing"],"left":["web/profile/edit","web/profile/edit/location","web/profile/edit/questions"]}},"forms":[{"type":"body","sections":[{"header":[{"value":"Personal information","id":"label_62322","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"'test","type":"text","title":"First name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"first_name","error_msg":"Please check first name","class":"edit"},{"visibility":"visible","value":"UQyfzosZsD","type":"text","title":"Last name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,35})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"last_name","error_msg":"Please check last name","class":"edit"},{"visibility":"visible","value":"alex.mywu.qa@gmail.com","type":"email","title":"Email","required":true,"regexp":"^[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~@]+(?:\\.[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~@]+)*@(?:[a-z0-9]([-a-z0-9]{0,61}[a-z0-9])?\\.)*(?:aero|arpa|asia|biz|cat|com|coop|edu|gov|info|int|jobs|mil|mobi|museum|name|net|org|pro|tel|travel|[a-z][a-z])$","id":"email","class":"edit"},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"Date of birth","required":true,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"birth","extra":{"min":{"y":-100},"max":{"y":-21,"m":0,"d":0}},"error_msg":"Please check date of birth","class":"calendar","actions":[]},{"visibility":"hidden","value":"1975-01-01","title":"Date of birth","id":"birth_disabled","class":"edit"},{"visibility":"visible","value":"SA","type":"country","title":"Country of birth","required":true,"regexp":"^[A-Z]{2}$","options":[],"id":"country_birthday","error_msg":"Please select place of birth","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"AR","type":"country","title":"Nationality","required":true,"options":[],"id":"country_nationality","error_msg":"Please select nationality","class":"select","actions":[{"url":"/items/country_nationality","oper":"init"}]},{"visibility":"visible","value":"Airline/Maritime Employee","title":"Occupation","required":true,"options":[{"value":"Airline/Maritime Employee","title":"Airline/Maritime Employee"},{"value":"Art/Entertainment/Media","title":"Art/Entertainment/Media Professional"},{"value":"Civil/Government Employee","title":"Civil/Government Employee"},{"value":"Domestic Helper","title":"Domestic Helper"},{"value":"Driver","title":"Driver"},{"value":"Teacher/Educator","title":"Teacher/Educator"},{"value":"Hotel/Restaurant/Leisure","title":"Hotel/Restaurant/Leisure Services Employee"},{"value":"Housewife/Child Care","title":"Housewife/Child Care"},{"value":"IT and Tech Professional","title":"IT and Tech Professional"},{"value":"Laborer-Agriculture","title":"Laborer-Agriculture"},{"value":"Laborer-Construction","title":"Laborer-Construction"},{"value":"Laborer-Manufacturing","title":"Laborer-Manufacturing"},{"value":"Laborer- Oil/Gas/Mining","title":"Laborer- Oil/Gas/Mining/Forestry"},{"value":"Medical/Health Care","title":"Medical and Health Care Professional"},{"value":"Non-profit/Volunteer","title":"Non-profit/Volunteer"},{"value":"Cosmetic/Personal Care","title":"Cosmetic/Personal Care Services"},{"value":"Law Enforcement/Military","title":"Law Enforcement/Military Professional"},{"value":"Office Professional","title":"Office Professional"},{"value":"Religious/Church Servant","title":"Religious/Church Servant"},{"value":"Retail Sales","title":"Retail Sales"},{"value":"Retired","title":"Retired"},{"value":"Sales/Insurance/Real Estate","title":"Sales/Insurance/Real Estate Professional"},{"value":"Science/Research Professional","title":"Science/Research Professional"},{"value":"Security Guard","title":"Security Guard"},{"value":"Self-Employed","title":"Self-Employed"},{"value":"Skilled Trade/Specialist","title":"Skilled Trade/Specialist"},{"value":"Student","title":"Student"},{"value":"Unemployed","title":"Unemployed"}],"id":"occupation","error_msg":"Please check occupation","class":"select","actions":[]},{"visibility":"visible","value":{"type":"mob","plus":"+","number":"711111111","country_code":"380"},"required":true,"regexp":"^mob-[0-9]{1,4}-[0-9]{4,17}$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update personal information","id":"button_update","class":"button"}]}],"id":"web/profile/edit"},{"type":"body","title":"","sections":[{"header":[{"value":"Contact information","id":"label_94217","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":"AE","type":"country","title":"Country","required":false,"regexp":"^[A-Z]{2}$","options":[],"id":"country","error_msg":"Please select country","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"dsfsf","type":"text","title":"Street address 1","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street1","error_msg":"Street address 1 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"","type":"text","title":"Street address 2","required":false,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street2","error_msg":"Street address 2 field should be between 2 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"Ajman","title":"Emirate","required":true,"options":[{"value":"Abu Dhabi","title":"Abu Dhabi"},{"value":"Ajman","title":"Ajman"},{"value":"Dubai","title":"Dubai"},{"value":"Fujairah","title":"Fujairah"},{"value":"Ras Al Khaimah","title":"Ras Al Khaimah"},{"value":"Sharjah","title":"Sharjah"},{"value":"Umm Al Quwain","title":"Umm Al Quwain"}],"id":"emirate","error_msg":"Please select emirate","class":"select","actions":[{"url":"/items/get_emirate?preloader=false","oper":"loadOnClick"},{"oper":"clearValue","items":["area"]}]},{"visibility":"visible","value":"Ajman City","title":"Area","required":true,"options":[],"id":"area","error_msg":"Please select area","class":"select","actions":[{"url":"/items/get_area?preloader=false","oper":"loadOnClick"}]},{"visibility":"visible","value":"34534","type":"text","title":"Zip code (optional)","required":false,"regexp":"^[0-9a-zA-Z]{1,9}$","id":"zip_code","error_msg":"Please check Zip/Postal code. It should consist from 1 to 9 symbols and no special characters","class":"edit","actions":[]},{"visibility":"visible","value":"submit","type":"submit","title":"Update contact Information","id":"button_update","class":"button"}]}],"id":"web/profile/edit/location"},{"visibility":"visible","type":"body","title":"","sections":[{"header":[{"visibility":"visible","value":"Verify me","id":"label_66250","class":"label"}],"footer":[],"content":[{"visibility":"visible","type":"submit","title":"Verify me","id":"button_verified","class":"button"}]}],"id":"web/profile/edit/verification"},{"visibility":"visible","type":"body","title":"","sections":[{"header":[{"visibility":"disabled","value":"Request an Agent visit","id":"label_66250","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":true,"title":"As per the regulation from Central bank of UAE, you must verify your identity. Please select this option if you would like an agent to visit you at your convenient place and time to verify your identity on the spot. Agent will call you to confirm the date and time of the visit. [br] By clicking this checkbox you confirm that you have provided correct contact information.","id":"nec_visit","class":"check","actions":[]},{"visibility":"visible","value":"[color=#7FC76C]Al Fardan representative will reach out to you soon[/color]","title":"label_title","id":"label_result","class":"label"},{"visibility":"hidden","type":"submit","title":"Request a visit ","id":"button_update","extra":{"validate":false},"class":"button"}]}],"id":"web/profile/edit/nec"},{"type":"body","title":"","sections":[{"header":[{"value":"Identification details","id":"label_66250","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":"Emirates ID","title":"ID Type","required":false,"options":[{"value":"Emirates ID","title":"Emirates ID","actions":[]},{"value":"Diplomatic ID","title":"Diplomatic ID","actions":[{"oper":"clearValue","items":["id_issuer"]},{"oper":"toggleEnabled","items":["id_issuer"]}]}],"id":"id_type","error_msg":"Please check ID Type","class":"select"},{"visibility":"disabled","value":"AE","type":"country","title":"ID Issuer","required":false,"options":[],"id":"id_issuer","error_msg":"Please check ID Issuer","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"275654345658985","type":"text","title":"ID Number","required":true,"regexp":"^[0-9]{15}$","length":15,"id":"id_number","class":"edit","actions":[{"url":"/items/validate_id_number?preloader=false","oper":"validate"}]},{"visibility":"visible","value":{"year":"2025","month":"01","day":"01"},"title":"ID Expiration Date","required":true,"id":"expiration","extra":{"min":{"y":0,"m":0,"d":0},"max":{"y":20}},"class":"calendar"},{"visibility":"hidden","value":"2025-01-01","title":"ID Expiration Date","id":"expiration_disabled","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update identification details","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/identification"},{"type":"body","title":"","sections":[{"header":[{"visibility":"visible","value":"Marketing content","title":"label_title","id":"label_id_1506086740999","class":"label"}],"footer":[],"content":[{"value":true,"title":"Keep me up to date with new Western Union services and other special offers. Communications may be by text, email, phone and post. I can edit these settings anytime in my profile.","required":false,"regexp":"^(true|false)$","id":"keep","class":"check"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/marketing"},{"type":"body","title":"","sections":[{"header":[{"value":"Password","id":"label_31271","class":"label"}],"footer":[],"content":[{"visibility":"visible","type":"password","title":"Current password","required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","id":"old_password","icon":"secure","error_msg":"Please check password","class":"edit"},{"required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","options":[{"title":"8-16 characters","regexp":"^.{8,16}$"},{"title":"1 lowercase letter","regexp":".*[a-z].*"},{"title":"1 UPPERCASE letter","regexp":".*[A-Z].*"},{"title":"1 number character","regexp":".*[0-9].*"},{"title":"1 special character","regexp":".*[ !#$%&amp;'\\(\\)*+,-./:;&lt;=&gt;?@\\[\\]\\^_`{|}~].*"}],"id":"password","extra":{"title2":"Confirm password","title1":"Password"},"error_msg":"Please check password","class":"password"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update password","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/password"},{"type":"body","title":"","sections":[{"header":[{"visibility":"visible","value":"Security question","title":"label_title","id":"label_id_1506086740999","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"","title":"Security question","required":true,"options":[{"value":"Where did you spend childhood summers?","title":"Where did you spend childhood summers?"},{"value":"What is your favorite pet's name?","title":"What is your favorite pet's name?"},{"value":"What is your mother's maiden name?","title":"What is your mother's maiden name?"},{"value":"What street did you grow up on?","title":"What street did you grow up on?"},{"value":"What is your best friend's name?","title":"What is your best friend's name?"},{"value":"What is your favorite hobby?","title":"What is your favorite hobby?"},{"value":"What is your favorite movie?","title":"What is your favorite movie?"},{"value":"What is your place of birth?","title":"What is your place of birth?"},{"value":"What is your favorite TV show?","title":"What is your favorite TV show?"},{"value":"What is your favorite teacher's name?","title":"What is your favorite teacher's name?"},{"value":"What is your high school mascot?","title":"What is your high school mascot?"}],"id":"question","class":"select"},{"visibility":"visible","value":"","type":"text","title":"Answer","required":true,"regexp":"^[a-zA-Z0-9\\s]{1,30}$","id":"answer","error_msg":"Please enter answer","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/questions"}]},"code":0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResponseCode - PASS
+status":"ok" - PASS
+"code":0 - PASS
+</t>
+  </si>
+  <si>
+    <t>{"token":"de9997fb46d03dfe061eda9229b5d0ce74b267c1e2ca2fc9d79ebb4bbd5c836f","id":"web/profile/edit","data":{"first_name":"JozhQPHHj","last_name":"VaMUdJyTXfkpzuARCkMoZhQyKNahxGUTMtTD","email":"alex.mywu.qa@gmail.com","birth":{"year":"1975","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"SA","country_nationality":"AR","occupation":"Airline/Maritime Employee","phone":{"type":"mob","plus":"+","number":"711111111","country_code":"380"},"button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"'test","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":false},"timeout":900,"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/log_in","phone_verified":"true","page_name":"/log_in","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"41601","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"last_name","error_msg":"Please check last name"}],"code":0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResponseCode - PASS
+status":"error" - PASS
+"code":0 - PASS
+</t>
+  </si>
+  <si>
+    <t>{"token":"de9997fb46d03dfe061eda9229b5d0ce74b267c1e2ca2fc9d79ebb4bbd5c836f","id":"web/profile/edit","data":{"first_name":"JozhQPHHj","last_name":"'test","email":"alex.mywu.qa@gmail.com","birth":{"year":"1975","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"SA","country_nationality":"AR","occupation":"Airline/Maritime Employee","phone":{"type":"mob","plus":"+","number":"711111111","country_code":"380"},"button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"'test","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":false},"timeout":900,"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/log_in","phone_verified":"true","page_name":"/profile/edit","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"41601","TransactionID":""},"_time_zone":120},"error_msg":[{"type":"success","id":"web/profile/edit","error_msg":"Personal information has been updated"}],"data":{"next_page":"web/profile/edit","grid":{"type":"two_column","title":"Profile information","header":"HeaderStart","components":{"right":["web/profile/edit/verification","web/profile/edit/identification","web/profile/edit/nec","web/profile/edit/password","web/profile/edit/marketing"],"left":["web/profile/edit","web/profile/edit/location","web/profile/edit/questions"]}},"forms":[{"type":"body","sections":[{"header":[{"value":"Personal information","id":"label_62322","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"JozhQPHHj","type":"text","title":"First name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"first_name","error_msg":"Please check first name","class":"edit"},{"visibility":"visible","value":"'test","type":"text","title":"Last name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,35})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"last_name","error_msg":"Please check last name","class":"edit"},{"visibility":"visible","value":"alex.mywu.qa@gmail.com","type":"email","title":"Email","required":true,"regexp":"^[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~@]+(?:\\.[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~@]+)*@(?:[a-z0-9]([-a-z0-9]{0,61}[a-z0-9])?\\.)*(?:aero|arpa|asia|biz|cat|com|coop|edu|gov|info|int|jobs|mil|mobi|museum|name|net|org|pro|tel|travel|[a-z][a-z])$","id":"email","class":"edit"},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"Date of birth","required":true,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"birth","extra":{"min":{"y":-100},"max":{"y":-21,"m":0,"d":0}},"error_msg":"Please check date of birth","class":"calendar","actions":[]},{"visibility":"hidden","value":"1975-01-01","title":"Date of birth","id":"birth_disabled","class":"edit"},{"visibility":"visible","value":"SA","type":"country","title":"Country of birth","required":true,"regexp":"^[A-Z]{2}$","options":[],"id":"country_birthday","error_msg":"Please select place of birth","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"AR","type":"country","title":"Nationality","required":true,"options":[],"id":"country_nationality","error_msg":"Please select nationality","class":"select","actions":[{"url":"/items/country_nationality","oper":"init"}]},{"visibility":"visible","value":"Airline/Maritime Employee","title":"Occupation","required":true,"options":[{"value":"Airline/Maritime Employee","title":"Airline/Maritime Employee"},{"value":"Art/Entertainment/Media","title":"Art/Entertainment/Media Professional"},{"value":"Civil/Government Employee","title":"Civil/Government Employee"},{"value":"Domestic Helper","title":"Domestic Helper"},{"value":"Driver","title":"Driver"},{"value":"Teacher/Educator","title":"Teacher/Educator"},{"value":"Hotel/Restaurant/Leisure","title":"Hotel/Restaurant/Leisure Services Employee"},{"value":"Housewife/Child Care","title":"Housewife/Child Care"},{"value":"IT and Tech Professional","title":"IT and Tech Professional"},{"value":"Laborer-Agriculture","title":"Laborer-Agriculture"},{"value":"Laborer-Construction","title":"Laborer-Construction"},{"value":"Laborer-Manufacturing","title":"Laborer-Manufacturing"},{"value":"Laborer- Oil/Gas/Mining","title":"Laborer- Oil/Gas/Mining/Forestry"},{"value":"Medical/Health Care","title":"Medical and Health Care Professional"},{"value":"Non-profit/Volunteer","title":"Non-profit/Volunteer"},{"value":"Cosmetic/Personal Care","title":"Cosmetic/Personal Care Services"},{"value":"Law Enforcement/Military","title":"Law Enforcement/Military Professional"},{"value":"Office Professional","title":"Office Professional"},{"value":"Religious/Church Servant","title":"Religious/Church Servant"},{"value":"Retail Sales","title":"Retail Sales"},{"value":"Retired","title":"Retired"},{"value":"Sales/Insurance/Real Estate","title":"Sales/Insurance/Real Estate Professional"},{"value":"Science/Research Professional","title":"Science/Research Professional"},{"value":"Security Guard","title":"Security Guard"},{"value":"Self-Employed","title":"Self-Employed"},{"value":"Skilled Trade/Specialist","title":"Skilled Trade/Specialist"},{"value":"Student","title":"Student"},{"value":"Unemployed","title":"Unemployed"}],"id":"occupation","error_msg":"Please check occupation","class":"select","actions":[]},{"visibility":"visible","value":{"type":"mob","plus":"+","number":"711111111","country_code":"380"},"required":true,"regexp":"^mob-[0-9]{1,4}-[0-9]{4,17}$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update personal information","id":"button_update","class":"button"}]}],"id":"web/profile/edit"},{"type":"body","title":"","sections":[{"header":[{"value":"Contact information","id":"label_94217","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":"AE","type":"country","title":"Country","required":false,"regexp":"^[A-Z]{2}$","options":[],"id":"country","error_msg":"Please select country","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"dsfsf","type":"text","title":"Street address 1","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street1","error_msg":"Street address 1 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"","type":"text","title":"Street address 2","required":false,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street2","error_msg":"Street address 2 field should be between 2 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"Ajman","title":"Emirate","required":true,"options":[{"value":"Abu Dhabi","title":"Abu Dhabi"},{"value":"Ajman","title":"Ajman"},{"value":"Dubai","title":"Dubai"},{"value":"Fujairah","title":"Fujairah"},{"value":"Ras Al Khaimah","title":"Ras Al Khaimah"},{"value":"Sharjah","title":"Sharjah"},{"value":"Umm Al Quwain","title":"Umm Al Quwain"}],"id":"emirate","error_msg":"Please select emirate","class":"select","actions":[{"url":"/items/get_emirate?preloader=false","oper":"loadOnClick"},{"oper":"clearValue","items":["area"]}]},{"visibility":"visible","value":"Ajman City","title":"Area","required":true,"options":[],"id":"area","error_msg":"Please select area","class":"select","actions":[{"url":"/items/get_area?preloader=false","oper":"loadOnClick"}]},{"visibility":"visible","value":"34534","type":"text","title":"Zip code (optional)","required":false,"regexp":"^[0-9a-zA-Z]{1,9}$","id":"zip_code","error_msg":"Please check Zip/Postal code. It should consist from 1 to 9 symbols and no special characters","class":"edit","actions":[]},{"visibility":"visible","value":"submit","type":"submit","title":"Update contact Information","id":"button_update","class":"button"}]}],"id":"web/profile/edit/location"},{"visibility":"visible","type":"body","title":"","sections":[{"header":[{"visibility":"visible","value":"Verify me","id":"label_66250","class":"label"}],"footer":[],"content":[{"visibility":"visible","type":"submit","title":"Verify me","id":"button_verified","class":"button"}]}],"id":"web/profile/edit/verification"},{"visibility":"visible","type":"body","title":"","sections":[{"header":[{"visibility":"disabled","value":"Request an Agent visit","id":"label_66250","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":true,"title":"As per the regulation from Central bank of UAE, you must verify your identity. Please select this option if you would like an agent to visit you at your convenient place and time to verify your identity on the spot. Agent will call you to confirm the date and time of the visit. [br] By clicking this checkbox you confirm that you have provided correct contact information.","id":"nec_visit","class":"check","actions":[]},{"visibility":"visible","value":"[color=#7FC76C]Al Fardan representative will reach out to you soon[/color]","title":"label_title","id":"label_result","class":"label"},{"visibility":"hidden","type":"submit","title":"Request a visit ","id":"button_update","extra":{"validate":false},"class":"button"}]}],"id":"web/profile/edit/nec"},{"type":"body","title":"","sections":[{"header":[{"value":"Identification details","id":"label_66250","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":"Emirates ID","title":"ID Type","required":false,"options":[{"value":"Emirates ID","title":"Emirates ID","actions":[]},{"value":"Diplomatic ID","title":"Diplomatic ID","actions":[{"oper":"clearValue","items":["id_issuer"]},{"oper":"toggleEnabled","items":["id_issuer"]}]}],"id":"id_type","error_msg":"Please check ID Type","class":"select"},{"visibility":"disabled","value":"AE","type":"country","title":"ID Issuer","required":false,"options":[],"id":"id_issuer","error_msg":"Please check ID Issuer","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"275654345658985","type":"text","title":"ID Number","required":true,"regexp":"^[0-9]{15}$","length":15,"id":"id_number","class":"edit","actions":[{"url":"/items/validate_id_number?preloader=false","oper":"validate"}]},{"visibility":"visible","value":{"year":"2025","month":"01","day":"01"},"title":"ID Expiration Date","required":true,"id":"expiration","extra":{"min":{"y":0,"m":0,"d":0},"max":{"y":20}},"class":"calendar"},{"visibility":"hidden","value":"2025-01-01","title":"ID Expiration Date","id":"expiration_disabled","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update identification details","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/identification"},{"type":"body","title":"","sections":[{"header":[{"visibility":"visible","value":"Marketing content","title":"label_title","id":"label_id_1506086740999","class":"label"}],"footer":[],"content":[{"value":true,"title":"Keep me up to date with new Western Union services and other special offers. Communications may be by text, email, phone and post. I can edit these settings anytime in my profile.","required":false,"regexp":"^(true|false)$","id":"keep","class":"check"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/marketing"},{"type":"body","title":"","sections":[{"header":[{"value":"Password","id":"label_31271","class":"label"}],"footer":[],"content":[{"visibility":"visible","type":"password","title":"Current password","required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","id":"old_password","icon":"secure","error_msg":"Please check password","class":"edit"},{"required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","options":[{"title":"8-16 characters","regexp":"^.{8,16}$"},{"title":"1 lowercase letter","regexp":".*[a-z].*"},{"title":"1 UPPERCASE letter","regexp":".*[A-Z].*"},{"title":"1 number character","regexp":".*[0-9].*"},{"title":"1 special character","regexp":".*[ !#$%&amp;'\\(\\)*+,-./:;&lt;=&gt;?@\\[\\]\\^_`{|}~].*"}],"id":"password","extra":{"title2":"Confirm password","title1":"Password"},"error_msg":"Please check password","class":"password"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update password","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/password"},{"type":"body","title":"","sections":[{"header":[{"visibility":"visible","value":"Security question","title":"label_title","id":"label_id_1506086740999","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"","title":"Security question","required":true,"options":[{"value":"Where did you spend childhood summers?","title":"Where did you spend childhood summers?"},{"value":"What is your favorite pet's name?","title":"What is your favorite pet's name?"},{"value":"What is your mother's maiden name?","title":"What is your mother's maiden name?"},{"value":"What street did you grow up on?","title":"What street did you grow up on?"},{"value":"What is your best friend's name?","title":"What is your best friend's name?"},{"value":"What is your favorite hobby?","title":"What is your favorite hobby?"},{"value":"What is your favorite movie?","title":"What is your favorite movie?"},{"value":"What is your place of birth?","title":"What is your place of birth?"},{"value":"What is your favorite TV show?","title":"What is your favorite TV show?"},{"value":"What is your favorite teacher's name?","title":"What is your favorite teacher's name?"},{"value":"What is your high school mascot?","title":"What is your high school mascot?"}],"id":"question","class":"select"},{"visibility":"visible","value":"","type":"text","title":"Answer","required":true,"regexp":"^[a-zA-Z0-9\\s]{1,30}$","id":"answer","error_msg":"Please enter answer","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/questions"}]},"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"de9997fb46d03dfe061eda9229b5d0ce74b267c1e2ca2fc9d79ebb4bbd5c836f","id":"web/profile/edit","data":{"first_name":"JozhQPHHj","last_name":"UQyfzosZsD","email":"alex.mywu.qa@gmail.com","birth":{"year":"1800","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"SA","country_nationality":"AR","occupation":"Airline/Maritime Employee","phone":{"type":"mob","plus":"+","number":"711111111","country_code":"380"},"button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"'test","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":false},"timeout":900,"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/log_in","phone_verified":"true","page_name":"/log_in","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"41601","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"birth","error_msg":"Please check date of birth"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"de9997fb46d03dfe061eda9229b5d0ce74b267c1e2ca2fc9d79ebb4bbd5c836f","id":"web/profile/edit","data":{"first_name":"JozhQPHHj","last_name":"UQyfzosZsD","email":"alex.mywu.qa@gmail.com","birth":{"year":"1975","month":"01","day":"32"},"birth_disabled":"1975-01-01","country_birthday":"SA","country_nationality":"AR","occupation":"Airline/Maritime Employee","phone":{"type":"mob","plus":"+","number":"711111111","country_code":"380"},"button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"token":"de9997fb46d03dfe061eda9229b5d0ce74b267c1e2ca2fc9d79ebb4bbd5c836f","id":"web/profile/edit","data":{"first_name":"JozhQPHHj","last_name":"UQyfzosZsD","email":"alex.mywu.qa@gmail.com","birth":{"year":"1975","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"SA","country_nationality":"AR","occupation":"Fuck","phone":{"type":"mob","plus":"+","number":"711111111","country_code":"380"},"button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"'test","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":false},"timeout":900,"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/log_in","phone_verified":"true","page_name":"/log_in","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"41601","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"occupation","error_msg":"Please check occupation"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"de9997fb46d03dfe061eda9229b5d0ce74b267c1e2ca2fc9d79ebb4bbd5c836f","id":"web/profile/edit","data":{"first_name":"JozhQPHHj","last_name":"UQyfzosZsD","email":"alex.mywu.qa@gmail.com","birth":{"year":"1975","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"SA","country_nationality":"AR","occupation":"'Airline/Maritime Employee","phone":{"type":"mob","plus":"+","number":"711111111","country_code":"380"},"button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"token":"de9997fb46d03dfe061eda9229b5d0ce74b267c1e2ca2fc9d79ebb4bbd5c836f","id":"web/profile/edit","data":{"first_name":"JozhQPHHj","last_name":"UQyfzosZsD","email":"alex.mywu.qa@gmail.com","birth":{"year":"1975","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"SA","country_nationality":"AR","occupation":"Airline/Maritime Employee","phone":{"type":"mob","plus":"+","number":"99999999","country_code":"380"},"button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"'test","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":false},"timeout":900,"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/log_in","phone_verified":"true","page_name":"/log_in","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"41601","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"phone","error_msg":"Invalid country code and phone number combination. Please check your phone number"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"de9997fb46d03dfe061eda9229b5d0ce74b267c1e2ca2fc9d79ebb4bbd5c836f","id":"web/profile/edit","data":{"first_name":"JozhQPHHj","last_name":"UQyfzosZsD","email":"alex.mywu.qa@gmail.com","birth":{"year":"1975","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"SA","country_nationality":"AR","occupation":"Airline/Maritime Employee","phone":{"type":"mob","plus":"+","number":"711111111","country_code":"000"},"button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"token":"de9997fb46d03dfe061eda9229b5d0ce74b267c1e2ca2fc9d79ebb4bbd5c836f","id":"web/profile/edit","data":{"first_name":"JozhQPHHj","last_name":"UQyfzosZsD","email":"alex.mywu.qa@gmail.com","birth":{"year":"1975","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"SA","country_nationality":"AR","occupation":"Airline/Maritime Employee","phone":{"type":"mob","plus":"+","number":"711111111","country_code":"380"},"button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":false},"timeout":900,"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/log_in","phone_verified":"true","page_name":"/profile/edit","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"41601","TransactionID":""},"_time_zone":120},"error_msg":[{"type":"success","id":"web/profile/edit","error_msg":"Personal information has been updated"}],"data":{"next_page":"web/profile/edit","grid":{"type":"two_column","title":"Profile information","header":"HeaderStart","components":{"right":["web/profile/edit/verification","web/profile/edit/identification","web/profile/edit/nec","web/profile/edit/password","web/profile/edit/marketing"],"left":["web/profile/edit","web/profile/edit/location","web/profile/edit/questions"]}},"forms":[{"type":"body","sections":[{"header":[{"value":"Personal information","id":"label_62322","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"JozhQPHHj","type":"text","title":"First name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"first_name","error_msg":"Please check first name","class":"edit"},{"visibility":"visible","value":"UQyfzosZsD","type":"text","title":"Last name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,35})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"last_name","error_msg":"Please check last name","class":"edit"},{"visibility":"visible","value":"alex.mywu.qa@gmail.com","type":"email","title":"Email","required":true,"regexp":"^[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~@]+(?:\\.[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~@]+)*@(?:[a-z0-9]([-a-z0-9]{0,61}[a-z0-9])?\\.)*(?:aero|arpa|asia|biz|cat|com|coop|edu|gov|info|int|jobs|mil|mobi|museum|name|net|org|pro|tel|travel|[a-z][a-z])$","id":"email","class":"edit"},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"Date of birth","required":true,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"birth","extra":{"min":{"y":-100},"max":{"y":-21,"m":0,"d":0}},"error_msg":"Please check date of birth","class":"calendar","actions":[]},{"visibility":"hidden","value":"1975-01-01","title":"Date of birth","id":"birth_disabled","class":"edit"},{"visibility":"visible","value":"SA","type":"country","title":"Country of birth","required":true,"regexp":"^[A-Z]{2}$","options":[],"id":"country_birthday","error_msg":"Please select place of birth","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"AR","type":"country","title":"Nationality","required":true,"options":[],"id":"country_nationality","error_msg":"Please select nationality","class":"select","actions":[{"url":"/items/country_nationality","oper":"init"}]},{"visibility":"visible","value":"Airline/Maritime Employee","title":"Occupation","required":true,"options":[{"value":"Airline/Maritime Employee","title":"Airline/Maritime Employee"},{"value":"Art/Entertainment/Media","title":"Art/Entertainment/Media Professional"},{"value":"Civil/Government Employee","title":"Civil/Government Employee"},{"value":"Domestic Helper","title":"Domestic Helper"},{"value":"Driver","title":"Driver"},{"value":"Teacher/Educator","title":"Teacher/Educator"},{"value":"Hotel/Restaurant/Leisure","title":"Hotel/Restaurant/Leisure Services Employee"},{"value":"Housewife/Child Care","title":"Housewife/Child Care"},{"value":"IT and Tech Professional","title":"IT and Tech Professional"},{"value":"Laborer-Agriculture","title":"Laborer-Agriculture"},{"value":"Laborer-Construction","title":"Laborer-Construction"},{"value":"Laborer-Manufacturing","title":"Laborer-Manufacturing"},{"value":"Laborer- Oil/Gas/Mining","title":"Laborer- Oil/Gas/Mining/Forestry"},{"value":"Medical/Health Care","title":"Medical and Health Care Professional"},{"value":"Non-profit/Volunteer","title":"Non-profit/Volunteer"},{"value":"Cosmetic/Personal Care","title":"Cosmetic/Personal Care Services"},{"value":"Law Enforcement/Military","title":"Law Enforcement/Military Professional"},{"value":"Office Professional","title":"Office Professional"},{"value":"Religious/Church Servant","title":"Religious/Church Servant"},{"value":"Retail Sales","title":"Retail Sales"},{"value":"Retired","title":"Retired"},{"value":"Sales/Insurance/Real Estate","title":"Sales/Insurance/Real Estate Professional"},{"value":"Science/Research Professional","title":"Science/Research Professional"},{"value":"Security Guard","title":"Security Guard"},{"value":"Self-Employed","title":"Self-Employed"},{"value":"Skilled Trade/Specialist","title":"Skilled Trade/Specialist"},{"value":"Student","title":"Student"},{"value":"Unemployed","title":"Unemployed"}],"id":"occupation","error_msg":"Please check occupation","class":"select","actions":[]},{"visibility":"visible","value":{"type":"mob","plus":"+","number":"711111111","country_code":"380"},"required":true,"regexp":"^mob-[0-9]{1,4}-[0-9]{4,17}$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update personal information","id":"button_update","class":"button"}]}],"id":"web/profile/edit"},{"type":"body","title":"","sections":[{"header":[{"value":"Contact information","id":"label_94217","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":"AE","type":"country","title":"Country","required":false,"regexp":"^[A-Z]{2}$","options":[],"id":"country","error_msg":"Please select country","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"dsfsf","type":"text","title":"Street address 1","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street1","error_msg":"Street address 1 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"","type":"text","title":"Street address 2","required":false,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street2","error_msg":"Street address 2 field should be between 2 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"Ajman","title":"Emirate","required":true,"options":[{"value":"Abu Dhabi","title":"Abu Dhabi"},{"value":"Ajman","title":"Ajman"},{"value":"Dubai","title":"Dubai"},{"value":"Fujairah","title":"Fujairah"},{"value":"Ras Al Khaimah","title":"Ras Al Khaimah"},{"value":"Sharjah","title":"Sharjah"},{"value":"Umm Al Quwain","title":"Umm Al Quwain"}],"id":"emirate","error_msg":"Please select emirate","class":"select","actions":[{"url":"/items/get_emirate?preloader=false","oper":"loadOnClick"},{"oper":"clearValue","items":["area"]}]},{"visibility":"visible","value":"Ajman City","title":"Area","required":true,"options":[],"id":"area","error_msg":"Please select area","class":"select","actions":[{"url":"/items/get_area?preloader=false","oper":"loadOnClick"}]},{"visibility":"visible","value":"34534","type":"text","title":"Zip code (optional)","required":false,"regexp":"^[0-9a-zA-Z]{1,9}$","id":"zip_code","error_msg":"Please check Zip/Postal code. It should consist from 1 to 9 symbols and no special characters","class":"edit","actions":[]},{"visibility":"visible","value":"submit","type":"submit","title":"Update contact Information","id":"button_update","class":"button"}]}],"id":"web/profile/edit/location"},{"visibility":"visible","type":"body","title":"","sections":[{"header":[{"visibility":"visible","value":"Verify me","id":"label_66250","class":"label"}],"footer":[],"content":[{"visibility":"visible","type":"submit","title":"Verify me","id":"button_verified","class":"button"}]}],"id":"web/profile/edit/verification"},{"visibility":"visible","type":"body","title":"","sections":[{"header":[{"visibility":"disabled","value":"Request an Agent visit","id":"label_66250","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":true,"title":"As per the regulation from Central bank of UAE, you must verify your identity. Please select this option if you would like an agent to visit you at your convenient place and time to verify your identity on the spot. Agent will call you to confirm the date and time of the visit. [br] By clicking this checkbox you confirm that you have provided correct contact information.","id":"nec_visit","class":"check","actions":[]},{"visibility":"visible","value":"[color=#7FC76C]Al Fardan representative will reach out to you soon[/color]","title":"label_title","id":"label_result","class":"label"},{"visibility":"hidden","type":"submit","title":"Request a visit ","id":"button_update","extra":{"validate":false},"class":"button"}]}],"id":"web/profile/edit/nec"},{"type":"body","title":"","sections":[{"header":[{"value":"Identification details","id":"label_66250","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":"Emirates ID","title":"ID Type","required":false,"options":[{"value":"Emirates ID","title":"Emirates ID","actions":[]},{"value":"Diplomatic ID","title":"Diplomatic ID","actions":[{"oper":"clearValue","items":["id_issuer"]},{"oper":"toggleEnabled","items":["id_issuer"]}]}],"id":"id_type","error_msg":"Please check ID Type","class":"select"},{"visibility":"disabled","value":"AE","type":"country","title":"ID Issuer","required":false,"options":[],"id":"id_issuer","error_msg":"Please check ID Issuer","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"275654345658985","type":"text","title":"ID Number","required":true,"regexp":"^[0-9]{15}$","length":15,"id":"id_number","class":"edit","actions":[{"url":"/items/validate_id_number?preloader=false","oper":"validate"}]},{"visibility":"visible","value":{"year":"2025","month":"01","day":"01"},"title":"ID Expiration Date","required":true,"id":"expiration","extra":{"min":{"y":0,"m":0,"d":0},"max":{"y":20}},"class":"calendar"},{"visibility":"hidden","value":"2025-01-01","title":"ID Expiration Date","id":"expiration_disabled","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update identification details","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/identification"},{"type":"body","title":"","sections":[{"header":[{"visibility":"visible","value":"Marketing content","title":"label_title","id":"label_id_1506086740999","class":"label"}],"footer":[],"content":[{"value":true,"title":"Keep me up to date with new Western Union services and other special offers. Communications may be by text, email, phone and post. I can edit these settings anytime in my profile.","required":false,"regexp":"^(true|false)$","id":"keep","class":"check"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/marketing"},{"type":"body","title":"","sections":[{"header":[{"value":"Password","id":"label_31271","class":"label"}],"footer":[],"content":[{"visibility":"visible","type":"password","title":"Current password","required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","id":"old_password","icon":"secure","error_msg":"Please check password","class":"edit"},{"required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","options":[{"title":"8-16 characters","regexp":"^.{8,16}$"},{"title":"1 lowercase letter","regexp":".*[a-z].*"},{"title":"1 UPPERCASE letter","regexp":".*[A-Z].*"},{"title":"1 number character","regexp":".*[0-9].*"},{"title":"1 special character","regexp":".*[ !#$%&amp;'\\(\\)*+,-./:;&lt;=&gt;?@\\[\\]\\^_`{|}~].*"}],"id":"password","extra":{"title2":"Confirm password","title1":"Password"},"error_msg":"Please check password","class":"password"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update password","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/password"},{"type":"body","title":"","sections":[{"header":[{"visibility":"visible","value":"Security question","title":"label_title","id":"label_id_1506086740999","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"","title":"Security question","required":true,"options":[{"value":"Where did you spend childhood summers?","title":"Where did you spend childhood summers?"},{"value":"What is your favorite pet's name?","title":"What is your favorite pet's name?"},{"value":"What is your mother's maiden name?","title":"What is your mother's maiden name?"},{"value":"What street did you grow up on?","title":"What street did you grow up on?"},{"value":"What is your best friend's name?","title":"What is your best friend's name?"},{"value":"What is your favorite hobby?","title":"What is your favorite hobby?"},{"value":"What is your favorite movie?","title":"What is your favorite movie?"},{"value":"What is your place of birth?","title":"What is your place of birth?"},{"value":"What is your favorite TV show?","title":"What is your favorite TV show?"},{"value":"What is your favorite teacher's name?","title":"What is your favorite teacher's name?"},{"value":"What is your high school mascot?","title":"What is your high school mascot?"}],"id":"question","class":"select"},{"visibility":"visible","value":"","type":"text","title":"Answer","required":true,"regexp":"^[a-zA-Z0-9\\s]{1,30}$","id":"answer","error_msg":"Please enter answer","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/questions"}]},"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"de9997fb46d03dfe061eda9229b5d0ce74b267c1e2ca2fc9d79ebb4bbd5c836f","id":"web/profile/edit/location","data":{"country":"UA","street1":"sdfsfd","street2":"street2","emirate":"Ajman","area":"Ajman City","zip_code":"32454","button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":false},"timeout":900,"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/profile/edit/location","phone_verified":"true","page_name":"/profile/edit/location","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"41601","TransactionID":""},"_time_zone":120},"error_msg":[{"type":"success","id":"web/profile/edit/location","error_msg":"Contact information has been updated"}],"data":{"next_page":"web/profile/edit","grid":{"type":"two_column","title":"Profile information","header":"HeaderStart","components":{"right":["web/profile/edit/verification","web/profile/edit/identification","web/profile/edit/nec","web/profile/edit/password","web/profile/edit/marketing"],"left":["web/profile/edit","web/profile/edit/location","web/profile/edit/questions"]}},"forms":[{"type":"body","sections":[{"header":[{"value":"Personal information","id":"label_62322","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"JozhQPHHj","type":"text","title":"First name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"first_name","error_msg":"Please check first name","class":"edit"},{"visibility":"visible","value":"UQyfzosZsD","type":"text","title":"Last name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,35})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"last_name","error_msg":"Please check last name","class":"edit"},{"visibility":"visible","value":"alex.mywu.qa@gmail.com","type":"email","title":"Email","required":true,"regexp":"^[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~@]+(?:\\.[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~@]+)*@(?:[a-z0-9]([-a-z0-9]{0,61}[a-z0-9])?\\.)*(?:aero|arpa|asia|biz|cat|com|coop|edu|gov|info|int|jobs|mil|mobi|museum|name|net|org|pro|tel|travel|[a-z][a-z])$","id":"email","class":"edit"},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"Date of birth","required":true,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"birth","extra":{"min":{"y":-100},"max":{"y":-21,"m":0,"d":0}},"error_msg":"Please check date of birth","class":"calendar","actions":[]},{"visibility":"hidden","value":"1975-01-01","title":"Date of birth","id":"birth_disabled","class":"edit"},{"visibility":"visible","value":"SA","type":"country","title":"Country of birth","required":true,"regexp":"^[A-Z]{2}$","options":[],"id":"country_birthday","error_msg":"Please select place of birth","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"AR","type":"country","title":"Nationality","required":true,"options":[],"id":"country_nationality","error_msg":"Please select nationality","class":"select","actions":[{"url":"/items/country_nationality","oper":"init"}]},{"visibility":"visible","value":"Airline/Maritime Employee","title":"Occupation","required":true,"options":[{"value":"Airline/Maritime Employee","title":"Airline/Maritime Employee"},{"value":"Art/Entertainment/Media","title":"Art/Entertainment/Media Professional"},{"value":"Civil/Government Employee","title":"Civil/Government Employee"},{"value":"Domestic Helper","title":"Domestic Helper"},{"value":"Driver","title":"Driver"},{"value":"Teacher/Educator","title":"Teacher/Educator"},{"value":"Hotel/Restaurant/Leisure","title":"Hotel/Restaurant/Leisure Services Employee"},{"value":"Housewife/Child Care","title":"Housewife/Child Care"},{"value":"IT and Tech Professional","title":"IT and Tech Professional"},{"value":"Laborer-Agriculture","title":"Laborer-Agriculture"},{"value":"Laborer-Construction","title":"Laborer-Construction"},{"value":"Laborer-Manufacturing","title":"Laborer-Manufacturing"},{"value":"Laborer- Oil/Gas/Mining","title":"Laborer- Oil/Gas/Mining/Forestry"},{"value":"Medical/Health Care","title":"Medical and Health Care Professional"},{"value":"Non-profit/Volunteer","title":"Non-profit/Volunteer"},{"value":"Cosmetic/Personal Care","title":"Cosmetic/Personal Care Services"},{"value":"Law Enforcement/Military","title":"Law Enforcement/Military Professional"},{"value":"Office Professional","title":"Office Professional"},{"value":"Religious/Church Servant","title":"Religious/Church Servant"},{"value":"Retail Sales","title":"Retail Sales"},{"value":"Retired","title":"Retired"},{"value":"Sales/Insurance/Real Estate","title":"Sales/Insurance/Real Estate Professional"},{"value":"Science/Research Professional","title":"Science/Research Professional"},{"value":"Security Guard","title":"Security Guard"},{"value":"Self-Employed","title":"Self-Employed"},{"value":"Skilled Trade/Specialist","title":"Skilled Trade/Specialist"},{"value":"Student","title":"Student"},{"value":"Unemployed","title":"Unemployed"}],"id":"occupation","error_msg":"Please check occupation","class":"select","actions":[]},{"visibility":"visible","value":{"type":"mob","plus":"+","number":"711111111","country_code":"380"},"required":true,"regexp":"^mob-[0-9]{1,4}-[0-9]{4,17}$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update personal information","id":"button_update","class":"button"}]}],"id":"web/profile/edit"},{"type":"body","title":"","sections":[{"header":[{"value":"Contact information","id":"label_94217","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":"AE","type":"country","title":"Country","required":false,"regexp":"^[A-Z]{2}$","options":[],"id":"country","error_msg":"Please select country","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"sdfsfd","type":"text","title":"Street address 1","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street1","error_msg":"Street address 1 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"street2","type":"text","title":"Street address 2","required":false,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street2","error_msg":"Street address 2 field should be between 2 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"Ajman","title":"Emirate","required":true,"options":[{"value":"Abu Dhabi","title":"Abu Dhabi"},{"value":"Ajman","title":"Ajman"},{"value":"Dubai","title":"Dubai"},{"value":"Fujairah","title":"Fujairah"},{"value":"Ras Al Khaimah","title":"Ras Al Khaimah"},{"value":"Sharjah","title":"Sharjah"},{"value":"Umm Al Quwain","title":"Umm Al Quwain"}],"id":"emirate","error_msg":"Please select emirate","class":"select","actions":[{"url":"/items/get_emirate?preloader=false","oper":"loadOnClick"},{"oper":"clearValue","items":["area"]}]},{"visibility":"visible","value":"Ajman City","title":"Area","required":true,"options":[],"id":"area","error_msg":"Please select area","class":"select","actions":[{"url":"/items/get_area?preloader=false","oper":"loadOnClick"}]},{"visibility":"visible","value":"32454","type":"text","title":"Zip code (optional)","required":false,"regexp":"^[0-9a-zA-Z]{1,9}$","id":"zip_code","error_msg":"Please check Zip/Postal code. It should consist from 1 to 9 symbols and no special characters","class":"edit","actions":[]},{"visibility":"visible","value":"submit","type":"submit","title":"Update contact Information","id":"button_update","class":"button"}]}],"id":"web/profile/edit/location"},{"visibility":"visible","type":"body","title":"","sections":[{"header":[{"visibility":"visible","value":"Verify me","id":"label_66250","class":"label"}],"footer":[],"content":[{"visibility":"visible","type":"submit","title":"Verify me","id":"button_verified","class":"button"}]}],"id":"web/profile/edit/verification"},{"visibility":"visible","type":"body","title":"","sections":[{"header":[{"visibility":"disabled","value":"Request an Agent visit","id":"label_66250","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":true,"title":"As per the regulation from Central bank of UAE, you must verify your identity. Please select this option if you would like an agent to visit you at your convenient place and time to verify your identity on the spot. Agent will call you to confirm the date and time of the visit. [br] By clicking this checkbox you confirm that you have provided correct contact information.","id":"nec_visit","class":"check","actions":[]},{"visibility":"visible","value":"[color=#7FC76C]Al Fardan representative will reach out to you soon[/color]","title":"label_title","id":"label_result","class":"label"},{"visibility":"hidden","type":"submit","title":"Request a visit ","id":"button_update","extra":{"validate":false},"class":"button"}]}],"id":"web/profile/edit/nec"},{"type":"body","title":"","sections":[{"header":[{"value":"Identification details","id":"label_66250","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":"Emirates ID","title":"ID Type","required":false,"options":[{"value":"Emirates ID","title":"Emirates ID","actions":[]},{"value":"Diplomatic ID","title":"Diplomatic ID","actions":[{"oper":"clearValue","items":["id_issuer"]},{"oper":"toggleEnabled","items":["id_issuer"]}]}],"id":"id_type","error_msg":"Please check ID Type","class":"select"},{"visibility":"disabled","value":"AE","type":"country","title":"ID Issuer","required":false,"options":[],"id":"id_issuer","error_msg":"Please check ID Issuer","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"275654345658985","type":"text","title":"ID Number","required":true,"regexp":"^[0-9]{15}$","length":15,"id":"id_number","class":"edit","actions":[{"url":"/items/validate_id_number?preloader=false","oper":"validate"}]},{"visibility":"visible","value":{"year":"2025","month":"01","day":"01"},"title":"ID Expiration Date","required":true,"id":"expiration","extra":{"min":{"y":0,"m":0,"d":0},"max":{"y":20}},"class":"calendar"},{"visibility":"hidden","value":"2025-01-01","title":"ID Expiration Date","id":"expiration_disabled","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update identification details","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/identification"},{"type":"body","title":"","sections":[{"header":[{"visibility":"visible","value":"Marketing content","title":"label_title","id":"label_id_1506086740999","class":"label"}],"footer":[],"content":[{"value":true,"title":"Keep me up to date with new Western Union services and other special offers. Communications may be by text, email, phone and post. I can edit these settings anytime in my profile.","required":false,"regexp":"^(true|false)$","id":"keep","class":"check"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/marketing"},{"type":"body","title":"","sections":[{"header":[{"value":"Password","id":"label_31271","class":"label"}],"footer":[],"content":[{"visibility":"visible","type":"password","title":"Current password","required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","id":"old_password","icon":"secure","error_msg":"Please check password","class":"edit"},{"required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","options":[{"title":"8-16 characters","regexp":"^.{8,16}$"},{"title":"1 lowercase letter","regexp":".*[a-z].*"},{"title":"1 UPPERCASE letter","regexp":".*[A-Z].*"},{"title":"1 number character","regexp":".*[0-9].*"},{"title":"1 special character","regexp":".*[ !#$%&amp;'\\(\\)*+,-./:;&lt;=&gt;?@\\[\\]\\^_`{|}~].*"}],"id":"password","extra":{"title2":"Confirm password","title1":"Password"},"error_msg":"Please check password","class":"password"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update password","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/password"},{"type":"body","title":"","sections":[{"header":[{"visibility":"visible","value":"Security question","title":"label_title","id":"label_id_1506086740999","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"","title":"Security question","required":true,"options":[{"value":"Where did you spend childhood summers?","title":"Where did you spend childhood summers?"},{"value":"What is your favorite pet's name?","title":"What is your favorite pet's name?"},{"value":"What is your mother's maiden name?","title":"What is your mother's maiden name?"},{"value":"What street did you grow up on?","title":"What street did you grow up on?"},{"value":"What is your best friend's name?","title":"What is your best friend's name?"},{"value":"What is your favorite hobby?","title":"What is your favorite hobby?"},{"value":"What is your favorite movie?","title":"What is your favorite movie?"},{"value":"What is your place of birth?","title":"What is your place of birth?"},{"value":"What is your favorite TV show?","title":"What is your favorite TV show?"},{"value":"What is your favorite teacher's name?","title":"What is your favorite teacher's name?"},{"value":"What is your high school mascot?","title":"What is your high school mascot?"}],"id":"question","class":"select"},{"visibility":"visible","value":"","type":"text","title":"Answer","required":true,"regexp":"^[a-zA-Z0-9\\s]{1,30}$","id":"answer","error_msg":"Please enter answer","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/questions"}]},"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"de9997fb46d03dfe061eda9229b5d0ce74b267c1e2ca2fc9d79ebb4bbd5c836f","id":"web/profile/edit/location","data":{"country":"AE","street1":"MFuBjEKpCkFtahqYAUEkAFnYgqpABOlpTJVrgFjZpARWvcWANerCsxVSWGhUhWFKOCVuxgbIBslaSVMTxCnHw","street2":"street2","emirate":"Ajman","area":"Ajman City","zip_code":"32454","button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":false},"timeout":900,"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/profile/edit/location","phone_verified":"true","page_name":"/profile/edit/location","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"41601","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"street1","error_msg":"Street address 1 field cannot be empty and should be between 3 and 84 symbols long"}],"code":0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResponseCode - PASS
+status":"error" - PASS
+"code":0 - PASS
+Street address 1 field cannot be empty and should be between 3 and 84 symbols long - PASS
+</t>
+  </si>
+  <si>
+    <t>{"token":"de9997fb46d03dfe061eda9229b5d0ce74b267c1e2ca2fc9d79ebb4bbd5c836f","id":"web/profile/edit/location","data":{"country":"AE","street1":"qwe2 - , . / '","street2":"street2","emirate":"Ajman","area":"Ajman City","zip_code":"32454","button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":false},"timeout":900,"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/profile/edit/location","phone_verified":"true","page_name":"/profile/edit/location","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"41601","TransactionID":""},"_time_zone":120},"error_msg":[{"type":"success","id":"web/profile/edit/location","error_msg":"Contact information has been updated"}],"data":{"next_page":"web/profile/edit","grid":{"type":"two_column","title":"Profile information","header":"HeaderStart","components":{"right":["web/profile/edit/verification","web/profile/edit/identification","web/profile/edit/nec","web/profile/edit/password","web/profile/edit/marketing"],"left":["web/profile/edit","web/profile/edit/location","web/profile/edit/questions"]}},"forms":[{"type":"body","sections":[{"header":[{"value":"Personal information","id":"label_62322","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"JozhQPHHj","type":"text","title":"First name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"first_name","error_msg":"Please check first name","class":"edit"},{"visibility":"visible","value":"UQyfzosZsD","type":"text","title":"Last name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,35})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"last_name","error_msg":"Please check last name","class":"edit"},{"visibility":"visible","value":"alex.mywu.qa@gmail.com","type":"email","title":"Email","required":true,"regexp":"^[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~@]+(?:\\.[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~@]+)*@(?:[a-z0-9]([-a-z0-9]{0,61}[a-z0-9])?\\.)*(?:aero|arpa|asia|biz|cat|com|coop|edu|gov|info|int|jobs|mil|mobi|museum|name|net|org|pro|tel|travel|[a-z][a-z])$","id":"email","class":"edit"},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"Date of birth","required":true,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"birth","extra":{"min":{"y":-100},"max":{"y":-21,"m":0,"d":0}},"error_msg":"Please check date of birth","class":"calendar","actions":[]},{"visibility":"hidden","value":"1975-01-01","title":"Date of birth","id":"birth_disabled","class":"edit"},{"visibility":"visible","value":"SA","type":"country","title":"Country of birth","required":true,"regexp":"^[A-Z]{2}$","options":[],"id":"country_birthday","error_msg":"Please select place of birth","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"AR","type":"country","title":"Nationality","required":true,"options":[],"id":"country_nationality","error_msg":"Please select nationality","class":"select","actions":[{"url":"/items/country_nationality","oper":"init"}]},{"visibility":"visible","value":"Airline/Maritime Employee","title":"Occupation","required":true,"options":[{"value":"Airline/Maritime Employee","title":"Airline/Maritime Employee"},{"value":"Art/Entertainment/Media","title":"Art/Entertainment/Media Professional"},{"value":"Civil/Government Employee","title":"Civil/Government Employee"},{"value":"Domestic Helper","title":"Domestic Helper"},{"value":"Driver","title":"Driver"},{"value":"Teacher/Educator","title":"Teacher/Educator"},{"value":"Hotel/Restaurant/Leisure","title":"Hotel/Restaurant/Leisure Services Employee"},{"value":"Housewife/Child Care","title":"Housewife/Child Care"},{"value":"IT and Tech Professional","title":"IT and Tech Professional"},{"value":"Laborer-Agriculture","title":"Laborer-Agriculture"},{"value":"Laborer-Construction","title":"Laborer-Construction"},{"value":"Laborer-Manufacturing","title":"Laborer-Manufacturing"},{"value":"Laborer- Oil/Gas/Mining","title":"Laborer- Oil/Gas/Mining/Forestry"},{"value":"Medical/Health Care","title":"Medical and Health Care Professional"},{"value":"Non-profit/Volunteer","title":"Non-profit/Volunteer"},{"value":"Cosmetic/Personal Care","title":"Cosmetic/Personal Care Services"},{"value":"Law Enforcement/Military","title":"Law Enforcement/Military Professional"},{"value":"Office Professional","title":"Office Professional"},{"value":"Religious/Church Servant","title":"Religious/Church Servant"},{"value":"Retail Sales","title":"Retail Sales"},{"value":"Retired","title":"Retired"},{"value":"Sales/Insurance/Real Estate","title":"Sales/Insurance/Real Estate Professional"},{"value":"Science/Research Professional","title":"Science/Research Professional"},{"value":"Security Guard","title":"Security Guard"},{"value":"Self-Employed","title":"Self-Employed"},{"value":"Skilled Trade/Specialist","title":"Skilled Trade/Specialist"},{"value":"Student","title":"Student"},{"value":"Unemployed","title":"Unemployed"}],"id":"occupation","error_msg":"Please check occupation","class":"select","actions":[]},{"visibility":"visible","value":{"type":"mob","plus":"+","number":"711111111","country_code":"380"},"required":true,"regexp":"^mob-[0-9]{1,4}-[0-9]{4,17}$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update personal information","id":"button_update","class":"button"}]}],"id":"web/profile/edit"},{"type":"body","title":"","sections":[{"header":[{"value":"Contact information","id":"label_94217","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":"AE","type":"country","title":"Country","required":false,"regexp":"^[A-Z]{2}$","options":[],"id":"country","error_msg":"Please select country","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"qwe2 - , . / '","type":"text","title":"Street address 1","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street1","error_msg":"Street address 1 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"street2","type":"text","title":"Street address 2","required":false,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street2","error_msg":"Street address 2 field should be between 2 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"Ajman","title":"Emirate","required":true,"options":[{"value":"Abu Dhabi","title":"Abu Dhabi"},{"value":"Ajman","title":"Ajman"},{"value":"Dubai","title":"Dubai"},{"value":"Fujairah","title":"Fujairah"},{"value":"Ras Al Khaimah","title":"Ras Al Khaimah"},{"value":"Sharjah","title":"Sharjah"},{"value":"Umm Al Quwain","title":"Umm Al Quwain"}],"id":"emirate","error_msg":"Please select emirate","class":"select","actions":[{"url":"/items/get_emirate?preloader=false","oper":"loadOnClick"},{"oper":"clearValue","items":["area"]}]},{"visibility":"visible","value":"Ajman City","title":"Area","required":true,"options":[],"id":"area","error_msg":"Please select area","class":"select","actions":[{"url":"/items/get_area?preloader=false","oper":"loadOnClick"}]},{"visibility":"visible","value":"32454","type":"text","title":"Zip code (optional)","required":false,"regexp":"^[0-9a-zA-Z]{1,9}$","id":"zip_code","error_msg":"Please check Zip/Postal code. It should consist from 1 to 9 symbols and no special characters","class":"edit","actions":[]},{"visibility":"visible","value":"submit","type":"submit","title":"Update contact Information","id":"button_update","class":"button"}]}],"id":"web/profile/edit/location"},{"visibility":"visible","type":"body","title":"","sections":[{"header":[{"visibility":"visible","value":"Verify me","id":"label_66250","class":"label"}],"footer":[],"content":[{"visibility":"visible","type":"submit","title":"Verify me","id":"button_verified","class":"button"}]}],"id":"web/profile/edit/verification"},{"visibility":"visible","type":"body","title":"","sections":[{"header":[{"visibility":"disabled","value":"Request an Agent visit","id":"label_66250","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":true,"title":"As per the regulation from Central bank of UAE, you must verify your identity. Please select this option if you would like an agent to visit you at your convenient place and time to verify your identity on the spot. Agent will call you to confirm the date and time of the visit. [br] By clicking this checkbox you confirm that you have provided correct contact information.","id":"nec_visit","class":"check","actions":[]},{"visibility":"visible","value":"[color=#7FC76C]Al Fardan representative will reach out to you soon[/color]","title":"label_title","id":"label_result","class":"label"},{"visibility":"hidden","type":"submit","title":"Request a visit ","id":"button_update","extra":{"validate":false},"class":"button"}]}],"id":"web/profile/edit/nec"},{"type":"body","title":"","sections":[{"header":[{"value":"Identification details","id":"label_66250","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":"Emirates ID","title":"ID Type","required":false,"options":[{"value":"Emirates ID","title":"Emirates ID","actions":[]},{"value":"Diplomatic ID","title":"Diplomatic ID","actions":[{"oper":"clearValue","items":["id_issuer"]},{"oper":"toggleEnabled","items":["id_issuer"]}]}],"id":"id_type","error_msg":"Please check ID Type","class":"select"},{"visibility":"disabled","value":"AE","type":"country","title":"ID Issuer","required":false,"options":[],"id":"id_issuer","error_msg":"Please check ID Issuer","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"275654345658985","type":"text","title":"ID Number","required":true,"regexp":"^[0-9]{15}$","length":15,"id":"id_number","class":"edit","actions":[{"url":"/items/validate_id_number?preloader=false","oper":"validate"}]},{"visibility":"visible","value":{"year":"2025","month":"01","day":"01"},"title":"ID Expiration Date","required":true,"id":"expiration","extra":{"min":{"y":0,"m":0,"d":0},"max":{"y":20}},"class":"calendar"},{"visibility":"hidden","value":"2025-01-01","title":"ID Expiration Date","id":"expiration_disabled","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update identification details","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/identification"},{"type":"body","title":"","sections":[{"header":[{"visibility":"visible","value":"Marketing content","title":"label_title","id":"label_id_1506086740999","class":"label"}],"footer":[],"content":[{"value":true,"title":"Keep me up to date with new Western Union services and other special offers. Communications may be by text, email, phone and post. I can edit these settings anytime in my profile.","required":false,"regexp":"^(true|false)$","id":"keep","class":"check"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/marketing"},{"type":"body","title":"","sections":[{"header":[{"value":"Password","id":"label_31271","class":"label"}],"footer":[],"content":[{"visibility":"visible","type":"password","title":"Current password","required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","id":"old_password","icon":"secure","error_msg":"Please check password","class":"edit"},{"required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","options":[{"title":"8-16 characters","regexp":"^.{8,16}$"},{"title":"1 lowercase letter","regexp":".*[a-z].*"},{"title":"1 UPPERCASE letter","regexp":".*[A-Z].*"},{"title":"1 number character","regexp":".*[0-9].*"},{"title":"1 special character","regexp":".*[ !#$%&amp;'\\(\\)*+,-./:;&lt;=&gt;?@\\[\\]\\^_`{|}~].*"}],"id":"password","extra":{"title2":"Confirm password","title1":"Password"},"error_msg":"Please check password","class":"password"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update password","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/password"},{"type":"body","title":"","sections":[{"header":[{"visibility":"visible","value":"Security question","title":"label_title","id":"label_id_1506086740999","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"","title":"Security question","required":true,"options":[{"value":"Where did you spend childhood summers?","title":"Where did you spend childhood summers?"},{"value":"What is your favorite pet's name?","title":"What is your favorite pet's name?"},{"value":"What is your mother's maiden name?","title":"What is your mother's maiden name?"},{"value":"What street did you grow up on?","title":"What street did you grow up on?"},{"value":"What is your best friend's name?","title":"What is your best friend's name?"},{"value":"What is your favorite hobby?","title":"What is your favorite hobby?"},{"value":"What is your favorite movie?","title":"What is your favorite movie?"},{"value":"What is your place of birth?","title":"What is your place of birth?"},{"value":"What is your favorite TV show?","title":"What is your favorite TV show?"},{"value":"What is your favorite teacher's name?","title":"What is your favorite teacher's name?"},{"value":"What is your high school mascot?","title":"What is your high school mascot?"}],"id":"question","class":"select"},{"visibility":"visible","value":"","type":"text","title":"Answer","required":true,"regexp":"^[a-zA-Z0-9\\s]{1,30}$","id":"answer","error_msg":"Please enter answer","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/questions"}]},"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"de9997fb46d03dfe061eda9229b5d0ce74b267c1e2ca2fc9d79ebb4bbd5c836f","id":"web/profile/edit/location","data":{"country":"AE","street1":"sdfsfd","street2":"jDXHwbtBfEMwhQAdKwozLOSobxhaIkdsghJDBhQSMyFgBhUTBVvvHApQWeXVxWFnNIzHfaodidyaUdysXbbbt","emirate":"Ajman","area":"Ajman City","zip_code":"32454","button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":false},"timeout":900,"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/profile/edit/location","phone_verified":"true","page_name":"/profile/edit/location","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"41601","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"street2","error_msg":"Street address 2 field should be between 2 and 84 symbols long"}],"code":0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResponseCode - PASS
+status":"error" - PASS
+"code":0 - PASS
+Street address 2 field should be between 2 and 84 symbols long - PASS
+</t>
+  </si>
+  <si>
+    <t>{"token":"de9997fb46d03dfe061eda9229b5d0ce74b267c1e2ca2fc9d79ebb4bbd5c836f","id":"web/profile/edit/location","data":{"country":"AE","street1":"sdfsfd","street2":"street2","emirate":"'Ajman City Test","area":"Ajman City","zip_code":"32454","button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":false},"timeout":900,"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/profile/edit/location","phone_verified":"true","page_name":"/profile/edit/location","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"41601","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"emirate","error_msg":"Please select emirate"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"de9997fb46d03dfe061eda9229b5d0ce74b267c1e2ca2fc9d79ebb4bbd5c836f","id":"web/profile/edit/location","data":{"country":"AE","street1":"sdfsfd","street2":"street2","emirate":"Ajman","area":"'Ajman City Test","zip_code":"32454","button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":false},"timeout":900,"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/profile/edit/location","phone_verified":"true","page_name":"/profile/edit/location","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"41601","TransactionID":""},"_time_zone":120},"error_msg":[{"type":"success","id":"web/profile/edit/location","error_msg":"Contact information has been updated"}],"data":{"next_page":"web/profile/edit","grid":{"type":"two_column","title":"Profile information","header":"HeaderStart","components":{"right":["web/profile/edit/verification","web/profile/edit/identification","web/profile/edit/nec","web/profile/edit/password","web/profile/edit/marketing"],"left":["web/profile/edit","web/profile/edit/location","web/profile/edit/questions"]}},"forms":[{"type":"body","sections":[{"header":[{"value":"Personal information","id":"label_62322","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"JozhQPHHj","type":"text","title":"First name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"first_name","error_msg":"Please check first name","class":"edit"},{"visibility":"visible","value":"UQyfzosZsD","type":"text","title":"Last name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,35})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"last_name","error_msg":"Please check last name","class":"edit"},{"visibility":"visible","value":"alex.mywu.qa@gmail.com","type":"email","title":"Email","required":true,"regexp":"^[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~@]+(?:\\.[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~@]+)*@(?:[a-z0-9]([-a-z0-9]{0,61}[a-z0-9])?\\.)*(?:aero|arpa|asia|biz|cat|com|coop|edu|gov|info|int|jobs|mil|mobi|museum|name|net|org|pro|tel|travel|[a-z][a-z])$","id":"email","class":"edit"},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"Date of birth","required":true,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"birth","extra":{"min":{"y":-100},"max":{"y":-21,"m":0,"d":0}},"error_msg":"Please check date of birth","class":"calendar","actions":[]},{"visibility":"hidden","value":"1975-01-01","title":"Date of birth","id":"birth_disabled","class":"edit"},{"visibility":"visible","value":"SA","type":"country","title":"Country of birth","required":true,"regexp":"^[A-Z]{2}$","options":[],"id":"country_birthday","error_msg":"Please select place of birth","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"AR","type":"country","title":"Nationality","required":true,"options":[],"id":"country_nationality","error_msg":"Please select nationality","class":"select","actions":[{"url":"/items/country_nationality","oper":"init"}]},{"visibility":"visible","value":"Airline/Maritime Employee","title":"Occupation","required":true,"options":[{"value":"Airline/Maritime Employee","title":"Airline/Maritime Employee"},{"value":"Art/Entertainment/Media","title":"Art/Entertainment/Media Professional"},{"value":"Civil/Government Employee","title":"Civil/Government Employee"},{"value":"Domestic Helper","title":"Domestic Helper"},{"value":"Driver","title":"Driver"},{"value":"Teacher/Educator","title":"Teacher/Educator"},{"value":"Hotel/Restaurant/Leisure","title":"Hotel/Restaurant/Leisure Services Employee"},{"value":"Housewife/Child Care","title":"Housewife/Child Care"},{"value":"IT and Tech Professional","title":"IT and Tech Professional"},{"value":"Laborer-Agriculture","title":"Laborer-Agriculture"},{"value":"Laborer-Construction","title":"Laborer-Construction"},{"value":"Laborer-Manufacturing","title":"Laborer-Manufacturing"},{"value":"Laborer- Oil/Gas/Mining","title":"Laborer- Oil/Gas/Mining/Forestry"},{"value":"Medical/Health Care","title":"Medical and Health Care Professional"},{"value":"Non-profit/Volunteer","title":"Non-profit/Volunteer"},{"value":"Cosmetic/Personal Care","title":"Cosmetic/Personal Care Services"},{"value":"Law Enforcement/Military","title":"Law Enforcement/Military Professional"},{"value":"Office Professional","title":"Office Professional"},{"value":"Religious/Church Servant","title":"Religious/Church Servant"},{"value":"Retail Sales","title":"Retail Sales"},{"value":"Retired","title":"Retired"},{"value":"Sales/Insurance/Real Estate","title":"Sales/Insurance/Real Estate Professional"},{"value":"Science/Research Professional","title":"Science/Research Professional"},{"value":"Security Guard","title":"Security Guard"},{"value":"Self-Employed","title":"Self-Employed"},{"value":"Skilled Trade/Specialist","title":"Skilled Trade/Specialist"},{"value":"Student","title":"Student"},{"value":"Unemployed","title":"Unemployed"}],"id":"occupation","error_msg":"Please check occupation","class":"select","actions":[]},{"visibility":"visible","value":{"type":"mob","plus":"+","number":"711111111","country_code":"380"},"required":true,"regexp":"^mob-[0-9]{1,4}-[0-9]{4,17}$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update personal information","id":"button_update","class":"button"}]}],"id":"web/profile/edit"},{"type":"body","title":"","sections":[{"header":[{"value":"Contact information","id":"label_94217","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":"AE","type":"country","title":"Country","required":false,"regexp":"^[A-Z]{2}$","options":[],"id":"country","error_msg":"Please select country","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"sdfsfd","type":"text","title":"Street address 1","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street1","error_msg":"Street address 1 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"street2","type":"text","title":"Street address 2","required":false,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street2","error_msg":"Street address 2 field should be between 2 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"Ajman","title":"Emirate","required":true,"options":[{"value":"Abu Dhabi","title":"Abu Dhabi"},{"value":"Ajman","title":"Ajman"},{"value":"Dubai","title":"Dubai"},{"value":"Fujairah","title":"Fujairah"},{"value":"Ras Al Khaimah","title":"Ras Al Khaimah"},{"value":"Sharjah","title":"Sharjah"},{"value":"Umm Al Quwain","title":"Umm Al Quwain"}],"id":"emirate","error_msg":"Please select emirate","class":"select","actions":[{"url":"/items/get_emirate?preloader=false","oper":"loadOnClick"},{"oper":"clearValue","items":["area"]}]},{"visibility":"visible","value":"'Ajman City Test","title":"Area","required":true,"options":[],"id":"area","error_msg":"Please select area","class":"select","actions":[{"url":"/items/get_area?preloader=false","oper":"loadOnClick"}]},{"visibility":"visible","value":"32454","type":"text","title":"Zip code (optional)","required":false,"regexp":"^[0-9a-zA-Z]{1,9}$","id":"zip_code","error_msg":"Please check Zip/Postal code. It should consist from 1 to 9 symbols and no special characters","class":"edit","actions":[]},{"visibility":"visible","value":"submit","type":"submit","title":"Update contact Information","id":"button_update","class":"button"}]}],"id":"web/profile/edit/location"},{"visibility":"visible","type":"body","title":"","sections":[{"header":[{"visibility":"visible","value":"Verify me","id":"label_66250","class":"label"}],"footer":[],"content":[{"visibility":"visible","type":"submit","title":"Verify me","id":"button_verified","class":"button"}]}],"id":"web/profile/edit/verification"},{"visibility":"visible","type":"body","title":"","sections":[{"header":[{"visibility":"disabled","value":"Request an Agent visit","id":"label_66250","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":true,"title":"As per the regulation from Central bank of UAE, you must verify your identity. Please select this option if you would like an agent to visit you at your convenient place and time to verify your identity on the spot. Agent will call you to confirm the date and time of the visit. [br] By clicking this checkbox you confirm that you have provided correct contact information.","id":"nec_visit","class":"check","actions":[]},{"visibility":"visible","value":"[color=#7FC76C]Al Fardan representative will reach out to you soon[/color]","title":"label_title","id":"label_result","class":"label"},{"visibility":"hidden","type":"submit","title":"Request a visit ","id":"button_update","extra":{"validate":false},"class":"button"}]}],"id":"web/profile/edit/nec"},{"type":"body","title":"","sections":[{"header":[{"value":"Identification details","id":"label_66250","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":"Emirates ID","title":"ID Type","required":false,"options":[{"value":"Emirates ID","title":"Emirates ID","actions":[]},{"value":"Diplomatic ID","title":"Diplomatic ID","actions":[{"oper":"clearValue","items":["id_issuer"]},{"oper":"toggleEnabled","items":["id_issuer"]}]}],"id":"id_type","error_msg":"Please check ID Type","class":"select"},{"visibility":"disabled","value":"AE","type":"country","title":"ID Issuer","required":false,"options":[],"id":"id_issuer","error_msg":"Please check ID Issuer","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"275654345658985","type":"text","title":"ID Number","required":true,"regexp":"^[0-9]{15}$","length":15,"id":"id_number","class":"edit","actions":[{"url":"/items/validate_id_number?preloader=false","oper":"validate"}]},{"visibility":"visible","value":{"year":"2025","month":"01","day":"01"},"title":"ID Expiration Date","required":true,"id":"expiration","extra":{"min":{"y":0,"m":0,"d":0},"max":{"y":20}},"class":"calendar"},{"visibility":"hidden","value":"2025-01-01","title":"ID Expiration Date","id":"expiration_disabled","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update identification details","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/identification"},{"type":"body","title":"","sections":[{"header":[{"visibility":"visible","value":"Marketing content","title":"label_title","id":"label_id_1506086740999","class":"label"}],"footer":[],"content":[{"value":true,"title":"Keep me up to date with new Western Union services and other special offers. Communications may be by text, email, phone and post. I can edit these settings anytime in my profile.","required":false,"regexp":"^(true|false)$","id":"keep","class":"check"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/marketing"},{"type":"body","title":"","sections":[{"header":[{"value":"Password","id":"label_31271","class":"label"}],"footer":[],"content":[{"visibility":"visible","type":"password","title":"Current password","required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","id":"old_password","icon":"secure","error_msg":"Please check password","class":"edit"},{"required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","options":[{"title":"8-16 characters","regexp":"^.{8,16}$"},{"title":"1 lowercase letter","regexp":".*[a-z].*"},{"title":"1 UPPERCASE letter","regexp":".*[A-Z].*"},{"title":"1 number character","regexp":".*[0-9].*"},{"title":"1 special character","regexp":".*[ !#$%&amp;'\\(\\)*+,-./:;&lt;=&gt;?@\\[\\]\\^_`{|}~].*"}],"id":"password","extra":{"title2":"Confirm password","title1":"Password"},"error_msg":"Please check password","class":"password"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update password","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/password"},{"type":"body","title":"","sections":[{"header":[{"visibility":"visible","value":"Security question","title":"label_title","id":"label_id_1506086740999","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"","title":"Security question","required":true,"options":[{"value":"Where did you spend childhood summers?","title":"Where did you spend childhood summers?"},{"value":"What is your favorite pet's name?","title":"What is your favorite pet's name?"},{"value":"What is your mother's maiden name?","title":"What is your mother's maiden name?"},{"value":"What street did you grow up on?","title":"What street did you grow up on?"},{"value":"What is your best friend's name?","title":"What is your best friend's name?"},{"value":"What is your favorite hobby?","title":"What is your favorite hobby?"},{"value":"What is your favorite movie?","title":"What is your favorite movie?"},{"value":"What is your place of birth?","title":"What is your place of birth?"},{"value":"What is your favorite TV show?","title":"What is your favorite TV show?"},{"value":"What is your favorite teacher's name?","title":"What is your favorite teacher's name?"},{"value":"What is your high school mascot?","title":"What is your high school mascot?"}],"id":"question","class":"select"},{"visibility":"visible","value":"","type":"text","title":"Answer","required":true,"regexp":"^[a-zA-Z0-9\\s]{1,30}$","id":"answer","error_msg":"Please enter answer","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/questions"}]},"code":0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResponseCode - FAILL
+status":"error" - FAIL
+"code":0 - PASS
+</t>
+  </si>
+  <si>
+    <t>{"token":"de9997fb46d03dfe061eda9229b5d0ce74b267c1e2ca2fc9d79ebb4bbd5c836f","id":"web/profile/edit/location","data":{"country":"AE","street1":"sdfsfd","street2":"street2","emirate":"Ajman","area":"javascript:/*--&gt;&lt;/title&gt;&lt;/style&gt;&lt;/textarea&gt;&lt;/script&gt;&lt;/xmp&gt;&lt;svg/onload='+/"/+/onmouseover=1/+/[*/[]/+alert(1)//'&gt;","zip_code":"32454","button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResponseCode - PASS
+Bad Request - PASS
+</t>
+  </si>
+  <si>
+    <t>{"token":"de9997fb46d03dfe061eda9229b5d0ce74b267c1e2ca2fc9d79ebb4bbd5c836f","id":"web/profile/edit/location","data":{"country":"AE","street1":"sdfsfd","street2":"street2","emirate":"Ajman","area":"&lt;IMG SRC="javascript:alert('XSS');"&gt;","zip_code":"32454","button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"token":"de9997fb46d03dfe061eda9229b5d0ce74b267c1e2ca2fc9d79ebb4bbd5c836f","id":"web/profile/edit/location","data":{"country":"AE","street1":"sdfsfd","street2":"street2","emirate":"Ajman","area":"&lt;&lt;SCRIPT&gt;alert("XSS");//\&lt;&lt;/SCRIPT&gt;","zip_code":"32454","button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"token":"de9997fb46d03dfe061eda9229b5d0ce74b267c1e2ca2fc9d79ebb4bbd5c836f","id":"web/profile/edit/location","data":{"country":"AE","street1":"sdfsfd","street2":"street2","emirate":"Ajman","area":"&lt;SCRIPT&gt;alert("XSS");//\&lt;&lt;/SCRIPT&gt;","zip_code":"32454","button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"token":"de9997fb46d03dfe061eda9229b5d0ce74b267c1e2ca2fc9d79ebb4bbd5c836f","id":"web/profile/edit/location","data":{"country":"AE","street1":"sdfsfd","street2":"street2","emirate":"Ajman","area":"&lt;iframe src=http://xss.rocks/scriptlet.html &lt;","zip_code":"32454","button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":false},"timeout":900,"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/profile/edit/location","phone_verified":"true","page_name":"/profile/edit/location","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"41601","TransactionID":""},"_time_zone":120},"error_msg":[{"type":"success","id":"web/profile/edit/location","error_msg":"Contact information has been updated"}],"data":{"next_page":"web/profile/edit","grid":{"type":"two_column","title":"Profile information","header":"HeaderStart","components":{"right":["web/profile/edit/verification","web/profile/edit/identification","web/profile/edit/nec","web/profile/edit/password","web/profile/edit/marketing"],"left":["web/profile/edit","web/profile/edit/location","web/profile/edit/questions"]}},"forms":[{"type":"body","sections":[{"header":[{"value":"Personal information","id":"label_62322","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"JozhQPHHj","type":"text","title":"First name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"first_name","error_msg":"Please check first name","class":"edit"},{"visibility":"visible","value":"UQyfzosZsD","type":"text","title":"Last name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,35})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"last_name","error_msg":"Please check last name","class":"edit"},{"visibility":"visible","value":"alex.mywu.qa@gmail.com","type":"email","title":"Email","required":true,"regexp":"^[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~@]+(?:\\.[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~@]+)*@(?:[a-z0-9]([-a-z0-9]{0,61}[a-z0-9])?\\.)*(?:aero|arpa|asia|biz|cat|com|coop|edu|gov|info|int|jobs|mil|mobi|museum|name|net|org|pro|tel|travel|[a-z][a-z])$","id":"email","class":"edit"},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"Date of birth","required":true,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"birth","extra":{"min":{"y":-100},"max":{"y":-21,"m":0,"d":0}},"error_msg":"Please check date of birth","class":"calendar","actions":[]},{"visibility":"hidden","value":"1975-01-01","title":"Date of birth","id":"birth_disabled","class":"edit"},{"visibility":"visible","value":"SA","type":"country","title":"Country of birth","required":true,"regexp":"^[A-Z]{2}$","options":[],"id":"country_birthday","error_msg":"Please select place of birth","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"AR","type":"country","title":"Nationality","required":true,"options":[],"id":"country_nationality","error_msg":"Please select nationality","class":"select","actions":[{"url":"/items/country_nationality","oper":"init"}]},{"visibility":"visible","value":"Airline/Maritime Employee","title":"Occupation","required":true,"options":[{"value":"Airline/Maritime Employee","title":"Airline/Maritime Employee"},{"value":"Art/Entertainment/Media","title":"Art/Entertainment/Media Professional"},{"value":"Civil/Government Employee","title":"Civil/Government Employee"},{"value":"Domestic Helper","title":"Domestic Helper"},{"value":"Driver","title":"Driver"},{"value":"Teacher/Educator","title":"Teacher/Educator"},{"value":"Hotel/Restaurant/Leisure","title":"Hotel/Restaurant/Leisure Services Employee"},{"value":"Housewife/Child Care","title":"Housewife/Child Care"},{"value":"IT and Tech Professional","title":"IT and Tech Professional"},{"value":"Laborer-Agriculture","title":"Laborer-Agriculture"},{"value":"Laborer-Construction","title":"Laborer-Construction"},{"value":"Laborer-Manufacturing","title":"Laborer-Manufacturing"},{"value":"Laborer- Oil/Gas/Mining","title":"Laborer- Oil/Gas/Mining/Forestry"},{"value":"Medical/Health Care","title":"Medical and Health Care Professional"},{"value":"Non-profit/Volunteer","title":"Non-profit/Volunteer"},{"value":"Cosmetic/Personal Care","title":"Cosmetic/Personal Care Services"},{"value":"Law Enforcement/Military","title":"Law Enforcement/Military Professional"},{"value":"Office Professional","title":"Office Professional"},{"value":"Religious/Church Servant","title":"Religious/Church Servant"},{"value":"Retail Sales","title":"Retail Sales"},{"value":"Retired","title":"Retired"},{"value":"Sales/Insurance/Real Estate","title":"Sales/Insurance/Real Estate Professional"},{"value":"Science/Research Professional","title":"Science/Research Professional"},{"value":"Security Guard","title":"Security Guard"},{"value":"Self-Employed","title":"Self-Employed"},{"value":"Skilled Trade/Specialist","title":"Skilled Trade/Specialist"},{"value":"Student","title":"Student"},{"value":"Unemployed","title":"Unemployed"}],"id":"occupation","error_msg":"Please check occupation","class":"select","actions":[]},{"visibility":"visible","value":{"type":"mob","plus":"+","number":"711111111","country_code":"380"},"required":true,"regexp":"^mob-[0-9]{1,4}-[0-9]{4,17}$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update personal information","id":"button_update","class":"button"}]}],"id":"web/profile/edit"},{"type":"body","title":"","sections":[{"header":[{"value":"Contact information","id":"label_94217","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":"AE","type":"country","title":"Country","required":false,"regexp":"^[A-Z]{2}$","options":[],"id":"country","error_msg":"Please select country","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"sdfsfd","type":"text","title":"Street address 1","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street1","error_msg":"Street address 1 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"street2","type":"text","title":"Street address 2","required":false,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street2","error_msg":"Street address 2 field should be between 2 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"Ajman","title":"Emirate","required":true,"options":[{"value":"Abu Dhabi","title":"Abu Dhabi"},{"value":"Ajman","title":"Ajman"},{"value":"Dubai","title":"Dubai"},{"value":"Fujairah","title":"Fujairah"},{"value":"Ras Al Khaimah","title":"Ras Al Khaimah"},{"value":"Sharjah","title":"Sharjah"},{"value":"Umm Al Quwain","title":"Umm Al Quwain"}],"id":"emirate","error_msg":"Please select emirate","class":"select","actions":[{"url":"/items/get_emirate?preloader=false","oper":"loadOnClick"},{"oper":"clearValue","items":["area"]}]},{"visibility":"visible","value":"&lt;iframe src=http://xss.rocks/scriptlet.html &lt;","title":"Area","required":true,"options":[],"id":"area","error_msg":"Please select area","class":"select","actions":[{"url":"/items/get_area?preloader=false","oper":"loadOnClick"}]},{"visibility":"visible","value":"32454","type":"text","title":"Zip code (optional)","required":false,"regexp":"^[0-9a-zA-Z]{1,9}$","id":"zip_code","error_msg":"Please check Zip/Postal code. It should consist from 1 to 9 symbols and no special characters","class":"edit","actions":[]},{"visibility":"visible","value":"submit","type":"submit","title":"Update contact Information","id":"button_update","class":"button"}]}],"id":"web/profile/edit/location"},{"visibility":"visible","type":"body","title":"","sections":[{"header":[{"visibility":"visible","value":"Verify me","id":"label_66250","class":"label"}],"footer":[],"content":[{"visibility":"visible","type":"submit","title":"Verify me","id":"button_verified","class":"button"}]}],"id":"web/profile/edit/verification"},{"visibility":"visible","type":"body","title":"","sections":[{"header":[{"visibility":"disabled","value":"Request an Agent visit","id":"label_66250","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":true,"title":"As per the regulation from Central bank of UAE, you must verify your identity. Please select this option if you would like an agent to visit you at your convenient place and time to verify your identity on the spot. Agent will call you to confirm the date and time of the visit. [br] By clicking this checkbox you confirm that you have provided correct contact information.","id":"nec_visit","class":"check","actions":[]},{"visibility":"visible","value":"[color=#7FC76C]Al Fardan representative will reach out to you soon[/color]","title":"label_title","id":"label_result","class":"label"},{"visibility":"hidden","type":"submit","title":"Request a visit ","id":"button_update","extra":{"validate":false},"class":"button"}]}],"id":"web/profile/edit/nec"},{"type":"body","title":"","sections":[{"header":[{"value":"Identification details","id":"label_66250","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":"Emirates ID","title":"ID Type","required":false,"options":[{"value":"Emirates ID","title":"Emirates ID","actions":[]},{"value":"Diplomatic ID","title":"Diplomatic ID","actions":[{"oper":"clearValue","items":["id_issuer"]},{"oper":"toggleEnabled","items":["id_issuer"]}]}],"id":"id_type","error_msg":"Please check ID Type","class":"select"},{"visibility":"disabled","value":"AE","type":"country","title":"ID Issuer","required":false,"options":[],"id":"id_issuer","error_msg":"Please check ID Issuer","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"275654345658985","type":"text","title":"ID Number","required":true,"regexp":"^[0-9]{15}$","length":15,"id":"id_number","class":"edit","actions":[{"url":"/items/validate_id_number?preloader=false","oper":"validate"}]},{"visibility":"visible","value":{"year":"2025","month":"01","day":"01"},"title":"ID Expiration Date","required":true,"id":"expiration","extra":{"min":{"y":0,"m":0,"d":0},"max":{"y":20}},"class":"calendar"},{"visibility":"hidden","value":"2025-01-01","title":"ID Expiration Date","id":"expiration_disabled","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update identification details","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/identification"},{"type":"body","title":"","sections":[{"header":[{"visibility":"visible","value":"Marketing content","title":"label_title","id":"label_id_1506086740999","class":"label"}],"footer":[],"content":[{"value":true,"title":"Keep me up to date with new Western Union services and other special offers. Communications may be by text, email, phone and post. I can edit these settings anytime in my profile.","required":false,"regexp":"^(true|false)$","id":"keep","class":"check"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/marketing"},{"type":"body","title":"","sections":[{"header":[{"value":"Password","id":"label_31271","class":"label"}],"footer":[],"content":[{"visibility":"visible","type":"password","title":"Current password","required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","id":"old_password","icon":"secure","error_msg":"Please check password","class":"edit"},{"required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","options":[{"title":"8-16 characters","regexp":"^.{8,16}$"},{"title":"1 lowercase letter","regexp":".*[a-z].*"},{"title":"1 UPPERCASE letter","regexp":".*[A-Z].*"},{"title":"1 number character","regexp":".*[0-9].*"},{"title":"1 special character","regexp":".*[ !#$%&amp;'\\(\\)*+,-./:;&lt;=&gt;?@\\[\\]\\^_`{|}~].*"}],"id":"password","extra":{"title2":"Confirm password","title1":"Password"},"error_msg":"Please check password","class":"password"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update password","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/password"},{"type":"body","title":"","sections":[{"header":[{"visibility":"visible","value":"Security question","title":"label_title","id":"label_id_1506086740999","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"","title":"Security question","required":true,"options":[{"value":"Where did you spend childhood summers?","title":"Where did you spend childhood summers?"},{"value":"What is your favorite pet's name?","title":"What is your favorite pet's name?"},{"value":"What is your mother's maiden name?","title":"What is your mother's maiden name?"},{"value":"What street did you grow up on?","title":"What street did you grow up on?"},{"value":"What is your best friend's name?","title":"What is your best friend's name?"},{"value":"What is your favorite hobby?","title":"What is your favorite hobby?"},{"value":"What is your favorite movie?","title":"What is your favorite movie?"},{"value":"What is your place of birth?","title":"What is your place of birth?"},{"value":"What is your favorite TV show?","title":"What is your favorite TV show?"},{"value":"What is your favorite teacher's name?","title":"What is your favorite teacher's name?"},{"value":"What is your high school mascot?","title":"What is your high school mascot?"}],"id":"question","class":"select"},{"visibility":"visible","value":"","type":"text","title":"Answer","required":true,"regexp":"^[a-zA-Z0-9\\s]{1,30}$","id":"answer","error_msg":"Please enter answer","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/questions"}]},"code":0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResponseCode - FAILL
+Bad Request - FAIL
+</t>
+  </si>
+  <si>
+    <t>{"token":"de9997fb46d03dfe061eda9229b5d0ce74b267c1e2ca2fc9d79ebb4bbd5c836f","id":"web/profile/edit/location","data":{"country":"AE","street1":"sdfsfd","street2":"street2","emirate":"Ajman","area":"Ajman City","zip_code":"'12345","button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":false},"timeout":900,"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/profile/edit/location","phone_verified":"true","page_name":"/profile/edit/location","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"41601","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"zip_code","error_msg":"Please check Zip/Postal code. It should consist from 1 to 9 symbols and no special characters"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"de9997fb46d03dfe061eda9229b5d0ce74b267c1e2ca2fc9d79ebb4bbd5c836f","id":"web/profile/edit/location","data":{"country":"AE","street1":"sdfsfd","street2":"street2","emirate":"Ajman","area":"Ajman City","zip_code":"32454","button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"token":"de9997fb46d03dfe061eda9229b5d0ce74b267c1e2ca2fc9d79ebb4bbd5c836f","id":"web/profile/edit/identification","data":{"id_type":"Test ID","id_issuer":"AE","id_number":"275654345658985","expiration":{"year":"2025","month":"12","day":"01"},"expiration_disabled":"2025-01-01","button_submit":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":false},"timeout":900,"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/profile/edit/location","phone_verified":"true","page_name":"/profile/edit/location","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"41601","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"id_type","error_msg":"Please check ID Type"}],"code":0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResponseCode - PASS
+status":"error" - PASS
+"code":0 - PASS
+Please check ID Type - PASS
+</t>
+  </si>
+  <si>
+    <t>{"token":"de9997fb46d03dfe061eda9229b5d0ce74b267c1e2ca2fc9d79ebb4bbd5c836f","id":"web/profile/edit/identification","data":{"id_type":""Emirates ID","id_issuer":"AE","id_number":"275654345658985","expiration":{"year":"2025","month":"12","day":"01"},"expiration_disabled":"2025-01-01","button_submit":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"token":"de9997fb46d03dfe061eda9229b5d0ce74b267c1e2ca2fc9d79ebb4bbd5c836f","id":"web/profile/edit/identification","data":{"id_type":"Emirates ID","id_issuer":"AE","id_number":"1234567890","expiration":{"year":"2025","month":"12","day":"01"},"expiration_disabled":"2025-01-01","button_submit":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":false},"timeout":900,"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/profile/edit/location","phone_verified":"true","page_name":"/profile/edit/location","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"41601","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"id_number","error_msg":"Invalid entered data"}],"code":0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResponseCode - PASS
+status":"error" - PASS
+"code":0 - PASS
+"Invalid entered data - PASS
+</t>
+  </si>
+  <si>
+    <t>{"token":"de9997fb46d03dfe061eda9229b5d0ce74b267c1e2ca2fc9d79ebb4bbd5c836f","id":"web/profile/edit/identification","data":{"id_type":"Emirates ID","id_issuer":"AE","id_number":"'275654345658985","expiration":{"year":"2025","month":"12","day":"01"},"expiration_disabled":"2025-01-01","button_submit":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"token":"de9997fb46d03dfe061eda9229b5d0ce74b267c1e2ca2fc9d79ebb4bbd5c836f","id":"web/profile/edit/identification","data":{"id_type":"Emirates ID","id_issuer":"AE","id_number":"275654345658985","expiration":{"year":"1975","month":"12","day":"01"},"expiration_disabled":"2025-01-01","button_submit":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":false},"timeout":900,"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/profile/edit/location","phone_verified":"true","page_name":"/profile/edit/location","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"41601","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"expiration","error_msg":"Invalid entered data"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"de9997fb46d03dfe061eda9229b5d0ce74b267c1e2ca2fc9d79ebb4bbd5c836f","id":"web/profile/edit/identification","data":{"id_type":"Emirates ID","id_issuer":"AE","id_number":"275654345658985","expiration":{"year":"2025","month":"13","day":"01"},"expiration_disabled":"2025-01-01","button_submit":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"token":"de9997fb46d03dfe061eda9229b5d0ce74b267c1e2ca2fc9d79ebb4bbd5c836f","id":"web/profile/edit/identification","data":{"id_type":"Emirates ID","id_issuer":"AE","id_number":"275654345658985","expiration":{"year":"2025","month":"12","day":"01"},"expiration_disabled":"2025-01-01","button_submit":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":false},"timeout":900,"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/profile/edit/identification","phone_verified":"true","page_name":"/profile/edit/identification","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"41601","TransactionID":""},"_time_zone":120},"error_msg":[{"type":"success","id":"web/profile/edit/identification","error_msg":"Identification details has been updated"}],"data":{"next_page":"web/profile/edit","grid":{"type":"two_column","title":"Profile information","header":"HeaderStart","components":{"right":["web/profile/edit/verification","web/profile/edit/identification","web/profile/edit/nec","web/profile/edit/password","web/profile/edit/marketing"],"left":["web/profile/edit","web/profile/edit/location","web/profile/edit/questions"]}},"forms":[{"type":"body","sections":[{"header":[{"value":"Personal information","id":"label_62322","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"JozhQPHHj","type":"text","title":"First name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"first_name","error_msg":"Please check first name","class":"edit"},{"visibility":"visible","value":"UQyfzosZsD","type":"text","title":"Last name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,35})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"last_name","error_msg":"Please check last name","class":"edit"},{"visibility":"visible","value":"alex.mywu.qa@gmail.com","type":"email","title":"Email","required":true,"regexp":"^[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~@]+(?:\\.[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~@]+)*@(?:[a-z0-9]([-a-z0-9]{0,61}[a-z0-9])?\\.)*(?:aero|arpa|asia|biz|cat|com|coop|edu|gov|info|int|jobs|mil|mobi|museum|name|net|org|pro|tel|travel|[a-z][a-z])$","id":"email","class":"edit"},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"Date of birth","required":true,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"birth","extra":{"min":{"y":-100},"max":{"y":-21,"m":0,"d":0}},"error_msg":"Please check date of birth","class":"calendar","actions":[]},{"visibility":"hidden","value":"1975-01-01","title":"Date of birth","id":"birth_disabled","class":"edit"},{"visibility":"visible","value":"SA","type":"country","title":"Country of birth","required":true,"regexp":"^[A-Z]{2}$","options":[],"id":"country_birthday","error_msg":"Please select place of birth","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"AR","type":"country","title":"Nationality","required":true,"options":[],"id":"country_nationality","error_msg":"Please select nationality","class":"select","actions":[{"url":"/items/country_nationality","oper":"init"}]},{"visibility":"visible","value":"Airline/Maritime Employee","title":"Occupation","required":true,"options":[{"value":"Airline/Maritime Employee","title":"Airline/Maritime Employee"},{"value":"Art/Entertainment/Media","title":"Art/Entertainment/Media Professional"},{"value":"Civil/Government Employee","title":"Civil/Government Employee"},{"value":"Domestic Helper","title":"Domestic Helper"},{"value":"Driver","title":"Driver"},{"value":"Teacher/Educator","title":"Teacher/Educator"},{"value":"Hotel/Restaurant/Leisure","title":"Hotel/Restaurant/Leisure Services Employee"},{"value":"Housewife/Child Care","title":"Housewife/Child Care"},{"value":"IT and Tech Professional","title":"IT and Tech Professional"},{"value":"Laborer-Agriculture","title":"Laborer-Agriculture"},{"value":"Laborer-Construction","title":"Laborer-Construction"},{"value":"Laborer-Manufacturing","title":"Laborer-Manufacturing"},{"value":"Laborer- Oil/Gas/Mining","title":"Laborer- Oil/Gas/Mining/Forestry"},{"value":"Medical/Health Care","title":"Medical and Health Care Professional"},{"value":"Non-profit/Volunteer","title":"Non-profit/Volunteer"},{"value":"Cosmetic/Personal Care","title":"Cosmetic/Personal Care Services"},{"value":"Law Enforcement/Military","title":"Law Enforcement/Military Professional"},{"value":"Office Professional","title":"Office Professional"},{"value":"Religious/Church Servant","title":"Religious/Church Servant"},{"value":"Retail Sales","title":"Retail Sales"},{"value":"Retired","title":"Retired"},{"value":"Sales/Insurance/Real Estate","title":"Sales/Insurance/Real Estate Professional"},{"value":"Science/Research Professional","title":"Science/Research Professional"},{"value":"Security Guard","title":"Security Guard"},{"value":"Self-Employed","title":"Self-Employed"},{"value":"Skilled Trade/Specialist","title":"Skilled Trade/Specialist"},{"value":"Student","title":"Student"},{"value":"Unemployed","title":"Unemployed"}],"id":"occupation","error_msg":"Please check occupation","class":"select","actions":[]},{"visibility":"visible","value":{"type":"mob","plus":"+","number":"711111111","country_code":"380"},"required":true,"regexp":"^mob-[0-9]{1,4}-[0-9]{4,17}$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update personal information","id":"button_update","class":"button"}]}],"id":"web/profile/edit"},{"type":"body","title":"","sections":[{"header":[{"value":"Contact information","id":"label_94217","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":"AE","type":"country","title":"Country","required":false,"regexp":"^[A-Z]{2}$","options":[],"id":"country","error_msg":"Please select country","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"sdfsfd","type":"text","title":"Street address 1","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street1","error_msg":"Street address 1 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"street2","type":"text","title":"Street address 2","required":false,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street2","error_msg":"Street address 2 field should be between 2 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"Ajman","title":"Emirate","required":true,"options":[{"value":"Abu Dhabi","title":"Abu Dhabi"},{"value":"Ajman","title":"Ajman"},{"value":"Dubai","title":"Dubai"},{"value":"Fujairah","title":"Fujairah"},{"value":"Ras Al Khaimah","title":"Ras Al Khaimah"},{"value":"Sharjah","title":"Sharjah"},{"value":"Umm Al Quwain","title":"Umm Al Quwain"}],"id":"emirate","error_msg":"Please select emirate","class":"select","actions":[{"url":"/items/get_emirate?preloader=false","oper":"loadOnClick"},{"oper":"clearValue","items":["area"]}]},{"visibility":"visible","value":"Ajman City","title":"Area","required":true,"options":[],"id":"area","error_msg":"Please select area","class":"select","actions":[{"url":"/items/get_area?preloader=false","oper":"loadOnClick"}]},{"visibility":"visible","value":"32454","type":"text","title":"Zip code (optional)","required":false,"regexp":"^[0-9a-zA-Z]{1,9}$","id":"zip_code","error_msg":"Please check Zip/Postal code. It should consist from 1 to 9 symbols and no special characters","class":"edit","actions":[]},{"visibility":"visible","value":"submit","type":"submit","title":"Update contact Information","id":"button_update","class":"button"}]}],"id":"web/profile/edit/location"},{"visibility":"visible","type":"body","title":"","sections":[{"header":[{"visibility":"visible","value":"Verify me","id":"label_66250","class":"label"}],"footer":[],"content":[{"visibility":"visible","type":"submit","title":"Verify me","id":"button_verified","class":"button"}]}],"id":"web/profile/edit/verification"},{"visibility":"visible","type":"body","title":"","sections":[{"header":[{"visibility":"disabled","value":"Request an Agent visit","id":"label_66250","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":true,"title":"As per the regulation from Central bank of UAE, you must verify your identity. Please select this option if you would like an agent to visit you at your convenient place and time to verify your identity on the spot. Agent will call you to confirm the date and time of the visit. [br] By clicking this checkbox you confirm that you have provided correct contact information.","id":"nec_visit","class":"check","actions":[]},{"visibility":"visible","value":"[color=#7FC76C]Al Fardan representative will reach out to you soon[/color]","title":"label_title","id":"label_result","class":"label"},{"visibility":"hidden","type":"submit","title":"Request a visit ","id":"button_update","extra":{"validate":false},"class":"button"}]}],"id":"web/profile/edit/nec"},{"type":"body","title":"","sections":[{"header":[{"value":"Identification details","id":"label_66250","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":"Emirates ID","title":"ID Type","required":false,"options":[{"value":"Emirates ID","title":"Emirates ID","actions":[]},{"value":"Diplomatic ID","title":"Diplomatic ID","actions":[{"oper":"clearValue","items":["id_issuer"]},{"oper":"toggleEnabled","items":["id_issuer"]}]}],"id":"id_type","error_msg":"Please check ID Type","class":"select"},{"visibility":"disabled","value":"AE","type":"country","title":"ID Issuer","required":false,"options":[],"id":"id_issuer","error_msg":"Please check ID Issuer","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"275654345658985","type":"text","title":"ID Number","required":true,"regexp":"^[0-9]{15}$","length":15,"id":"id_number","class":"edit","actions":[{"url":"/items/validate_id_number?preloader=false","oper":"validate"}]},{"visibility":"visible","value":{"year":"2025","month":"12","day":"01"},"title":"ID Expiration Date","required":true,"id":"expiration","extra":{"min":{"y":0,"m":0,"d":0},"max":{"y":20}},"class":"calendar"},{"visibility":"hidden","value":"2025-12-01","title":"ID Expiration Date","id":"expiration_disabled","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update identification details","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/identification"},{"type":"body","title":"","sections":[{"header":[{"visibility":"visible","value":"Marketing content","title":"label_title","id":"label_id_1506086740999","class":"label"}],"footer":[],"content":[{"value":true,"title":"Keep me up to date with new Western Union services and other special offers. Communications may be by text, email, phone and post. I can edit these settings anytime in my profile.","required":false,"regexp":"^(true|false)$","id":"keep","class":"check"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/marketing"},{"type":"body","title":"","sections":[{"header":[{"value":"Password","id":"label_31271","class":"label"}],"footer":[],"content":[{"visibility":"visible","type":"password","title":"Current password","required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","id":"old_password","icon":"secure","error_msg":"Please check password","class":"edit"},{"required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","options":[{"title":"8-16 characters","regexp":"^.{8,16}$"},{"title":"1 lowercase letter","regexp":".*[a-z].*"},{"title":"1 UPPERCASE letter","regexp":".*[A-Z].*"},{"title":"1 number character","regexp":".*[0-9].*"},{"title":"1 special character","regexp":".*[ !#$%&amp;'\\(\\)*+,-./:;&lt;=&gt;?@\\[\\]\\^_`{|}~].*"}],"id":"password","extra":{"title2":"Confirm password","title1":"Password"},"error_msg":"Please check password","class":"password"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update password","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/password"},{"type":"body","title":"","sections":[{"header":[{"visibility":"visible","value":"Security question","title":"label_title","id":"label_id_1506086740999","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"","title":"Security question","required":true,"options":[{"value":"Where did you spend childhood summers?","title":"Where did you spend childhood summers?"},{"value":"What is your favorite pet's name?","title":"What is your favorite pet's name?"},{"value":"What is your mother's maiden name?","title":"What is your mother's maiden name?"},{"value":"What street did you grow up on?","title":"What street did you grow up on?"},{"value":"What is your best friend's name?","title":"What is your best friend's name?"},{"value":"What is your favorite hobby?","title":"What is your favorite hobby?"},{"value":"What is your favorite movie?","title":"What is your favorite movie?"},{"value":"What is your place of birth?","title":"What is your place of birth?"},{"value":"What is your favorite TV show?","title":"What is your favorite TV show?"},{"value":"What is your favorite teacher's name?","title":"What is your favorite teacher's name?"},{"value":"What is your high school mascot?","title":"What is your high school mascot?"}],"id":"question","class":"select"},{"visibility":"visible","value":"","type":"text","title":"Answer","required":true,"regexp":"^[a-zA-Z0-9\\s]{1,30}$","id":"answer","error_msg":"Please enter answer","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/questions"}]},"code":0}</t>
+  </si>
+  <si>
+    <t>{"translations":{"hold_title":"Online Payment Confirmation","card_JM":"Credit/debit card","wu_ios":"Western Union IOS App","card_ending_in":"","find_location":"Find Locations","relationship_to_receiver":"Relationship to receiver","est_total":"Estimated total to receiver","source":"Source of funds","mywu_rewards":"My WU Rewards","success_info_JM":"Your online payment was accepted. To pick up the money {first_name} {middle_name} {last_name} will have to bring a government-issued photo ID and tracking number (MTCN) {mtcn} to any Western Union location in the expected payout area. If you require more information, please email {email} or call us at {phone}","beneficiar":"Beneficiary's code","success_message":"{payProcessor} payment was successful - your money has been sent","pay_by":"Payment by","payment":"Payment","nf_title":"This is not the page you are looking for","yes":"Yes","knet_ref":"Ref. No.","money_avaliable":"Money available","title":"Payment Details","reject_name":"Dear, {first_name} {last_name}","review":"Review","knet_date":"Date","td_details_JM":"Payment details","add_info":"Additional information","november":"November","no_history":"No transactions yet","total":"Total","customer_support":"Customer Support","cash_agent":"Cash","account_not_verified":"Dear Customer, In order to make an online transaction, we will have to verify your profile identity. Please visit one of [url=https://www.westernunion.com/ae/en/contact-us.html#verificationlocations]Al Fardan exchange locations[/url] and have a valid Identity document with you","reject_message":"Your money transfer was rejected","view_receipt":"View receipt","details_send":"Sending details","month":"Month","amount":"Transfer amount","serviceInMin":"Service: In minutes","send_money":"Send Money","promocode":"Promocode","exp_expires":"Session expires in:","tax":"Tax (GCT)","year":"Year","card_AE":"Real Time Account Debit","receive_amount":"Receive amount","account_overview":"History","card_CI":"Direct debit","hold_name":"Dear, {first_name} {last_name}","success_message_JM":"Payment was successful - your money has been sent","phone_num":"Phone number","greet":"Thank you for being My WU member. Send money with Western Union online now and earn points for eligible transactions. You can use your points to redeem up ... fee discount for your transactions!","free_google_app":"FREE - In Google App","summary_review":"Summary","exchange_wu":"WU Payout rate","wu_aos":"Western Union Android App","receipt":"This is not a receipt","exp_message":"As a security precaution, session end after 15 minutes of inactivity. Click OK to continue your current session.","received_from":"Received from","top_corridors":"Frequently selected countries","total_points":"Total points","menu":"Menu","not_member":"You are not a member yet","october":"October","trans_hist":"Transaction history","success_info":"Your Online payment is complete. To pick up the money {first_name} {middle_name} {last_name} will have to bring a government-issued photo ID and tracking number (MTCN) {mtcn} to any Western Union location in the expected payout area. If you require more information, please email {email} or call us at {phone}, please check with your carrier for charges and local rates.","open_receipt":"Receipt","security_code":"Security Code","send_to":"Sending money to","progress_title":"Your Receipt","td_ref":"Ref. No.","get_app":"Get App","exp_title":"Your session will expire soon","april":"April","partners_text_KW":"This service is offered through","points_redeem":"Redeem points","td_amount":"Amount","reject_info":"Your transaction was rejected. We apologize for the inconvenience. For further information, please email wu.support@alfardanexchange.com or call us at 800 736398 or 800 SENDWU, please check with your carrier for charges and local rates.","partners_text_JM":"This service is offered through","partners_licensed_bh":"Licensed and Regulated by Central Bank of Bahrain","december":"December","partners_licensed":"42-56 Harbour Street, Downtown, Kingston, Jamaica West Indies","debit_card_JM":"Credit/debit card","relation":"Relationship to receiver","january":"January","knet_p_amount":"Amount","county_tax":"TTHU","method_pay":"Payment method","otp_code":"Code","partners_text_BH":"This service is offered through","verified":"Profile verified","country_code":"Country code","knet_status":"Status","general_consumption":"General Consumption","edit":"Edit Profile","trans_fee":"WU Transfer fee","delete":"Delete","delivery":"Delivery method","nf_desc":"Sorry, unless you really were hoping to find our 404 message, the page you were looking for has been moved or deleted. You can get back to safety using one of these links","march":"March","success_title":"Your Receipt","slogan":"My world. My way.","phone_error_msg":"Phone number","td_pay_code":"Response code","estimate":"Estimate","td_status":"Status","apn_success_info":"If you require more information, please email {email} or call us at {phone}, Please check with your carrier for charges and local rates.","sign_out":"Sign out","points_title":"Available My WU points:","success_message_apn":"Your money is on its way","show":"show","subtitle":"Click \"PRINT\" to retain a copy of your receipt","nf_home":"Home Page","no":"No","gold_card":"[b]Gold Card[/b] program - now [b]My WU[/b], with all the same benefits","edit_resend":"Edit &amp; resend","receivers_amount":"Receivers amount","req":"Password Requirements","method_delivery":"Delivery method","my_receivers":"My Receivers","track_no":"Tracking No (MTCN)","share_mtcn":"Share MTCN","continue_to_review":"Continue to review","edit_KW":"View Profile","in_min":"In minutes","trans_amount":"Transfer amount","estimated_receive_amount":"Estimated receive amount","copyright":"Western Union Holdings, Inc. All Rights Reserved","june":"June","details_receive":"Receiving details","status":"Status","payment_id":"Payment ID","money_sent_to":"Money sent to","show_details":"Show details","location":"Payout location","exchange":"Exchange rate","editReceiver":"Edit","service":"Service","hi":"Hi","recipient":"Recipient","progress_subtitle":"Click \"PRINT\" to retain a copy of your receipt","register":"Register","discount":"Promotional discount","phone_no_verify":"Your telephone numberis still not verified.","td_pid":"Payment ID","success_info_apn":"If you require more information, please email wu.support@alfardanexchange.com or call us at 800 736398 or 800 SENDWU.","card_num":"Card number","track_num":"Tracking number","resend_amount":"Resend amount","card":"Debit card","add_new_receiver":"Add a new receiver","free_ios_app":"FREE - In App Sore","debit_card_AE":"Direct debit (UAE PGS)","send_amount":"Send amount","time":"Delivery time","mtcn":"MTCN","alert_remove_receiver":"Are you sure you want to delete this receiver?","estimated_exchange":"Estimated exchange rate","td_date":"Date","online_receipt":"Online Receipt","nf_care":"Customer Care","since":"Member since:","hide_details":"Hide details","hide":"hide","august":"August","date":"Date","estimate_price":"Estimate Price","hold_subtitle":"Click \"PRINT\" to retain a copy of your receipt","cash_at_loc":"Cash1","apn_success_message":"Your money is on its way","max_image_size":"File size can't exceed ","security_code_hint":"These are the last 3 digits on the back of you card","mywu_title":"My WU number:","print":"Print","login":"Log In","sending_money_to":"Sending money to:","fee":"In minutes, fee:","february":"February","mob_phone":"Mobile phone","july":"July","track_transf":"Track Transfer","profile_overview":"Profile","sent_to":"Sent to","may":"May","conv_fee":"Convenience fee","nf_send":"Send Money","td_details":"{payProcessor} transfer details","min_image_size":"File size can't be less ","limits_title":"Your current limits:","alert_info":"You will see important alerts and notifications here.","receive_as":"Money received as","pick_up":"Pick up cash","show_full_history":"Show full history","knet_pid":"Payment ID","card_info":"Accepted credit/debit card types:","send_code":"Send Code","point_earned":"Point earned","summary":"Your summary","success_name":"Dear, {first_name} {last_name}","september":"September","day":"Day","debit_card":"Credit/Debit Card","not_verified":"Profile not verified","partners_text":"This service is offered through","state_tax":"VAT","no_hist":"Your transaction history will appear here.","td_details_AE":"{payProcessor} PAYMENT DETAILS","success_subtitle":"Click \"PRINT\" to retain a copy of your receipt","card_expire":"","receiver":"Receiver","sign_up":"Sign up","not_selected":"Not selected","verify_code":"Verify Code","terms_of_profile_creation":"Terms of profile creation","history":"History","knet_details":"Al Fardan exchange transfer details","card_error":"We're sorry, but the card details you have entered is invalid. Please check your card details and try again. Only cards issued in UAE are allowed.","redeem_points":"Redeem points now","purpose":"Purpose of transaction"},"status":"ok","sessionData":{"user":{"currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE"},"timeout":900,"limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"events":{"braze":[{"event_key":"LAUNCHED","data":{"Language App":"en","Country From":"ae"}}]},"auth":false,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"","page_name":"/log_in","marketing_opt-in":"false","logged_in":"false","TransactionID":""},"_time_zone":120},"deviceKey":"3f1d12bd70b35e54a6a9f1767f6ea8089d8d0e613c0d29fd444ef333ea6fc99e","data":{"terms":"https://www.westernunion.com/ae/en/legal/terms-conditions.html","privacy":"https://www.westernunion.com/ae/en/legal/privacy-statement.html","extra":{"translations":{"hold_title":"Online Payment Confirmation","card_JM":"Credit/debit card","wu_ios":"Western Union IOS App","card_ending_in":"","find_location":"Find Locations","relationship_to_receiver":"Relationship to receiver","est_total":"Estimated total to receiver","source":"Source of funds","mywu_rewards":"My WU Rewards","success_info_JM":"Your online payment was accepted. To pick up the money {first_name} {middle_name} {last_name} will have to bring a government-issued photo ID and tracking number (MTCN) {mtcn} to any Western Union location in the expected payout area. If you require more information, please email {email} or call us at {phone}","beneficiar":"Beneficiary's code","success_message":"{payProcessor} payment was successful - your money has been sent","pay_by":"Payment by","payment":"Payment","nf_title":"This is not the page you are looking for","yes":"Yes","knet_ref":"Ref. No.","money_avaliable":"Money available","title":"Payment Details","reject_name":"Dear, {first_name} {last_name}","review":"Review","knet_date":"Date","td_details_JM":"Payment details","add_info":"Additional information","november":"November","no_history":"No transactions yet","total":"Total","customer_support":"Customer Support","cash_agent":"Cash","account_not_verified":"Dear Customer, In order to make an online transaction, we will have to verify your profile identity. Please visit one of [url=https://www.westernunion.com/ae/en/contact-us.html#verificationlocations]Al Fardan exchange locations[/url] and have a valid Identity document with you","reject_message":"Your money transfer was rejected","view_receipt":"View receipt","details_send":"Sending details","month":"Month","amount":"Transfer amount","serviceInMin":"Service: In minutes","send_money":"Send Money","promocode":"Promocode","exp_expires":"Session expires in:","tax":"Tax (GCT)","year":"Year","card_AE":"Real Time Account Debit","receive_amount":"Receive amount","account_overview":"History","card_CI":"Direct debit","hold_name":"Dear, {first_name} {last_name}","success_message_JM":"Payment was successful - your money has been sent","phone_num":"Phone number","greet":"Thank you for being My WU member. Send money with Western Union online now and earn points for eligible transactions. You can use your points to redeem up ... fee discount for your transactions!","free_google_app":"FREE - In Google App","summary_review":"Summary","exchange_wu":"WU Payout rate","wu_aos":"Western Union Android App","receipt":"This is not a receipt","exp_message":"As a security precaution, session end after 15 minutes of inactivity. Click OK to continue your current session.","received_from":"Received from","top_corridors":"Frequently selected countries","total_points":"Total points","menu":"Menu","not_member":"You are not a member yet","october":"October","trans_hist":"Transaction history","success_info":"Your Online payment is complete. To pick up the money {first_name} {middle_name} {last_name} will have to bring a government-issued photo ID and tracking number (MTCN) {mtcn} to any Western Union location in the expected payout area. If you require more information, please email {email} or call us at {phone}, please check with your carrier for charges and local rates.","open_receipt":"Receipt","security_code":"Security Code","send_to":"Sending money to","progress_title":"Your Receipt","td_ref":"Ref. No.","get_app":"Get App","exp_title":"Your session will expire soon","april":"April","partners_text_KW":"This service is offered through","points_redeem":"Redeem points","td_amount":"Amount","reject_info":"Your transaction was rejected. We apologize for the inconvenience. For further information, please email wu.support@alfardanexchange.com or call us at 800 736398 or 800 SENDWU, please check with your carrier for charges and local rates.","partners_text_JM":"This service is offered through","partners_licensed_bh":"Licensed and Regulated by Central Bank of Bahrain","december":"December","partners_licensed":"42-56 Harbour Street, Downtown, Kingston, Jamaica West Indies","debit_card_JM":"Credit/debit card","relation":"Relationship to receiver","january":"January","knet_p_amount":"Amount","county_tax":"TTHU","method_pay":"Payment method","otp_code":"Code","partners_text_BH":"This service is offered through","verified":"Profile verified","country_code":"Country code","knet_status":"Status","general_consumption":"General Consumption","edit":"Edit Profile","trans_fee":"WU Transfer fee","delete":"Delete","delivery":"Delivery method","nf_desc":"Sorry, unless you really were hoping to find our 404 message, the page you were looking for has been moved or deleted. You can get back to safety using one of these links","march":"March","success_title":"Your Receipt","slogan":"My world. My way.","phone_error_msg":"Phone number","td_pay_code":"Response code","estimate":"Estimate","td_status":"Status","apn_success_info":"If you require more information, please email {email} or call us at {phone}, Please check with your carrier for charges and local rates.","sign_out":"Sign out","points_title":"Available My WU points:","success_message_apn":"Your money is on its way","show":"show","subtitle":"Click \"PRINT\" to retain a copy of your receipt","nf_home":"Home Page","no":"No","gold_card":"[b]Gold Card[/b] program - now [b]My WU[/b], with all the same benefits","edit_resend":"Edit &amp; resend","receivers_amount":"Receivers amount","req":"Password Requirements","method_delivery":"Delivery method","my_receivers":"My Receivers","track_no":"Tracking No (MTCN)","share_mtcn":"Share MTCN","continue_to_review":"Continue to review","edit_KW":"View Profile","in_min":"In minutes","trans_amount":"Transfer amount","estimated_receive_amount":"Estimated receive amount","copyright":"Western Union Holdings, Inc. All Rights Reserved","june":"June","details_receive":"Receiving details","status":"Status","payment_id":"Payment ID","money_sent_to":"Money sent to","show_details":"Show details","location":"Payout location","exchange":"Exchange rate","editReceiver":"Edit","service":"Service","hi":"Hi","recipient":"Recipient","progress_subtitle":"Click \"PRINT\" to retain a copy of your receipt","register":"Register","discount":"Promotional discount","phone_no_verify":"Your telephone numberis still not verified.","td_pid":"Payment ID","success_info_apn":"If you require more information, please email wu.support@alfardanexchange.com or call us at 800 736398 or 800 SENDWU.","card_num":"Card number","track_num":"Tracking number","resend_amount":"Resend amount","card":"Debit card","add_new_receiver":"Add a new receiver","free_ios_app":"FREE - In App Sore","debit_card_AE":"Direct debit (UAE PGS)","send_amount":"Send amount","time":"Delivery time","mtcn":"MTCN","alert_remove_receiver":"Are you sure you want to delete this receiver?","estimated_exchange":"Estimated exchange rate","td_date":"Date","online_receipt":"Online Receipt","nf_care":"Customer Care","since":"Member since:","hide_details":"Hide details","hide":"hide","august":"August","date":"Date","estimate_price":"Estimate Price","hold_subtitle":"Click \"PRINT\" to retain a copy of your receipt","cash_at_loc":"Cash1","apn_success_message":"Your money is on its way","max_image_size":"File size can't exceed ","security_code_hint":"These are the last 3 digits on the back of you card","mywu_title":"My WU number:","print":"Print","login":"Log In","sending_money_to":"Sending money to:","fee":"In minutes, fee:","february":"February","mob_phone":"Mobile phone","july":"July","track_transf":"Track Transfer","profile_overview":"Profile","sent_to":"Sent to","may":"May","conv_fee":"Convenience fee","nf_send":"Send Money","td_details":"{payProcessor} transfer details","min_image_size":"File size can't be less ","limits_title":"Your current limits:","alert_info":"You will see important alerts and notifications here.","receive_as":"Money received as","pick_up":"Pick up cash","show_full_history":"Show full history","knet_pid":"Payment ID","card_info":"Accepted credit/debit card types:","send_code":"Send Code","point_earned":"Point earned","summary":"Your summary","success_name":"Dear, {first_name} {last_name}","september":"September","day":"Day","debit_card":"Credit/Debit Card","not_verified":"Profile not verified","partners_text":"This service is offered through","state_tax":"VAT","no_hist":"Your transaction history will appear here.","td_details_AE":"{payProcessor} PAYMENT DETAILS","success_subtitle":"Click \"PRINT\" to retain a copy of your receipt","card_expire":"","receiver":"Receiver","sign_up":"Sign up","not_selected":"Not selected","verify_code":"Verify Code","terms_of_profile_creation":"Terms of profile creation","history":"History","knet_details":"Al Fardan exchange transfer details","card_error":"We're sorry, but the card details you have entered is invalid. Please check your card details and try again. Only cards issued in UAE are allowed.","redeem_points":"Redeem points now","purpose":"Purpose of transaction"},"right_to_left":"false"}},"code":0,"challenge":"6e0f4028b6b90adc0eab290ef95a2c29201f7b3339d9bc93d3cc6de030942a96"}</t>
+  </si>
+  <si>
+    <t>{"object_id" : "profile","name_key" : "email","name_value": "alex.mywu.qa@gmail.com","key":"account_verified","val": "true"}</t>
+  </si>
+  <si>
+    <t>{"object_id" : "profile","name_key" : "email","name_value": "alex.mywu.qa@gmail.com","key":"phone_verified","val": "true"}</t>
+  </si>
+  <si>
+    <t>{"val":true,"status":"ok","new_val":"true"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResponseCode - FAILL
+</t>
+  </si>
+  <si>
+    <t>{"token":"47acdce48801c8bbd60de0d055e117fed2edcbad434786df37fb103ec13254c6","page":"web/log_in"}</t>
+  </si>
+  <si>
+    <t>{"token":"47acdce48801c8bbd60de0d055e117fed2edcbad434786df37fb103ec13254c6","id":"web/log_in","data":{"email":"alex.mywu.qa@gmail.com","password":"Password_01","button_submit":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE"},"timeout":900,"limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"auth":false,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"","phone_verified":"true","page_name":"/log_in","otp_sender":"AWS","marketing_opt-in":true,"logged_in":"false","account_verified":"true","account_id":"41601","TransactionID":""},"_time_zone":120},"data":{"next_page":"web/log_in","grid":{"type":"one_column","header":"HeaderStart","components":{"modal":["web/log_in/uae_pass"],"center":["web/log_in"]}},"forms":[{"type":"body","sections":[{"id":"guest","header":[{"visibility":"hidden","value":"Haven't signed up?","class":"label"},{"visibility":"hidden","value":"Continuing as Guest you'll be able to make the payment in more Agent locations","type":"warning","id":"notify_70900","class":"notify"}],"footer":[{"visibility":"hidden","type":"submit","title":"Continue as Guest","id":"button_guest","class":"button"}],"content":[]},{"visibility":"visibility","id":"login_phone","header":[],"footer":[{"value":"log_in","type":"submit","title":"Login","id":"button_login","class":"button"}],"content":[{"visibility":"visible","value":"Please enter the code you will receive via SMS and Email.","title":"label_title","id":"label_otp","class":"label"},{"title":"Code","required":true,"regexp":"^[0-9]{4}$","id":"otp_code","extra":{"validate":false,"disabled":false,"button_title":"Resend Code","api_check":"/items/otp_verification"},"error_msg":"Please check your code and try again. If you have not received an SMS message with your code, use the \"RESEND CODE\" option and try again.","class":"inputButton","button_title":"Send","actions":[{"oper_model":{"value":"log_in","id":"button_login"},"oper":"submit"}]}]}],"id":"web/log_in"},{"type":"modal","sections":[{"header":[{"w":5,"url":"/static/uae_pass.png","style":{"height":"60px"},"row":1,"id":"upi_logo","class":"image","align":"right"},{"w":5,"visibility":"visible","value":"[size=20]UAE PASS[/size]","row":1,"id":"uae_pass_title","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"[size=20][b]Redirecting ...[/b][/size]","id":"uae_pass_title_2","class":"label","align":"center"},{"visibility":"visible","value":"We will redirect you to UAE PASS application, where you are required to log in to complete your verification.","id":"uae_pass_title_3","class":"label","align":"center"},{"visibility":"visible","value":"Please make sure to install UAE PASS application in your phone before performing the identification.","id":"uae_pass_title_4","class":"label","align":"center"},{"visibility":"visible","title":"Don’t show me this again","regexp":"^(true|false)$","id":"uae_pass_popup_check","class":"check","align":"center","actions":[{"url":"/items/uae_pass_popup_check","oper":"validate"}]},{"visibility":"visible","type":"submit","title":"Continue","id":"uae_pass_continue","class":"button"}]}],"id":"web/log_in/uae_pass"}]},"code":0}</t>
+  </si>
+  <si>
+    <t>{"request_proc":"ok","ops":[{"id":"","obj":"node","obj_id":"5f048df609a8af26c1e4f34b","count":1311,"proc":"ok","list":[{"obj":"task","obj_id":"5f85b59a09a8af531721b607","ref":null,"status":"processed","user_id":4,"create_time":1602598298,"change_time":1602598298,"node_prev_id":"5f048df609a8af26c1e4f347","data":{"phone":"380711111111","sys":{"ref":"c9726_n5f842683a4a271122000b7d3_t5f85b599da6fe2436120b2cd","obj_id":"5f85b599da6fe2436120b2ce","conv_id":9727,"node_id":"5f842683a4a271122000b814"},"text":"1001 is your Western Union verification code."}},{"obj":"task","obj_id":"5f85b58209a8af531721b5e7","ref":null,"status":"processed","user_id":4,"create_time":1602598274,"change_time":1602598274,"node_prev_id":"5f048df609a8af26c1e4f347","data":{"phone":"380711111111","sys":{"ref":"c9726_n5f842683a4a271122000b7d3_t5f85b581da6fe2436120b270","obj_id":"5f85b581da6fe2436120b271","conv_id":9727,"node_id":"5f842683a4a271122000b814"},"text":"0286 is your Western Union verification code."}},{"obj":"task","obj_id":"5f8598cf09a8af5317218eab","ref":null,"status":"processed","user_id":4,"create_time":1602590927,"change_time":1602590927,"node_prev_id":"5f048df609a8af26c1e4f347","data":{"phone":"380711111111","sys":{"ref":"c9726_n5f842683a4a271122000b7d3_t5f8598ceb8ef636ec61ed226","obj_id":"5f8598ceda6fe24361208e34","conv_id":9727,"node_id":"5f842683a4a271122000b814"},"text":"You are almost done. Finish your profile set up by visiting Orabank location and present a valid Identity document."}},{"obj":"task","obj_id":"5f8598c709a8af5317218e90","ref":null,"status":"processed","user_id":4,"create_time":1602590919,"change_time":1602590919,"node_prev_id":"5f048df609a8af26c1e4f347","data":{"phone":"380711111111","sys":{"ref":"c9726_n5f842683a4a271122000b7d3_t5f8598c6b8ef636ec61ed1ee","obj_id":"5f8598c6da6fe24361208e0f","conv_id":9727,"node_id":"5f842683a4a271122000b814"},"text":"Your Western Union one-time password is 2398"}},{"obj":"task","obj_id":"5f8571ad09a8af531721585f","ref":null,"status":"processed","user_id":4,"create_time":1602580909,"change_time":1602580909,"node_prev_id":"5f048df609a8af26c1e4f347","data":{"phone":"380711111111","sys":{"ref":"c9726_n5f842683a4a271122000b7d3_t5f8571abb8ef636ec61ea793","obj_id":"5f8571abda6fe24361205eb7","conv_id":9727,"node_id":"5f842683a4a271122000b814"},"text":"You are almost done. Make a bank payment within 4 days or it will be cancelled. Payment details will follow in the second SMS."}},{"obj":"task","obj_id":"5f8571ad09a8af5317215862","ref":null,"status":"processed","user_id":4,"create_time":1602580909,"change_time":1602580909,"node_prev_id":"5f048df609a8af26c1e4f347","data":{"phone":"380711111111","sys":{"ref":"c9726_n5f842683a4a271122000b7d3_t5f8571adb8ef636ec61ea7aa","obj_id":"5f8571adda6fe24361205ec3","conv_id":9727,"node_id":"5f842683a4a271122000b814"},"text":"Account name: \nBank name: \nAccount Number: "}},{"obj":"task","obj_id":"5f85717b09a8af531721582b","ref":null,"status":"processed","user_id":4,"create_time":1602580859,"change_time":1602580859,"node_prev_id":"5f048df609a8af26c1e4f347","data":{"phone":"380711111111","sys":{"ref":"c9726_n5f842683a4a271122000b7d3_t5f85717ada6fe24361205e26","obj_id":"5f85717ab8ef636ec61ea6fb","conv_id":9727,"node_id":"5f842683a4a271122000b814"},"text":"You are almost done. Complete your profile set up by visiting locations of CKB bank or Podgoricka bank https://www.westernunion.com/me/en/verification-locations.html and present a valid identity document."}},{"obj":"task","obj_id":"5f85716309a8af5317215803","ref":null,"status":"processed","user_id":4,"create_time":1602580835,"change_time":1602580835,"node_prev_id":"5f048df609a8af26c1e4f347","data":{"phone":"380711111111","sys":{"ref":"c9726_n5f842683a4a271122000b7d3_t5f857162da6fe24361205ddd","obj_id":"5f857162b8ef636ec61ea6c7","conv_id":9727,"node_id":"5f842683a4a271122000b814"},"text":"Your one-time WU password is 3099."}},{"obj":"task","obj_id":"5f856f4f09a8af531721554f","ref":null,"status":"processed","user_id":4,"create_time":1602580303,"change_time":1602580303,"node_prev_id":"5f048df609a8af26c1e4f347","data":{"phone":"380711111111","sys":{"ref":"c9726_n5f842683a4a271122000b7d3_t5f856f4fda6fe24361205b52","obj_id":"5f856f4fda6fe24361205b53","conv_id":9727,"node_id":"5f842683a4a271122000b814"},"text":"You’re almost done. Finish your profile set up, visit a Central, Robinson or participating Big C store in person http://on.wu.com/CentralTH and present a valid ID. Learn more about how to send money online with WU https://youtu.be/3xV4R1OOsYg"}},{"obj":"task","obj_id":"5f856f4609a8af5317215548","ref":null,"status":"processed","user_id":4,"create_time":1602580294,"change_time":1602580294,"node_prev_id":"5f048df609a8af26c1e4f347","data":{"phone":"380711111111","sys":{"ref":"c9726_n5f842683a4a271122000b7d3_t5f856f46da6fe24361205b13","obj_id":"5f856f46da6fe24361205b14","conv_id":9727,"node_id":"5f842683a4a271122000b814"},"text":"Your Western Union one-time password is 1897"}}]}]}</t>
+  </si>
+  <si>
+    <t>{"token":"47acdce48801c8bbd60de0d055e117fed2edcbad434786df37fb103ec13254c6","id":"web/log_in","data":{"otp_code":"1001","button_login":"log_in"}}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":true},"timeout":900,"payment":{"received_as":"Cash","fundsout":"cash"},"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","events":{"braze":[{"event_key":"LOGIN COMPLETED","data":{"phone_verified":true,"Nationality":"AR","Middle Name":"","Marketing Opt-in":true,"Last Name":"UQyfzosZsD","Language App":"en","ID Verification Status":true,"ID Expiration datetime":"2025-12-01","First Name":"JozhQPHHj","External User ID":"41601","Email":"alex.mywu.qa@gmail.com","Country From":"ae","Birthdate":"1975-01-01"}}]},"auth":true,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/log_in","phone_verified":"true","page_name":"/log_in","otp_validate":"AWS","marketing_opt-in":true,"logged_in":"true","funds_out":"cash","account_verified":"true","account_id":"41601","TransactionID":""},"_time_zone":120},"data":{"next_page":"web/fraud","grid":{"type":"one_column","header":"HeaderStart","components":{"center":["web/fraud"]}},"forms":[{"type":"body","title":"","sections":[{"header":[],"footer":[{"visibility":"visible","value":"submit","type":"submit","title":"Continue","id":"button_submit","class":"button"}],"content":[{"value":"[b]Protect Yourself from Fraud[/b][br][br]Only use Western Union to send money to friends and family. Never send money to someone you have not met in person.[br][br]Scammers sometimes encourage people to transfer money. Do not transfer money to anyone who asks you to send them money:[*]For an emergency situation you haven’t confirmed.[/*][*]For an online purchase.[/*][*]For anti-virus protection.[/*][*]For a deposit or payment on a rental property.[/*][*]To claim lottery or prize winnings.[/*][*]To pay taxes.[/*][*]For a donation to charity.[/*][*]For a mystery shopping assignment.[/*][*]For a job opportunity.[/*][*]For a credit card or loan fee.[/*][*]To resolve an immigration matter.[/*][*]To pay for something in response to a telemarketing call. Telemarketers cannot sell you anything and take payment by money transfer from anyone in the U.S. It’s illegal.[/*][br]If you transfer money, the person you’re sending it to gets the money quickly. After the money is paid, Western Union may not be able to give you a refund, even if you are the victim of fraud, except under limited circumstances.[br][br]If you believe that you are the victim of fraud, call the Western Union Fraud Hotline at [b]8000-357-04469[/b] or visit [url=https://www.westernunion.com/ae/en/fraud-awareness.html]https://www.westernunion.com/ae/en/fraud-awareness.html[/url]","id":"label_58802","class":"label","align":"left"}]}],"id":"web/fraud"}]},"code":8}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResponseCode - PASS
+"status":"ok"&lt;&lt;Required&gt;&gt; - PASS
+"code":8&lt;&lt;Required&gt;&gt; - PASS
+</t>
+  </si>
+  <si>
+    <t>{"token":"47acdce48801c8bbd60de0d055e117fed2edcbad434786df37fb103ec13254c6","page":"web/fraud"}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":true},"timeout":900,"payment":{"received_as":"Cash","fundsout":"cash"},"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/log_in","phone_verified":"true","page_name":"/fraud","marketing_opt-in":true,"logged_in":"true","funds_out":"cash","account_verified":"true","account_id":"41601","TransactionID":""},"_time_zone":120},"data":{"next_page":"web/fraud","grid":{"type":"one_column","header":"HeaderStart","components":{"center":["web/fraud"]}},"forms":[{"type":"body","title":"","sections":[{"header":[],"footer":[{"visibility":"visible","value":"submit","type":"submit","title":"Continue","id":"button_submit","class":"button"}],"content":[{"value":"[b]Protect Yourself from Fraud[/b][br][br]Only use Western Union to send money to friends and family. Never send money to someone you have not met in person.[br][br]Scammers sometimes encourage people to transfer money. Do not transfer money to anyone who asks you to send them money:[*]For an emergency situation you haven’t confirmed.[/*][*]For an online purchase.[/*][*]For anti-virus protection.[/*][*]For a deposit or payment on a rental property.[/*][*]To claim lottery or prize winnings.[/*][*]To pay taxes.[/*][*]For a donation to charity.[/*][*]For a mystery shopping assignment.[/*][*]For a job opportunity.[/*][*]For a credit card or loan fee.[/*][*]To resolve an immigration matter.[/*][*]To pay for something in response to a telemarketing call. Telemarketers cannot sell you anything and take payment by money transfer from anyone in the U.S. It’s illegal.[/*][br]If you transfer money, the person you’re sending it to gets the money quickly. After the money is paid, Western Union may not be able to give you a refund, even if you are the victim of fraud, except under limited circumstances.[br][br]If you believe that you are the victim of fraud, call the Western Union Fraud Hotline at [b]8000-357-04469[/b] or visit [url=https://www.westernunion.com/ae/en/fraud-awareness.html]https://www.westernunion.com/ae/en/fraud-awareness.html[/url]","id":"label_58802","class":"label","align":"left"}]}],"id":"web/fraud"}]},"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"47acdce48801c8bbd60de0d055e117fed2edcbad434786df37fb103ec13254c6","id":"web/fraud","data":{"button_submit":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":true},"timeout":900,"payment":{"service_pay":"1-2 Business days","received_as":"Cash","payment_by":"Real Time Bank Transfer","fundsout":"cash","fundsin":"bank_transfer"},"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/fraud","phone_verified":"true","page_name":"/fraud","marketing_opt-in":true,"logged_in":"true","funds_out":"cash","funds_in":"direct_debit","account_verified":"true","account_id":"41601","TransactionID":""},"_time_zone":120},"data":{"next_page":"web/send_money","grid":{"type":"two_column","header":"HeaderStart","components":{"right":["web/send_money/right"],"left":["web/send_money"]}},"forms":[{"type":"body","title":"Send Money","sections":[{"header":[{"visibility":"hidden","value":"Dear Customer, your ID has expired. You can send money online during the limited grace period allowed by Central Bank. Also, you can re-verify your account . We have several options below for you to do this. [iurl=/verification_page]Show me verification options.[/iurl]","type":"warning","id":"notify_70900","class":"notify"},{"visibility":"hidden","value":"","type":"warning","id":"warning_banner","class":"notify"}],"footer":[{"visibility":"hidden","value":"cash","type":"image","title":"[size=16]How does your receiver want the money?[/size]","required":true,"options":[{"value":"cash","title":"Cash","icon":"cash"}],"id":"fundsout","class":"radio","align":"horizontal","actions":[{"url":"/items/set_fundsout?preloader=true","oper":"loadOnClick"}]},{"visibility":"hidden","value":"bank_transfer","type":"image","title":"[size=16]How would you like to pay?[/size]","required":true,"options":[{"value":"bank_transfer","title":"Real Time Bank Transfer","icon":"bank"}],"id":"fundsin","class":"radio","align":"horizontal","actions":[{"url":"/items/set_fundsin?preloader=true","oper":"loadOnClick"}]}],"content":[{"required":true,"regexp":"(^[A-Z0-9]{2}--[A-Z]{3}-[0-9]{1}(|\\.[0-9]{1,})-[A-Z]{3}$|^[A-Z0-9]{2}-[0-9]{0,}(|\\.[0-9]{1,})-[A-Z]{3}--[A-Z]{3}$|^[A-Z0-9]{2}-[0-9]{0,}(|\\.[0-9]{1,})-[A-Z]{3}-[0-9]{0,}(|\\.[0-9]{1,})-[A-Z]{3}$)","id":"payment","extra":{"top_countries":["IN","MA","ID","PH","TR","EG","AE","US","TN","RU","LB","UA","SA","UG","CN","PS","CA","PK","TH","GB","FR","UZ","TZ","DE","CO"],"frequent_countries":["IN","MA","ID","PH","TR","EG"],"api_payment":"/items/sendmoney_fee_web?preloader=true","api_get_currency":"/items/sendmoney_currencies","api_get_countries":"/items/sendmoney_countries"},"class":"sendMoney","actions":[{"oper":"toggleVisible","items":["expander","expander_disclaimers","label_first","second_label","expander_disclaimers_1"]},{"oper":"toggleEnabled","items":["submit"]}]},{"visibility":"hidden","value":"[img]/static/ico-info12x12.png[/img]  ","title":"label_title","style":{"padding":"10px 20px","color":"#44433d","border":"1px","backgroundColor":"#f3faff"},"id":"label_limits","class":"label"},{"visibility":"hidden","value":"","title":"label_title","style":{"padding":"10px 20px","color":"#DC1818","border":"1px","backgroundColor":"#f3faff"},"id":"label_limits_ban","class":"label"}]},{"header":[],"footer":[],"content":[{"visibility":"hidden","value":"","title":"Which bank will you pay from?","required":false,"options":[{"value":"1","title":"Abu Dhabi Commercial Bank(ADCB)","bank_code":"0003"},{"value":"21","title":"Citibank N.A","bank_code":"0021"},{"value":"23","title":"Commercial Bank International PLC","bank_code":"0022"},{"value":"24","title":"Commercial Bank of Dubai(CBD)","bank_code":"0023"},{"value":"29","title":"Dubai Islamic Bank","bank_code":"0024"},{"value":"32","title":"Emirates NBD","bank_code":"0026"},{"value":"33","title":"First Abu Dhabi Bank(FAB)","bank_code":"0035"},{"value":"37","title":"HSBC Bank Middle East Limited","bank_code":"0020"},{"value":"58","title":"Union National Bank","bank_code":"0045"},{"value":"53","title":"Rafidain Bank","bank_code":"0005"}],"id":"bank_id","icon":"ic_bank","error_msg":"Mandatory field","class":"select","actions":[{"url":"/items/bank_id_set_web","oper":"validate"}]},{"visibility":"hidden","value":"Listed Banks are part of the Central Bank Online Payment Gateway, and this is why your receiver is able to get their money in minutes. Please have your banking information ready to login to your Internet Banking Profile to finish the transaction.","id":"label_bank_id","class":"label"}]},{"visibility":"hidden","header":[],"footer":[],"content":[{"visibility":"${pop_up_visibility}","value":"","id":"label_pop_up_title","class":"label"},{"visibility":"${pop_up_visibility}","value":"","id":"label_pop_up_text","class":"label"}]},{"id":"promo","header":[],"footer":[],"content":[{"visibility":"hidden","title":"Promo code","id":"expander","class":"expander","actions":[{"type":"off","oper":"toggleVisible","items":["promocode"],"id":"expander","class":"expander"}]},{"visibility":"hidden","title":"Enter your promotional discount code","required":false,"regexp":"(^[a-zA-Z0-9\\-]{1,30}$|^My WU® promo code$)","id":"promocode","extra":{"disabled":false,"button_title":"Apply","api_check":"/items/sendmoney_promocode_web"},"error_msg":"Promotional discount code error","class":"inputButton","button_title":"Send"},{"visibility":"hidden","value":"[color=#7FC76C]My WU discount has been applied to your transfer[/color]","title":"label_title","id":"label_promo","class":"label"}]},{"header":[],"footer":[{"visibility":"hidden","type":"Summary","title":"divider_title","id":"divider_id_1500019950162","class":"divider"},{"visibility":"hidden","value":"submit","type":"submit","title":"Continue","id":"button_submit","extra":{"validate":false},"class":"button"}],"content":[]},{"id":"sections_legal","header":[{"visibility":"visible","value":true,"title":"Legal disclaimers and important info:","id":"temporary_expander","extra":{"toggleVisible":"adaptive"},"class":"expander","actions":[{"value":true,"type":"on","oper":"toggleVisible","items":["disclaimer1","disclaimer2","disclaimer8",""],"id":"expander_disclaimers","class":"expander"}]},{"visibility":"hidden","value":"[size=11][color=#767677][sup]1[/sup] Service and funds may be delayed or unavailable depending on certain factors including the Service selected, the selection of delayed delivery options, amount sent, destination country, currency availability, regulatory issues, consumer protection issues, identification requirements, delivery restrictions, agent location hours, and differences in time zones (collectively, “Restrictions”). Additional restrictions may apply. See [url=https://www.westernunion.com/ae/en/legal/terms-conditions.html]online terms and conditions[/url] for details.[/color][/size]","id":"disclaimer1","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]2[/sup] Western Union also makes money from currency exchange. When choosing a money transmitter, carefully compare both transfer fees and exchange rates. Fees and foreign exchange rates may vary by brand, channel and location based on a number of factors. Fees and rates subject to change without notice. Subject to applicable taxes (if any). Money transfers sent to Lebanon are subject to a 2% cash handling fee which will be collected from the principal amount during payout in USD at the agent location.[/color][/size]","id":"disclaimer2","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]3[/sup] If you want to pay a lower transfer fee, please select the 'Bank Transfer' option.[/color][/size]","id":"disclaimer3","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]6[/sup] Your Receiver can pick up your money transfer at any of our Agent Locations in ${payment.country_send_name}[/color][/size]","id":"disclaimer4","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]5[/sup] Western Union also makes money from currency exchange. When choosing a money transmitter, carefully compare both transfer fees and exchange rates. Fees and foreign exchange rates may vary by brand, channel and location based on a number of factors. Fees and rates subject to change without notice. Subject to applicable taxes (if any). Money transfers sent to Lebanon are subject to a 2% cash handling fee which will be collected from the principal amount during payout in USD at the agent location.[/color][/size]","id":"disclaimer5","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]6[/sup] Your Receiver can pick up your money transfer at any of our Agent Locations in ${payment.country_send_name}[/color][/size]","id":"disclaimer6","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]7[/sup] Please type exact receiver’s name as it appears on his/her ID. They will need to present this ID to pick up the funds.[/color][/size]","id":"disclaimer7","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]8[/sup] Effective June 22nd 2020, the reduced transfer fee campaign has ended. Transfer fee of each money transfer is based on many factors such as speed of transfer, destination of funds and other factors. Choose the funding method that works best for you.[/color][/size]","id":"disclaimer8","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]9[/sup] The transaction will be released only if the payment is received between 8:00 AM &amp; 3:30 PM during bank working days; Any transfers which are done thereafter will be only released on the next working day.[/color][/size]","id":"disclaimer9","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]10[/sup] Please use care when providing bank account information. Funds will be paid into in the bank account corresponding to account number you provide. Please Note: The receiver's account must be a local currency payout account.[/color][/size]","id":"disclaimer10","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]11[/sup] Excludes receiver's bank holidays.[/color][/size]","id":"disclaimer11","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]12[/sup] Please use care when providing bank account and/or eWallet information ; funds will be paid into the bank or eWallet account corresponding to the information you provide. Please note: the Receiver’s bank /eWallet account must be a local currency payout account. Additional charges, including SMS and account cash-out fees, may be applied to the Final Receiver's mobile wallet account by the mobile network operator.[/color][/size]","id":"disclaimer12","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]14[/sup] The actual exchange rate and your total amount will be determined at the time of payout.[/color][/size]","id":"disclaimer14","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]15[/sup] Reduced transfer fee for Cards shall take effect from January 2020. Western Union has the right to cancel or extend campaign without additional notice.[/color][/size]","id":"disclaimer15","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]16[/sup] If you want to pay a lower transfer fee, please select the 'Bank Transfer' option. Note that if you're using a credit card, a cash advance fee and associated interest charges will be applied by your card issuer.[/color][/size]","id":"disclaimer16","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]17[/sup] If your Bank is in the list, it means it is not yet part of the Central Bank Online Payment Gateway, and this is why your receiver will get their money within 1-3 days. After completing your transaction on Western Union, you will need to login to your Internet Banking Profile and make a transfer into the specified bank account, then log back into Western Union and update your payment reference as a final step.[/color][/size]","id":"disclaimer17","class":"label"},{"visibility":"hidden","value":"@{expander_label_a}","id":"disclaimer_a","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]b[/sup] For more information about General Consumption tax please check [url=https://www.jamaicatax.gov.jm/general-consumption-tax1]here[/url][/color][/size]","id":"disclaimer_b","class":"label"},{"visibility":"hidden","value":"@{disclaimer_fiscal}","id":"disclaimer_fiscal","class":"label"},{"type":"Partners","id":"divider_11148","class":"divider"}],"footer":[],"content":[]}],"id":"web/send_money"},{"type":"modal","sections":[{"header":[],"footer":[],"content":[{"url":"static/sap/sap_1.png","id":"sap_1","class":"image","align":"center"},{"w":1,"url":"static/sap/sap_n1.svg","row":"1","id":"sap_n1","class":"image","align":"center"},{"w":9,"value":"Set up the transfer online to lock in the fee[sup]1[/sup] and exchange rate.","row":"1","id":"label_72752","class":"label"},{"url":"static/sap/sap_2.png","id":"sap_3","class":"image","align":"center"},{"w":1,"url":"static/sap/sap_n2.svg","row":"2","id":"sap_n2","class":"image","align":"center"},{"w":9,"value":"To pay, go to an Al-Fardan location within 24 hours","row":"2","id":"label_72753","class":"label"},{"url":"static/sap/sap_3.png","id":"sap_3","class":"image","align":"center"},{"w":1,"url":"static/sap/sap_n3.svg","row":"3","id":"sap_n3","class":"image","align":"center"},{"w":9,"value":"Bring your photo ID, cash, and phone number.","row":"3","id":"label_72754","class":"label"},{"value":"It's that easy. Faster checkout and no paperwork.","id":"label_72755","class":"label","align":"center"},{"visibility":"visible","title":"Don't show me again","required":false,"id":"sap_info","class":"check","align":"center"},{"visibility":"visible","type":"submit","title":"Continue","id":"submit","class":"button"}]}],"id":"web/send_money/stage_and_pay"},{"type":"modal","sections":[{"header":[],"footer":[],"content":[{"w":9,"value":"[b]To pay with Credit card[/b]","row":"1","id":"label_72752","class":"label","align":"center"},{"value":"If you want to pay a lower transfer fee, please select the 'Bank Transfer' option. Note that if you're using a credit card, a cash advance fee and associated interest charges will be applied by your card issuer.","id":"label_72755","class":"label","align":"center"},{"visibility":"hidden","title":"Don't show me again","required":false,"id":"card_pop_info","class":"check","align":"center"},{"visibility":"visible","type":"submit","title":"Continue","id":"submit","class":"button"}]}],"id":"web/send_money/credit_card_popup"},{"type":"modal","sections":[{"header":[],"footer":[],"content":[{"w":9,"value":"[b]To pay with Debit card[/b]","row":"1","id":"label_72752","class":"label","align":"center"},{"value":"If you want to pay a lower transfer fee, please select the 'Bank Transfer' option.","id":"label_72755","class":"label","align":"center"},{"visibility":"hidden","title":"Don't show me again","required":false,"id":"card_debit_pop_info","class":"check","align":"center"},{"visibility":"visible","type":"submit","title":"Continue","id":"submit","class":"button"}]}],"id":"web/send_money/debit_card_popup"},{"type":"body","sections":[{"header":[{"visibility":"visible","type":"Summary","id":"divider_54036","class":"divider"}],"footer":[],"content":[]}],"id":"web/send_money/right"}]},"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"47acdce48801c8bbd60de0d055e117fed2edcbad434786df37fb103ec13254c6","id":"web/profile/edit","data":{"first_name":"Test","last_name":"UQyfzosZsD","email":"alex.mywu.qa@gmail.com","birth":{"year":"1975","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"SA","country_nationality":"AR","occupation":"Airline/Maritime Employee","phone":{"type":"mob","plus":"+","number":"711111111","country_code":"380"},"button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":true},"timeout":900,"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/fraud","phone_verified":"true","page_name":"/fraud","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"41601","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"web/profile/edit","error_msg":"Due to a technical error we are unable to proceed with your request. Please try again later.","error_code":"am07:f180aca"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"47acdce48801c8bbd60de0d055e117fed2edcbad434786df37fb103ec13254c6","id":"web/profile/edit","data":{"first_name":"JozhQPHHj","last_name":"Test","email":"alex.mywu.qa@gmail.com","birth":{"year":"1975","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"SA","country_nationality":"AR","occupation":"Airline/Maritime Employee","phone":{"type":"mob","plus":"+","number":"711111111","country_code":"380"},"button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":true},"timeout":900,"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/fraud","phone_verified":"true","page_name":"/fraud","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"41601","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"web/profile/edit","error_msg":"Due to a technical error we are unable to proceed with your request. Please try again later.","error_code":"am07:787e671"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"47acdce48801c8bbd60de0d055e117fed2edcbad434786df37fb103ec13254c6","id":"web/profile/edit","data":{"first_name":"JozhQPHHj","last_name":"UQyfzosZsD","email":"alex.mywu.test@gmail.com","birth":{"year":"1975","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"SA","country_nationality":"AR","occupation":"Airline/Maritime Employee","phone":{"type":"mob","plus":"+","number":"711111111","country_code":"380"},"button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":true},"timeout":900,"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/fraud","phone_verified":"true","page_name":"/fraud","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"41601","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"web/profile/edit","error_msg":"Due to a technical error we are unable to proceed with your request. Please try again later.","error_code":"am07:edd7422"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"47acdce48801c8bbd60de0d055e117fed2edcbad434786df37fb103ec13254c6","id":"web/profile/edit","data":{"first_name":"JozhQPHHj","last_name":"UQyfzosZsD","email":"alex.mywu.qa@gmail.com","birth":{"year":"1977","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"SA","country_nationality":"AR","occupation":"Airline/Maritime Employee","phone":{"type":"mob","plus":"+","number":"711111111","country_code":"380"},"button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":true},"timeout":900,"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/fraud","phone_verified":"true","page_name":"/fraud","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"41601","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"web/profile/edit","error_msg":"Due to a technical error we are unable to proceed with your request. Please try again later.","error_code":"am07:9d10254"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"47acdce48801c8bbd60de0d055e117fed2edcbad434786df37fb103ec13254c6","id":"web/profile/edit","data":{"first_name":"JozhQPHHj","last_name":"UQyfzosZsD","email":"alex.mywu.qa@gmail.com","birth":{"year":"1975","month":"01","day":"10"},"birth_disabled":"1975-01-01","country_birthday":"SA","country_nationality":"AR","occupation":"Airline/Maritime Employee","phone":{"type":"mob","plus":"+","number":"711111111","country_code":"380"},"button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":true},"timeout":900,"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/fraud","phone_verified":"true","page_name":"/fraud","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"41601","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"web/profile/edit","error_msg":"Due to a technical error we are unable to proceed with your request. Please try again later.","error_code":"am07:de289af"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"47acdce48801c8bbd60de0d055e117fed2edcbad434786df37fb103ec13254c6","id":"web/profile/edit","data":{"first_name":"JozhQPHHj","last_name":"UQyfzosZsD","email":"alex.mywu.qa@gmail.com","birth":{"year":"1975","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"SA","country_nationality":"AR","occupation":"Driver","phone":{"type":"mob","plus":"+","number":"711111111","country_code":"380"},"button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":true},"timeout":900,"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/fraud","phone_verified":"true","page_name":"/fraud","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"41601","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"web/profile/edit","error_msg":"Due to a technical error we are unable to proceed with your request. Please try again later.","error_code":"am07:24fa841"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"47acdce48801c8bbd60de0d055e117fed2edcbad434786df37fb103ec13254c6","id":"web/profile/edit","data":{"first_name":"JozhQPHHj","last_name":"UQyfzosZsD","email":"alex.mywu.qa@gmail.com","birth":{"year":"1975","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"SA","country_nationality":"AR","occupation":"Airline/Maritime Employee","phone":{"type":"mob","plus":"+","number":"711111122","country_code":"380"},"button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":true},"timeout":900,"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/fraud","phone_verified":"true","page_name":"/fraud","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"41601","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"web/profile/edit","error_msg":"Due to a technical error we are unable to proceed with your request. Please try again later.","error_code":"am07:e4722f9"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"47acdce48801c8bbd60de0d055e117fed2edcbad434786df37fb103ec13254c6","id":"web/profile/edit","data":{"first_name":"JozhQPHHj","last_name":"UQyfzosZsD","email":"alex.mywu.qa@gmail.com","birth":{"year":"1975","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"SA","country_nationality":"AR","occupation":"Airline/Maritime Employee","phone":{"type":"mob","plus":"+","number":"711111111","country_code":"381"},"button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":true},"timeout":900,"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/fraud","phone_verified":"true","page_name":"/fraud","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"41601","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"phone","error_msg":"Invalid country code and phone number combination. Please check your phone number"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"47acdce48801c8bbd60de0d055e117fed2edcbad434786df37fb103ec13254c6","id":"web/profile/edit/location","data":{"country":"AE","street1":"Test street","street2":"street2","emirate":"Ajman","area":"Ajman City","zip_code":"32455","button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":true},"timeout":900,"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/fraud","phone_verified":"true","page_name":"/fraud","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"41601","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"web/profile/edit/location","error_msg":"Due to a technical error we are unable to proceed with your request. Please try again later.","error_code":"am07:a8806ea"}],"code":0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResponseCode - PASS
+status":"ok" - FAIL
+"code":0 - PASS
+</t>
+  </si>
+  <si>
+    <t>{"token":"47acdce48801c8bbd60de0d055e117fed2edcbad434786df37fb103ec13254c6","id":"web/profile/edit/location","data":{"country":"AE","street1":"sdfsfd","street2":"Test street","emirate":"Ajman","area":"Ajman City","zip_code":"32456","button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":true},"timeout":900,"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/fraud","phone_verified":"true","page_name":"/fraud","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"41601","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"web/profile/edit/location","error_msg":"Due to a technical error we are unable to proceed with your request. Please try again later.","error_code":"am07:5c15ba8"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"47acdce48801c8bbd60de0d055e117fed2edcbad434786df37fb103ec13254c6","id":"web/profile/edit/location","data":{"country":"AE","street1":"sdfsfd","street2":"street2","emirate":"Dubai","area":"Abu Alabyd","zip_code":"32454","button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":true},"timeout":900,"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/fraud","phone_verified":"true","page_name":"/fraud","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"41601","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"web/profile/edit/location","error_msg":"Due to a technical error we are unable to proceed with your request. Please try again later.","error_code":"am07:608cf23"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"47acdce48801c8bbd60de0d055e117fed2edcbad434786df37fb103ec13254c6","id":"web/profile/edit/location","data":{"country":"AE","street1":"sdfsfd","street2":"street2","emirate":"Ajman","area":"Academc City","zip_code":"32454","button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":true},"timeout":900,"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/fraud","phone_verified":"true","page_name":"/fraud","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"41601","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"web/profile/edit/location","error_msg":"Due to a technical error we are unable to proceed with your request. Please try again later.","error_code":"am07:0b40313"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"47acdce48801c8bbd60de0d055e117fed2edcbad434786df37fb103ec13254c6","id":"web/profile/edit/location","data":{"country":"AE","street1":"sdfsfd","street2":"street2","emirate":"Ajman","area":"Ajman City","zip_code":"99999","button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":true},"timeout":900,"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/fraud","phone_verified":"true","page_name":"/fraud","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"41601","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"web/profile/edit/location","error_msg":"Due to a technical error we are unable to proceed with your request. Please try again later.","error_code":"am07:66500bf"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"47acdce48801c8bbd60de0d055e117fed2edcbad434786df37fb103ec13254c6","id":"web/profile/edit/identification","data":{"id_type":"Emirates ID","id_issuer":"AE","id_number":"275654345658985","expiration":{"year":"2025","month":"12","day":"01"},"expiration_disabled":"2025-01-01","button_submit":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":true},"timeout":900,"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/fraud","phone_verified":"true","page_name":"/fraud","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"41601","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"web/profile/edit/identification","error_msg":"Due to a technical error we are unable to proceed with your request. Please try again later.","error_code":"am07:552be63"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"47acdce48801c8bbd60de0d055e117fed2edcbad434786df37fb103ec13254c6","id":"web/profile/edit/identification","data":{"id_type":"Emirates ID","id_issuer":"UA","id_number":"275654345658985","expiration":{"year":"2025","month":"12","day":"01"},"expiration_disabled":"2025-01-01","button_submit":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":true},"timeout":900,"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/fraud","phone_verified":"true","page_name":"/fraud","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"41601","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"web/profile/edit/identification","error_msg":"Due to a technical error we are unable to proceed with your request. Please try again later.","error_code":"am07:618299d"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"47acdce48801c8bbd60de0d055e117fed2edcbad434786df37fb103ec13254c6","id":"web/profile/edit/identification","data":{"id_type":"Emirates ID","id_issuer":"AE","id_number":"275654345658989","expiration":{"year":"2025","month":"12","day":"01"},"expiration_disabled":"2025-01-01","button_submit":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":true},"timeout":900,"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/fraud","phone_verified":"true","page_name":"/fraud","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"41601","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"id_number","error_msg":"Please check ID Number"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"47acdce48801c8bbd60de0d055e117fed2edcbad434786df37fb103ec13254c6","id":"web/profile/edit/identification","data":{"id_type":"Emirates ID","id_issuer":"AE","id_number":"275654345658985","expiration":{"year":"2029","month":"12","day":"01"},"expiration_disabled":"2025-01-01","button_submit":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":true},"timeout":900,"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/fraud","phone_verified":"true","page_name":"/fraud","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"41601","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"web/profile/edit/identification","error_msg":"Due to a technical error we are unable to proceed with your request. Please try again later.","error_code":"am07:52070a0"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"47acdce48801c8bbd60de0d055e117fed2edcbad434786df37fb103ec13254c6","id":"web/profile/edit/identification","data":{"id_type":"Emirates ID","id_issuer":"AE","id_number":"275654345658985","expiration":{"year":"2025","month":"11","day":"01"},"expiration_disabled":"2025-01-01","button_submit":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":true},"timeout":900,"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/fraud","phone_verified":"true","page_name":"/fraud","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"41601","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"web/profile/edit/identification","error_msg":"Due to a technical error we are unable to proceed with your request. Please try again later.","error_code":"am07:881961a"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":true},"timeout":900,"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/fraud","phone_verified":"true","page_name":"/fraud","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"41601","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"web/profile/edit/identification","error_msg":"Due to a technical error we are unable to proceed with your request. Please try again later.","error_code":"am07:ed900ab"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"47acdce48801c8bbd60de0d055e117fed2edcbad434786df37fb103ec13254c6","page":"web/send_money"}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":true},"timeout":900,"payment":{"service_pay":"1-2 Business days","received_as":"Cash","payment_by":"Real Time Bank Transfer","fundsout":"cash","fundsin":"bank_transfer"},"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","events":{"braze":[{"event_key":"SEND MONEY STARTED","data":{"phone_verified":true,"Nationality":"AR","Middle Name":"","Marketing Opt-in":true,"Last Name":"UQyfzosZsD","Language App":"en","ID Verification Status":true,"ID Expiration datetime":"2025-12-01","First Name":"JozhQPHHj","External User ID":"41601","Email":"alex.mywu.qa@gmail.com","Country From":"ae","Birthdate":"1975-01-01"}}]},"auth":true,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/profile/edit","phone_verified":"true","page_name":"/send_money","marketing_opt-in":true,"logged_in":"true","funds_out":"cash","funds_in":"direct_debit","account_verified":"true","account_id":"41601","TransactionID":""},"_time_zone":120},"data":{"next_page":"web/send_money","grid":{"type":"two_column","header":"HeaderStart","components":{"right":["web/send_money/right"],"left":["web/send_money"]}},"forms":[{"type":"body","title":"Send Money","sections":[{"header":[{"visibility":"hidden","value":"Dear Customer, your ID has expired. You can send money online during the limited grace period allowed by Central Bank. Also, you can re-verify your account . We have several options below for you to do this. [iurl=/verification_page]Show me verification options.[/iurl]","type":"warning","id":"notify_70900","class":"notify"},{"visibility":"hidden","value":"","type":"warning","id":"warning_banner","class":"notify"}],"footer":[{"visibility":"hidden","value":"cash","type":"image","title":"[size=16]How does your receiver want the money?[/size]","required":true,"options":[{"value":"cash","title":"Cash","icon":"cash"}],"id":"fundsout","class":"radio","align":"horizontal","actions":[{"url":"/items/set_fundsout?preloader=true","oper":"loadOnClick"}]},{"visibility":"hidden","value":"bank_transfer","type":"image","title":"[size=16]How would you like to pay?[/size]","required":true,"options":[{"value":"bank_transfer","title":"Real Time Bank Transfer","icon":"bank"}],"id":"fundsin","class":"radio","align":"horizontal","actions":[{"url":"/items/set_fundsin?preloader=true","oper":"loadOnClick"}]}],"content":[{"required":true,"regexp":"(^[A-Z0-9]{2}--[A-Z]{3}-[0-9]{1}(|\\.[0-9]{1,})-[A-Z]{3}$|^[A-Z0-9]{2}-[0-9]{0,}(|\\.[0-9]{1,})-[A-Z]{3}--[A-Z]{3}$|^[A-Z0-9]{2}-[0-9]{0,}(|\\.[0-9]{1,})-[A-Z]{3}-[0-9]{0,}(|\\.[0-9]{1,})-[A-Z]{3}$)","id":"payment","extra":{"top_countries":["IN","MA","ID","PH","TR","EG","AE","US","TN","RU","LB","UA","SA","UG","CN","PS","CA","PK","TH","GB","FR","UZ","TZ","DE","CO"],"frequent_countries":["IN","MA","ID","PH","TR","EG"],"api_payment":"/items/sendmoney_fee_web?preloader=true","api_get_currency":"/items/sendmoney_currencies","api_get_countries":"/items/sendmoney_countries"},"class":"sendMoney","actions":[{"oper":"toggleVisible","items":["expander","expander_disclaimers","label_first","second_label","expander_disclaimers_1"]},{"oper":"toggleEnabled","items":["submit"]}]},{"visibility":"hidden","value":"[img]/static/ico-info12x12.png[/img]  ","title":"label_title","style":{"padding":"10px 20px","color":"#44433d","border":"1px","backgroundColor":"#f3faff"},"id":"label_limits","class":"label"},{"visibility":"hidden","value":"","title":"label_title","style":{"padding":"10px 20px","color":"#DC1818","border":"1px","backgroundColor":"#f3faff"},"id":"label_limits_ban","class":"label"}]},{"header":[],"footer":[],"content":[{"visibility":"hidden","value":"","title":"Which bank will you pay from?","required":false,"options":[{"value":"1","title":"Abu Dhabi Commercial Bank(ADCB)","bank_code":"0003"},{"value":"21","title":"Citibank N.A","bank_code":"0021"},{"value":"23","title":"Commercial Bank International PLC","bank_code":"0022"},{"value":"24","title":"Commercial Bank of Dubai(CBD)","bank_code":"0023"},{"value":"29","title":"Dubai Islamic Bank","bank_code":"0024"},{"value":"32","title":"Emirates NBD","bank_code":"0026"},{"value":"33","title":"First Abu Dhabi Bank(FAB)","bank_code":"0035"},{"value":"37","title":"HSBC Bank Middle East Limited","bank_code":"0020"},{"value":"58","title":"Union National Bank","bank_code":"0045"},{"value":"53","title":"Rafidain Bank","bank_code":"0005"}],"id":"bank_id","icon":"ic_bank","error_msg":"Mandatory field","class":"select","actions":[{"url":"/items/bank_id_set_web","oper":"validate"}]},{"visibility":"hidden","value":"Listed Banks are part of the Central Bank Online Payment Gateway, and this is why your receiver is able to get their money in minutes. Please have your banking information ready to login to your Internet Banking Profile to finish the transaction.","id":"label_bank_id","class":"label"}]},{"visibility":"hidden","header":[],"footer":[],"content":[{"visibility":"${pop_up_visibility}","value":"","id":"label_pop_up_title","class":"label"},{"visibility":"${pop_up_visibility}","value":"","id":"label_pop_up_text","class":"label"}]},{"id":"promo","header":[],"footer":[],"content":[{"visibility":"hidden","title":"Promo code","id":"expander","class":"expander","actions":[{"type":"off","oper":"toggleVisible","items":["promocode"],"id":"expander","class":"expander"}]},{"visibility":"hidden","title":"Enter your promotional discount code","required":false,"regexp":"(^[a-zA-Z0-9\\-]{1,30}$|^My WU® promo code$)","id":"promocode","extra":{"disabled":false,"button_title":"Apply","api_check":"/items/sendmoney_promocode_web"},"error_msg":"Promotional discount code error","class":"inputButton","button_title":"Send"},{"visibility":"hidden","value":"[color=#7FC76C]My WU discount has been applied to your transfer[/color]","title":"label_title","id":"label_promo","class":"label"}]},{"header":[],"footer":[{"visibility":"hidden","type":"Summary","title":"divider_title","id":"divider_id_1500019950162","class":"divider"},{"visibility":"hidden","value":"submit","type":"submit","title":"Continue","id":"button_submit","extra":{"validate":false},"class":"button"}],"content":[]},{"id":"sections_legal","header":[{"visibility":"visible","value":true,"title":"Legal disclaimers and important info:","id":"temporary_expander","extra":{"toggleVisible":"adaptive"},"class":"expander","actions":[{"value":true,"type":"on","oper":"toggleVisible","items":["disclaimer1","disclaimer2","disclaimer8",""],"id":"expander_disclaimers","class":"expander"}]},{"visibility":"hidden","value":"[size=11][color=#767677][sup]1[/sup] Service and funds may be delayed or unavailable depending on certain factors including the Service selected, the selection of delayed delivery options, amount sent, destination country, currency availability, regulatory issues, consumer protection issues, identification requirements, delivery restrictions, agent location hours, and differences in time zones (collectively, “Restrictions”). Additional restrictions may apply. See [url=https://www.westernunion.com/ae/en/legal/terms-conditions.html]online terms and conditions[/url] for details.[/color][/size]","id":"disclaimer1","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]2[/sup] Western Union also makes money from currency exchange. When choosing a money transmitter, carefully compare both transfer fees and exchange rates. Fees and foreign exchange rates may vary by brand, channel and location based on a number of factors. Fees and rates subject to change without notice. Subject to applicable taxes (if any). Money transfers sent to Lebanon are subject to a 2% cash handling fee which will be collected from the principal amount during payout in USD at the agent location.[/color][/size]","id":"disclaimer2","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]3[/sup] If you want to pay a lower transfer fee, please select the 'Bank Transfer' option.[/color][/size]","id":"disclaimer3","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]6[/sup] Your Receiver can pick up your money transfer at any of our Agent Locations in ${payment.country_send_name}[/color][/size]","id":"disclaimer4","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]5[/sup] Western Union also makes money from currency exchange. When choosing a money transmitter, carefully compare both transfer fees and exchange rates. Fees and foreign exchange rates may vary by brand, channel and location based on a number of factors. Fees and rates subject to change without notice. Subject to applicable taxes (if any). Money transfers sent to Lebanon are subject to a 2% cash handling fee which will be collected from the principal amount during payout in USD at the agent location.[/color][/size]","id":"disclaimer5","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]6[/sup] Your Receiver can pick up your money transfer at any of our Agent Locations in ${payment.country_send_name}[/color][/size]","id":"disclaimer6","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]7[/sup] Please type exact receiver’s name as it appears on his/her ID. They will need to present this ID to pick up the funds.[/color][/size]","id":"disclaimer7","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]8[/sup] Effective June 22nd 2020, the reduced transfer fee campaign has ended. Transfer fee of each money transfer is based on many factors such as speed of transfer, destination of funds and other factors. Choose the funding method that works best for you.[/color][/size]","id":"disclaimer8","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]9[/sup] The transaction will be released only if the payment is received between 8:00 AM &amp; 3:30 PM during bank working days; Any transfers which are done thereafter will be only released on the next working day.[/color][/size]","id":"disclaimer9","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]10[/sup] Please use care when providing bank account information. Funds will be paid into in the bank account corresponding to account number you provide. Please Note: The receiver's account must be a local currency payout account.[/color][/size]","id":"disclaimer10","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]11[/sup] Excludes receiver's bank holidays.[/color][/size]","id":"disclaimer11","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]12[/sup] Please use care when providing bank account and/or eWallet information ; funds will be paid into the bank or eWallet account corresponding to the information you provide. Please note: the Receiver’s bank /eWallet account must be a local currency payout account. Additional charges, including SMS and account cash-out fees, may be applied to the Final Receiver's mobile wallet account by the mobile network operator.[/color][/size]","id":"disclaimer12","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]14[/sup] The actual exchange rate and your total amount will be determined at the time of payout.[/color][/size]","id":"disclaimer14","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]15[/sup] Reduced transfer fee for Cards shall take effect from January 2020. Western Union has the right to cancel or extend campaign without additional notice.[/color][/size]","id":"disclaimer15","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]16[/sup] If you want to pay a lower transfer fee, please select the 'Bank Transfer' option. Note that if you're using a credit card, a cash advance fee and associated interest charges will be applied by your card issuer.[/color][/size]","id":"disclaimer16","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]17[/sup] If your Bank is in the list, it means it is not yet part of the Central Bank Online Payment Gateway, and this is why your receiver will get their money within 1-3 days. After completing your transaction on Western Union, you will need to login to your Internet Banking Profile and make a transfer into the specified bank account, then log back into Western Union and update your payment reference as a final step.[/color][/size]","id":"disclaimer17","class":"label"},{"visibility":"hidden","value":"@{expander_label_a}","id":"disclaimer_a","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]b[/sup] For more information about General Consumption tax please check [url=https://www.jamaicatax.gov.jm/general-consumption-tax1]here[/url][/color][/size]","id":"disclaimer_b","class":"label"},{"visibility":"hidden","value":"@{disclaimer_fiscal}","id":"disclaimer_fiscal","class":"label"},{"type":"Partners","id":"divider_11148","class":"divider"}],"footer":[],"content":[]}],"id":"web/send_money"},{"type":"modal","sections":[{"header":[],"footer":[],"content":[{"url":"static/sap/sap_1.png","id":"sap_1","class":"image","align":"center"},{"w":1,"url":"static/sap/sap_n1.svg","row":"1","id":"sap_n1","class":"image","align":"center"},{"w":9,"value":"Set up the transfer online to lock in the fee[sup]1[/sup] and exchange rate.","row":"1","id":"label_72752","class":"label"},{"url":"static/sap/sap_2.png","id":"sap_3","class":"image","align":"center"},{"w":1,"url":"static/sap/sap_n2.svg","row":"2","id":"sap_n2","class":"image","align":"center"},{"w":9,"value":"To pay, go to an Al-Fardan location within 24 hours","row":"2","id":"label_72753","class":"label"},{"url":"static/sap/sap_3.png","id":"sap_3","class":"image","align":"center"},{"w":1,"url":"static/sap/sap_n3.svg","row":"3","id":"sap_n3","class":"image","align":"center"},{"w":9,"value":"Bring your photo ID, cash, and phone number.","row":"3","id":"label_72754","class":"label"},{"value":"It's that easy. Faster checkout and no paperwork.","id":"label_72755","class":"label","align":"center"},{"visibility":"visible","title":"Don't show me again","required":false,"id":"sap_info","class":"check","align":"center"},{"visibility":"visible","type":"submit","title":"Continue","id":"submit","class":"button"}]}],"id":"web/send_money/stage_and_pay"},{"type":"modal","sections":[{"header":[],"footer":[],"content":[{"w":9,"value":"[b]To pay with Credit card[/b]","row":"1","id":"label_72752","class":"label","align":"center"},{"value":"If you want to pay a lower transfer fee, please select the 'Bank Transfer' option. Note that if you're using a credit card, a cash advance fee and associated interest charges will be applied by your card issuer.","id":"label_72755","class":"label","align":"center"},{"visibility":"hidden","title":"Don't show me again","required":false,"id":"card_pop_info","class":"check","align":"center"},{"visibility":"visible","type":"submit","title":"Continue","id":"submit","class":"button"}]}],"id":"web/send_money/credit_card_popup"},{"type":"modal","sections":[{"header":[],"footer":[],"content":[{"w":9,"value":"[b]To pay with Debit card[/b]","row":"1","id":"label_72752","class":"label","align":"center"},{"value":"If you want to pay a lower transfer fee, please select the 'Bank Transfer' option.","id":"label_72755","class":"label","align":"center"},{"visibility":"hidden","title":"Don't show me again","required":false,"id":"card_debit_pop_info","class":"check","align":"center"},{"visibility":"visible","type":"submit","title":"Continue","id":"submit","class":"button"}]}],"id":"web/send_money/debit_card_popup"},{"type":"body","sections":[{"header":[{"visibility":"visible","type":"Summary","id":"divider_54036","class":"divider"}],"footer":[],"content":[]}],"id":"web/send_money/right"}]},"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"47acdce48801c8bbd60de0d055e117fed2edcbad434786df37fb103ec13254c6","form_id":"web/send_money","item_id":"payment"}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":true},"timeout":900,"payment":{"service_pay":"1-2 Business days","received_as":"Cash","payment_by":"Real Time Bank Transfer","fundsout":"cash","fundsin":"bank_transfer"},"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","sender_country":"ae","previous_page":"/profile/edit","phone_verified":"true","page_name":"/send_money","marketing_opt-in":true,"logged_in":"true","funds_out":"cash","funds_in":"direct_debit","account_verified":"true","account_id":"41601","TransactionID":""},"_time_zone":120},"data":[{"type":"set","items":[{"visibility":"hidden","options":[],"id":"rate"}],"form_id":"web/send_money"},{"type":"resp","data":[{"value":"AF","title":"Afghanistan"},{"value":"AL","title":"Albania"},{"value":"DZ","title":"Algeria"},{"value":"AS","title":"American Samoa"},{"value":"AD","title":"Andorra"},{"value":"AO","title":"Angola"},{"value":"AI","title":"Anguilla"},{"value":"AG","title":"Antigua And Barbuda"},{"value":"AR","title":"Argentina"},{"value":"AU","title":"Australia"},{"value":"AT","title":"Austria"},{"value":"AZ","title":"Azerbaijan"},{"value":"BS","title":"Bahamas"},{"value":"BH","title":"Bahrain"},{"value":"BD","title":"Bangladesh"},{"value":"BB","title":"Barbados"},{"value":"BY","title":"Belarus"},{"value":"BE","title":"Belgium"},{"value":"BZ","title":"Belize"},{"value":"BJ","title":"Benin"},{"value":"BM","title":"Bermuda"},{"value":"BT","title":"Bhutan"},{"value":"BO","title":"Bolivia"},{"value":"BA","title":"Bosnia and Herzegovina"},{"value":"BW","title":"Botswana"},{"value":"BR","title":"Brazil"},{"value":"VG","title":"British Virgin Islands"},{"value":"BN","title":"Brunei Darussalam"},{"value":"BG","title":"Bulgaria"},{"value":"BF","title":"Burkina Faso"},{"value":"BI","title":"Burundi"},{"value":"KH","title":"Cambodia"},{"value":"CM","title":"Cameroon"},{"value":"CA","title":"Canada"},{"value":"CV","title":"Cape Verde"},{"value":"CF","title":"Central African Republic"},{"value":"TD","title":"Chad"},{"value":"CL","title":"Chile"},{"value":"CN","title":"China"},{"value":"CO","title":"Colombia"},{"value":"KM","title":"Comoros"},{"value":"CD","title":"Congo, Democratic Republic of"},{"value":"CG","title":"Congo-Brazzaville"},{"value":"CK","title":"Cook Islands"},{"value":"CR","title":"Costa Rica"},{"value":"HR","title":"Croatia"},{"value":"AN","title":"Curacao"},{"value":"CY","title":"Cyprus"},{"value":"C2","title":"Cyprus (Northern)"},{"value":"CZ","title":"Czech Republic"},{"value":"DK","title":"Denmark"},{"value":"DJ","title":"Djibouti"},{"value":"DM","title":"Dominica"},{"value":"DO","title":"Dominican Republic"},{"value":"TP","title":"East Timor"},{"value":"EC","title":"Ecuador"},{"value":"EG","title":"Egypt"},{"value":"SV","title":"El Salvador"},{"value":"GQ","title":"Equatorial Guinea"},{"value":"ER","title":"Eritrea"},{"value":"EE","title":"Estonia"},{"value":"ET","title":"Ethiopia"},{"value":"FK","title":"Falkland Islands (Malvinas)"},{"value":"FJ","title":"Fiji"},{"value":"FI","title":"Finland"},{"value":"FR","title":"France"},{"value":"GF","title":"French Guiana"},{"value":"GA","title":"Gabon"},{"value":"GM","title":"Gambia"},{"value":"GE","title":"Georgia"},{"value":"DE","title":"Germany"},{"value":"GH","title":"Ghana"},{"value":"GI","title":"Gibraltar"},{"value":"GR","title":"Greece"},{"value":"GD","title":"Grenada"},{"value":"GP","title":"Guadeloupe"},{"value":"GU","title":"Guam"},{"value":"GT","title":"Guatemala"},{"value":"GN","title":"Guinea"},{"value":"GW","title":"Guinea-Bissau"},{"value":"GY","title":"Guyana"},{"value":"HT","title":"Haiti"},{"value":"HN","title":"Honduras"},{"value":"HK","title":"Hong Kong"},{"value":"HU","title":"Hungary"},{"value":"IS","title":"Iceland"},{"value":"IN","title":"India"},{"value":"ID","title":"Indonesia"},{"value":"IQ","title":"Iraq"},{"value":"IE","title":"Ireland"},{"value":"IL","title":"Israel"},{"value":"IT","title":"Italy"},{"value":"CI","title":"Ivory Coast"},{"value":"JM","title":"Jamaica"},{"value":"JP","title":"Japan"},{"value":"JO","title":"Jordan"},{"value":"KZ","title":"Kazakhstan"},{"value":"KE","title":"Kenya"},{"value":"KI","title":"Kiribati"},{"value":"KR","title":"Korea"},{"value":"K1","title":"Kosovo"},{"value":"KW","title":"Kuwait"},{"value":"KG","title":"Kyrghyz Republic"},{"value":"LA","title":"Laos"},{"value":"LV","title":"Latvia"},{"value":"LB","title":"Lebanon"},{"value":"LS","title":"Lesotho"},{"value":"LR","title":"Liberia"},{"value":"LI","title":"Liechtenstein"},{"value":"LT","title":"Lithuania"},{"value":"LU","title":"Luxembourg"},{"value":"MO","title":"Macau"},{"value":"MK","title":"Macedonia"},{"value":"MG","title":"Madagascar"},{"value":"MW","title":"Malawi"},{"value":"MY","title":"Malaysia"},{"value":"MV","title":"Maldives"},{"value":"ML","title":"Mali"},{"value":"MT","title":"Malta"},{"value":"MH","title":"Marshall Islands"},{"value":"MQ","title":"Martinique"},{"value":"MR","title":"Mauritania"},{"value":"MU","title":"Mauritius"},{"value":"YT","title":"Mayotte"},{"value":"MX","title":"Mexico"},{"value":"FM","title":"Micronesia"},{"value":"MD","title":"Moldova"},{"value":"MC","title":"Monaco"},{"value":"MN","title":"Mongolia"},{"value":"ME","title":"Montenegro"},{"value":"MS","title":"Montserrat"},{"value":"MA","title":"Morocco"},{"value":"MZ","title":"Mozambique"},{"value":"MM","title":"Myanmar"},{"value":"NA","title":"Namibia"},{"value":"NR","title":"Nauru"},{"value":"NP","title":"Nepal"},{"value":"NL","title":"Netherlands"},{"value":"NZ","title":"New Zealand"},{"value":"NI","title":"Nicaragua"},{"value":"NE","title":"Niger"},{"value":"NG","title":"Nigeria"},{"value":"NU","title":"Niue"},{"value":"NO","title":"Norway"},{"value":"OM","title":"Oman"},{"value":"PK","title":"Pakistan"},{"value":"PW","title":"Palau"},{"value":"PS","title":"Palestinian Authority"},{"value":"PA","title":"Panama"},{"value":"PG","title":"Papua New Guinea"},{"value":"PY","title":"Paraguay"},{"value":"PE","title":"Peru"},{"value":"PH","title":"Philippines"},{"value":"PL","title":"Poland"},{"value":"PT","title":"Portugal"},{"value":"QA","title":"Qatar"},{"value":"RE","title":"Reunion Island"},{"value":"RO","title":"Romania"},{"value":"RU","title":"Russia"},{"value":"RW","title":"Rwanda"},{"value":"BL","title":"Saint Barthelemy"},{"value":"KN","title":"Saint Kitts And Nevis"},{"value":"LC","title":"Saint Lucia"},{"value":"VC","title":"Saint Vincent And The Grenadines"},{"value":"WS","title":"Samoa"},{"value":"ST","title":"Sao Tome And Principe"},{"value":"SA","title":"Saudi Arabia"},{"value":"SN","title":"Senegal"},{"value":"YU","title":"Serbia"},{"value":"SC","title":"Seychelles"},{"value":"SL","title":"Sierra Leone"},{"value":"SG","title":"Singapore"},{"value":"SK","title":"Slovakia"},{"value":"SI","title":"Slovenia"},{"value":"SB","title":"Solomon Islands"},{"value":"SO","title":"Somalia"},{"value":"XA","title":"Somaliland"},{"value":"ZA","title":"South Africa"},{"value":"SS","title":"South Sudan"},{"value":"ES","title":"Spain"},{"value":"LK","title":"Sri Lanka"},{"value":"S1","title":"St. Maarten"},{"value":"SD","title":"Sudan"},{"value":"SR","title":"Suriname"},{"value":"SZ","title":"Swaziland"},{"value":"SE","title":"Sweden"},{"value":"CH","title":"Switzerland"},{"value":"TW","title":"Taiwan"},{"value":"TJ","title":"Tajikistan"},{"value":"TZ","title":"Tanzania"},{"value":"TH","title":"Thailand"},{"value":"TG","title":"Togo"},{"value":"TO","title":"Tonga"},{"value":"TT","title":"Trinidad and Tobago"},{"value":"TN","title":"Tunisia"},{"value":"TR","title":"Turkey"},{"value":"TM","title":"Turkmenistan"},{"value":"TV","title":"Tuvalu"},{"value":"UG","title":"Uganda"},{"value":"UA","title":"Ukraine"},{"value":"AE","title":"United Arab Emirates"},{"value":"GB","title":"United Kingdom"},{"value":"US","title":"United States"},{"value":"UY","title":"Uruguay"},{"value":"UZ","title":"Uzbekistan"},{"value":"VU","title":"Vanuatu"},{"value":"VE","title":"Venezuela"},{"value":"VN","title":"Vietnam"},{"value":"ZM","title":"Zambia"},{"value":"ZW","title":"Zimbabwe"}]}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"47acdce48801c8bbd60de0d055e117fed2edcbad434786df37fb103ec13254c6","form_id":"web/send_money","item_id":"payment","data":{"currency_get":"AED","country_send_code":"FR"}}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":true},"timeout":900,"payment":{"service_pay":"In minutes","received_as":"Cash","payment_by":"Real Time Bank Transfer","fundsout":"cash","fundsin":"bank_transfer","currency_get":"AED","country_send_name":"France","country_send_code":"FR"},"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","transfer_fee_currency":"AED","sender_country":"ae","send_currency":"AED","receiver_country":"FR","previous_page":"/profile/edit","phone_verified":"true","page_name":"/send_money","marketing_opt-in":true,"logged_in":"true","funds_out":"cash","funds_in":"direct_debit","account_verified":"true","account_id":"41601","TransactionID":""},"_time_zone":120},"data":[{"type":"set","items":[{"visibility":"hidden","options":[],"id":"rate"},{"visibility":"hidden","value":"","id":"warning_banner"},{"visibility":"visible","value":"cash","options":[{"visibility":"visible","value":"cash","title":"Cash","icon":"cash","description":""},{"visibility":"visible","value":"bank_transfer","title":"Bank account","img":"","icon":"bank","description":""}],"id":"fundsout"},{"visibility":"visible","value":"bank_transfer","options":[{"visibility":"visible","value":"bank_transfer","title":"Real Time Bank Transfer","icon":"bank","description":""},{"visibility":"visible","value":"bank_offline","title":"Bank Transfer","icon":"bank","description":""},{"visibility":"visible","value":"debit_card","title":"Debit Card[sup]15[/sup]","icon":"credit_debit","description":"","actions":[{"url":"/items/show_debit_card_info?preloader=true","oper":"modal"}]},{"visibility":"visible","value":"credit_card","title":"Credit Card[sup]15,16[/sup]","icon":"credit_debit","description":"","actions":[{"url":"/items/show_card_info?preloader=true","oper":"modal"}]},{"visibility":"visible","value":"stage_and_pay","title":"Pay cash in store","icon":"stage_and_pay","description":"","actions":[{"url":"/items/show_sap_info?preloader=true","oper":"modal"}]}],"id":"fundsin"},{"visibility":"visible","value":"[img]/static/ico-info12x12.png[/img]  Send up to 183 648.50 AED","style":{"padding":"10px 20px","color":"#44433d","border":"1px","backgroundColor":"#f3faff"},"id":"label_limits"},{"value":{"currency_get":"AED","country_send_code":"FR","amount_send":"","amount_get":""},"id":"payment","extra":{"top_countries":["IN","MA","ID","PH","TR","EG","AE","US","TN","RU","LB","UA","SA","UG","CN","PS","CA","PK","TH","GB","FR","UZ","TZ","DE","CO"],"frequent_countries":"","api_payment":"/items/sendmoney_fee_web?preloader=true","api_get_currency":"/items/sendmoney_currencies","api_get_countries":"/items/sendmoney_countries"}},{"visibility":"visible","id":"button_submit"}],"form_id":"web/send_money"},{"type":"resp","data":[{"value":"EUR","title":"EUR"}]}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"47acdce48801c8bbd60de0d055e117fed2edcbad434786df37fb103ec13254c6","form_id":"web/send_money","item_id":"fundsout","data":{"payment":{"currency_get":"AED","country_send_code":"FR","amount_send":"","amount_get":""},"fundsout":"cash","fundsin":"bank_transfer","temporary_expander":true}}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":true},"timeout":900,"payment":{"service_pay":"In minutes","received_as":"Cash","payment_by":"Real Time Bank Transfer","fundsout":"cash","fundsin":"bank_transfer","currency_get":"AED","country_send_name":"France","country_send_code":"FR"},"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","transfer_fee_currency":"AED","sender_country":"ae","send_currency":"AED","receiver_country":"FR","previous_page":"/profile/edit","phone_verified":"true","page_name":"/send_money","marketing_opt-in":true,"logged_in":"true","funds_out":"cash","funds_in":"direct_debit","account_verified":"true","account_id":"41601","TransactionID":""},"_time_zone":120},"data":[{"type":"resp","data":[{"visibility":"visible","value":"cash","title":"Cash","icon":"cash","description":""},{"visibility":"visible","value":"bank_transfer","title":"Bank account","img":"","icon":"bank","description":""}]},{"type":"set","item_id":"label_limits","form_id":"web/send_money","field":"style","data":{"padding":"10px 20px","color":"#44433d","border":"1px","backgroundColor":"#f3faff"}},{"type":"set","item_id":"temporary_expander","form_id":"web/send_money","field":"actions","data":[{"oper":"toggleVisible","items":["disclaimer1","disclaimer2","disclaimer8",""]}]},{"type":"set","item_id":"bank_id","form_id":"web/send_money","field":"options","data":[{"value":"1","title":"Abu Dhabi Commercial Bank(ADCB)","bank_code":"0003"},{"value":"21","title":"Citibank N.A","bank_code":"0021"},{"value":"23","title":"Commercial Bank International PLC","bank_code":"0022"},{"value":"24","title":"Commercial Bank of Dubai(CBD)","bank_code":"0023"},{"value":"29","title":"Dubai Islamic Bank","bank_code":"0024"},{"value":"32","title":"Emirates NBD","bank_code":"0026"},{"value":"33","title":"First Abu Dhabi Bank(FAB)","bank_code":"0035"},{"value":"37","title":"HSBC Bank Middle East Limited","bank_code":"0020"},{"value":"58","title":"Union National Bank","bank_code":"0045"},{"value":"53","title":"Rafidain Bank","bank_code":"0005"}]},{"type":"set","item_id":"fundsin","form_id":"web/send_money","field":"options","data":[{"visibility":"visible","value":"bank_transfer","title":"Real Time Bank Transfer","icon":"bank","description":""},{"visibility":"visible","value":"bank_offline","title":"Bank Transfer","icon":"bank","description":""},{"visibility":"visible","value":"debit_card","title":"Debit Card[sup]15[/sup]","icon":"credit_debit","description":"","actions":[{"url":"/items/show_debit_card_info?preloader=true","oper":"modal"}]},{"visibility":"visible","value":"credit_card","title":"Credit Card[sup]15,16[/sup]","icon":"credit_debit","description":"","actions":[{"url":"/items/show_card_info?preloader=true","oper":"modal"}]},{"visibility":"visible","value":"stage_and_pay","title":"Pay cash in store","icon":"stage_and_pay","description":"","actions":[{"url":"/items/show_sap_info?preloader=true","oper":"modal"}]}]},{"type":"set","item_id":"fundsout","form_id":"web/send_money","field":"options","data":[{"visibility":"visible","value":"cash","title":"Cash","icon":"cash","description":""},{"visibility":"visible","value":"bank_transfer","title":"Bank account","img":"","icon":"bank","description":""}]},{"type":"set","item_id":"bank_id","form_id":"web/send_money","field":"value","data":""},{"type":"set","item_id":"label_pop_up_text","form_id":"web/send_money","field":"value","data":""},{"type":"set","item_id":"label_pop_up_title","form_id":"web/send_money","field":"value","data":""},{"type":"set","item_id":"label_bank_id","form_id":"web/send_money","field":"value","data":"Listed Banks are part of the Central Bank Online Payment Gateway, and this is why your receiver is able to get their money in minutes. Please have your banking information ready to login to your Internet Banking Profile to finish the transaction."},{"type":"set","item_id":"label_limits","form_id":"web/send_money","field":"value","data":"[img]/static/ico-info12x12.png[/img]  Send up to 183 648.50 AED"},{"type":"set","item_id":"fundsin","form_id":"web/send_money","field":"value","data":"bank_transfer"},{"type":"set","item_id":"fundsout","form_id":"web/send_money","field":"value","data":"cash"},{"type":"set","item_id":"label_limits_second","form_id":"web/send_money","field":"style","data":"del"},{"type":"set","item_id":"label_limits_second","form_id":"web/send_money","field":"value","data":"del"},{"type":"set","item_id":"label_limits_second","form_id":"web/send_money","field":"visibility","data":"del"},{"type":"set","item_id":"label_bank_id","form_id":"web/send_money","field":"visibility","data":"hidden"},{"type":"set","item_id":"label_pop_up_text","form_id":"web/send_money","field":"visibility","data":"hidden"},{"type":"set","item_id":"label_pop_up_title","form_id":"web/send_money","field":"visibility","data":"hidden"},{"type":"set","item_id":"bank_id","form_id":"web/send_money","field":"visibility","data":"visible"},{"type":"set","item_id":"label_limits","form_id":"web/send_money","field":"visibility","data":"visible"},{"type":"set","item_id":"promo","form_id":"web/send_money","field":"visibility","data":"visible"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"47acdce48801c8bbd60de0d055e117fed2edcbad434786df37fb103ec13254c6","form_id":"web/send_money","item_id":"fundsin","data":{"payment":{"currency_get":"AED","country_send_code":"FR","amount_send":"","amount_get":""},"fundsout":"cash","fundsin":"bank_transfer","temporary_expander":true}}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":true},"timeout":900,"payment":{"service_pay":"In minutes","received_as":"Cash","payment_by":"Real Time Bank Transfer","fundsout":"cash","fundsin":"bank_transfer","currency_get":"AED","country_send_name":"France","country_send_code":"FR"},"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","transfer_fee_currency":"AED","sender_country":"ae","send_currency":"AED","receiver_country":"FR","previous_page":"/profile/edit","phone_verified":"true","page_name":"/send_money","marketing_opt-in":true,"logged_in":"true","funds_out":"cash","funds_in":"direct_debit","account_verified":"true","account_id":"41601","TransactionID":""},"_time_zone":120},"data":[{"type":"resp","data":[{"visibility":"visible","value":"bank_transfer","title":"Real Time Bank Transfer","icon":"bank","description":""},{"visibility":"visible","value":"bank_offline","title":"Bank Transfer","icon":"bank","description":""},{"visibility":"visible","value":"debit_card","title":"Debit Card[sup]15[/sup]","icon":"credit_debit","description":"","actions":[{"url":"/items/show_debit_card_info?preloader=true","oper":"modal"}]},{"visibility":"visible","value":"credit_card","title":"Credit Card[sup]15,16[/sup]","icon":"credit_debit","description":"","actions":[{"url":"/items/show_card_info?preloader=true","oper":"modal"}]},{"visibility":"visible","value":"stage_and_pay","title":"Pay cash in store","icon":"stage_and_pay","description":"","actions":[{"url":"/items/show_sap_info?preloader=true","oper":"modal"}]}]},{"type":"set","item_id":"label_limits","form_id":"web/send_money","field":"style","data":{"padding":"10px 20px","color":"#44433d","border":"1px","backgroundColor":"#f3faff"}},{"type":"set","item_id":"temporary_expander","form_id":"web/send_money","field":"actions","data":[{"oper":"toggleVisible","items":["disclaimer1","disclaimer2","disclaimer8",""]}]},{"type":"set","item_id":"bank_id","form_id":"web/send_money","field":"options","data":[{"value":"1","title":"Abu Dhabi Commercial Bank(ADCB)","bank_code":"0003"},{"value":"21","title":"Citibank N.A","bank_code":"0021"},{"value":"23","title":"Commercial Bank International PLC","bank_code":"0022"},{"value":"24","title":"Commercial Bank of Dubai(CBD)","bank_code":"0023"},{"value":"29","title":"Dubai Islamic Bank","bank_code":"0024"},{"value":"32","title":"Emirates NBD","bank_code":"0026"},{"value":"33","title":"First Abu Dhabi Bank(FAB)","bank_code":"0035"},{"value":"37","title":"HSBC Bank Middle East Limited","bank_code":"0020"},{"value":"58","title":"Union National Bank","bank_code":"0045"},{"value":"53","title":"Rafidain Bank","bank_code":"0005"}]},{"type":"set","item_id":"fundsin","form_id":"web/send_money","field":"options","data":[{"visibility":"visible","value":"bank_transfer","title":"Real Time Bank Transfer","icon":"bank","description":""},{"visibility":"visible","value":"bank_offline","title":"Bank Transfer","icon":"bank","description":""},{"visibility":"visible","value":"debit_card","title":"Debit Card[sup]15[/sup]","icon":"credit_debit","description":"","actions":[{"url":"/items/show_debit_card_info?preloader=true","oper":"modal"}]},{"visibility":"visible","value":"credit_card","title":"Credit Card[sup]15,16[/sup]","icon":"credit_debit","description":"","actions":[{"url":"/items/show_card_info?preloader=true","oper":"modal"}]},{"visibility":"visible","value":"stage_and_pay","title":"Pay cash in store","icon":"stage_and_pay","description":"","actions":[{"url":"/items/show_sap_info?preloader=true","oper":"modal"}]}]},{"type":"set","item_id":"fundsout","form_id":"web/send_money","field":"options","data":[{"visibility":"visible","value":"cash","title":"Cash","icon":"cash","description":""},{"visibility":"visible","value":"bank_transfer","title":"Bank account","img":"","icon":"bank","description":""}]},{"type":"set","item_id":"bank_id","form_id":"web/send_money","field":"value","data":""},{"type":"set","item_id":"label_pop_up_text","form_id":"web/send_money","field":"value","data":""},{"type":"set","item_id":"label_pop_up_title","form_id":"web/send_money","field":"value","data":""},{"type":"set","item_id":"label_bank_id","form_id":"web/send_money","field":"value","data":"Listed Banks are part of the Central Bank Online Payment Gateway, and this is why your receiver is able to get their money in minutes. Please have your banking information ready to login to your Internet Banking Profile to finish the transaction."},{"type":"set","item_id":"label_limits","form_id":"web/send_money","field":"value","data":"[img]/static/ico-info12x12.png[/img]  Send up to 183 648.50 AED"},{"type":"set","item_id":"fundsin","form_id":"web/send_money","field":"value","data":"bank_transfer"},{"type":"set","item_id":"fundsout","form_id":"web/send_money","field":"value","data":"cash"},{"type":"set","item_id":"label_limits_second","form_id":"web/send_money","field":"style","data":"del"},{"type":"set","item_id":"label_limits_second","form_id":"web/send_money","field":"value","data":"del"},{"type":"set","item_id":"label_limits_second","form_id":"web/send_money","field":"visibility","data":"del"},{"type":"set","item_id":"label_pop_up_text","form_id":"web/send_money","field":"visibility","data":"hidden"},{"type":"set","item_id":"label_pop_up_title","form_id":"web/send_money","field":"visibility","data":"hidden"},{"type":"set","item_id":"bank_id","form_id":"web/send_money","field":"visibility","data":"visible"},{"type":"set","item_id":"label_bank_id","form_id":"web/send_money","field":"visibility","data":"visible"},{"type":"set","item_id":"label_limits","form_id":"web/send_money","field":"visibility","data":"visible"},{"type":"set","item_id":"promo","form_id":"web/send_money","field":"visibility","data":"visible"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"47acdce48801c8bbd60de0d055e117fed2edcbad434786df37fb103ec13254c6","form_id":"web/send_money","item_id":"payment","data":{"promocode":"","country_send_code":"FR","currency_get":"AED","currency_send":"EUR","amount_get":"11"}}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":true},"timeout":900,"payment":{"unit":"1.00","state_tax":"0.75","service_pay":"In minutes","received_as":"Cash","promocode":"","principal_amount":"11.00","payment_by":"Real Time Bank Transfer","gross_amount":"26.75","fundsout":"cash","fundsin":"bank_transfer","fee":"15.00","expected_payout_amount":"2.54","exchange_rate":"0.2305187","discount":"0.00","currency_send":"EUR","currency_get":"AED","country_send_name":"France","country_send_code":"FR","country_get_name":"United Arab Emirates","country_get_code":"AE"},"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","transfer_fee_currency":"AED","transfer_fee":"15.00","sender_country":"ae","send_currency":"AED","send_amount":"11.00","receiver_country":"FR","receive_currency":"EUR","receive_amount":"2.54","previous_page":"/profile/edit","phone_verified":"true","page_name":"/send_money","marketing_opt-in":true,"logged_in":"true","funds_out":"cash","funds_in":"direct_debit","exchange_rate":"0.2305187","account_verified":"true","account_id":"41601","TransactionID":""},"_time_zone":120},"data":[{"type":"set","item_id":"label_limits","form_id":"web/send_money","field":"style","data":{"padding":"10px 20px","color":"#44433d","border":"1px","backgroundColor":"#f3faff"}},{"type":"set","item_id":"temporary_expander","form_id":"web/send_money","field":"actions","data":[{"oper":"toggleVisible","items":["disclaimer1","disclaimer2","disclaimer8",""]}]},{"type":"set","item_id":"bank_id","form_id":"web/send_money","field":"options","data":[{"value":"1","title":"Abu Dhabi Commercial Bank(ADCB)","bank_code":"0003"},{"value":"21","title":"Citibank N.A","bank_code":"0021"},{"value":"23","title":"Commercial Bank International PLC","bank_code":"0022"},{"value":"24","title":"Commercial Bank of Dubai(CBD)","bank_code":"0023"},{"value":"29","title":"Dubai Islamic Bank","bank_code":"0024"},{"value":"32","title":"Emirates NBD","bank_code":"0026"},{"value":"33","title":"First Abu Dhabi Bank(FAB)","bank_code":"0035"},{"value":"37","title":"HSBC Bank Middle East Limited","bank_code":"0020"},{"value":"58","title":"Union National Bank","bank_code":"0045"},{"value":"53","title":"Rafidain Bank","bank_code":"0005"}]},{"type":"set","item_id":"fundsin","form_id":"web/send_money","field":"options","data":[{"visibility":"visible","value":"bank_transfer","title":"Real Time Bank Transfer","icon":"bank","description":""},{"visibility":"visible","value":"bank_offline","title":"Bank Transfer","icon":"bank","description":""},{"visibility":"visible","value":"debit_card","title":"Debit Card[sup]15[/sup]","icon":"credit_debit","description":"","actions":[{"url":"/items/show_debit_card_info?preloader=true","oper":"modal"}]},{"visibility":"visible","value":"credit_card","title":"Credit Card[sup]15,16[/sup]","icon":"credit_debit","description":"","actions":[{"url":"/items/show_card_info?preloader=true","oper":"modal"}]},{"visibility":"visible","value":"stage_and_pay","title":"Pay cash in store","icon":"stage_and_pay","description":"","actions":[{"url":"/items/show_sap_info?preloader=true","oper":"modal"}]}]},{"type":"set","item_id":"fundsout","form_id":"web/send_money","field":"options","data":[{"visibility":"visible","value":"cash","title":"Cash","icon":"cash","description":""},{"visibility":"visible","value":"bank_transfer","title":"Bank account","img":"","icon":"bank","description":""}]},{"type":"set","item_id":"bank_id","form_id":"web/send_money","field":"value","data":""},{"type":"set","item_id":"label_pop_up_text","form_id":"web/send_money","field":"value","data":""},{"type":"set","item_id":"label_pop_up_title","form_id":"web/send_money","field":"value","data":""},{"type":"set","item_id":"label_limits","form_id":"web/send_money","field":"value","data":"[img]/static/ico-info12x12.png[/img]  Send up to 183 648.50 AED"},{"type":"set","item_id":"fundsin","form_id":"web/send_money","field":"value","data":"bank_transfer"},{"type":"set","item_id":"fundsout","form_id":"web/send_money","field":"value","data":"cash"},{"type":"set","item_id":"label_limits_second","form_id":"web/send_money","field":"style","data":"del"},{"type":"set","item_id":"label_limits_second","form_id":"web/send_money","field":"value","data":"del"},{"type":"set","item_id":"label_limits_second","form_id":"web/send_money","field":"visibility","data":"del"},{"type":"set","item_id":"label_pop_up_text","form_id":"web/send_money","field":"visibility","data":"hidden"},{"type":"set","item_id":"label_pop_up_title","form_id":"web/send_money","field":"visibility","data":"hidden"},{"type":"set","item_id":"bank_id","form_id":"web/send_money","field":"visibility","data":"visible"},{"type":"set","item_id":"label_bank_id","form_id":"web/send_money","field":"visibility","data":"visible"},{"type":"set","item_id":"label_limits","form_id":"web/send_money","field":"visibility","data":"visible"},{"type":"set","item_id":"promo","form_id":"web/send_money","field":"visibility","data":"visible"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"47acdce48801c8bbd60de0d055e117fed2edcbad434786df37fb103ec13254c6","form_id":"web/send_money","item_id":"bank_id","data":{"payment":{"currency_get":"AED","country_send_code":"FR","amount_send":"2.54","amount_get":"11.00","currency_send":"EUR","currency_send_code":"FR"},"fundsout":"cash","fundsin":"bank_transfer","bank_id":"53","temporary_expander":true}}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":true},"timeout":900,"payment":{"unit":"1.00","state_tax":"0.75","service_pay":"In minutes","received_as":"Cash","promocode":"","principal_amount":"11.00","payment_by":"Real Time Bank Transfer","gross_amount":"26.75","fundsout":"cash","fundsin":"bank_transfer","fee":"15.00","expected_payout_amount":"2.54","exchange_rate":"0.2305187","discount":"0.00","currency_send":"EUR","currency_get":"AED","country_send_name":"France","country_send_code":"FR","country_get_name":"United Arab Emirates","country_get_code":"AE"},"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","transfer_fee_currency":"AED","transfer_fee":"15.00","sender_country":"ae","send_currency":"AED","send_amount":"11.00","receiver_country":"FR","receive_currency":"EUR","receive_amount":"2.54","previous_page":"/profile/edit","phone_verified":"true","page_name":"/send_money","marketing_opt-in":true,"logged_in":"true","funds_out":"cash","funds_in":"direct_debit","exchange_rate":"0.2305187","account_verified":"true","account_id":"41601","TransactionID":""},"_time_zone":120},"data":[],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"47acdce48801c8bbd60de0d055e117fed2edcbad434786df37fb103ec13254c6","id":"web/send_money","data":{"payment":{"currency_get":"AED","country_send_code":"FR","amount_send":"2.54","amount_get":"11","currency_send":"EUR","currency_send_code":"FR"},"fundsout":"cash","fundsin":"bank_transfer","bank_id":"53","temporary_expander":true,"button_submit":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":true},"timeout":900,"payment":{"unit":"1.00","state_tax":"0.75","service_pay":"In minutes","received_as":"Cash","promocode":"","principal_amount":"11.00","payment_by":"Real Time Bank Transfer","gross_amount":"26.75","fundsout":"cash","fundsin":"bank_transfer","fee":"15.00","expected_payout_amount":"2.54","exchange_rate":"0.2305187","discount":"0.00","currency_send":"EUR","currency_get":"AED","country_send_name":"France","country_send_code":"FR","country_get_name":"United Arab Emirates","country_get_code":"AE"},"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","events":{"braze":[{"event_key":"SEND MONEY ESTIMATE COMPLETED","data":{"phone_verified":true,"Payment Method":"direct_debit","Nationality":"AR","Middle Name":"","Marketing Opt-in":true,"Last Name":"UQyfzosZsD","Language App":"en","ID Verification Status":true,"ID Expiration datetime":"2025-12-01","First Name":"JozhQPHHj","External User ID":"41601","Email":"alex.mywu.qa@gmail.com","Delivery Method":"cash","Country To":"FR","Country From":"ae","Corridor - Currency":"EUR","Birthdate":"1975-01-01","Amount Sent":"11.00"}}]},"auth":true,"amplitude":{"wu_language":"en","transfer_fee_currency":"AED","transfer_fee":"15.00","sender_country":"ae","send_currency":"AED","send_amount":"11.00","receiver_country":"FR","receive_currency":"EUR","receive_amount":"2.54","previous_page":"/send_money","phone_verified":"true","page_name":"/send_money","marketing_opt-in":true,"logged_in":"true","funds_out":"cash","funds_in":"direct_debit","exchange_rate":"0.2305187","account_verified":"true","account_id":"41601","TransactionID":""},"_time_zone":120},"data":{"next_page":"web/send_money/receiver","grid":{"type":"two_column","header":"HeaderSend","extra":{"steper":{"value":2,"items":[{"title":"Estimate"},{"title":"Receiver"},{"title":"Review"}]}},"components":{"right":["web/send_money/receiver/right"],"modal":["web/send_money/receiver/upi_info"],"left":["web/send_money/receiver"]}},"forms":[{"type":"body","title":"Receiver's information[sup]6, 7[/sup]","sections":[{"header":[{"value":"Know your receiver. After your money's been picked up or deposited, it can't be refunded. Also, you can't send to a business or charity bank account. If you do, the transfer will be rejected.","id":"label_95345","class":"label"},{"value":"Choose receiver","id":"label_80107","class":"label"},{"visibility":"visible","type":"receivers","required":false,"id":"receivers","extra":{"remove_item":"/items/receivers/del"},"class":"list","actions":[{"oper":"toggleExpander","items":["expander"]},{"type":"section","oper":"clearValue","items":["apn_st","mmt_st","upi_st","receiver_st","apn_or_upi"]},{"url":"/items/receivers/get","oper":"init"}]}],"footer":[],"content":[]},{"id":"receiver_st","header":[],"footer":[],"content":[{"visibility":"visible","title":"Add new receiver","required":false,"id":"expander","class":"expander","actions":[{"oper":"toggleVisible","items":["first_name","last_name","middle_name","phone","email","purpose","city","province","city_mx","source","address","state","postal_code","question","answer","relation","employer_name"]},{"type":"section","oper":"toggleVisible","items":["apn_or_upi","apn_st","mmt_st"]}]},{"visibility":"hidden","type":"text","title":"First name","row":1,"required":true,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"first_name","error_msg":"Please check first name","class":"edit","actions":[{"oper":"clearValue","items":["receivers"]}]},{"visibility":"hidden","type":"text","title":"Middle name (optional)","required":false,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"middle_name","error_msg":"Please check middle name","class":"edit","actions":[{"oper":"clearValue","items":["receivers"]}]},{"visibility":"hidden","type":"text","title":"Last name","row":1,"required":true,"regexp":".*(?=^([a-zA-Z' -]{2,35})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"last_name","error_msg":"Please check last name","class":"edit","actions":[{"oper":"clearValue","items":["receivers"]}]},{"visibility":"hidden","value":{"type":"mob","number":"","country_code":""},"title":"Phone number (optional)","required":false,"regexp":"^mob(--|-[0-9]{1,4}-[0-9]{4,17})$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone","actions":[{"oper":"clearValue","items":["receivers"]}]},{"visibility":"hidden","type":"email","title":"Email (optional)","required":false,"regexp":"^[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~]+(?:\\.[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~]+)*@(?:[a-z0-9]([-a-z0-9]{0,61}[a-z0-9])?\\.)*(?:aero|arpa|asia|biz|cat|com|coop|edu|gov|info|int|jobs|mil|mobi|museum|name|net|org|pro|tel|travel|[a-z][a-z])$","id":"email","error_msg":"Please check email","class":"edit","actions":[{"oper":"clearValue","items":["receivers"]}]},{"visibility":"hidden","title":"Purpose of transaction","required":true,"options":[{"value":"Family Support","title":"Family Support"},{"value":"Education","title":"Education"},{"value":"Regular Labour Transfers (expatriates)","title":"Regular Labour Transfers (expatriates)"},{"value":"Investment","title":"Investment"},{"value":"Other Personal Needs","title":"Other Personal Needs"},{"value":"Investment Related","title":"Investment Related"},{"value":"Trade","title":"Trade"}],"id":"purpose","error_msg":"Please select purpose of transaction","class":"select"},{"visibility":"hidden","title":"Source of funds","required":true,"options":[{"value":"Salary/Income","title":"Salary/Income"},{"value":"Savings","title":"Savings"},{"value":"Borrowed Funds/Loan","title":"Borrowed Funds/Loan"},{"value":"Gift","title":"Gift"},{"value":"Pension/Government/Welfare","title":"Pension/Government/Welfare"},{"value":"Inheritance","title":"Inheritance"}],"id":"source","error_msg":"Please select source of funds","class":"select"},{"visibility":"hidden","value":"Provide a security questions and its answer for your receiver","title":"label_title","id":"label_question","class":"label"}]},{"header":[],"footer":[{"visibility":"hidden","type":"Summary","title":"divider_title","id":"divider_id_1500390913225","class":"divider"},{"visibility":"visible","value":"submit","type":"submit","title":"Continue","id":"button_submit","extra":{"validate":false},"class":"button","actions":[{"oper":"submit"}]},{"visibility":"visible","value":"cancel","type":"cancel","title":"Cancel","id":"button_cancel","class":"button","actions":[]}],"content":[]},{"id":"sections_legal","header":[{"visibility":"visible","value":true,"title":"Legal disclaimers and important info:","id":"temporary_expander","extra":{"toggleVisible":"adaptive"},"class":"expander","actions":[{"value":true,"type":"on","oper":"toggleVisible","items":["disclaimer1","disclaimer2","disclaimer6","disclaimer7","disclaimer8",""],"id":"expander_disclaimers","class":"expander"}]},{"visibility":"hidden","value":"[size=11][color=#767677][sup]1[/sup] Service and funds may be delayed or unavailable depending on certain factors including the Service selected, the selection of delayed delivery options, amount sent, destination country, currency availability, regulatory issues, consumer protection issues, identification requirements, delivery restrictions, agent location hours, and differences in time zones (collectively, “Restrictions”). Additional restrictions may apply. See [url=https://www.westernunion.com/ae/en/legal/terms-conditions.html]online terms and conditions[/url] for details.[/color][/size]","id":"disclaimer1","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]2[/sup] Western Union also makes money from currency exchange. When choosing a money transmitter, carefully compare both transfer fees and exchange rates. Fees and foreign exchange rates may vary by brand, channel and location based on a number of factors. Fees and rates subject to change without notice. Subject to applicable taxes (if any). Money transfers sent to Lebanon are subject to a 2% cash handling fee which will be collected from the principal amount during payout in USD at the agent location.[/color][/size]","id":"disclaimer2","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]3[/sup] If you want to pay a lower transfer fee, please select the 'Bank Transfer' option.[/color][/size]","id":"disclaimer3","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]6[/sup] Your Receiver can pick up your money transfer at any of our Agent Locations in France[/color][/size]","id":"disclaimer4","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]5[/sup] Western Union also makes money from currency exchange. When choosing a money transmitter, carefully compare both transfer fees and exchange rates. Fees and foreign exchange rates may vary by brand, channel and location based on a number of factors. Fees and rates subject to change without notice. Subject to applicable taxes (if any). Money transfers sent to Lebanon are subject to a 2% cash handling fee which will be collected from the principal amount during payout in USD at the agent location.[/color][/size]","id":"disclaimer5","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]6[/sup] Your Receiver can pick up your money transfer at any of our Agent Locations in France[/color][/size]","id":"disclaimer6","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]7[/sup] Please type exact receiver’s name as it appears on his/her ID. They will need to present this ID to pick up the funds.[/color][/size]","id":"disclaimer7","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]8[/sup] Effective June 22nd 2020, the reduced transfer fee campaign has ended. Transfer fee of each money transfer is based on many factors such as speed of transfer, destination of funds and other factors. Choose the funding method that works best for you.[/color][/size]","id":"disclaimer8","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]9[/sup] The transaction will be released only if the payment is received between 8:00 AM &amp; 3:30 PM during bank working days; Any transfers which are done thereafter will be only released on the next working day.[/color][/size]","id":"disclaimer9","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]10[/sup] Please use care when providing bank account information. Funds will be paid into in the bank account corresponding to account number you provide. Please Note: The receiver's account must be a local currency payout account.[/color][/size]","id":"disclaimer10","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]11[/sup] Excludes receiver's bank holidays.[/color][/size]","id":"disclaimer11","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]12[/sup] Please use care when providing bank account and/or eWallet information ; funds will be paid into the bank or eWallet account corresponding to the information you provide. Please note: the Receiver’s bank /eWallet account must be a local currency payout account. Additional charges, including SMS and account cash-out fees, may be applied to the Final Receiver's mobile wallet account by the mobile network operator.[/color][/size]","id":"disclaimer12","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]14[/sup] The actual exchange rate and your total amount will be determined at the time of payout.[/color][/size]","id":"disclaimer14","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]15[/sup] Reduced transfer fee for Cards shall take effect from January 2020. Western Union has the right to cancel or extend campaign without additional notice.[/color][/size]","id":"disclaimer15","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]16[/sup] If you want to pay a lower transfer fee, please select the 'Bank Transfer' option. Note that if you're using a credit card, a cash advance fee and associated interest charges will be applied by your card issuer.[/color][/size]","id":"disclaimer16","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]17[/sup] If your Bank is in the list, it means it is not yet part of the Central Bank Online Payment Gateway, and this is why your receiver will get their money within 1-3 days. After completing your transaction on Western Union, you will need to login to your Internet Banking Profile and make a transfer into the specified bank account, then log back into Western Union and update your payment reference as a final step.[/color][/size]","id":"disclaimer17","class":"label"},{"visibility":"hidden","value":"@{expander_label_a}","id":"disclaimer_a","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]b[/sup] For more information about General Consumption tax please check [url=https://www.jamaicatax.gov.jm/general-consumption-tax1]here[/url][/color][/size]","id":"disclaimer_b","class":"label"},{"visibility":"hidden","value":"@{disclaimer_fiscal}","id":"disclaimer_fiscal","class":"label"},{"type":"Partners","id":"divider_11148","class":"divider"}],"footer":[],"content":[]}],"id":"web/send_money/receiver","delivery_template":{"visible":"del","upi":"del","state":"del","mmt":"del","apn":"del"}},{"type":"modal","title":"","sections":[{"header":[{"visibility":"visible","value":"[size=20]How to use UPI ID[/size]","id":"upi_title","class":"label","align":"center"}],"footer":[],"content":[{"url":"/static/UPI_logo.svg","style":{"height":"200px"},"id":"upi_logo","class":"image","align":"center"},{"visibility":"visible","value":"[size=16][ul][*]“Unified Payment Interface” (UPI) enables bank deposit without need to enter bank account number.[/*][/ul][/size]","id":"upi_title_1","class":"label"},{"visibility":"visible","value":"[size=16][ul][*]UPI ID is available for account payout up to [b]100,000 INR[/b].[/*][/ul][/size]","id":"upi_title_2","class":"label"},{"visibility":"visible","value":"[size=16][ul][*]Currently [b]18 banks[/b] support international transfer using UPI ID. All banks in India will be supported over time.[/*][/ul][/size]","id":"upi_title_3","class":"label"},{"visibility":"visible","value":"[size=16][ul][*]Share the list of banks with your receiver so that they can give the valid UPI ID to you.[/*][/ul][/size][br]","id":"upi_title_4","class":"label"},{"value":"","title":"View supported banks","required":false,"options":[{"value":"Allahabad Bank","title":"Allahabad Bank"},{"value":"Andhra Bank","title":"Andhra Bank"},{"value":"Axis Bank Ltd","title":"Axis Bank Ltd"},{"value":"Bank of Baroda","title":"Bank of Baroda"},{"value":"Bank of India","title":"Bank of India"},{"value":"Central Bank of India","title":"Central Bank of India"},{"value":"HSBC","title":"HSBC"},{"value":"ICICI Bank","title":"ICICI Bank"},{"value":"IDBI Bank Ltd","title":"IDBI Bank Ltd"},{"value":"IndusInd Bank","title":"IndusInd Bank"},{"value":"Kotak Mahindra Bank","title":"Kotak Mahindra Bank"},{"value":"Oriental Bank of Commerce","title":"Oriental Bank of Commerce"},{"value":"Punjab and Sind Bank","title":"Punjab and Sind Bank"},{"value":"RBL","title":"RBL"},{"value":"South Indian Bank","title":"South Indian Bank"},{"value":"State Bank of India","title":"State Bank of India"},{"value":"UCO Bank","title":"UCO Bank"},{"value":"Yes Bank Ltd","title":"Yes Bank Ltd"}],"id":"upi_sup_banks","class":"select"},{"visibility":"visible","type":"submit","title":"Continue","id":"upi_continue","class":"button"}]}],"id":"web/send_money/receiver/upi_info"},{"type":"body","sections":[{"header":[{"type":"Summary","id":"divider_76698","class":"divider"}],"footer":[],"content":[]}],"id":"web/send_money/receiver/right"}]},"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"47acdce48801c8bbd60de0d055e117fed2edcbad434786df37fb103ec13254c6","page":"web/send_money/receiver"}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":true},"timeout":900,"payment":{"unit":"1.00","state_tax":"0.75","service_pay":"In minutes","received_as":"Cash","promocode":"","principal_amount":"11.00","payment_by":"Real Time Bank Transfer","gross_amount":"26.75","fundsout":"cash","fundsin":"bank_transfer","fee":"15.00","expected_payout_amount":"2.54","exchange_rate":"0.2305187","discount":"0.00","currency_send":"EUR","currency_get":"AED","country_send_name":"France","country_send_code":"FR","country_get_name":"United Arab Emirates","country_get_code":"AE"},"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","transfer_fee_currency":"AED","transfer_fee":"15.00","sender_country":"ae","send_currency":"AED","send_amount":"11.00","receiver_country":"FR","receive_currency":"EUR","receive_amount":"2.54","previous_page":"/send_money","phone_verified":"true","page_name":"/send_money/receiver","marketing_opt-in":true,"logged_in":"true","funds_out":"cash","funds_in":"direct_debit","exchange_rate":"0.2305187","account_verified":"true","account_id":"41601","TransactionID":""},"_time_zone":120},"data":{"next_page":"web/send_money/receiver","grid":{"type":"two_column","header":"HeaderSend","extra":{"steper":{"value":2,"items":[{"title":"Estimate"},{"title":"Receiver"},{"title":"Review"}]}},"components":{"right":["web/send_money/receiver/right"],"modal":["web/send_money/receiver/upi_info"],"left":["web/send_money/receiver"]}},"forms":[{"type":"body","title":"Receiver's information[sup]6, 7[/sup]","sections":[{"header":[{"value":"Know your receiver. After your money's been picked up or deposited, it can't be refunded. Also, you can't send to a business or charity bank account. If you do, the transfer will be rejected.","id":"label_95345","class":"label"},{"value":"Choose receiver","id":"label_80107","class":"label"},{"visibility":"visible","type":"receivers","required":false,"id":"receivers","extra":{"remove_item":"/items/receivers/del"},"class":"list","actions":[{"oper":"toggleExpander","items":["expander"]},{"type":"section","oper":"clearValue","items":["apn_st","mmt_st","upi_st","receiver_st","apn_or_upi"]},{"url":"/items/receivers/get","oper":"init"}]}],"footer":[],"content":[]},{"id":"receiver_st","header":[],"footer":[],"content":[{"visibility":"visible","title":"Add new receiver","required":false,"id":"expander","class":"expander","actions":[{"oper":"toggleVisible","items":["first_name","last_name","middle_name","phone","email","purpose","city","province","city_mx","source","address","state","postal_code","question","answer","relation","employer_name"]},{"type":"section","oper":"toggleVisible","items":["apn_or_upi","apn_st","mmt_st"]}]},{"visibility":"hidden","type":"text","title":"First name","row":1,"required":true,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"first_name","error_msg":"Please check first name","class":"edit","actions":[{"oper":"clearValue","items":["receivers"]}]},{"visibility":"hidden","type":"text","title":"Middle name (optional)","required":false,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"middle_name","error_msg":"Please check middle name","class":"edit","actions":[{"oper":"clearValue","items":["receivers"]}]},{"visibility":"hidden","type":"text","title":"Last name","row":1,"required":true,"regexp":".*(?=^([a-zA-Z' -]{2,35})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"last_name","error_msg":"Please check last name","class":"edit","actions":[{"oper":"clearValue","items":["receivers"]}]},{"visibility":"hidden","value":{"type":"mob","number":"","country_code":""},"title":"Phone number (optional)","required":false,"regexp":"^mob(--|-[0-9]{1,4}-[0-9]{4,17})$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone","actions":[{"oper":"clearValue","items":["receivers"]}]},{"visibility":"hidden","type":"email","title":"Email (optional)","required":false,"regexp":"^[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~]+(?:\\.[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~]+)*@(?:[a-z0-9]([-a-z0-9]{0,61}[a-z0-9])?\\.)*(?:aero|arpa|asia|biz|cat|com|coop|edu|gov|info|int|jobs|mil|mobi|museum|name|net|org|pro|tel|travel|[a-z][a-z])$","id":"email","error_msg":"Please check email","class":"edit","actions":[{"oper":"clearValue","items":["receivers"]}]},{"visibility":"hidden","title":"Purpose of transaction","required":true,"options":[{"value":"Family Support","title":"Family Support"},{"value":"Education","title":"Education"},{"value":"Regular Labour Transfers (expatriates)","title":"Regular Labour Transfers (expatriates)"},{"value":"Investment","title":"Investment"},{"value":"Other Personal Needs","title":"Other Personal Needs"},{"value":"Investment Related","title":"Investment Related"},{"value":"Trade","title":"Trade"}],"id":"purpose","error_msg":"Please select purpose of transaction","class":"select"},{"visibility":"hidden","title":"Source of funds","required":true,"options":[{"value":"Salary/Income","title":"Salary/Income"},{"value":"Savings","title":"Savings"},{"value":"Borrowed Funds/Loan","title":"Borrowed Funds/Loan"},{"value":"Gift","title":"Gift"},{"value":"Pension/Government/Welfare","title":"Pension/Government/Welfare"},{"value":"Inheritance","title":"Inheritance"}],"id":"source","error_msg":"Please select source of funds","class":"select"},{"visibility":"hidden","value":"Provide a security questions and its answer for your receiver","title":"label_title","id":"label_question","class":"label"}]},{"header":[],"footer":[{"visibility":"hidden","type":"Summary","title":"divider_title","id":"divider_id_1500390913225","class":"divider"},{"visibility":"visible","value":"submit","type":"submit","title":"Continue","id":"button_submit","extra":{"validate":false},"class":"button","actions":[{"oper":"submit"}]},{"visibility":"visible","value":"cancel","type":"cancel","title":"Cancel","id":"button_cancel","class":"button","actions":[]}],"content":[]},{"id":"sections_legal","header":[{"visibility":"visible","value":true,"title":"Legal disclaimers and important info:","id":"temporary_expander","extra":{"toggleVisible":"adaptive"},"class":"expander","actions":[{"value":true,"type":"on","oper":"toggleVisible","items":["disclaimer1","disclaimer2","disclaimer6","disclaimer7","disclaimer8",""],"id":"expander_disclaimers","class":"expander"}]},{"visibility":"hidden","value":"[size=11][color=#767677][sup]1[/sup] Service and funds may be delayed or unavailable depending on certain factors including the Service selected, the selection of delayed delivery options, amount sent, destination country, currency availability, regulatory issues, consumer protection issues, identification requirements, delivery restrictions, agent location hours, and differences in time zones (collectively, “Restrictions”). Additional restrictions may apply. See [url=https://www.westernunion.com/ae/en/legal/terms-conditions.html]online terms and conditions[/url] for details.[/color][/size]","id":"disclaimer1","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]2[/sup] Western Union also makes money from currency exchange. When choosing a money transmitter, carefully compare both transfer fees and exchange rates. Fees and foreign exchange rates may vary by brand, channel and location based on a number of factors. Fees and rates subject to change without notice. Subject to applicable taxes (if any). Money transfers sent to Lebanon are subject to a 2% cash handling fee which will be collected from the principal amount during payout in USD at the agent location.[/color][/size]","id":"disclaimer2","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]3[/sup] If you want to pay a lower transfer fee, please select the 'Bank Transfer' option.[/color][/size]","id":"disclaimer3","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]6[/sup] Your Receiver can pick up your money transfer at any of our Agent Locations in France[/color][/size]","id":"disclaimer4","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]5[/sup] Western Union also makes money from currency exchange. When choosing a money transmitter, carefully compare both transfer fees and exchange rates. Fees and foreign exchange rates may vary by brand, channel and location based on a number of factors. Fees and rates subject to change without notice. Subject to applicable taxes (if any). Money transfers sent to Lebanon are subject to a 2% cash handling fee which will be collected from the principal amount during payout in USD at the agent location.[/color][/size]","id":"disclaimer5","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]6[/sup] Your Receiver can pick up your money transfer at any of our Agent Locations in France[/color][/size]","id":"disclaimer6","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]7[/sup] Please type exact receiver’s name as it appears on his/her ID. They will need to present this ID to pick up the funds.[/color][/size]","id":"disclaimer7","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]8[/sup] Effective June 22nd 2020, the reduced transfer fee campaign has ended. Transfer fee of each money transfer is based on many factors such as speed of transfer, destination of funds and other factors. Choose the funding method that works best for you.[/color][/size]","id":"disclaimer8","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]9[/sup] The transaction will be released only if the payment is received between 8:00 AM &amp; 3:30 PM during bank working days; Any transfers which are done thereafter will be only released on the next working day.[/color][/size]","id":"disclaimer9","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]10[/sup] Please use care when providing bank account information. Funds will be paid into in the bank account corresponding to account number you provide. Please Note: The receiver's account must be a local currency payout account.[/color][/size]","id":"disclaimer10","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]11[/sup] Excludes receiver's bank holidays.[/color][/size]","id":"disclaimer11","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]12[/sup] Please use care when providing bank account and/or eWallet information ; funds will be paid into the bank or eWallet account corresponding to the information you provide. Please note: the Receiver’s bank /eWallet account must be a local currency payout account. Additional charges, including SMS and account cash-out fees, may be applied to the Final Receiver's mobile wallet account by the mobile network operator.[/color][/size]","id":"disclaimer12","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]14[/sup] The actual exchange rate and your total amount will be determined at the time of payout.[/color][/size]","id":"disclaimer14","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]15[/sup] Reduced transfer fee for Cards shall take effect from January 2020. Western Union has the right to cancel or extend campaign without additional notice.[/color][/size]","id":"disclaimer15","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]16[/sup] If you want to pay a lower transfer fee, please select the 'Bank Transfer' option. Note that if you're using a credit card, a cash advance fee and associated interest charges will be applied by your card issuer.[/color][/size]","id":"disclaimer16","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]17[/sup] If your Bank is in the list, it means it is not yet part of the Central Bank Online Payment Gateway, and this is why your receiver will get their money within 1-3 days. After completing your transaction on Western Union, you will need to login to your Internet Banking Profile and make a transfer into the specified bank account, then log back into Western Union and update your payment reference as a final step.[/color][/size]","id":"disclaimer17","class":"label"},{"visibility":"hidden","value":"@{expander_label_a}","id":"disclaimer_a","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]b[/sup] For more information about General Consumption tax please check [url=https://www.jamaicatax.gov.jm/general-consumption-tax1]here[/url][/color][/size]","id":"disclaimer_b","class":"label"},{"visibility":"hidden","value":"@{disclaimer_fiscal}","id":"disclaimer_fiscal","class":"label"},{"type":"Partners","id":"divider_11148","class":"divider"}],"footer":[],"content":[]}],"id":"web/send_money/receiver","delivery_template":{"visible":"del","upi":"del","state":"del","mmt":"del","apn":"del"}},{"type":"modal","title":"","sections":[{"header":[{"visibility":"visible","value":"[size=20]How to use UPI ID[/size]","id":"upi_title","class":"label","align":"center"}],"footer":[],"content":[{"url":"/static/UPI_logo.svg","style":{"height":"200px"},"id":"upi_logo","class":"image","align":"center"},{"visibility":"visible","value":"[size=16][ul][*]“Unified Payment Interface” (UPI) enables bank deposit without need to enter bank account number.[/*][/ul][/size]","id":"upi_title_1","class":"label"},{"visibility":"visible","value":"[size=16][ul][*]UPI ID is available for account payout up to [b]100,000 INR[/b].[/*][/ul][/size]","id":"upi_title_2","class":"label"},{"visibility":"visible","value":"[size=16][ul][*]Currently [b]18 banks[/b] support international transfer using UPI ID. All banks in India will be supported over time.[/*][/ul][/size]","id":"upi_title_3","class":"label"},{"visibility":"visible","value":"[size=16][ul][*]Share the list of banks with your receiver so that they can give the valid UPI ID to you.[/*][/ul][/size][br]","id":"upi_title_4","class":"label"},{"value":"","title":"View supported banks","required":false,"options":[{"value":"Allahabad Bank","title":"Allahabad Bank"},{"value":"Andhra Bank","title":"Andhra Bank"},{"value":"Axis Bank Ltd","title":"Axis Bank Ltd"},{"value":"Bank of Baroda","title":"Bank of Baroda"},{"value":"Bank of India","title":"Bank of India"},{"value":"Central Bank of India","title":"Central Bank of India"},{"value":"HSBC","title":"HSBC"},{"value":"ICICI Bank","title":"ICICI Bank"},{"value":"IDBI Bank Ltd","title":"IDBI Bank Ltd"},{"value":"IndusInd Bank","title":"IndusInd Bank"},{"value":"Kotak Mahindra Bank","title":"Kotak Mahindra Bank"},{"value":"Oriental Bank of Commerce","title":"Oriental Bank of Commerce"},{"value":"Punjab and Sind Bank","title":"Punjab and Sind Bank"},{"value":"RBL","title":"RBL"},{"value":"South Indian Bank","title":"South Indian Bank"},{"value":"State Bank of India","title":"State Bank of India"},{"value":"UCO Bank","title":"UCO Bank"},{"value":"Yes Bank Ltd","title":"Yes Bank Ltd"}],"id":"upi_sup_banks","class":"select"},{"visibility":"visible","type":"submit","title":"Continue","id":"upi_continue","class":"button"}]}],"id":"web/send_money/receiver/upi_info"},{"type":"body","sections":[{"header":[{"type":"Summary","id":"divider_76698","class":"divider"}],"footer":[],"content":[]}],"id":"web/send_money/receiver/right"}]},"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"47acdce48801c8bbd60de0d055e117fed2edcbad434786df37fb103ec13254c6","form_id":"web/send_money/receiver","item_id":"receivers"}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":true},"timeout":900,"payment":{"unit":"1.00","state_tax":"0.75","service_pay":"In minutes","received_as":"Cash","promocode":"","principal_amount":"11.00","payment_by":"Real Time Bank Transfer","gross_amount":"26.75","fundsout":"cash","fundsin":"bank_transfer","fee":"15.00","expected_payout_amount":"2.54","exchange_rate":"0.2305187","discount":"0.00","currency_send":"EUR","currency_get":"AED","country_send_name":"France","country_send_code":"FR","country_get_name":"United Arab Emirates","country_get_code":"AE"},"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","transfer_fee_currency":"AED","transfer_fee":"15.00","sender_country":"ae","send_currency":"AED","send_amount":"11.00","receiver_country":"FR","receive_currency":"EUR","receive_amount":"2.54","previous_page":"/send_money","phone_verified":"true","page_name":"/send_money/receiver","marketing_opt-in":true,"logged_in":"true","funds_out":"cash","funds_in":"direct_debit","exchange_rate":"0.2305187","account_verified":"true","account_id":"41601","TransactionID":""},"_time_zone":120},"data":[{"type":"resp","data":[]}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"47acdce48801c8bbd60de0d055e117fed2edcbad434786df37fb103ec13254c6","id":"web/send_money/receiver","data":{"expander":true,"first_name":"Oleksii","middle_name":"Middle","last_name":"Merzliakov","phone":{"type":"mob","plus":"+","number":"979057288","country_code":"380"},"email":"zatoch@ukr.net","purpose":"Family Support","source":"Salary/Income","temporary_expander":"true","button_submit":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":true},"timeout":900,"payment":{"unit":"1.00","state_tax":"0.75","service_pay":"In minutes","sender_last_name":"UQyfzosZsD","sender_first_name":"JozhQPHHj","receiver":{"temporary_expander":"true","template_type":"","state":"","source":"Salary/Income","relation":"","receivers":"41603","purpose":"Family Support","phone":"mob-380-979057288","middle_name":"Middle","last_name":"Merzliakov","first_name":"Oleksii","fio":"OleksiiMerzliakovMiddle","expander":"true","employer_name":"","email":"zatoch@ukr.net","city_mx":"","city":"","button_submit":"submit"},"received_as":"Cash","promocode":"","principal_amount":"11.00","payment_by":"Real Time Bank Transfer","gross_amount":"26.75","fundsout":"cash","fundsin":"bank_transfer","fee":"15.00","expected_payout_amount":"2.54","exchange_rate":"0.2305187","discount":"0.00","currency_send":"EUR","currency_get":"AED","country_send_name":"France","country_send_code":"FR","country_get_name":"United Arab Emirates","country_get_code":"AE"},"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","transfer_fee_currency":"AED","transfer_fee":"15.00","sender_country":"ae","send_currency":"AED","send_amount":"11.00","receiver_country":"FR","receive_currency":"EUR","receive_amount":"2.54","previous_page":"/send_money/receiver","phone_verified":"true","page_name":"/send_money/receiver","marketing_opt-in":true,"logged_in":"true","funds_out":"cash","funds_in":"direct_debit","exchange_rate":"0.2305187","account_verified":"true","account_id":"41601","TransactionID":""},"_time_zone":120},"data":{"next_page":"web/send_money/review","grid":{"type":"one_column","header":"HeaderSend","extra":{"steper":{"value":3,"items":[{"title":"Estimate"},{"title":"Receiver"},{"title":"Review"}]}},"components":{"center":["web/send_money/review"]}},"forms":[{"type":"body","title":"Review and confirm","sections":[{"header":[{"type":"Review","id":"divider_50716","class":"divider"}],"footer":[],"content":[]},{"header":[],"footer":[],"content":[{"value":"[b]Important:[/b] Western Union relies on the information you provide us to send money. Please review and confirm money transfer information before completing your transfer.","id":"label_39439","class":"label","align":"left"}]},{"header":[],"footer":[{"title":"I agree to the [url=https://www.westernunion.com/ae/en/legal/terms-conditions.html]Western Union terms of service[/url] and [url=https://www.westernunion.com/ae/en/legal/privacy-statement.html]online privacy statement[/url]. I confirm that I'm not sending this transaction on behalf of another person","required":true,"regexp":"^(true)$","id":"i_enroll","error_msg":"Please confirm agreement","class":"check"},{"visibility":"disabled","value":"submit","type":"submit","title":"Continue","id":"button_submit","class":"button","actions":[{"oper":"alert","id":"pgs_popup"}]},{"visibility":"visible","value":"cancel","type":"cancel","title":"Cancel","id":"cancel_btn","class":"button"},{"visibility":"hidden","value":"button_yes","type":"submit","title":"Yes","id":"button_yes","class":"button"},{"visibility":"hidden","value":"button_no","type":"cancel","title":"No","id":"button_no","class":"button"}],"content":[]},{"id":"sections_legal","header":[{"visibility":"visible","value":true,"title":"Legal disclaimers and important info:","id":"temporary_expander","extra":{"toggleVisible":"adaptive"},"class":"expander","actions":[{"value":true,"type":"on","oper":"toggleVisible","items":["disclaimer1","disclaimer2","disclaimer6","disclaimer7","disclaimer8",""],"id":"expander_disclaimers","class":"expander"}]},{"visibility":"hidden","value":"[size=11][color=#767677][sup]1[/sup] Service and funds may be delayed or unavailable depending on certain factors including the Service selected, the selection of delayed delivery options, amount sent, destination country, currency availability, regulatory issues, consumer protection issues, identification requirements, delivery restrictions, agent location hours, and differences in time zones (collectively, “Restrictions”). Additional restrictions may apply. See [url=https://www.westernunion.com/ae/en/legal/terms-conditions.html]online terms and conditions[/url] for details.[/color][/size]","id":"disclaimer1","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]2[/sup] Western Union also makes money from currency exchange. When choosing a money transmitter, carefully compare both transfer fees and exchange rates. Fees and foreign exchange rates may vary by brand, channel and location based on a number of factors. Fees and rates subject to change without notice. Subject to applicable taxes (if any). Money transfers sent to Lebanon are subject to a 2% cash handling fee which will be collected from the principal amount during payout in USD at the agent location.[/color][/size]","id":"disclaimer2","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]3[/sup] If you want to pay a lower transfer fee, please select the 'Bank Transfer' option.[/color][/size]","id":"disclaimer3","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]6[/sup] Your Receiver can pick up your money transfer at any of our Agent Locations in France[/color][/size]","id":"disclaimer4","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]5[/sup] Western Union also makes money from currency exchange. When choosing a money transmitter, carefully compare both transfer fees and exchange rates. Fees and foreign exchange rates may vary by brand, channel and location based on a number of factors. Fees and rates subject to change without notice. Subject to applicable taxes (if any). Money transfers sent to Lebanon are subject to a 2% cash handling fee which will be collected from the principal amount during payout in USD at the agent location.[/color][/size]","id":"disclaimer5","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]6[/sup] Your Receiver can pick up your money transfer at any of our Agent Locations in France[/color][/size]","id":"disclaimer6","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]7[/sup] Please type exact receiver’s name as it appears on his/her ID. They will need to present this ID to pick up the funds.[/color][/size]","id":"disclaimer7","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]8[/sup] Effective June 22nd 2020, the reduced transfer fee campaign has ended. Transfer fee of each money transfer is based on many factors such as speed of transfer, destination of funds and other factors. Choose the funding method that works best for you.[/color][/size]","id":"disclaimer8","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]9[/sup] The transaction will be released only if the payment is received between 8:00 AM &amp; 3:30 PM during bank working days; Any transfers which are done thereafter will be only released on the next working day.[/color][/size]","id":"disclaimer9","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]10[/sup] Please use care when providing bank account information. Funds will be paid into in the bank account corresponding to account number you provide. Please Note: The receiver's account must be a local currency payout account.[/color][/size]","id":"disclaimer10","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]11[/sup] Excludes receiver's bank holidays.[/color][/size]","id":"disclaimer11","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]12[/sup] Please use care when providing bank account and/or eWallet information ; funds will be paid into the bank or eWallet account corresponding to the information you provide. Please note: the Receiver’s bank /eWallet account must be a local currency payout account. Additional charges, including SMS and account cash-out fees, may be applied to the Final Receiver's mobile wallet account by the mobile network operator.[/color][/size]","id":"disclaimer12","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]14[/sup] The actual exchange rate and your total amount will be determined at the time of payout.[/color][/size]","id":"disclaimer14","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]15[/sup] Reduced transfer fee for Cards shall take effect from January 2020. Western Union has the right to cancel or extend campaign without additional notice.[/color][/size]","id":"disclaimer15","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]16[/sup] If you want to pay a lower transfer fee, please select the 'Bank Transfer' option. Note that if you're using a credit card, a cash advance fee and associated interest charges will be applied by your card issuer.[/color][/size]","id":"disclaimer16","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]17[/sup] If your Bank is in the list, it means it is not yet part of the Central Bank Online Payment Gateway, and this is why your receiver will get their money within 1-3 days. After completing your transaction on Western Union, you will need to login to your Internet Banking Profile and make a transfer into the specified bank account, then log back into Western Union and update your payment reference as a final step.[/color][/size]","id":"disclaimer17","class":"label"},{"visibility":"hidden","value":"@{expander_label_a}","id":"disclaimer_a","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]b[/sup] For more information about General Consumption tax please check [url=https://www.jamaicatax.gov.jm/general-consumption-tax1]here[/url][/color][/size]","id":"disclaimer_b","class":"label"},{"visibility":"hidden","value":"@{disclaimer_fiscal}","id":"disclaimer_fiscal","class":"label"},{"type":"Partners","id":"divider_11148","class":"divider"}],"footer":[],"content":[]}],"id":"web/send_money/review","extra":{"alert":[{"id":"pgs_popup","header":[],"footer":[],"content":[{"value":"You will be directed to UAE PGS website to pay for your transfer.Please have your banking information ready to login to your Bank Website","class":"label"},{"visibility":"hidden","value":"[color=#ff0000]Once your bank payment is confirmed, please ensure to click on the ‘LOGOFF’ button on your Emirates NBD Internet Banking Portal. Once you do so, you will be  automatically re-directed to Western Union and then, you would have successfully completed your transaction.[/color]","class":"label"},{"visibility":"visible","value":"button_yes","type":"submit","title":"Yes","id":"button_yes","class":"button"},{"visibility":"visible","value":"button_no","type":"cancel","title":"No","id":"button_no","class":"button"}]}]}}]},"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"47acdce48801c8bbd60de0d055e117fed2edcbad434786df37fb103ec13254c6","page":"web/send_money/review"}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":true},"timeout":900,"payment":{"unit":"1.00","state_tax":"0.75","service_pay":"In minutes","sender_last_name":"UQyfzosZsD","sender_first_name":"JozhQPHHj","receiver":{"temporary_expander":"true","template_type":"","state":"","source":"Salary/Income","relation":"","receivers":"41603","purpose":"Family Support","phone":"mob-380-979057288","middle_name":"Middle","last_name":"Merzliakov","first_name":"Oleksii","fio":"OleksiiMerzliakovMiddle","expander":"true","employer_name":"","email":"zatoch@ukr.net","city_mx":"","city":"","button_submit":"submit"},"received_as":"Cash","promocode":"","principal_amount":"11.00","payment_by":"Real Time Bank Transfer","gross_amount":"26.75","fundsout":"cash","fundsin":"bank_transfer","fee":"15.00","expected_payout_amount":"2.54","exchange_rate":"0.2305187","discount":"0.00","currency_send":"EUR","currency_get":"AED","country_send_name":"France","country_send_code":"FR","country_get_name":"United Arab Emirates","country_get_code":"AE"},"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","transfer_fee_currency":"AED","transfer_fee":"15.00","sender_country":"ae","send_currency":"AED","send_amount":"11.00","receiver_country":"FR","receive_currency":"EUR","receive_amount":"2.54","previous_page":"/send_money/receiver","phone_verified":"true","page_name":"/send_money/review","marketing_opt-in":true,"logged_in":"true","funds_out":"cash","funds_in":"direct_debit","exchange_rate":"0.2305187","account_verified":"true","account_id":"41601","TransactionID":""},"_time_zone":120},"data":{"next_page":"web/send_money/review","grid":{"type":"one_column","header":"HeaderSend","extra":{"steper":{"value":3,"items":[{"title":"Estimate"},{"title":"Receiver"},{"title":"Review"}]}},"components":{"center":["web/send_money/review"]}},"forms":[{"type":"body","title":"Review and confirm","sections":[{"header":[{"type":"Review","id":"divider_50716","class":"divider"}],"footer":[],"content":[]},{"header":[],"footer":[],"content":[{"value":"[b]Important:[/b] Western Union relies on the information you provide us to send money. Please review and confirm money transfer information before completing your transfer.","id":"label_39439","class":"label","align":"left"}]},{"header":[],"footer":[{"title":"I agree to the [url=https://www.westernunion.com/ae/en/legal/terms-conditions.html]Western Union terms of service[/url] and [url=https://www.westernunion.com/ae/en/legal/privacy-statement.html]online privacy statement[/url]. I confirm that I'm not sending this transaction on behalf of another person","required":true,"regexp":"^(true)$","id":"i_enroll","error_msg":"Please confirm agreement","class":"check"},{"visibility":"disabled","value":"submit","type":"submit","title":"Continue","id":"button_submit","class":"button","actions":[{"oper":"alert","id":"pgs_popup"}]},{"visibility":"visible","value":"cancel","type":"cancel","title":"Cancel","id":"cancel_btn","class":"button"},{"visibility":"hidden","value":"button_yes","type":"submit","title":"Yes","id":"button_yes","class":"button"},{"visibility":"hidden","value":"button_no","type":"cancel","title":"No","id":"button_no","class":"button"}],"content":[]},{"id":"sections_legal","header":[{"visibility":"visible","value":true,"title":"Legal disclaimers and important info:","id":"temporary_expander","extra":{"toggleVisible":"adaptive"},"class":"expander","actions":[{"value":true,"type":"on","oper":"toggleVisible","items":["disclaimer1","disclaimer2","disclaimer6","disclaimer7","disclaimer8",""],"id":"expander_disclaimers","class":"expander"}]},{"visibility":"hidden","value":"[size=11][color=#767677][sup]1[/sup] Service and funds may be delayed or unavailable depending on certain factors including the Service selected, the selection of delayed delivery options, amount sent, destination country, currency availability, regulatory issues, consumer protection issues, identification requirements, delivery restrictions, agent location hours, and differences in time zones (collectively, “Restrictions”). Additional restrictions may apply. See [url=https://www.westernunion.com/ae/en/legal/terms-conditions.html]online terms and conditions[/url] for details.[/color][/size]","id":"disclaimer1","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]2[/sup] Western Union also makes money from currency exchange. When choosing a money transmitter, carefully compare both transfer fees and exchange rates. Fees and foreign exchange rates may vary by brand, channel and location based on a number of factors. Fees and rates subject to change without notice. Subject to applicable taxes (if any). Money transfers sent to Lebanon are subject to a 2% cash handling fee which will be collected from the principal amount during payout in USD at the agent location.[/color][/size]","id":"disclaimer2","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]3[/sup] If you want to pay a lower transfer fee, please select the 'Bank Transfer' option.[/color][/size]","id":"disclaimer3","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]6[/sup] Your Receiver can pick up your money transfer at any of our Agent Locations in France[/color][/size]","id":"disclaimer4","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]5[/sup] Western Union also makes money from currency exchange. When choosing a money transmitter, carefully compare both transfer fees and exchange rates. Fees and foreign exchange rates may vary by brand, channel and location based on a number of factors. Fees and rates subject to change without notice. Subject to applicable taxes (if any). Money transfers sent to Lebanon are subject to a 2% cash handling fee which will be collected from the principal amount during payout in USD at the agent location.[/color][/size]","id":"disclaimer5","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]6[/sup] Your Receiver can pick up your money transfer at any of our Agent Locations in France[/color][/size]","id":"disclaimer6","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]7[/sup] Please type exact receiver’s name as it appears on his/her ID. They will need to present this ID to pick up the funds.[/color][/size]","id":"disclaimer7","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]8[/sup] Effective June 22nd 2020, the reduced transfer fee campaign has ended. Transfer fee of each money transfer is based on many factors such as speed of transfer, destination of funds and other factors. Choose the funding method that works best for you.[/color][/size]","id":"disclaimer8","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]9[/sup] The transaction will be released only if the payment is received between 8:00 AM &amp; 3:30 PM during bank working days; Any transfers which are done thereafter will be only released on the next working day.[/color][/size]","id":"disclaimer9","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]10[/sup] Please use care when providing bank account information. Funds will be paid into in the bank account corresponding to account number you provide. Please Note: The receiver's account must be a local currency payout account.[/color][/size]","id":"disclaimer10","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]11[/sup] Excludes receiver's bank holidays.[/color][/size]","id":"disclaimer11","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]12[/sup] Please use care when providing bank account and/or eWallet information ; funds will be paid into the bank or eWallet account corresponding to the information you provide. Please note: the Receiver’s bank /eWallet account must be a local currency payout account. Additional charges, including SMS and account cash-out fees, may be applied to the Final Receiver's mobile wallet account by the mobile network operator.[/color][/size]","id":"disclaimer12","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]14[/sup] The actual exchange rate and your total amount will be determined at the time of payout.[/color][/size]","id":"disclaimer14","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]15[/sup] Reduced transfer fee for Cards shall take effect from January 2020. Western Union has the right to cancel or extend campaign without additional notice.[/color][/size]","id":"disclaimer15","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]16[/sup] If you want to pay a lower transfer fee, please select the 'Bank Transfer' option. Note that if you're using a credit card, a cash advance fee and associated interest charges will be applied by your card issuer.[/color][/size]","id":"disclaimer16","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]17[/sup] If your Bank is in the list, it means it is not yet part of the Central Bank Online Payment Gateway, and this is why your receiver will get their money within 1-3 days. After completing your transaction on Western Union, you will need to login to your Internet Banking Profile and make a transfer into the specified bank account, then log back into Western Union and update your payment reference as a final step.[/color][/size]","id":"disclaimer17","class":"label"},{"visibility":"hidden","value":"@{expander_label_a}","id":"disclaimer_a","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]b[/sup] For more information about General Consumption tax please check [url=https://www.jamaicatax.gov.jm/general-consumption-tax1]here[/url][/color][/size]","id":"disclaimer_b","class":"label"},{"visibility":"hidden","value":"@{disclaimer_fiscal}","id":"disclaimer_fiscal","class":"label"},{"type":"Partners","id":"divider_11148","class":"divider"}],"footer":[],"content":[]}],"id":"web/send_money/review","extra":{"alert":[{"id":"pgs_popup","header":[],"footer":[],"content":[{"value":"You will be directed to UAE PGS website to pay for your transfer.Please have your banking information ready to login to your Bank Website","class":"label"},{"visibility":"hidden","value":"[color=#ff0000]Once your bank payment is confirmed, please ensure to click on the ‘LOGOFF’ button on your Emirates NBD Internet Banking Portal. Once you do so, you will be  automatically re-directed to Western Union and then, you would have successfully completed your transaction.[/color]","class":"label"},{"visibility":"visible","value":"button_yes","type":"submit","title":"Yes","id":"button_yes","class":"button"},{"visibility":"visible","value":"button_no","type":"cancel","title":"No","id":"button_no","class":"button"}]}]}}]},"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"47acdce48801c8bbd60de0d055e117fed2edcbad434786df37fb103ec13254c6","id":"web/send_money/review","data":{"i_enroll":true,"temporary_expander":true,"button_yes":"button_yes"}}</t>
+  </si>
+  <si>
+    <t>{"status":"redirect","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":true},"timeout":900,"payment":{"unit":"1.00","transaction_id":"2028700419177567","state_tax":"0.75","service_pay":"In minutes","sender_last_name":"UQyfzosZsD","sender_first_name":"JozhQPHHj","ref_no":"2028700419177567","receiver":{"temporary_expander":"true","template_type":"","state":"","source":"Salary/Income","relation":"","receivers":"41603","purpose":"Family Support","phone":"mob-380-979057288","middle_name":"Middle","last_name":"Merzliakov","first_name":"Oleksii","fio":"OleksiiMerzliakovMiddle","expander":"true","employer_name":"","email":"zatoch@ukr.net","city_mx":"","city":"","button_submit":"submit"},"received_as":"Cash","promocode":"","principal_amount":"11.00","payment_id":"2028700419177567/1","payment_by":"Real Time Bank Transfer","pay_status":"PENDING","gross_amount":"26.75","fundsout":"cash","fundsin":"bank_transfer","fee":"15.00","expected_payout_amount":"2.54","exchange_rate":"0.2305187","discount":"0.00","currency_send":"EUR","currency_get":"AED","country_send_name":"France","country_send_code":"FR","country_get_name":"United Arab Emirates","country_get_code":"AE"},"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","transfer_fee_currency":"AED","transfer_fee":"15.00","sender_country":"ae","send_currency":"AED","send_amount":"11.00","receiver_country":"FR","receive_currency":"EUR","receive_amount":"2.54","previous_page":"/send_money/receiver","phone_verified":"true","page_name":"/send_money/receiver","marketing_opt-in":true,"logged_in":"true","funds_out":"cash","funds_in":"direct_debit","exchange_rate":"0.2305187","account_verified":"true","account_id":"41601","TransactionID":"2028700419177567"},"_time_zone":120},"data":{"url":"https://uae.uat.wuamerigo.com/api/static/template?session=tmpl:13ff9a76c5782017cb2de2bfb0d58592156640dd3afc11121ce3008d181928c7&amp;lang=en","extra":{"next_page":"/send_money/review/wait","close_url":"https://uae.uat.wuamerigo.com/send_money/review/wait","alert":[{"title":"Cancel transaction","id":"send_money","header":[],"footer":[{"w":1,"visibility":"visible","value":"button_cancel","type":"cancel","title":"No","row":10,"id":"cancel","class":"button"},{"w":1,"visibility":"visible","value":"button_submit","type":"submit","title":"Yes","row":10,"id":"submit","class":"button"}],"content":[{"value":"If you leave this screen, your info will not be saved. Are you sure you want to cancel transaction?","class":"label"}]}]}},"code":0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResponseCode - PASS
+"status":"redirect"&lt;&lt;Required&gt;&gt; - PASS
+"code":0&lt;&lt;Required&gt;&gt; - PASS
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;!DOCTYPE html&gt;
+&lt;html&gt;
+&lt;body onload="document.frmLaunch.submit();"&gt;
+&lt;form name="frmLaunch" method="POST" action="https://pgt.cbuaepay.ae/PGCustomerPortalBkp/transactionmanagement/merchantform"&gt;
+    &lt;input type="hidden" name="pp_Amount" value="2675" /&gt;
+    &lt;input type="hidden" name="pp_BankID" value="0005" /&gt;
+    &lt;input type="hidden" name="pp_BillReference" value="2028700419177567" /&gt;
+    &lt;input type="hidden" name="pp_Description" value="Payment for WU transaction 2028700419177567/1" /&gt;
+    &lt;input type="hidden" name="pp_Language" value="EN" /&gt;
+    &lt;input type="hidden" name="pp_MerchantID" value="Test6012023005" /&gt;
+    &lt;input type="hidden" name="pp_Password" value="9u9cu7v22f" /&gt;
+    &lt;input type="hidden" name="pp_ProductID" value="RETL" /&gt;
+    &lt;input type="hidden" name="pp_ReturnURL" value="https://pay.uae.pi.wuamerigo.com/api/1/pay/uaepgs" /&gt;
+    &lt;input type="hidden" name="pp_TxnCurrency" value="AED" /&gt;
+    &lt;input type="hidden" name="pp_TxnDateTime" value="20201013181219" /&gt;
+    &lt;input type="hidden" name="pp_TxnExpiryDateTime" value="20201013191219" /&gt;
+    &lt;input type="hidden" name="pp_TxnRefNo" value="2028700419177567/1" /&gt;
+    &lt;input type="hidden" name="pp_TxnType" value="DD" /&gt;
+    &lt;input type="hidden" name="pp_Version" value="1.1" /&gt;
+    &lt;input type="hidden" name="ppmpf_1" value="2028700419177567" /&gt;
+    &lt;input type="hidden" name="ppmpf_2" value="stage" /&gt;
+    &lt;input type="hidden" name="ppmpf_3" value="I5EZ7RO08293GYJ9ZFEP4A5ICAICUNOR" /&gt;
+    &lt;input type="hidden" name="pp_SecureHash" value="b5e43fccf839c06e089442642e6677b00d7b7a6f7ed86c9cd262b3120c1645ab" /&gt;
+&lt;/form&gt;
+&lt;/body&gt;
+&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>pp_Amount=2675&amp;pp_BankID=0005&amp;pp_BillReference=2028700419177567&amp;pp_Description=Payment for WU transaction 2028700419177567/1&amp;pp_Language=EN&amp;pp_MerchantID=Test6012023005&amp;pp_Password=9u9cu7v22f&amp;pp_ProductID=RETL&amp;pp_ReturnURL=https://pay.uae.pi.wuamerigo.com/api/1/pay/uaepgs&amp;pp_TxnCurrency=AED&amp;pp_TxnDateTime=20201013181219&amp;pp_TxnExpiryDateTime=20201013191219&amp;pp_TxnRefNo=2028700419177567/1&amp;pp_TxnType=DD&amp;pp_Version=1.1&amp;ppmpf_1=2028700419177567&amp;ppmpf_2=stage&amp;ppmpf_3=I5EZ7RO08293GYJ9ZFEP4A5ICAICUNOR&amp;pp_SecureHash=b5e43fccf839c06e089442642e6677b00d7b7a6f7ed86c9cd262b3120c1645ab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+&lt;!DOCTYPE html&gt;
+&lt;html&gt;
+&lt;head&gt;
+    &lt;meta charset="utf-8"&gt;
+    &lt;meta http-equiv="X-UA-Compatible" content="IE=edge"&gt;
+    &lt;meta name="viewport" content="width=device-width, initial-scale=1"&gt;
+    &lt;title&gt;Payment Gateway&lt;/title&gt;
+    &lt;link href="/PGCustomerPortalBkp/Content/css/Main.css" rel="stylesheet" type="text/css" /&gt;
+    &lt;link href="/PGCustomerPortalBkp/Content/css/jquery-ui.custom.css" type="text/css" rel="stylesheet" /&gt;
+    &lt;link href="/PGCustomerPortalBkp/Content/css/demos.css" type="text/css" rel="stylesheet" /&gt;
+    &lt;link href="/PGCustomerPortalBkp/Content/css/bootstrap.css" rel="stylesheet" /&gt;
+    &lt;script type="text/javascript" src="/PGCustomerPortalBkp/Scripts/jquery.js"&gt;&lt;/script&gt;
+    &lt;script type="text/javascript" src="/PGCustomerPortalBkp/Scripts/jquery-ui.custom.js"&gt;&lt;/script&gt;
+    &lt;script type="text/javascript" src="/PGCustomerPortalBkp/Scripts/globalfuncs.js"&gt;&lt;/script&gt;
+    &lt;script type="text/javascript" src="/PGCustomerPortalBkp/Scripts/Encoder.js"&gt;&lt;/script&gt;
+    &lt;script type="text/javascript" src="/PGCustomerPortalBkp/Scripts/jquery.maskedinput.js"&gt;&lt;/script&gt;
+    &lt;script type="text/javascript" src="/PGCustomerPortalBkp/Scripts/jquery.reveal.js"&gt;&lt;/script&gt;
+    &lt;script type="text/javascript" src="/PGCustomerPortalBkp/Scripts/modal.js"&gt;&lt;/script&gt;
+    &lt;script language="JavaScript" type="text/javascript"&gt;
+        if (top.location.host != document.location.host) {
+            top.location.href = document.location.href;
+        }
+        if (window.opener != null &amp;&amp; !window.opener.closed) {
+            //window.close();
+        }
+    &lt;/script&gt;
+&lt;/head&gt;
+&lt;body&gt;
+    &lt;!--MAIN AREA START--&gt;
+    &lt;div id="main"&gt;
+        &lt;!--HEADER START--&gt;
+&lt;!--HEADER START--&gt;
+&lt;div id="header"&gt;
+    &lt;table  cellspacing="0" cellpadding="0" border="0" align="left" style="height:90"&gt;
+              &lt;tr&gt;
+                &lt;td align="left"&gt;
+                    &lt;img src='/PGCustomerPortalBkp/Content/images/logo.gif' alt="" class="logo" style="margin-left:55px; margin-top:5px"/&gt;
+                &lt;/td&gt;
+                &lt;td&gt;
+                    &lt;img src='/PGCustomerPortalBkp/Content/images/central-bank.png' class="HeaderText" style="margin-left:10px" alt="Central Bank of UAE"/&gt;
+                &lt;/td&gt;
+            &lt;/tr&gt;
+    &lt;/table&gt;
+    &lt;div class="topright"&gt;
+        &lt;div class="topnav"&gt;uaecb@cbuae.gov.ae&lt;span&gt;|&lt;/span&gt;+9712-6652220&lt;/div&gt;
+    &lt;/div&gt;
+&lt;/div&gt;
+&lt;!--HEADER END--&gt;
+        &lt;!--HEADER END--&gt;
+        &lt;div class="clear"&gt;
+        &lt;/div&gt;
+        &lt;div style="height: 30px"&gt;
+        &lt;/div&gt;
+        &lt;!--MAIN CURVE AREA START--&gt;
+        &lt;div class="mainbox"&gt;
+            &lt;!--WORKING AREA START--&gt;
+            &lt;div&gt;
+    &lt;script type="text/javascript"&gt;
+        //                $(document).ready(function () {
+        //                    var millisecondsToWait = 2500;
+        //                    setTimeout("document.getElementById('form1').submit()", millisecondsToWait);
+        //                });
+        function SubmitForm() {
+            document.getElementById('form1').submit();
+        }
+        window.onload = function () {
+            setTimeout('SubmitForm()', 2500);
+        }
+        $(document).ready(function () {
+            document.getElementById('div_NoJS').style.display = "none";
+        });
+    &lt;/script&gt;
+    &lt;form action="/PGCustomerPortalBkp/TransactionManagement/TransactionProcessing" id="form1" method="post"&gt;&lt;input name="__RequestVerificationToken" type="hidden" value="CQExR0VhnOHPZ93tSbGZ46Knkbo2TG5qwBsmPlr8JMgJrgkzX_vPW0Ll_Zp5BTXjX2uRm1C3NfM4m8q6g4OVPlmYScDImE43YXkPR9FdPLvP_fiX6b9T1FhnkFDxgRozyM85oCQt87ahogSMNu0UGnm1XgPJwgQORsVPJK4VeAM1" /&gt;
+    &lt;div&gt;
+        &lt;table border="0" align="center" cellpadding="0" cellspacing="0"&gt;
+            &lt;tr&gt;
+                &lt;td height="25" style="font-weight: bold; font-size: larger"&gt;
+                    Please wait while your transaction is being processed
+                &lt;/td&gt;
+            &lt;/tr&gt;
+        &lt;/table&gt;
+    &lt;/div&gt;
+    &lt;div style="display: none"&gt;
+        &lt;table width="100%" border="0" align="center" cellpadding="2" cellspacing="0" style="border: 1px solid #000;
+            padding-top: 20px; padding-bottom: 20px; padding-left: 20px;"&gt;
+            &lt;tr&gt;
+                &lt;td&gt;
+                    pp_Version
+                &lt;/td&gt;
+                &lt;td&gt;
+                    &lt;input name="Version" id="Version" value='1.1' type="text" /&gt;
+                &lt;/td&gt;
+            &lt;/tr&gt;
+            &lt;tr&gt;
+                &lt;td&gt;
+                    pp_TxnType
+                &lt;/td&gt;
+                &lt;td&gt;
+                    &lt;input name="TransactionTypeCode" id="TransactionTypeCode" value='DD'
+                        type="text" /&gt;
+                &lt;/td&gt;
+            &lt;/tr&gt;
+            &lt;tr&gt;
+                &lt;td&gt;
+                    pp_MerchantID
+                &lt;/td&gt;
+                &lt;td&gt;
+                    &lt;input name="MerchantCode" id="MerchantCode" value='Test6012023005' type="text" /&gt;
+                &lt;/td&gt;
+            &lt;/tr&gt;
+            &lt;tr&gt;
+                &lt;td&gt;
+                    pp_Language
+                &lt;/td&gt;
+                &lt;td&gt;
+                    &lt;input name="Language" id="Language" value='EN' type="text" /&gt;
+                &lt;/td&gt;
+            &lt;/tr&gt;
+            &lt;tr&gt;
+                &lt;td&gt;
+                    pp_SubMerchantID
+                &lt;/td&gt;
+                &lt;td&gt;
+                    &lt;input name="SubMerchantCode" id="SubMerchantCode" value=''
+                        type="text" /&gt;
+                &lt;/td&gt;
+            &lt;/tr&gt;
+            &lt;tr&gt;
+                &lt;td&gt;
+                    pp_Password
+                &lt;/td&gt;
+                &lt;td&gt;
+                    &lt;input name="Password" id="Password" value='9u9cu7v22f' type="text" /&gt;
+                &lt;/td&gt;
+            &lt;/tr&gt;
+            &lt;tr&gt;
+                &lt;td&gt;
+                    Pp_BankID
+                &lt;/td&gt;
+                &lt;td&gt;
+                    &lt;input name="BankCode" id="BankCode" value='0005' type="text" /&gt;
+                &lt;/td&gt;
+            &lt;/tr&gt;
+            &lt;tr&gt;
+                &lt;td&gt;
+                    pp_ProductCode
+                &lt;/td&gt;
+                &lt;td&gt;
+                    &lt;input name="ProductCode" id="Text1" value='RETL' type="text" /&gt;
+                &lt;/td&gt;
+            &lt;/tr&gt;
+            &lt;tr&gt;
+                &lt;td&gt;
+                    pp_TxnRefNo
+                &lt;/td&gt;
+                &lt;td&gt;
+                    &lt;input name="TransactionReference" id="TransactionReference" value='2028700419177567/1'
+                        type="text" /&gt;
+                &lt;/td&gt;
+            &lt;/tr&gt;
+            &lt;tr&gt;
+                &lt;td&gt;
+                    pp_Amount
+                &lt;/td&gt;
+                &lt;td&gt;
+                    &lt;input name="TransactionAmount" id="TransactionAmount" value='2675'
+                        type="text" /&gt;
+                &lt;/td&gt;
+            &lt;/tr&gt;
+            &lt;tr&gt;
+                &lt;td&gt;
+                    pp_TxnCurrency
+                &lt;/td&gt;
+                &lt;td&gt;
+                    &lt;input name="CurrencyAlphaCode" id="CurrencyAlphaCode" value='AED'
+                        type="text" /&gt;
+                &lt;/td&gt;
+            &lt;/tr&gt;
+            &lt;tr&gt;
+                &lt;td&gt;
+                    pp_TxnDateTime
+                &lt;/td&gt;
+                &lt;td&gt;
+                    &lt;input name="InputDateTime" id="InputDateTime" value='20201013181219'
+                        type="text" /&gt;
+                &lt;/td&gt;
+            &lt;/tr&gt;
+            &lt;tr&gt;
+                &lt;td&gt;
+                    pp_ExpiryDateTime
+                &lt;/td&gt;
+                &lt;td&gt;
+                    &lt;input name="TxnExpiry" id="TxnExpiry" value='20201013191219' type="text" /&gt;
+                &lt;/td&gt;
+            &lt;/tr&gt;
+            &lt;tr&gt;
+                &lt;td&gt;
+                    pp_BillReference
+                &lt;/td&gt;
+                &lt;td&gt;
+                    &lt;input name="BillReference" id="BillReference" value='2028700419177567'
+                        type="text" /&gt;
+                &lt;/td&gt;
+            &lt;/tr&gt;
+            &lt;tr&gt;
+                &lt;td&gt;
+                    pp_Description
+                &lt;/td&gt;
+                &lt;td&gt;
+                    &lt;input name="Description" id="Description" value='Payment for WU transaction 2028700419177567/1' type="text" /&gt;
+                &lt;/td&gt;
+            &lt;/tr&gt;
+            &lt;tr&gt;
+                &lt;td&gt;
+                    pp_ReturnURL
+                &lt;/td&gt;
+                &lt;td&gt;
+                    &lt;input name="ReturnURL" id="ReturnURL" value='https://pay.uae.pi.wuamerigo.com/api/1/pay/uaepgs' type="text" /&gt;
+                &lt;/td&gt;
+            &lt;/tr&gt;
+            &lt;tr&gt;
+                &lt;td&gt;
+                    ppmpf_1
+                &lt;/td&gt;
+                &lt;td&gt;
+                    &lt;input name="OptionalField1" id="OptionalField1" value='2028700419177567'
+                        type="text" /&gt;
+                &lt;/td&gt;
+            &lt;/tr&gt;
+            &lt;tr&gt;
+                &lt;td&gt;
+                    ppmpf_2
+                &lt;/td&gt;
+                &lt;td&gt;
+                    &lt;input name="OptionalField2" id="OptionalField2" value='stage'
+                        type="text" /&gt;
+                &lt;/td&gt;
+            &lt;/tr&gt;
+            &lt;tr&gt;
+                &lt;td&gt;
+                    ppmpf_3
+                &lt;/td&gt;
+                &lt;td&gt;
+                    &lt;input name="OptionalField3" id="OptionalField3" value='I5EZ7RO08293GYJ9ZFEP4A5ICAICUNOR'
+                        type="text" /&gt;
+                &lt;/td&gt;
+            &lt;/tr&gt;
+            &lt;tr&gt;
+                &lt;td&gt;
+                    ppmpf_4
+                &lt;/td&gt;
+                &lt;td&gt;
+                    &lt;input name="OptionalField4" id="OptionalField4" value=''
+                        type="text" /&gt;
+                &lt;/td&gt;
+            &lt;/tr&gt;
+            &lt;tr&gt;
+                &lt;td&gt;
+                    ppmpf_5
+                &lt;/td&gt;
+                &lt;td&gt;
+                    &lt;input name="OptionalField5" id="OptionalField5" value=''
+                        type="text" /&gt;
+                &lt;/td&gt;
+            &lt;/tr&gt;
+            &lt;tr&gt;
+                &lt;td&gt;
+                    ppmbf_1
+                &lt;/td&gt;
+                &lt;td&gt;
+                    &lt;input name="BankOptionalField1" id="BankOptionalField1" value=''
+                        type="text" /&gt;
+                &lt;/td&gt;
+            &lt;/tr&gt;
+            &lt;tr&gt;
+                &lt;td&gt;
+                    ppmbf_2
+                &lt;/td&gt;
+                &lt;td&gt;
+                    &lt;input name="BankOptionalField2" id="BankOptionalField2" value=''
+                        type="text" /&gt;
+                &lt;/td&gt;
+            &lt;/tr&gt;
+            &lt;tr&gt;
+                &lt;td&gt;
+                    ppmbf_3
+                &lt;/td&gt;
+                &lt;td&gt;
+                    &lt;input name="BankOptionalField3" id="BankOptionalField3" value=''
+                        type="text" /&gt;
+                &lt;/td&gt;
+            &lt;/tr&gt;
+            &lt;tr&gt;
+                &lt;td&gt;
+                    ppmbf_4
+                &lt;/td&gt;
+                &lt;td&gt;
+                    &lt;input name="BankOptionalField4" id="BankOptionalField4" value=''
+                        type="text" /&gt;
+                &lt;/td&gt;
+            &lt;/tr&gt;
+            &lt;tr&gt;
+                &lt;td&gt;
+                    ppmbf_5
+                &lt;/td&gt;
+                &lt;td&gt;
+                    &lt;input name="BankOptionalField5" id="BankOptionalField5" value=''
+                        type="text" /&gt;
+                &lt;/td&gt;
+            &lt;/tr&gt;
+            &lt;tr&gt;
+                &lt;td&gt;
+                    pp_SecureHash
+                &lt;/td&gt;
+                &lt;td&gt;
+                    &lt;input name="SecureHash" id="SecureHash" value='B5E43FCCF839C06E089442642E6677B00D7B7A6F7ED86C9CD262B3120C1645AB' type="text" /&gt;
+                &lt;/td&gt;
+            &lt;/tr&gt;
+        &lt;/table&gt;
+    &lt;/div&gt;
+    &lt;div style="display: none"&gt;
+        &lt;img style="height: 35px;" id="image1" src="/PGCustomerPortalBkp/TransactionManagement/SessionSecurity"
+            alt="" /&gt;
+    &lt;/div&gt;
+    &lt;/form&gt;
+            &lt;/div&gt;
+            &lt;!--WORKING AREA END--&gt;
+            &lt;div style="height: 20px"&gt;
+            &lt;/div&gt;
+            &lt;!--FOOTER AREA START--&gt;
+&lt;!--FOOTER AREA START--&gt;
+&lt;div class="footerbox"&gt;
+    &lt;span&gt;Copyright © 2020, Central Bank of the UAE&lt;/span&gt;&lt;br /&gt;
+    This site is best viewed with a resolution of 1024x768 (or higher) and supports Microsoft Internet Explorer 8 and 9 or Firefox 17 and 18&lt;br /&gt;
+    Powered by TPS Middle East FZ LLC
+&lt;/div&gt;
+&lt;!--FOOTER AREA END--&gt;
+            &lt;!--FOOTER AREA END--&gt;
+        &lt;/div&gt;
+        &lt;!--MAIN CURVE AREA END--&gt;
+    &lt;/div&gt;
+    &lt;!--MAIN AREA END--&gt;
+&lt;/body&gt;
+&lt;/html&gt;
+</t>
+  </si>
+  <si>
+    <t>__RequestVerificationToken=CQExR0VhnOHPZ93tSbGZ46Knkbo2TG5qwBsmPlr8JMgJrgkzX_vPW0Ll_Zp5BTXjX2uRm1C3NfM4m8q6g4OVPlmYScDImE43YXkPR9FdPLvP_fiX6b9T1FhnkFDxgRozyM85oCQt87ahogSMNu0UGnm1XgPJwgQORsVPJK4VeAM1&amp;Version=1.1&amp;TransactionTypeCode=DD&amp;MerchantCode=Test6012023005&amp;Language=EN&amp;SubMerchantCode=&amp;Password=9u9cu7v22f&amp;BankCode=0005&amp;ProductCode=RETL&amp;TransactionReference=2028700419177567/1&amp;TransactionAmount=2675&amp;CurrencyAlphaCode=AED&amp;InputDateTime=20201013181219&amp;TxnExpiry=20201013191219&amp;BillReference=2028700419177567&amp;Description=Payment for WU transaction 2028700419177567/1&amp;ReturnURL=https://pay.uae.pi.wuamerigo.com/api/1/pay/uaepgs&amp;OptionalField1=2028700419177567&amp;OptionalField2=stage&amp;OptionalField3=I5EZ7RO08293GYJ9ZFEP4A5ICAICUNOR&amp;OptionalField4=&amp;OptionalField5=&amp;BankOptionalField1=&amp;BankOptionalField2=&amp;BankOptionalField3=&amp;BankOptionalField4=&amp;BankOptionalField5=&amp;SecureHash=b5e43fccf839c06e089442642e6677b00d7b7a6f7ed86c9cd262b3120c1645ab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+&lt;!DOCTYPE html PUBLIC "-//W3C//DTD XHTML 1.0 Transitional//EN" "http://www.w3.org/TR/xhtml1/DTD/xhtml1-transitional.dtd"&gt;
+&lt;html xmlns="http://www.w3.org/1999/xhtml"&gt;
+&lt;head&gt;&lt;title&gt;
+	MerchantPost
+&lt;/title&gt;
+    &lt;script type="text/javascript"&gt;
+           function submit() {
+            document.forms["FormPG"].submit();
+        }
+    &lt;/script&gt;
+&lt;/head&gt;
+&lt;body onload="submit()"&gt;
+    &lt;form name="FormPG" method="post" action="https://pay.uae.pi.wuamerigo.com/api/1/pay/uaepgs"&gt;
+    &lt;input type="hidden" id='pp_Amount' name='pp_Amount' value='2675' /&gt;
+    &lt;input type="hidden" id='pp_AuthCode' name='pp_AuthCode' value='' /&gt;
+    &lt;input type="hidden" id='pp_BankID' name='pp_BankID' value='0005' /&gt;
+    &lt;input type="hidden" id='pp_BillReference' name='pp_BillReference' value='2028700419177567' /&gt;
+    &lt;input type="hidden" id='pp_CustomerCardNo' name='pp_CustomerCardNo' value='' /&gt;
+    &lt;input type="hidden" id='pp_Language' name='pp_Language' value='EN' /&gt;
+    &lt;input type="hidden" id='pp_MerchantID' name='pp_MerchantID' value='Test6012023005' /&gt;
+    &lt;input type="hidden" id='pp_ProductID' name='pp_ProductID' value='RETL' /&gt;
+    &lt;input type="hidden" id='pp_ResponseCode' name='pp_ResponseCode' value='115' /&gt;
+    &lt;input type="hidden" id='pp_ResponseMessage' name='pp_ResponseMessage' value='Please provide a valid value for pp_SecureHash.' /&gt;
+    &lt;input type="hidden" id='pp_RetreivalReferenceNo' name='pp_RetreivalReferenceNo' value='' /&gt;
+    &lt;input type="hidden" id='pp_SecureHash' name='pp_SecureHash' value='AFC1C104C07440E02CB7B4EFAD72A753911233D827B557C1275614A963AAB491' /&gt;
+    &lt;input type="hidden" id='pp_SettlementExpiry' name='pp_SettlementExpiry' value='' /&gt;
+    &lt;input type="hidden" id='pp_SubMerchantID' name='pp_SubMerchantID' value='' /&gt;
+    &lt;input type="hidden" id='pp_TxnCurrency' name='pp_TxnCurrency' value='AED' /&gt;
+    &lt;input type="hidden" id='pp_TxnDateTime' name='pp_TxnDateTime' value='20201013181219' /&gt;
+    &lt;input type="hidden" id='pp_TxnRefNo' name='pp_TxnRefNo' value='2028700419177567/1' /&gt;
+    &lt;input type="hidden" id='pp_TxnType' name='pp_TxnType' value='DD' /&gt;
+    &lt;input type="hidden" id='pp_Version' name='pp_Version' value='1.1' /&gt;
+    &lt;input type="hidden" id='ppmbf_1' name='ppmbf_1' value='' /&gt;
+    &lt;input type="hidden" id='ppmbf_2' name='ppmbf_2' value='' /&gt;
+    &lt;input type="hidden" id='ppmbf_3' name='ppmbf_3' value='' /&gt;
+    &lt;input type="hidden" id='ppmbf_4' name='ppmbf_4' value='' /&gt;
+    &lt;input type="hidden" id='ppmbf_5' name='ppmbf_5' value='' /&gt;
+    &lt;input type="hidden" id='ppmpf_1' name='ppmpf_1' value='2028700419177567' /&gt;
+    &lt;input type="hidden" id='ppmpf_2' name='ppmpf_2' value='stage' /&gt;
+    &lt;input type="hidden" id='ppmpf_3' name='ppmpf_3' value='I5EZ7RO08293GYJ9ZFEP4A5ICAICUNOR' /&gt;
+    &lt;input type="hidden" id='ppmpf_4' name='ppmpf_4' value='' /&gt;
+    &lt;input type="hidden" id='ppmpf_5' name='ppmpf_5' value='' /&gt;
+    &lt;/form&gt;
+&lt;/body&gt;
+&lt;/html&gt;
+</t>
+  </si>
+  <si>
+    <t>__RequestVerificationToken=CQExR0VhnOHPZ93tSbGZ46Knkbo2TG5qwBsmPlr8JMgJrgkzX_vPW0Ll_Zp5BTXjX2uRm1C3NfM4m8q6g4OVPlmYScDImE43YXkPR9FdPLvP_fiX6b9T1FhnkFDxgRozyM85oCQt87ahogSMNu0UGnm1XgPJwgQORsVPJK4VeAM1&amp;CheckBoxTerms=on&amp;ButtonAcceptTerms=Submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+&lt;!DOCTYPE html&gt;
+&lt;html&gt;
+&lt;head&gt;
+    &lt;meta charset="utf-8"&gt;
+    &lt;meta http-equiv="X-UA-Compatible" content="IE=edge"&gt;
+    &lt;meta name="viewport" content="width=device-width, initial-scale=1"&gt;
+    &lt;title&gt;Payment Gateway&lt;/title&gt;
+    &lt;link href="/PGCustomerPortalBkp/Content/css/Main.css" rel="stylesheet" type="text/css" /&gt;
+    &lt;link href="/PGCustomerPortalBkp/Content/css/jquery-ui.custom.css" type="text/css" rel="stylesheet" /&gt;
+    &lt;link href="/PGCustomerPortalBkp/Content/css/demos.css" type="text/css" rel="stylesheet" /&gt;
+    &lt;link href="/PGCustomerPortalBkp/Content/css/bootstrap.css" rel="stylesheet" /&gt;
+    &lt;script type="text/javascript" src="/PGCustomerPortalBkp/Scripts/jquery.js"&gt;&lt;/script&gt;
+    &lt;script type="text/javascript" src="/PGCustomerPortalBkp/Scripts/jquery-ui.custom.js"&gt;&lt;/script&gt;
+    &lt;script type="text/javascript" src="/PGCustomerPortalBkp/Scripts/globalfuncs.js"&gt;&lt;/script&gt;
+    &lt;script type="text/javascript" src="/PGCustomerPortalBkp/Scripts/Encoder.js"&gt;&lt;/script&gt;
+    &lt;script type="text/javascript" src="/PGCustomerPortalBkp/Scripts/jquery.maskedinput.js"&gt;&lt;/script&gt;
+    &lt;script type="text/javascript" src="/PGCustomerPortalBkp/Scripts/jquery.reveal.js"&gt;&lt;/script&gt;
+    &lt;script type="text/javascript" src="/PGCustomerPortalBkp/Scripts/modal.js"&gt;&lt;/script&gt;
+    &lt;script language="JavaScript" type="text/javascript"&gt;
+        if (top.location.host != document.location.host) {
+            top.location.href = document.location.href;
+        }
+        if (window.opener != null &amp;&amp; !window.opener.closed) {
+            //window.close();
+        }
+    &lt;/script&gt;
+&lt;/head&gt;
+&lt;body&gt;
+    &lt;!--MAIN AREA START--&gt;
+    &lt;div id="main"&gt;
+        &lt;!--HEADER START--&gt;
+&lt;!--HEADER START--&gt;
+&lt;div id="header"&gt;
+    &lt;table  cellspacing="0" cellpadding="0" border="0" align="left" style="height:90"&gt;
+              &lt;tr&gt;
+                &lt;td align="left"&gt;
+                    &lt;img src='/PGCustomerPortalBkp/Content/images/logo.gif' alt="" class="logo" style="margin-left:55px; margin-top:5px"/&gt;
+                &lt;/td&gt;
+                &lt;td&gt;
+                    &lt;img src='/PGCustomerPortalBkp/Content/images/central-bank.png' class="HeaderText" style="margin-left:10px" alt="Central Bank of UAE"/&gt;
+                &lt;/td&gt;
+            &lt;/tr&gt;
+    &lt;/table&gt;
+    &lt;div class="topright"&gt;
+        &lt;div class="topnav"&gt;uaecb@cbuae.gov.ae&lt;span&gt;|&lt;/span&gt;+9712-6652220&lt;/div&gt;
+    &lt;/div&gt;
+&lt;/div&gt;
+&lt;!--HEADER END--&gt;
+        &lt;!--HEADER END--&gt;
+        &lt;div class="clear"&gt;
+        &lt;/div&gt;
+        &lt;div style="height: 30px"&gt;
+        &lt;/div&gt;
+        &lt;!--MAIN CURVE AREA START--&gt;
+        &lt;div class="mainbox"&gt;
+            &lt;!--WORKING AREA START--&gt;
+            &lt;div&gt;
+&lt;div class="workbox"&gt;
+    &lt;table class="sample"&gt;
+    &lt;tr&gt;
+    &lt;td width="5%"&gt;&lt;img src="/PGCustomerPortalBkp/Content/images/error.png" width="48" height="48" /&gt;&lt;/td&gt;
+    &lt;td width="95%" style="color:#ff0000"&gt;Your request cannot be serviced due to some technical reasons. Please retry after a few moments.&lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;/table&gt;
+&lt;/div&gt;
+            &lt;/div&gt;
+            &lt;!--WORKING AREA END--&gt;
+            &lt;div style="height: 20px"&gt;
+            &lt;/div&gt;
+            &lt;!--FOOTER AREA START--&gt;
+&lt;!--FOOTER AREA START--&gt;
+&lt;div class="footerbox"&gt;
+    &lt;span&gt;Copyright © 2020, Central Bank of the UAE&lt;/span&gt;&lt;br /&gt;
+    This site is best viewed with a resolution of 1024x768 (or higher) and supports Microsoft Internet Explorer 8 and 9 or Firefox 17 and 18&lt;br /&gt;
+    Powered by TPS Middle East FZ LLC
+&lt;/div&gt;
+&lt;!--FOOTER AREA END--&gt;
+            &lt;!--FOOTER AREA END--&gt;
+        &lt;/div&gt;
+        &lt;!--MAIN CURVE AREA END--&gt;
+    &lt;/div&gt;
+    &lt;!--MAIN AREA END--&gt;
+&lt;/body&gt;
+&lt;/html&gt;
+</t>
+  </si>
+  <si>
+    <t>pp_Amount=2675&amp;pp_BillReference=2028700419177567&amp;pp_Description=Payment for WU transaction 2028700419177567/1&amp;pp_Language=EN&amp;pp_MCC=6012&amp;pp_MerchantID=Test6012023005&amp;pp_MerchantName=AlFardanExchangeWesternUnionService&amp;pp_Password=0123456789&amp;pp_ProductID=RETL&amp;pp_RetreivalReferenceNo=100000000130&amp;pp_ReturnURL=https%3A%2F%2Fpgt.cbuaepay.ae%2FPGCustomerPortalBkp%2FTransactionManagement%2FBank&amp;pp_SecureHash=b5e43fccf839c06e089442642e6677b00d7b7a6f7ed86c9cd262b3120c1645ab&amp;pp_SubMerchantID=&amp;pp_SubMerchantName=&amp;pp_TxnCurrency=AED&amp;pp_TxnDateTime=20201013181219&amp;pp_TxnExpiryDateTime=20201013191219&amp;pp_TxnRefNo=2028700419177567/1&amp;pp_TxnType=DD&amp;pp_Version=1.1&amp;ppmbf_1=&amp;ppmbf_2=&amp;ppmbf_3=&amp;ppmbf_4=&amp;ppmbf_5=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+&lt;style&gt;
+    td {
+        font-family: Tahoma;
+        font-size: 11px;
+        color: #000;
+    }
+    table {
+        border: 1px solid #000;
+        padding-top: 20px;
+        padding-bottom: 20px;
+        padding-left: 20px;
+    }
+&lt;/style&gt;
+&lt;script type="text/javascript" src="http://code.jquery.com/jquery-latest.min.js"&gt;&lt;/script&gt;
+&lt;div&gt;
+    Welcome to Bank!
+&lt;/div&gt;
+&lt;form action="/MerchantSimulator/BankSimulator/GenHash" id="form1" method="post"&gt;    &lt;table cellspacing='0' cellpadding='2' width='800' align='center'&gt;
+        &lt;tr&gt;
+            &lt;td style="font-size: 16px; font-weight: bold;"&gt;Parameters received from PG to Bank&lt;/td&gt;
+            &lt;td style="font-size: 16px; font-weight: bold;"&gt;Parameters sent from Bank to PG&lt;/td&gt;
+        &lt;/tr&gt;
+        &lt;tr&gt;
+            &lt;td style="vertical-align: initial;"&gt;
+                &lt;table cellspacing='0' cellpadding='2' width='500' align='center'&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_Version: &lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="1.1" id="pp_VersionG" name="pp_VersionG" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_TxnType:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="DD" id="pp_TxnTypeG" name="pp_TxnTypeG" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_Language:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="EN" id="pp_LanguageG" name="pp_LanguageG" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_MerchantID:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="Test6012023005" id="pp_MerchantIDG" name="pp_MerchantIDG" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_SubMerchantID:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="" id="pp_SubMerchantIDG" name="pp_SubMerchantIDG" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_Amount:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="2675" id="pp_AmountG" name="pp_AmountG" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_TxnCurrency:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="AED" id="pp_TxnCurrencyG" name="pp_TxnCurrencyG" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_TxnDateTime:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="20201013181219" id="pp_TxnDateTimeG" name="pp_TxnDateTimeG" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_TxnRefNo: &lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="2028700419177567/1 " id="pp_TxnRefNoG" name="pp_TxnRefNoG" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_BillReference:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="2028700419177567" id="pp_BillReferenceG" name="pp_BillReferenceG" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_RetreivalReferenceNo: &lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="100000000130" id="pp_RetreivalReferenceNoG" name="pp_RetreivalReferenceNoG" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_Description:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="Payment for WU transaction 2028700419177567/1" id="pp_DescriptionG" name="pp_DescriptionG" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_ReturnURL:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="https://pgt.cbuaepay.ae/PGCustomerPortalBkp/TransactionManagement/Bank" id="pp_ReturnURLG" name="pp_ReturnURLG" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_MCC:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="6012" id="pp_MCCG" name="pp_MCCG" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_ProductID:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="RETL" id="pp_ProductIDG" name="pp_ProductIDG" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_SecureHash:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="b5e43fccf839c06e089442642e6677b00d7b7a6f7ed86c9cd262b3120c1645ab" id="pp_SecureHashG" name="pp_SecureHashG" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_Password:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="0123456789" id="pp_PasswordG" name="pp_PasswordG" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;ppmbf_1:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="" id="ppmbf_1G" name="ppmbf_1G" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;ppmbf_2: &lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="" id="ppmbf_2G" name="ppmbf_2G" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;ppmbf_3:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="" id="ppmbf_3G" name="ppmbf_3G" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;ppmbf_4:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="" id="ppmbf_4G" name="ppmbf_4G" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;ppmbf_5:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="" id="ppmbf_5G" name="ppmbf_5G" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                &lt;/table&gt;
+            &lt;/td&gt;
+            &lt;td&gt;
+                &lt;table cellspacing='0' cellpadding='2' width='500' align='center'&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;
+                            &lt;strong&gt;pp_Version: &lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="1.1" id="pp_Version" name="pp_Version" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_TxnType:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="DD" id="pp_TxnType" name="pp_TxnType" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_Language:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="EN" id="pp_Language" name="pp_Language" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_MerchantID:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="Test6012023005" id="pp_MerchantID" name="pp_MerchantID" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_SubMerchantID:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="" id="pp_SubMerchantID" name="pp_SubMerchantID" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_Amount:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="2675" id="pp_Amount" name="pp_Amount" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_TxnCurrency:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="AED" id="pp_TxnCurrency" name="pp_TxnCurrency" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_TxnDateTime:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="20201013181219" id="pp_TxnDateTime" name="pp_TxnDateTime" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_BillReference:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="2028700419177567" id="pp_BillReference" name="pp_BillReference" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_ResponseCode:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" id="pp_ResponseCode" name="pp_ResponseCode" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_ResponseMessage:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" id="pp_ResponseMessage" name="pp_ResponseMessage" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_RetreivalReferenceNo: &lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="100000000130" id="pp_RetreivalReferenceNo" name="pp_RetreivalReferenceNo" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_AuthCode:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" id="pp_AuthCode" name="pp_AuthCode" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_BankID:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" id="pp_BankID" name="pp_BankID" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_ReturnURL:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="https://pgt.cbuaepay.ae/PGCustomerPortalBkp/TransactionManagement/Bank" id="pp_ReturnURL" name="pp_ReturnURL" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_CustomerIBAN:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="AE000000000000000000001" id="pp_CustomerIBAN" name="pp_CustomerIBAN" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_MCC:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="6012" id="pp_MCC" name="pp_MCC" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_ProductID:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="RETL" id="pp_ProductID" name="pp_ProductID" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;ppmbf_1:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="BankPortalToMerchantOptionalReturn1" id="ppmbf_1" name="ppmbf_1" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;ppmbf_2: &lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="BankPortalToMerchantOptionalReturn2" id="ppmbf_2" name="ppmbf_2" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;ppmbf_3:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="BankPortalToMerchantOptionalReturn3" id="ppmbf_3" name="ppmbf_3" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;ppmbf_4:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="BankPortalToMerchantOptionalReturn4" id="ppmbf_4" name="ppmbf_4" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;ppmbf_5:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="BankPortalToMerchantOptionalReturn5" id="ppmbf_5" name="ppmbf_5" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_SecureHash:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="0123456789" id="pp_SecureHash" name="pp_SecureHash" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;
+                            &lt;input type="submit" id="genHash" name="genHash" value="Generate Hash" /&gt;
+                        &lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="submit" id="ret" name="ret" value="Return to PG" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                &lt;/table&gt;
+            &lt;/td&gt;
+        &lt;/tr&gt;
+    &lt;/table&gt;
+&lt;/form&gt;
+</t>
+  </si>
+  <si>
+    <t>pp_VersionG=1.1&amp;pp_TxnTypeG=DD&amp;pp_LanguageG=EN&amp;pp_MerchantIDG=Test6012023005&amp;pp_SubMerchantIDG=&amp;pp_AmountG=2675&amp;pp_TxnCurrencyG=AED&amp;pp_TxnDateTimeG=20201013181219&amp;pp_TxnRefNoG=2028700419177567/1&amp;pp_BillReferenceG=2028700419177567&amp;pp_RetreivalReferenceNoG=100000000130&amp;pp_DescriptionG=Payment for WU transaction 2028700419177567/1&amp;pp_ReturnURLG=https://pgt.cbuaepay.ae/PGCustomerPortalBkp/TransactionManagement/Bank&amp;pp_MCCG=6012&amp;pp_ProductIDG=RETL&amp;pp_SecureHashG=b5e43fccf839c06e089442642e6677b00d7b7a6f7ed86c9cd262b3120c1645ab&amp;pp_PasswordG=0123456789&amp;ppmbf_1G=&amp;ppmbf_2G=&amp;ppmbf_3G=&amp;ppmbf_4G=&amp;ppmbf_5G=&amp;pp_Version=1.1&amp;pp_TxnType=DD&amp;pp_Language=EN&amp;pp_MerchantID=Test6012023005&amp;pp_SubMerchantID=&amp;pp_Amount=2675&amp;pp_TxnCurrency=AED&amp;pp_TxnDateTime=20201013181219&amp;pp_BillReference=2028700419177567&amp;pp_ResponseCode=000&amp;pp_ResponseMessage=&amp;pp_RetreivalReferenceNo=100000000130&amp;pp_AuthCode=123456&amp;pp_BankID=0005&amp;pp_ReturnURL=https://pgt.cbuaepay.ae/PGCustomerPortalBkp/TransactionManagement/Bank&amp;pp_CustomerIBAN=AE000000000000000000001&amp;pp_MCC=6012&amp;pp_ProductID=RETL&amp;ppmbf_1=BankPortalToMerchantOptionalReturn1&amp;ppmbf_2=BankPortalToMerchantOptionalReturn2&amp;ppmbf_3=BankPortalToMerchantOptionalReturn3&amp;ppmbf_4=BankPortalToMerchantOptionalReturn4&amp;ppmbf_5=BankPortalToMerchantOptionalReturn5&amp;pp_SecureHash=0123456789&amp;genHash=Generate+Hash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+&lt;style&gt;
+    td {
+        font-family: Tahoma;
+        font-size: 11px;
+        color: #000;
+    }
+    table {
+        border: 1px solid #000;
+        padding-top: 20px;
+        padding-bottom: 20px;
+        padding-left: 20px;
+    }
+&lt;/style&gt;
+&lt;script type="text/javascript" src="http://code.jquery.com/jquery-latest.min.js"&gt;&lt;/script&gt;
+&lt;div&gt;
+    Welcome to Bank!
+&lt;/div&gt;
+&lt;form action="/MerchantSimulator/BankSimulator/GenHash" id="form1" method="post"&gt;    &lt;table cellspacing='0' cellpadding='2' width='800' align='center'&gt;
+        &lt;tr&gt;
+            &lt;td style="font-size: 16px; font-weight: bold;"&gt;Parameters received from PG to Bank&lt;/td&gt;
+            &lt;td style="font-size: 16px; font-weight: bold;"&gt;Parameters sent from Bank to PG&lt;/td&gt;
+        &lt;/tr&gt;
+        &lt;tr&gt;
+            &lt;td style="vertical-align: initial;"&gt;
+                &lt;table cellspacing='0' cellpadding='2' width='500' align='center'&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_Version: &lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="1.1" id="pp_VersionG" name="pp_VersionG" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_TxnType:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="DD" id="pp_TxnTypeG" name="pp_TxnTypeG" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_Language:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="EN" id="pp_LanguageG" name="pp_LanguageG" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_MerchantID:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="Test6012023005" id="pp_MerchantIDG" name="pp_MerchantIDG" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_SubMerchantID:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="" id="pp_SubMerchantIDG" name="pp_SubMerchantIDG" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_Amount:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="2675" id="pp_AmountG" name="pp_AmountG" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_TxnCurrency:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="AED" id="pp_TxnCurrencyG" name="pp_TxnCurrencyG" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_TxnDateTime:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="20201013181219" id="pp_TxnDateTimeG" name="pp_TxnDateTimeG" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_TxnRefNo: &lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="" id="pp_TxnRefNoG" name="pp_TxnRefNoG" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_BillReference:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="2028700419177567" id="pp_BillReferenceG" name="pp_BillReferenceG" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_RetreivalReferenceNo: &lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="100000000130" id="pp_RetreivalReferenceNoG" name="pp_RetreivalReferenceNoG" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_Description:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" id="pp_DescriptionG" name="pp_DescriptionG" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_ReturnURL:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="https://pgt.cbuaepay.ae/PGCustomerPortalBkp/TransactionManagement/Bank" id="pp_ReturnURLG" name="pp_ReturnURLG" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_MCC:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="6012" id="pp_MCCG" name="pp_MCCG" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_ProductID:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="RETL" id="pp_ProductIDG" name="pp_ProductIDG" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_SecureHash:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="0123456789" id="pp_SecureHashG" name="pp_SecureHashG" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_Password:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" id="pp_PasswordG" name="pp_PasswordG" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;ppmbf_1:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="BankPortalToMerchantOptionalReturn1" id="ppmbf_1G" name="ppmbf_1G" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;ppmbf_2: &lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="BankPortalToMerchantOptionalReturn2" id="ppmbf_2G" name="ppmbf_2G" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;ppmbf_3:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="BankPortalToMerchantOptionalReturn3" id="ppmbf_3G" name="ppmbf_3G" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;ppmbf_4:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="BankPortalToMerchantOptionalReturn4" id="ppmbf_4G" name="ppmbf_4G" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;ppmbf_5:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="BankPortalToMerchantOptionalReturn5" id="ppmbf_5G" name="ppmbf_5G" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                &lt;/table&gt;
+            &lt;/td&gt;
+            &lt;td&gt;
+                &lt;table cellspacing='0' cellpadding='2' width='500' align='center'&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;
+                            &lt;strong&gt;pp_Version: &lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="1.1" id="pp_Version" name="pp_Version" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_TxnType:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="DD" id="pp_TxnType" name="pp_TxnType" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_Language:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="EN" id="pp_Language" name="pp_Language" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_MerchantID:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="Test6012023005" id="pp_MerchantID" name="pp_MerchantID" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_SubMerchantID:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="" id="pp_SubMerchantID" name="pp_SubMerchantID" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_Amount:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="2675" id="pp_Amount" name="pp_Amount" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_TxnCurrency:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="AED" id="pp_TxnCurrency" name="pp_TxnCurrency" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_TxnDateTime:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="20201013181219" id="pp_TxnDateTime" name="pp_TxnDateTime" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_BillReference:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="2028700419177567" id="pp_BillReference" name="pp_BillReference" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_ResponseCode:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="000" id="pp_ResponseCode" name="pp_ResponseCode" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_ResponseMessage:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="" id="pp_ResponseMessage" name="pp_ResponseMessage" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_RetreivalReferenceNo: &lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="100000000130" id="pp_RetreivalReferenceNo" name="pp_RetreivalReferenceNo" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_AuthCode:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="123456" id="pp_AuthCode" name="pp_AuthCode" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_BankID:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="0005" id="pp_BankID" name="pp_BankID" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_ReturnURL:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="https://pgt.cbuaepay.ae/PGCustomerPortalBkp/TransactionManagement/Bank" id="pp_ReturnURL" name="pp_ReturnURL" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_CustomerIBAN:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="AE000000000000000000001" id="pp_CustomerIBAN" name="pp_CustomerIBAN" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_MCC:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="6012" id="pp_MCC" name="pp_MCC" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_ProductID:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="RETL" id="pp_ProductID" name="pp_ProductID" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;ppmbf_1:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="BankPortalToMerchantOptionalReturn1" id="ppmbf_1" name="ppmbf_1" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;ppmbf_2: &lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="BankPortalToMerchantOptionalReturn2" id="ppmbf_2" name="ppmbf_2" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;ppmbf_3:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="BankPortalToMerchantOptionalReturn3" id="ppmbf_3" name="ppmbf_3" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;ppmbf_4:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="BankPortalToMerchantOptionalReturn4" id="ppmbf_4" name="ppmbf_4" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;ppmbf_5:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="BankPortalToMerchantOptionalReturn5" id="ppmbf_5" name="ppmbf_5" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;&lt;strong&gt;pp_SecureHash:&lt;/strong&gt;&lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="text" value="48B295C464331D83491B4574822A4ED6220EE5DA09E773AA1E26E6800A81AEBA" id="pp_SecureHash" name="pp_SecureHash" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                    &lt;tr&gt;
+                        &lt;td width='150'&gt;
+                            &lt;input type="submit" id="genHash" name="genHash" value="Generate Hash" /&gt;
+                        &lt;/td&gt;
+                        &lt;td width='350'&gt;
+                            &lt;input type="submit" id="ret" name="ret" value="Return to PG" /&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                &lt;/table&gt;
+            &lt;/td&gt;
+        &lt;/tr&gt;
+    &lt;/table&gt;
+&lt;/form&gt;
+</t>
+  </si>
+  <si>
+    <t>pp_VersionG=1.1&amp;pp_TxnTypeG=DD&amp;pp_LanguageG=EN&amp;pp_MerchantIDG=Test6012023005&amp;pp_SubMerchantIDG=&amp;pp_AmountG=2675&amp;pp_TxnCurrencyG=AED&amp;pp_TxnDateTimeG=20201013181219&amp;pp_TxnRefNoG=&amp;pp_BillReferenceG=2028700419177567&amp;pp_RetreivalReferenceNoG=100000000130&amp;pp_DescriptionG=&amp;pp_ReturnURLG=https://pgt.cbuaepay.ae/PGCustomerPortalBkp/TransactionManagement/Bank&amp;pp_MCCG=6012&amp;pp_ProductIDG=RETL&amp;pp_SecureHashG=0123456789&amp;pp_PasswordG=&amp;ppmbf_1G=BankPortalToMerchantOptionalReturn1&amp;ppmbf_2G=BankPortalToMerchantOptionalReturn2&amp;ppmbf_3G=BankPortalToMerchantOptionalReturn3&amp;ppmbf_4G=BankPortalToMerchantOptionalReturn4&amp;ppmbf_5G=BankPortalToMerchantOptionalReturn5&amp;pp_Version=1.1&amp;pp_TxnType=DD&amp;pp_Language=EN&amp;pp_MerchantID=Test6012023005&amp;pp_SubMerchantID=&amp;pp_Amount=2675&amp;pp_TxnCurrency=AED&amp;pp_TxnDateTime=20201013181219&amp;pp_BillReference=2028700419177567&amp;pp_ResponseCode=000&amp;pp_ResponseMessage=&amp;pp_RetreivalReferenceNo=100000000130&amp;pp_AuthCode=123456&amp;pp_BankID=0005&amp;pp_ReturnURL=https://pgt.cbuaepay.ae/PGCustomerPortalBkp/TransactionManagement/Bank&amp;pp_CustomerIBAN=AE000000000000000000001&amp;pp_MCC=6012&amp;pp_ProductID=RETL&amp;ppmbf_1=BankPortalToMerchantOptionalReturn1&amp;ppmbf_2=BankPortalToMerchantOptionalReturn2&amp;ppmbf_3=BankPortalToMerchantOptionalReturn3&amp;ppmbf_4=BankPortalToMerchantOptionalReturn4&amp;ppmbf_5=BankPortalToMerchantOptionalReturn5&amp;pp_SecureHash=0123456789&amp;ret=Return+to+PG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+&lt;!DOCTYPE html&gt;
+&lt;html&gt;
+&lt;head&gt;
+    &lt;meta name="viewport" content="width=device-width" /&gt;
+    &lt;title&gt;Post&lt;/title&gt;
+    &lt;script type="text/javascript"&gt;
+        function submit() {
+            document.forms["FormPG"].submit();
+        }
+    &lt;/script&gt;
+&lt;/head&gt;
+&lt;body onload="submit()"&gt;
+    &lt;form name="FormPG" method="post" action="https://pgt.cbuaepay.ae/PGCustomerPortalBkp/TransactionManagement/Bank"&gt;
+            &lt;input type="hidden" id='pp_Amount' name='pp_Amount' value='2675' /&gt;
+            &lt;input type="hidden" id='pp_AuthCode' name='pp_AuthCode' value='123456' /&gt;
+            &lt;input type="hidden" id='pp_BankID' name='pp_BankID' value='0005' /&gt;
+            &lt;input type="hidden" id='pp_BillReference' name='pp_BillReference' value='2028700419177567' /&gt;
+            &lt;input type="hidden" id='pp_CustomerIBAN' name='pp_CustomerIBAN' value='AE000000000000000000001' /&gt;
+            &lt;input type="hidden" id='pp_Language' name='pp_Language' value='EN' /&gt;
+            &lt;input type="hidden" id='pp_MCC' name='pp_MCC' value='6012' /&gt;
+            &lt;input type="hidden" id='pp_MerchantID' name='pp_MerchantID' value='Test6012023005' /&gt;
+            &lt;input type="hidden" id='pp_ProductID' name='pp_ProductID' value='RETL' /&gt;
+            &lt;input type="hidden" id='pp_ResponseCode' name='pp_ResponseCode' value='000' /&gt;
+            &lt;input type="hidden" id='pp_ResponseMessage' name='pp_ResponseMessage' value='' /&gt;
+            &lt;input type="hidden" id='pp_RetreivalReferenceNo' name='pp_RetreivalReferenceNo' value='100000000130' /&gt;
+            &lt;input type="hidden" id='pp_SecureHash' name='pp_SecureHash' value='0123456789' /&gt;
+            &lt;input type="hidden" id='pp_SubMerchantID' name='pp_SubMerchantID' value='' /&gt;
+            &lt;input type="hidden" id='pp_TxnCurrency' name='pp_TxnCurrency' value='AED' /&gt;
+            &lt;input type="hidden" id='pp_TxnDateTime' name='pp_TxnDateTime' value='20201013181219' /&gt;
+            &lt;input type="hidden" id='pp_TxnType' name='pp_TxnType' value='DD' /&gt;
+            &lt;input type="hidden" id='pp_Version' name='pp_Version' value='1.1' /&gt;
+            &lt;input type="hidden" id='ppmbf_1' name='ppmbf_1' value='BankPortalToMerchantOptionalReturn1' /&gt;
+            &lt;input type="hidden" id='ppmbf_2' name='ppmbf_2' value='BankPortalToMerchantOptionalReturn2' /&gt;
+            &lt;input type="hidden" id='ppmbf_3' name='ppmbf_3' value='BankPortalToMerchantOptionalReturn3' /&gt;
+            &lt;input type="hidden" id='ppmbf_4' name='ppmbf_4' value='BankPortalToMerchantOptionalReturn4' /&gt;
+            &lt;input type="hidden" id='ppmbf_5' name='ppmbf_5' value='BankPortalToMerchantOptionalReturn5' /&gt;
+    &lt;/form&gt;
+&lt;/body&gt;
+&lt;/html&gt;
+</t>
+  </si>
+  <si>
+    <t>pp_Amount=2675&amp;pp_AuthCode=123456&amp;pp_BankID=0005&amp;pp_BillReference=2028700419177567&amp;pp_CustomerIBAN=AE000000000000000000001&amp;pp_Language=EN&amp;pp_MCC=6012&amp;pp_MerchantID=Test6012023005&amp;pp_ProductID=RETL&amp;pp_ResponseCode=000&amp;pp_ResponseMessage=&amp;pp_RetreivalReferenceNo=100000000130&amp;pp_SecureHash=0123456789&amp;pp_SubMerchantID=&amp;pp_TxnCurrency=AED&amp;pp_TxnDateTime=20201013181219&amp;pp_TxnType=DD&amp;pp_Version=1.1&amp;ppmbf_1=BankPortalToMerchantOptionalReturn1&amp;ppmbf_2=BankPortalToMerchantOptionalReturn2&amp;ppmbf_3=BankPortalToMerchantOptionalReturn3&amp;ppmbf_4=BankPortalToMerchantOptionalReturn4&amp;ppmbf_5=BankPortalToMerchantOptionalReturn5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+&lt;!DOCTYPE html&gt;
+&lt;html&gt;
+&lt;head&gt;
+    &lt;meta charset="utf-8"&gt;
+    &lt;meta http-equiv="X-UA-Compatible" content="IE=edge"&gt;
+    &lt;meta name="viewport" content="width=device-width, initial-scale=1"&gt;
+    &lt;title&gt;Payment Gateway&lt;/title&gt;
+    &lt;link href="/PGCustomerPortalBkp/Content/css/Main.css" rel="stylesheet" type="text/css" /&gt;
+    &lt;link href="/PGCustomerPortalBkp/Content/css/jquery-ui.custom.css" type="text/css" rel="stylesheet" /&gt;
+    &lt;link href="/PGCustomerPortalBkp/Content/css/demos.css" type="text/css" rel="stylesheet" /&gt;
+    &lt;link href="/PGCustomerPortalBkp/Content/css/bootstrap.css" rel="stylesheet" /&gt;
+    &lt;script type="text/javascript" src="/PGCustomerPortalBkp/Scripts/jquery.js"&gt;&lt;/script&gt;
+    &lt;script type="text/javascript" src="/PGCustomerPortalBkp/Scripts/jquery-ui.custom.js"&gt;&lt;/script&gt;
+    &lt;script type="text/javascript" src="/PGCustomerPortalBkp/Scripts/globalfuncs.js"&gt;&lt;/script&gt;
+    &lt;script type="text/javascript" src="/PGCustomerPortalBkp/Scripts/Encoder.js"&gt;&lt;/script&gt;
+    &lt;script type="text/javascript" src="/PGCustomerPortalBkp/Scripts/jquery.maskedinput.js"&gt;&lt;/script&gt;
+    &lt;script type="text/javascript" src="/PGCustomerPortalBkp/Scripts/jquery.reveal.js"&gt;&lt;/script&gt;
+    &lt;script type="text/javascript" src="/PGCustomerPortalBkp/Scripts/modal.js"&gt;&lt;/script&gt;
+    &lt;script language="JavaScript" type="text/javascript"&gt;
+        if (top.location.host != document.location.host) {
+            top.location.href = document.location.href;
+        }
+        if (window.opener != null &amp;&amp; !window.opener.closed) {
+            //window.close();
+        }
+    &lt;/script&gt;
+&lt;/head&gt;
+&lt;body&gt;
+    &lt;!--MAIN AREA START--&gt;
+    &lt;div id="main"&gt;
+        &lt;!--HEADER START--&gt;
+&lt;!--HEADER START--&gt;
+&lt;div id="header"&gt;
+    &lt;table  cellspacing="0" cellpadding="0" border="0" align="left" style="height:90"&gt;
+              &lt;tr&gt;
+                &lt;td align="left"&gt;
+                    &lt;img src='/PGCustomerPortalBkp/Content/images/logo.gif' alt="" class="logo" style="margin-left:55px; margin-top:5px"/&gt;
+                &lt;/td&gt;
+                &lt;td&gt;
+                    &lt;img src='/PGCustomerPortalBkp/Content/images/central-bank.png' class="HeaderText" style="margin-left:10px" alt="Central Bank of UAE"/&gt;
+                &lt;/td&gt;
+            &lt;/tr&gt;
+    &lt;/table&gt;
+    &lt;div class="topright"&gt;
+        &lt;div class="topnav"&gt;uaecb@cbuae.gov.ae&lt;span&gt;|&lt;/span&gt;+9712-6652220&lt;/div&gt;
+    &lt;/div&gt;
+&lt;/div&gt;
+&lt;!--HEADER END--&gt;
+        &lt;!--HEADER END--&gt;
+        &lt;div class="clear"&gt;
+        &lt;/div&gt;
+        &lt;div style="height: 30px"&gt;
+        &lt;/div&gt;
+        &lt;!--MAIN CURVE AREA START--&gt;
+        &lt;div class="mainbox"&gt;
+            &lt;!--WORKING AREA START--&gt;
+            &lt;div&gt;
+    &lt;table class="sample"&gt;
+    &lt;tr&gt;
+    &lt;td width="60"&gt;&lt;img src="/PGCustomerPortalBkp/Content/images/error.png" width="48" height="48" /&gt;&lt;/td&gt;
+    &lt;td width="840" style="color:#ff0000"&gt;Sorry! The requested operation cannot be processed at the moment due to some technical difficulties.Note: Please verify transaction status from respective Merchant/Bank.&lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;/table&gt;
+            &lt;/div&gt;
+            &lt;!--WORKING AREA END--&gt;
+            &lt;div style="height: 20px"&gt;
+            &lt;/div&gt;
+            &lt;!--FOOTER AREA START--&gt;
+&lt;!--FOOTER AREA START--&gt;
+&lt;div class="footerbox"&gt;
+    &lt;span&gt;Copyright © 2020, Central Bank of the UAE&lt;/span&gt;&lt;br /&gt;
+    This site is best viewed with a resolution of 1024x768 (or higher) and supports Microsoft Internet Explorer 8 and 9 or Firefox 17 and 18&lt;br /&gt;
+    Powered by TPS Middle East FZ LLC
+&lt;/div&gt;
+&lt;!--FOOTER AREA END--&gt;
+            &lt;!--FOOTER AREA END--&gt;
+        &lt;/div&gt;
+        &lt;!--MAIN CURVE AREA END--&gt;
+    &lt;/div&gt;
+    &lt;!--MAIN AREA END--&gt;
+&lt;/body&gt;
+&lt;/html&gt;
+</t>
+  </si>
+  <si>
+    <t>__RequestVerificationToken=CQExR0VhnOHPZ93tSbGZ46Knkbo2TG5qwBsmPlr8JMgJrgkzX_vPW0Ll_Zp5BTXjX2uRm1C3NfM4m8q6g4OVPlmYScDImE43YXkPR9FdPLvP_fiX6b9T1FhnkFDxgRozyM85oCQt87ahogSMNu0UGnm1XgPJwgQORsVPJK4VeAM1</t>
+  </si>
+  <si>
+    <t>pp_Amount=2675&amp;pp_AuthCode=123456&amp;pp_BankID=0005&amp;pp_BillReference=2028700419177567&amp;pp_CustomerCardNo=&amp;pp_Language=EN&amp;pp_MerchantID=Test6012023005&amp;pp_ProductID=RETL&amp;pp_ResponseCode=000&amp;pp_ResponseMessage=&amp;pp_RetreivalReferenceNo=100000000130&amp;pp_SecureHash=0123456789&amp;pp_SettlementExpiry=20201001095853&amp;pp_SubMerchantID=&amp;pp_TxnCurrency=AED&amp;pp_TxnDateTime=20201013181219&amp;pp_TxnRefNo=2028700419177567/1&amp;pp_TxnType=DD&amp;pp_Version=1.1&amp;ppmbf_1=BankPortalToMerchantOptionalReturn1&amp;ppmbf_2=BankPortalToMerchantOptionalReturn2&amp;ppmbf_3=BankPortalToMerchantOptionalReturn3&amp;ppmbf_4=BankPortalToMerchantOptionalReturn4&amp;ppmbf_5=BankPortalToMerchantOptionalReturn5&amp;ppmpf_1=2027408859127508&amp;ppmpf_2=stage&amp;ppmpf_3=4AT4KHYQJWUH9BBVG19P3NKVNOLVIXVX&amp;ppmpf_4=&amp;ppmpf_5=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;!doctype html&gt;&lt;html lang="en"&gt;&lt;head&gt;&lt;title&gt;Western Union&lt;/title&gt;&lt;meta charset="utf-8"&gt;&lt;meta name="viewport" content="width=device-width,initial-scale=1,minimum-scale=1,maximum-scale=1"&gt;&lt;!--
+  Start of global snippet
+  --&gt;&lt;!-- Global site tag (gtag.js) - DoubleClick --&gt;&lt;script async src="https://www.googletagmanager.com/gtag/js?id=DC-3388366"&gt;&lt;/script&gt;&lt;script&gt;window.dataLayer = window.dataLayer || [];
+    function gtag(){dataLayer.push(arguments);}
+    gtag('js', new Date());&lt;/script&gt;&lt;!-- End of global snippet --&gt;&lt;link rel="shortcut icon" href="/favicon.png"&gt;&lt;link href="/1.c73ac310152f842d8769.css" rel="stylesheet"&gt;&lt;link href="/app.eac319b71de37732aee5.css" rel="stylesheet"&gt;&lt;/head&gt;&lt;body&gt;&lt;!--Sift Science--&gt;&lt;script type="text/javascript"&gt;(function () {
+    function ls() {
+      var e = document.createElement('script');
+      e.src = 'https://cdn.siftscience.com/s.js';
+      document.body.appendChild(e);
+    }
+    if (window.attachEvent) {
+      window.attachEvent('onload', ls);
+    } else {
+      window.addEventListener('load', ls, false);
+    }
+  })();&lt;/script&gt;&lt;!--End Sift Science--&gt;&lt;script&gt;(function(i,s,o,g,r,a,m){i['GoogleAnalyticsObject']=r;i[r]=i[r]||function(){
+    (i[r].q=i[r].q||[]).push(arguments)},i[r].l=1*new Date();a=s.createElement(o),
+    m=s.getElementsByTagName(o)[0];a.async=1;a.src=g;m.parentNode.insertBefore(a,m)
+  })(window,document,'script','https://www.google-analytics.com/analytics.js','ga');&lt;/script&gt;&lt;script type="text/javascript"&gt;(function()
+    { var qtm = document.createElement('script'); qtm.type = 'text/javascript'; qtm.async = 1; qtm.src = 'https://cdn.quantummetric.com/qscripts/quantum-amerigo.js'; var d = document.getElementsByTagName('script')[0]; d.parentNode.insertBefore(qtm, d); }
+  )();&lt;/script&gt;&lt;!-- Facebook Pixel Code --&gt;&lt;script&gt;!function(f,b,e,v,n,t,s)
+  {if(f.fbq)return;n=f.fbq=function(){n.callMethod?
+    n.callMethod.apply(n,arguments):n.queue.push(arguments)};
+    if(!f._fbq)f._fbq=n;n.push=n;n.loaded=!0;n.version='2.0';
+    n.queue=[];t=b.createElement(e);t.async=!0;
+    t.src=v;s=b.getElementsByTagName(e)[0];
+    s.parentNode.insertBefore(t,s)}(window, document,'script',
+    'https://connect.facebook.net/en_US/fbevents.js');&lt;/script&gt;&lt;noscript&gt;&lt;img height="1" width="1" style="display:none" src="https://www.facebook.com/tr?id=1131643220187654&amp;ev=PageView&amp;noscript=1"&gt;&lt;/noscript&gt;&lt;!-- End Facebook Pixel Code --&gt;&lt;div id="root"&gt;&lt;/div&gt;&lt;script type="text/javascript" src="/vendor.1.af942828f90f7d1b4b75.js"&gt;&lt;/script&gt;&lt;script type="text/javascript" src="/app.js?af942828f90f7d1b4b75"&gt;&lt;/script&gt;&lt;/body&gt;&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>{"token":"47acdce48801c8bbd60de0d055e117fed2edcbad434786df37fb103ec13254c6"}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":true},"timeout":900,"payment":{"unit":"1.00","transaction_id":"2028700419177567","state_tax":"0.75","service_pay":"In minutes","sender_last_name":"UQyfzosZsD","sender_first_name":"JozhQPHHj","ref_no":"2028700419177567","receiver":{"temporary_expander":"true","template_type":"","state":"","source":"Salary/Income","relation":"","receivers":"41603","purpose":"Family Support","phone":"mob-380-979057288","middle_name":"Middle","last_name":"Merzliakov","first_name":"Oleksii","fio":"OleksiiMerzliakovMiddle","expander":"true","employer_name":"","email":"zatoch@ukr.net","city_mx":"","city":"","button_submit":"submit"},"received_as":"Cash","promocode":"","principal_amount":"11.00","payment_id":"2028700419177567/1","payment_by":"Real Time Bank Transfer","pay_status":"PENDING","gross_amount":"26.75","fundsout":"cash","fundsin":"bank_transfer","fee":"15.00","expected_payout_amount":"2.54","exchange_rate":"0.2305187","discount":"0.00","currency_send":"EUR","currency_get":"AED","country_send_name":"France","country_send_code":"FR","country_get_name":"United Arab Emirates","country_get_code":"AE"},"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","transfer_fee_currency":"AED","transfer_fee":"15.00","sender_country":"ae","send_currency":"AED","send_amount":"11.00","receiver_country":"FR","receive_currency":"EUR","receive_amount":"2.54","previous_page":"/send_money/receiver","phone_verified":"true","page_name":"/send_money/review","marketing_opt-in":true,"logged_in":"true","funds_out":"cash","funds_in":"direct_debit","exchange_rate":"0.2305187","account_verified":"true","account_id":"41601","TransactionID":"2028700419177567"},"_time_zone":120},"configurations":{"supportPhone":"800 736398 or 800 SENDWU","supportEmail":"wu.support@alfardanexchange.com","source_funds":[{"value":"Salary/Income","title":"Salary/Income"},{"value":"Savings","title":"Savings"},{"value":"Borrowed Funds/Loan","title":"Borrowed Funds/Loan"},{"value":"Gift","title":"Gift"},{"value":"Pension/Government/Welfare","title":"Pension/Government/Welfare"},{"value":"Inheritance","title":"Inheritance"}],"siftScienceKey_prod":"a5895a6abd","siftScienceKey_dev":"a5895a6abd","purpose_transaction":[{"value":"Family Support","title":"Family Support"},{"value":"Education","title":"Education"},{"value":"Regular Labour Transfers (expatriates)","title":"Regular Labour Transfers (expatriates)"},{"value":"Investment","title":"Investment"},{"value":"Other Personal Needs","title":"Other Personal Needs"},{"value":"Investment Related","title":"Investment Related"},{"value":"Trade","title":"Trade"}],"payProcessor":"Al Fardan exchange","myReceivers":true,"lang":"en","headersSteps":["estimate","receiver","payment","review"],"headerMenuLinks":[{"url":"https://www.westernunion.com/global-service/track-transfer","title":"Track Transfer"},{"url":"https://www.westernunion.com/ae/en/find-locations.html","title":"Find Locations"},{"url":"https://www.westernunion.com/ae/en/find-locations.html","title":"Find Locations for verification"},{"url":"https://www.westernunion.com/ae/en/frequently-asked-questions.html","title":"Customer Support"},{"url":"/verification_page","title":"Profile verification"}],"ga":"","footersSend":[{"url":"https://www.westernunion.com/ae/en/send-money-to-philippines.html","title":"Send money to Philippines"},{"url":"https://www.westernunion.com/ae/en/send-money-to-india.html","title":"Send money to India"},{"url":"https://www.westernunion.com/ae/en/send-money-to-pakistan.html","title":"Send money to Pakistan"},{"url":"https://www.westernunion.com/ae/en/send-money-to-egypt.html","title":"Send money to Egypt"},{"url":"https://www.westernunion.com/ae/en/send-money-to-lebanon.html","title":"Send money to Lebanon"}],"footers":[{"url":"https://www.westernunion.com/ae/en/home.html","title":"Home"},{"url":"https://corporate.westernunion.com/index.html","title":"About us"},{"url":"https://www.westernunion.com/ae/en/contact-us.html","title":"Contact us"},{"url":"https://www.westernunion.com/ae/en/frequently-asked-questions.html","title":"Help"},{"url":"https://www.westernunion.com/ae/en/fraud-awareness.html","title":"Fraud awareness"},{"url":"http://ir.westernunion.com/investor-relations/default.aspx","title":"Investor relations"},{"url":"https://corporate.westernunion.com/careers/index.html","title":"Careers"},{"url":"https://foundation.westernunion.com/index.html","title":"Western Union foundation"},{"url":"https://www.westernunion.com/ae/en/become-agent.html","title":"Become an agent"},{"url":"https://www.westernunion.com/ae/en/legal/intellectual-property.html","title":"Intellectual property"},{"url":"https://www.westernunion.com/ae/en/legal/privacy-statement.html","title":"Online Privacy statement"},{"url":"https://www.westernunion.com/ae/en/legal/terms-conditions.html","title":"Terms and conditions"},{"url":"https://www.westernunion.com/ae/en/legal/privacy-statement-ar.html","title":"Online Privacy statement (Arabic)"},{"url":"https://www.westernunion.com/ae/en/legal/terms-conditions-ar.html","title":"Terms and conditions (Arabic)"}],"doubleClickTags":{"web/sign_up/done":"DC-3388366/aepri001/aepri0+standard","web/sign_up":"DC-3388366/aepri001/aepri00+standard","web/send_money/success":"DC-3388366/aepri000/aepri0+transactions","web/send_money/rejected":"DC-3388366/aepri000/aepri0+transactions","web/send_money/receiver":"DC-3388366/aepri00/aepri000+standard","web/send_money/in_progress":"DC-3388366/aepri000/aepri0+transactions","web/send_money/hold":"DC-3388366/aepri001/aepri0+transactions","web/send_money":"DC-3388366/aepri00/aepri0+standard","web/profile":"DC-3388366/aepri0/aepri005+standard"},"defaultHeaderLang":{"value":"en","title":"English"},"defaultHeaderCounty":{"value":"AE","title":"United Arab Emirates"},"countryCode":"AE","appMarket":{"ios":"https://apps.apple.com/us/app/westernunion-ae-money-transfer/id1171330611?ls=1","aos":"market://details?id=com.westernunion.moneytransferr3app.ae"},"amoutDigitsLimit":8,"adWords":{"targetId":"AW-1026534010","pages":{"web/sign_up/done":"AW-1026534010/gZXdCI2V_HsQ-tS-6QM","web/send_money/success":"AW-123456789/AbC-D_efG-h12_34-567","web/send_money/in_progress":"AW-123456789/AbC-D_efG-h12_34-567"}}},"code":0}</t>
+  </si>
+  <si>
+    <t>{"translations":{"hold_title":"Online Payment Confirmation","card_JM":"Credit/debit card","wu_ios":"Western Union IOS App","card_ending_in":"","find_location":"Find Locations","relationship_to_receiver":"Relationship to receiver","est_total":"Estimated total to receiver","source":"Source of funds","mywu_rewards":"My WU Rewards","success_info_JM":"Your online payment was accepted. To pick up the money {first_name} {middle_name} {last_name} will have to bring a government-issued photo ID and tracking number (MTCN) {mtcn} to any Western Union location in the expected payout area. If you require more information, please email {email} or call us at {phone}","beneficiar":"Beneficiary's code","success_message":"{payProcessor} payment was successful - your money has been sent","pay_by":"Payment by","payment":"Payment","nf_title":"This is not the page you are looking for","yes":"Yes","knet_ref":"Ref. No.","money_avaliable":"Money available","title":"Payment Details","reject_name":"Dear, {first_name} {last_name}","review":"Review","knet_date":"Date","td_details_JM":"Payment details","add_info":"Additional information","november":"November","no_history":"No transactions yet","total":"Total","customer_support":"Customer Support","cash_agent":"Cash","account_not_verified":"Dear Customer, In order to make an online transaction, we will have to verify your profile identity. Please visit one of [url=https://www.westernunion.com/ae/en/contact-us.html#verificationlocations]Al Fardan exchange locations[/url] and have a valid Identity document with you","reject_message":"Your money transfer was rejected","view_receipt":"View receipt","details_send":"Sending details","month":"Month","amount":"Transfer amount","serviceInMin":"Service: In minutes","send_money":"Send Money","promocode":"Promocode","exp_expires":"Session expires in:","tax":"Tax (GCT)","year":"Year","card_AE":"Real Time Account Debit","receive_amount":"Receive amount","account_overview":"History","card_CI":"Direct debit","hold_name":"Dear, {first_name} {last_name}","success_message_JM":"Payment was successful - your money has been sent","phone_num":"Phone number","greet":"Thank you for being My WU member. Send money with Western Union online now and earn points for eligible transactions. You can use your points to redeem up ... fee discount for your transactions!","free_google_app":"FREE - In Google App","summary_review":"Summary","exchange_wu":"WU Payout rate","wu_aos":"Western Union Android App","receipt":"This is not a receipt","exp_message":"As a security precaution, session end after 15 minutes of inactivity. Click OK to continue your current session.","received_from":"Received from","top_corridors":"Frequently selected countries","total_points":"Total points","menu":"Menu","not_member":"You are not a member yet","october":"October","trans_hist":"Transaction history","success_info":"Your Online payment is complete. To pick up the money {first_name} {middle_name} {last_name} will have to bring a government-issued photo ID and tracking number (MTCN) {mtcn} to any Western Union location in the expected payout area. If you require more information, please email {email} or call us at {phone}, please check with your carrier for charges and local rates.","open_receipt":"Receipt","security_code":"Security Code","send_to":"Sending money to","progress_title":"Your Receipt","td_ref":"Ref. No.","get_app":"Get App","exp_title":"Your session will expire soon","april":"April","partners_text_KW":"This service is offered through","points_redeem":"Redeem points","td_amount":"Amount","reject_info":"Your transaction was rejected. We apologize for the inconvenience. For further information, please email wu.support@alfardanexchange.com or call us at 800 736398 or 800 SENDWU, please check with your carrier for charges and local rates.","partners_text_JM":"This service is offered through","partners_licensed_bh":"Licensed and Regulated by Central Bank of Bahrain","december":"December","partners_licensed":"42-56 Harbour Street, Downtown, Kingston, Jamaica West Indies","debit_card_JM":"Credit/debit card","relation":"Relationship to receiver","january":"January","knet_p_amount":"Amount","county_tax":"TTHU","method_pay":"Payment method","otp_code":"Code","partners_text_BH":"This service is offered through","verified":"Profile verified","country_code":"Country code","knet_status":"Status","general_consumption":"General Consumption","edit":"Edit Profile","trans_fee":"WU Transfer fee","delete":"Delete","delivery":"Delivery method","nf_desc":"Sorry, unless you really were hoping to find our 404 message, the page you were looking for has been moved or deleted. You can get back to safety using one of these links","march":"March","success_title":"Your Receipt","slogan":"My world. My way.","phone_error_msg":"Phone number","td_pay_code":"Response code","estimate":"Estimate","td_status":"Status","apn_success_info":"If you require more information, please email {email} or call us at {phone}, Please check with your carrier for charges and local rates.","sign_out":"Sign out","points_title":"Available My WU points:","success_message_apn":"Your money is on its way","show":"show","subtitle":"Click \"PRINT\" to retain a copy of your receipt","nf_home":"Home Page","no":"No","gold_card":"[b]Gold Card[/b] program - now [b]My WU[/b], with all the same benefits","edit_resend":"Edit &amp; resend","receivers_amount":"Receivers amount","req":"Password Requirements","method_delivery":"Delivery method","my_receivers":"My Receivers","track_no":"Tracking No (MTCN)","share_mtcn":"Share MTCN","continue_to_review":"Continue to review","edit_KW":"View Profile","in_min":"In minutes","trans_amount":"Transfer amount","estimated_receive_amount":"Estimated receive amount","copyright":"Western Union Holdings, Inc. All Rights Reserved","june":"June","details_receive":"Receiving details","status":"Status","payment_id":"Payment ID","money_sent_to":"Money sent to","show_details":"Show details","location":"Payout location","exchange":"Exchange rate","editReceiver":"Edit","service":"Service","hi":"Hi","recipient":"Recipient","progress_subtitle":"Click \"PRINT\" to retain a copy of your receipt","register":"Register","discount":"Promotional discount","phone_no_verify":"Your telephone numberis still not verified.","td_pid":"Payment ID","success_info_apn":"If you require more information, please email wu.support@alfardanexchange.com or call us at 800 736398 or 800 SENDWU.","card_num":"Card number","track_num":"Tracking number","resend_amount":"Resend amount","card":"Debit card","add_new_receiver":"Add a new receiver","free_ios_app":"FREE - In App Sore","debit_card_AE":"Direct debit (UAE PGS)","send_amount":"Send amount","time":"Delivery time","mtcn":"MTCN","alert_remove_receiver":"Are you sure you want to delete this receiver?","estimated_exchange":"Estimated exchange rate","td_date":"Date","online_receipt":"Online Receipt","nf_care":"Customer Care","since":"Member since:","hide_details":"Hide details","hide":"hide","august":"August","date":"Date","estimate_price":"Estimate Price","hold_subtitle":"Click \"PRINT\" to retain a copy of your receipt","cash_at_loc":"Cash1","apn_success_message":"Your money is on its way","max_image_size":"File size can't exceed ","security_code_hint":"These are the last 3 digits on the back of you card","mywu_title":"My WU number:","print":"Print","login":"Log In","sending_money_to":"Sending money to:","fee":"In minutes, fee:","february":"February","mob_phone":"Mobile phone","july":"July","track_transf":"Track Transfer","profile_overview":"Profile","sent_to":"Sent to","may":"May","conv_fee":"Convenience fee","nf_send":"Send Money","td_details":"{payProcessor} transfer details","min_image_size":"File size can't be less ","limits_title":"Your current limits:","alert_info":"You will see important alerts and notifications here.","receive_as":"Money received as","pick_up":"Pick up cash","show_full_history":"Show full history","knet_pid":"Payment ID","card_info":"Accepted credit/debit card types:","send_code":"Send Code","point_earned":"Point earned","summary":"Your summary","success_name":"Dear, {first_name} {last_name}","september":"September","day":"Day","debit_card":"Credit/Debit Card","not_verified":"Profile not verified","partners_text":"This service is offered through","state_tax":"VAT","no_hist":"Your transaction history will appear here.","td_details_AE":"{payProcessor} PAYMENT DETAILS","success_subtitle":"Click \"PRINT\" to retain a copy of your receipt","card_expire":"","receiver":"Receiver","sign_up":"Sign up","not_selected":"Not selected","verify_code":"Verify Code","terms_of_profile_creation":"Terms of profile creation","history":"History","knet_details":"Al Fardan exchange transfer details","card_error":"We're sorry, but the card details you have entered is invalid. Please check your card details and try again. Only cards issued in UAE are allowed.","redeem_points":"Redeem points now","purpose":"Purpose of transaction"},"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":true},"timeout":900,"payment":{"unit":"1.00","transaction_id":"2028700419177567","state_tax":"0.75","service_pay":"In minutes","sender_last_name":"UQyfzosZsD","sender_first_name":"JozhQPHHj","ref_no":"2028700419177567","receiver":{"temporary_expander":"true","template_type":"","state":"","source":"Salary/Income","relation":"","receivers":"41603","purpose":"Family Support","phone":"mob-380-979057288","middle_name":"Middle","last_name":"Merzliakov","first_name":"Oleksii","fio":"OleksiiMerzliakovMiddle","expander":"true","employer_name":"","email":"zatoch@ukr.net","city_mx":"","city":"","button_submit":"submit"},"received_as":"Cash","promocode":"","principal_amount":"11.00","payment_id":"2028700419177567/1","payment_by":"Real Time Bank Transfer","pay_status":"PENDING","gross_amount":"26.75","fundsout":"cash","fundsin":"bank_transfer","fee":"15.00","expected_payout_amount":"2.54","exchange_rate":"0.2305187","discount":"0.00","currency_send":"EUR","currency_get":"AED","country_send_name":"France","country_send_code":"FR","country_get_name":"United Arab Emirates","country_get_code":"AE"},"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","transfer_fee_currency":"AED","transfer_fee":"15.00","sender_country":"ae","send_currency":"AED","send_amount":"11.00","receiver_country":"FR","receive_currency":"EUR","receive_amount":"2.54","previous_page":"/send_money/receiver","phone_verified":"true","page_name":"/send_money/review","marketing_opt-in":true,"logged_in":"true","funds_out":"cash","funds_in":"direct_debit","exchange_rate":"0.2305187","account_verified":"true","account_id":"41601","TransactionID":"2028700419177567"},"_time_zone":120},"right_to_left":"false","code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"47acdce48801c8bbd60de0d055e117fed2edcbad434786df37fb103ec13254c6","page":"web/send_money/review/wait"}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_error":true,"mywu":"","last_name":"UQyfzosZsD","first_name":"JozhQPHHj","currencies":["AED"],"country_name":"United Arab Emirates","country_code":"AE","account_verified":true},"timeout":900,"payment":{"unit":"1.00","transaction_id":"2028700419177567","state_tax":"0.75","service_pay":"In minutes","sender_last_name":"UQyfzosZsD","sender_first_name":"JozhQPHHj","ref_no":"2028700419177567","receiver":{"temporary_expander":"true","template_type":"","state":"","source":"Salary/Income","relation":"","receivers":"41603","purpose":"Family Support","phone":"mob-380-979057288","middle_name":"Middle","last_name":"Merzliakov","first_name":"Oleksii","fio":"OleksiiMerzliakovMiddle","expander":"true","employer_name":"","email":"zatoch@ukr.net","city_mx":"","city":"","button_submit":"submit"},"received_as":"Cash","promocode":"","principal_amount":"11.00","payment_id":"2028700419177567/1","payment_by":"Real Time Bank Transfer","pay_status":"PENDING","gross_amount":"26.75","fundsout":"cash","fundsin":"bank_transfer","fee":"15.00","expected_payout_amount":"2.54","exchange_rate":"0.2305187","discount":"0.00","currency_send":"EUR","currency_get":"AED","country_send_name":"France","country_send_code":"FR","country_get_name":"United Arab Emirates","country_get_code":"AE"},"login":"alex.mywu.qa@gmail.com","limits":["Transaction Limit","183 648.50 AED per transaction;"," ","Pay cash in-store limits:","18 365.00 AED per transaction;"],"id":"41601","auth":true,"amplitude":{"wu_language":"en","transfer_fee_currency":"AED","transfer_fee":"15.00","sender_country":"ae","send_currency":"AED","send_amount":"11.00","receiver_country":"FR","receive_currency":"EUR","receive_amount":"2.54","previous_page":"/send_money/review","phone_verified":"true","page_name":"/send_money/review/wait","marketing_opt-in":true,"logged_in":"true","funds_out":"cash","funds_in":"direct_debit","exchange_rate":"0.2305187","account_verified":"true","account_id":"41601","TransactionID":"2028700419177567"},"_time_zone":120},"data":{"next_page":"web/send_money/review/wait","grid":{"type":"one_column","header":"HeaderSend","components":{"center":["web/send_money/review/wait"]}},"forms":[{"type":"body","title":"","sections":[{"visibility":"visible","header":[{"visibility":"visible","value":"Al Fardan exchange transfer details","class":"label"}],"footer":[],"content":[]},{"header":[],"footer":[{"visibility":"hidden","value":"submit","type":"submit","title":"Continue","id":"button_submit","class":"button","actions":[{"oper":"autoSubmit"}]}],"content":[]}],"id":"web/send_money/review/wait"}]},"code":0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">�����������VKs�6���W�&lt;Dd��Mɶ�HP�q��4͌����d rI�!�	��hl��.@�Q�ns����b�߷����*��9������}I�e������瓱�����`,hI�J��8i���,'ٌk���K[t�h祒������\i��LI����"�3��Jd���XHa���&amp;���4�QP/����8\��'��/�\[�-Q�)+5��1R��`q���:�c�!,��K����w&amp;"]�N-��\U"���M����n62#Fg,�Y;7��d�^�R�����5���M3U'�[rgވ�������a����K�_�q���2Wk�s�?�+h���������a���K�Y�3q���~gG�K3��.�5��D�G���:w���	k��[��h����E���i���+!��+�����ʖ���+ 3+����#VJҹ,�n^��Ii6�󬟞���bx�ˇ��K��������3��G�|&gt;��,/��4��`��q���l���S�o&lt;�ע��:� �E�v��c3�,����_�F�L�]FÈ��;Ǖ���YqM�����)������
+\��N���58�������-U�\R���&amp;4�����l-v��U(��d~5�U�B������(Hؒ�[˳�����+�l	t��v���ϑ��r�{y$P�h��7�s����������.&amp;�G��9:y��#.9*=��&gt;ӡ�M��2�1���^�t&gt;���M�jcEf���Af;�L�č�e����E
+i�/�:1]�]�xx������1�:�K��ę9BOE�wY�N	��ռ�����خB�ݜގ8�-���ϵ�rT�9ט��*�*��m�B�4��jM����-���*����.�������c�r%�)9�k_�?����AȽ����?Cb�z���d�Q�tF~�醌�����/�\�e�M_���gфl�v���բT��||�at�B�M�G��/��7�I�����O�J&gt;���J}'_������x��'';���4�x����ƥ�^�aA��"�`�Z�$�K�3��%ŁU��v��7&gt;���W��&amp;���_��t��%&lt;apS�x�IA��C����z]���(�����+��'����i�[Z����e�#�cAۖ�h�c��ݫ�A�g1��|�k^�����mT�D�7�������1"��i��B%��䷯�I1���|�&lt;��T+�&amp;cQ�d����+"+������gܔaA.̼���RI@���ߝ�&amp;��nh�i?�8��z�)����W�b_p���ϖWۃY�&amp;�vռ+\�����r�"�;�J������S�k��ϕ�)���Yo������ O�g��9��s���v�֟���8y�ۡ���������������p�&gt;�
+��</t>
+  </si>
+  <si>
+    <t>{"token":"47acdce48801c8bbd60de0d055e117fed2edcbad434786df37fb103ec13254c6","id":"web/send_money/review/wait","data":{"button_submit":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"code":11}</t>
   </si>
 </sst>
 </file>
@@ -4679,7 +6708,7 @@
       <color indexed="0"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4778,6 +6807,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7CFC00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="2"/>
       </patternFill>
     </fill>
   </fills>
@@ -5717,7 +7751,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyAlignment="true"/>
   </cellStyleXfs>
-  <cellXfs count="460">
+  <cellXfs count="461">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyAlignment="true" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -6896,6 +8930,7 @@
     <xf numFmtId="45" fontId="0" fillId="0" borderId="0" applyNumberFormat="true" xfId="0"/>
     <xf numFmtId="0" fontId="52" fillId="16" borderId="0" applyFont="true" applyFill="true" xfId="0"/>
     <xf numFmtId="0" fontId="52" fillId="17" borderId="0" applyFont="true" applyFill="true" xfId="0"/>
+    <xf numFmtId="0" fontId="52" fillId="18" borderId="0" applyFont="true" applyFill="true" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8566,7 +10601,7 @@
         <v>761</v>
       </c>
       <c r="D43" s="458" t="s">
-        <v>762</v>
+        <v>881</v>
       </c>
       <c r="E43" s="458" t="s">
         <v>184</v>
@@ -10188,14 +12223,22 @@
       <c r="B90" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
+      <c r="C90" s="458" t="s">
+        <v>804</v>
+      </c>
+      <c r="D90" s="458" t="s">
+        <v>805</v>
+      </c>
+      <c r="E90" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F90" s="19">
         <v>200.0</v>
       </c>
       <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
+      <c r="H90" s="459" t="s">
+        <v>758</v>
+      </c>
       <c r="I90" s="6"/>
       <c r="J90" s="5" t="s">
         <v>16</v>
@@ -10507,14 +12550,22 @@
       <c r="B104" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C104" s="115"/>
-      <c r="D104" s="115"/>
-      <c r="E104" s="115"/>
+      <c r="C104" s="458" t="s">
+        <v>806</v>
+      </c>
+      <c r="D104" s="458" t="s">
+        <v>807</v>
+      </c>
+      <c r="E104" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F104" s="114">
         <v>200.0</v>
       </c>
       <c r="G104" s="114"/>
-      <c r="H104" s="115"/>
+      <c r="H104" s="459" t="s">
+        <v>758</v>
+      </c>
       <c r="I104" s="116"/>
       <c r="J104" s="117" t="s">
         <v>16</v>
@@ -10809,14 +12860,22 @@
       <c r="B118" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C118" s="115"/>
-      <c r="D118" s="115"/>
-      <c r="E118" s="115"/>
+      <c r="C118" s="458" t="s">
+        <v>882</v>
+      </c>
+      <c r="D118" s="458" t="s">
+        <v>805</v>
+      </c>
+      <c r="E118" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F118" s="114">
         <v>200.0</v>
       </c>
       <c r="G118" s="114"/>
-      <c r="H118" s="115"/>
+      <c r="H118" s="459" t="s">
+        <v>758</v>
+      </c>
       <c r="I118" s="116"/>
       <c r="J118" s="117" t="s">
         <v>16</v>
@@ -10835,12 +12894,20 @@
     <row r="119">
       <c r="A119" s="113"/>
       <c r="B119" s="114"/>
-      <c r="C119" s="115"/>
-      <c r="D119" s="115"/>
-      <c r="E119" s="115"/>
+      <c r="C119" s="458" t="s">
+        <v>883</v>
+      </c>
+      <c r="D119" s="458" t="s">
+        <v>884</v>
+      </c>
+      <c r="E119" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F119" s="114"/>
       <c r="G119" s="115"/>
-      <c r="H119" s="115"/>
+      <c r="H119" s="460" t="s">
+        <v>885</v>
+      </c>
       <c r="I119" s="132"/>
       <c r="J119" s="124"/>
       <c r="K119" s="124"/>
@@ -11442,8 +13509,12 @@
     </row>
     <row r="4">
       <c r="A4" s="133"/>
-      <c r="B4" s="141"/>
-      <c r="C4" s="144"/>
+      <c r="B4" s="141" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="144" t="s">
+        <v>92</v>
+      </c>
       <c r="D4" s="135"/>
       <c r="E4" s="135"/>
       <c r="F4" s="135"/>
@@ -11461,18 +13532,18 @@
     </row>
     <row r="5">
       <c r="A5" s="133"/>
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="149" t="s">
         <v>89</v>
       </c>
       <c r="C5" s="144" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D5" s="135"/>
       <c r="E5" s="135"/>
       <c r="F5" s="135"/>
       <c r="G5" s="78"/>
       <c r="H5" s="135"/>
-      <c r="I5" s="136"/>
+      <c r="I5" s="135"/>
       <c r="J5" s="135"/>
       <c r="K5" s="135"/>
       <c r="L5" s="135"/>
@@ -11484,16 +13555,16 @@
     </row>
     <row r="6">
       <c r="A6" s="133"/>
-      <c r="B6" s="149" t="s">
+      <c r="B6" s="74" t="s">
         <v>89</v>
       </c>
       <c r="C6" s="144" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D6" s="135"/>
       <c r="E6" s="135"/>
       <c r="F6" s="135"/>
-      <c r="G6" s="78"/>
+      <c r="G6" s="135"/>
       <c r="H6" s="135"/>
       <c r="I6" s="135"/>
       <c r="J6" s="135"/>
@@ -11507,16 +13578,16 @@
     </row>
     <row r="7">
       <c r="A7" s="133"/>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="149" t="s">
         <v>89</v>
       </c>
       <c r="C7" s="144" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D7" s="135"/>
       <c r="E7" s="135"/>
       <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
+      <c r="G7" s="78"/>
       <c r="H7" s="135"/>
       <c r="I7" s="135"/>
       <c r="J7" s="135"/>
@@ -11534,7 +13605,7 @@
         <v>89</v>
       </c>
       <c r="C8" s="144" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D8" s="135"/>
       <c r="E8" s="135"/>
@@ -11557,12 +13628,12 @@
         <v>89</v>
       </c>
       <c r="C9" s="144" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D9" s="135"/>
       <c r="E9" s="135"/>
       <c r="F9" s="135"/>
-      <c r="G9" s="78"/>
+      <c r="G9" s="135"/>
       <c r="H9" s="135"/>
       <c r="I9" s="135"/>
       <c r="J9" s="135"/>
@@ -11580,12 +13651,12 @@
         <v>89</v>
       </c>
       <c r="C10" s="144" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D10" s="135"/>
       <c r="E10" s="135"/>
       <c r="F10" s="135"/>
-      <c r="G10" s="135"/>
+      <c r="G10" s="78"/>
       <c r="H10" s="135"/>
       <c r="I10" s="135"/>
       <c r="J10" s="135"/>
@@ -11603,7 +13674,7 @@
         <v>89</v>
       </c>
       <c r="C11" s="144" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D11" s="135"/>
       <c r="E11" s="135"/>
@@ -11626,12 +13697,12 @@
         <v>89</v>
       </c>
       <c r="C12" s="144" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D12" s="135"/>
       <c r="E12" s="135"/>
       <c r="F12" s="135"/>
-      <c r="G12" s="78"/>
+      <c r="G12" s="135"/>
       <c r="H12" s="135"/>
       <c r="I12" s="135"/>
       <c r="J12" s="135"/>
@@ -11645,16 +13716,16 @@
     </row>
     <row r="13">
       <c r="A13" s="133"/>
-      <c r="B13" s="149" t="s">
+      <c r="B13" s="74" t="s">
         <v>89</v>
       </c>
       <c r="C13" s="144" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D13" s="135"/>
       <c r="E13" s="135"/>
       <c r="F13" s="135"/>
-      <c r="G13" s="135"/>
+      <c r="G13" s="78"/>
       <c r="H13" s="135"/>
       <c r="I13" s="135"/>
       <c r="J13" s="135"/>
@@ -11672,7 +13743,7 @@
         <v>89</v>
       </c>
       <c r="C14" s="144" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D14" s="135"/>
       <c r="E14" s="135"/>
@@ -11695,18 +13766,18 @@
         <v>89</v>
       </c>
       <c r="C15" s="144" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D15" s="135"/>
       <c r="E15" s="135"/>
       <c r="F15" s="135"/>
-      <c r="G15" s="78"/>
+      <c r="G15" s="135"/>
       <c r="H15" s="135"/>
-      <c r="I15" s="135"/>
+      <c r="I15" s="78"/>
       <c r="J15" s="135"/>
       <c r="K15" s="135"/>
       <c r="L15" s="135"/>
-      <c r="M15" s="148"/>
+      <c r="M15" s="135"/>
       <c r="N15" s="135"/>
       <c r="O15" s="135"/>
       <c r="P15" s="139"/>
@@ -11718,14 +13789,14 @@
         <v>89</v>
       </c>
       <c r="C16" s="144" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D16" s="135"/>
       <c r="E16" s="135"/>
       <c r="F16" s="135"/>
-      <c r="G16" s="135"/>
+      <c r="G16" s="78"/>
       <c r="H16" s="135"/>
-      <c r="I16" s="78"/>
+      <c r="I16" s="150"/>
       <c r="J16" s="135"/>
       <c r="K16" s="135"/>
       <c r="L16" s="135"/>
@@ -11737,18 +13808,18 @@
     </row>
     <row r="17">
       <c r="A17" s="133"/>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="151" t="s">
         <v>89</v>
       </c>
       <c r="C17" s="144" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D17" s="135"/>
       <c r="E17" s="135"/>
       <c r="F17" s="135"/>
       <c r="G17" s="78"/>
       <c r="H17" s="135"/>
-      <c r="I17" s="150"/>
+      <c r="I17" s="152"/>
       <c r="J17" s="135"/>
       <c r="K17" s="135"/>
       <c r="L17" s="135"/>
@@ -11764,14 +13835,14 @@
         <v>89</v>
       </c>
       <c r="C18" s="144" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D18" s="135"/>
       <c r="E18" s="135"/>
       <c r="F18" s="135"/>
-      <c r="G18" s="78"/>
+      <c r="G18" s="135"/>
       <c r="H18" s="135"/>
-      <c r="I18" s="152"/>
+      <c r="I18" s="135"/>
       <c r="J18" s="135"/>
       <c r="K18" s="135"/>
       <c r="L18" s="135"/>
@@ -11784,10 +13855,10 @@
     <row r="19">
       <c r="A19" s="133"/>
       <c r="B19" s="151" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="C19" s="144" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D19" s="135"/>
       <c r="E19" s="135"/>
@@ -11810,7 +13881,7 @@
         <v>107</v>
       </c>
       <c r="C20" s="144" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D20" s="135"/>
       <c r="E20" s="135"/>
@@ -11833,7 +13904,7 @@
         <v>107</v>
       </c>
       <c r="C21" s="144" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D21" s="135"/>
       <c r="E21" s="135"/>
@@ -11856,7 +13927,7 @@
         <v>107</v>
       </c>
       <c r="C22" s="144" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D22" s="135"/>
       <c r="E22" s="135"/>
@@ -11879,7 +13950,7 @@
         <v>107</v>
       </c>
       <c r="C23" s="144" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D23" s="135"/>
       <c r="E23" s="135"/>
@@ -11898,13 +13969,15 @@
     </row>
     <row r="24">
       <c r="A24" s="133"/>
-      <c r="B24" s="151" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" s="144" t="s">
-        <v>112</v>
-      </c>
-      <c r="D24" s="135"/>
+      <c r="B24" s="153" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="154" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="78" t="s">
+        <v>115</v>
+      </c>
       <c r="E24" s="135"/>
       <c r="F24" s="135"/>
       <c r="G24" s="135"/>
@@ -11921,11 +13994,11 @@
     </row>
     <row r="25">
       <c r="A25" s="133"/>
-      <c r="B25" s="153" t="s">
+      <c r="B25" s="151" t="s">
         <v>113</v>
       </c>
-      <c r="C25" s="154" t="s">
-        <v>114</v>
+      <c r="C25" s="144" t="s">
+        <v>116</v>
       </c>
       <c r="D25" s="78" t="s">
         <v>115</v>
@@ -11950,7 +14023,7 @@
         <v>113</v>
       </c>
       <c r="C26" s="144" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D26" s="78" t="s">
         <v>115</v>
@@ -11972,14 +14045,12 @@
     <row r="27">
       <c r="A27" s="133"/>
       <c r="B27" s="151" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C27" s="144" t="s">
-        <v>117</v>
-      </c>
-      <c r="D27" s="78" t="s">
-        <v>115</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="D27" s="135"/>
       <c r="E27" s="135"/>
       <c r="F27" s="135"/>
       <c r="G27" s="135"/>
@@ -12000,14 +14071,14 @@
         <v>118</v>
       </c>
       <c r="C28" s="144" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D28" s="135"/>
       <c r="E28" s="135"/>
       <c r="F28" s="135"/>
       <c r="G28" s="135"/>
       <c r="H28" s="135"/>
-      <c r="I28" s="135"/>
+      <c r="I28" s="78"/>
       <c r="J28" s="135"/>
       <c r="K28" s="135"/>
       <c r="L28" s="135"/>
@@ -12023,7 +14094,7 @@
         <v>118</v>
       </c>
       <c r="C29" s="144" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D29" s="135"/>
       <c r="E29" s="135"/>
@@ -12046,7 +14117,7 @@
         <v>118</v>
       </c>
       <c r="C30" s="144" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D30" s="135"/>
       <c r="E30" s="135"/>
@@ -12069,14 +14140,14 @@
         <v>118</v>
       </c>
       <c r="C31" s="144" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D31" s="135"/>
-      <c r="E31" s="135"/>
-      <c r="F31" s="135"/>
+      <c r="E31" s="155"/>
+      <c r="F31" s="156"/>
       <c r="G31" s="135"/>
       <c r="H31" s="135"/>
-      <c r="I31" s="78"/>
+      <c r="I31" s="135"/>
       <c r="J31" s="135"/>
       <c r="K31" s="135"/>
       <c r="L31" s="135"/>
@@ -12092,11 +14163,11 @@
         <v>118</v>
       </c>
       <c r="C32" s="144" t="s">
-        <v>119</v>
-      </c>
-      <c r="D32" s="135"/>
-      <c r="E32" s="155"/>
-      <c r="F32" s="156"/>
+        <v>120</v>
+      </c>
+      <c r="D32" s="78"/>
+      <c r="E32" s="135"/>
+      <c r="F32" s="135"/>
       <c r="G32" s="135"/>
       <c r="H32" s="135"/>
       <c r="I32" s="135"/>
@@ -12111,13 +14182,15 @@
     </row>
     <row r="33">
       <c r="A33" s="133"/>
-      <c r="B33" s="151" t="s">
-        <v>118</v>
-      </c>
-      <c r="C33" s="144" t="s">
-        <v>120</v>
-      </c>
-      <c r="D33" s="78"/>
+      <c r="B33" s="153" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="157" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="78" t="s">
+        <v>122</v>
+      </c>
       <c r="E33" s="135"/>
       <c r="F33" s="135"/>
       <c r="G33" s="135"/>
@@ -12134,11 +14207,11 @@
     </row>
     <row r="34">
       <c r="A34" s="133"/>
-      <c r="B34" s="153" t="s">
+      <c r="B34" s="151" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="157" t="s">
-        <v>121</v>
+      <c r="C34" s="144" t="s">
+        <v>123</v>
       </c>
       <c r="D34" s="78" t="s">
         <v>122</v>
@@ -12163,7 +14236,7 @@
         <v>113</v>
       </c>
       <c r="C35" s="144" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D35" s="78" t="s">
         <v>122</v>
@@ -12185,13 +14258,13 @@
     <row r="36">
       <c r="A36" s="133"/>
       <c r="B36" s="151" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C36" s="144" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D36" s="78" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E36" s="135"/>
       <c r="F36" s="135"/>
@@ -12213,11 +14286,9 @@
         <v>125</v>
       </c>
       <c r="C37" s="144" t="s">
-        <v>126</v>
-      </c>
-      <c r="D37" s="78" t="s">
-        <v>127</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="D37" s="135"/>
       <c r="E37" s="135"/>
       <c r="F37" s="135"/>
       <c r="G37" s="135"/>
@@ -12238,19 +14309,19 @@
         <v>125</v>
       </c>
       <c r="C38" s="144" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D38" s="135"/>
       <c r="E38" s="135"/>
       <c r="F38" s="135"/>
       <c r="G38" s="135"/>
       <c r="H38" s="135"/>
-      <c r="I38" s="135"/>
-      <c r="J38" s="135"/>
-      <c r="K38" s="135"/>
-      <c r="L38" s="135"/>
-      <c r="M38" s="135"/>
-      <c r="N38" s="135"/>
+      <c r="I38" s="158"/>
+      <c r="J38" s="159"/>
+      <c r="K38" s="160"/>
+      <c r="L38" s="159"/>
+      <c r="M38" s="159"/>
+      <c r="N38" s="159"/>
       <c r="O38" s="135"/>
       <c r="P38" s="139"/>
       <c r="Q38" s="133"/>
@@ -12261,21 +14332,21 @@
         <v>125</v>
       </c>
       <c r="C39" s="144" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D39" s="135"/>
       <c r="E39" s="135"/>
       <c r="F39" s="135"/>
       <c r="G39" s="135"/>
       <c r="H39" s="135"/>
-      <c r="I39" s="158"/>
+      <c r="I39" s="160"/>
       <c r="J39" s="159"/>
-      <c r="K39" s="160"/>
+      <c r="K39" s="159"/>
       <c r="L39" s="159"/>
       <c r="M39" s="159"/>
       <c r="N39" s="159"/>
       <c r="O39" s="135"/>
-      <c r="P39" s="139"/>
+      <c r="P39" s="161"/>
       <c r="Q39" s="133"/>
     </row>
     <row r="40">
@@ -12284,7 +14355,7 @@
         <v>125</v>
       </c>
       <c r="C40" s="144" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D40" s="135"/>
       <c r="E40" s="135"/>
@@ -12303,11 +14374,11 @@
     </row>
     <row r="41">
       <c r="A41" s="133"/>
-      <c r="B41" s="151" t="s">
+      <c r="B41" s="153" t="s">
         <v>125</v>
       </c>
-      <c r="C41" s="144" t="s">
-        <v>131</v>
+      <c r="C41" s="154" t="s">
+        <v>132</v>
       </c>
       <c r="D41" s="135"/>
       <c r="E41" s="135"/>
@@ -12326,15 +14397,15 @@
     </row>
     <row r="42">
       <c r="A42" s="133"/>
-      <c r="B42" s="153" t="s">
+      <c r="B42" s="151" t="s">
         <v>125</v>
       </c>
-      <c r="C42" s="154" t="s">
-        <v>132</v>
+      <c r="C42" s="144" t="s">
+        <v>133</v>
       </c>
       <c r="D42" s="135"/>
-      <c r="E42" s="135"/>
-      <c r="F42" s="135"/>
+      <c r="E42" s="155"/>
+      <c r="F42" s="162"/>
       <c r="G42" s="135"/>
       <c r="H42" s="135"/>
       <c r="I42" s="160"/>
@@ -12353,44 +14424,43 @@
         <v>125</v>
       </c>
       <c r="C43" s="144" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="135"/>
-      <c r="E43" s="155"/>
-      <c r="F43" s="162"/>
+      <c r="E43" s="135"/>
+      <c r="F43" s="135"/>
       <c r="G43" s="135"/>
       <c r="H43" s="135"/>
-      <c r="I43" s="160"/>
+      <c r="I43" s="148"/>
       <c r="J43" s="159"/>
       <c r="K43" s="159"/>
       <c r="L43" s="159"/>
       <c r="M43" s="159"/>
       <c r="N43" s="159"/>
       <c r="O43" s="135"/>
-      <c r="P43" s="161"/>
-      <c r="Q43" s="133"/>
+      <c r="Q43" s="161"/>
     </row>
     <row r="44">
       <c r="A44" s="133"/>
       <c r="B44" s="151" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C44" s="144" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D44" s="135"/>
       <c r="E44" s="135"/>
       <c r="F44" s="135"/>
       <c r="G44" s="135"/>
       <c r="H44" s="135"/>
-      <c r="I44" s="148"/>
+      <c r="I44" s="163"/>
       <c r="J44" s="159"/>
       <c r="K44" s="159"/>
       <c r="L44" s="159"/>
       <c r="M44" s="159"/>
       <c r="N44" s="159"/>
       <c r="O44" s="135"/>
-      <c r="Q44" s="161"/>
+      <c r="Q44" s="164"/>
     </row>
     <row r="45">
       <c r="A45" s="133"/>
@@ -12398,15 +14468,15 @@
         <v>135</v>
       </c>
       <c r="C45" s="144" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="135"/>
       <c r="E45" s="135"/>
       <c r="F45" s="135"/>
       <c r="G45" s="135"/>
       <c r="H45" s="135"/>
-      <c r="I45" s="163"/>
-      <c r="J45" s="159"/>
+      <c r="I45" s="160"/>
+      <c r="J45" s="160"/>
       <c r="K45" s="159"/>
       <c r="L45" s="159"/>
       <c r="M45" s="159"/>
@@ -12420,15 +14490,15 @@
         <v>135</v>
       </c>
       <c r="C46" s="144" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="135"/>
       <c r="E46" s="135"/>
       <c r="F46" s="135"/>
       <c r="G46" s="135"/>
       <c r="H46" s="135"/>
-      <c r="I46" s="160"/>
-      <c r="J46" s="160"/>
+      <c r="I46" s="159"/>
+      <c r="J46" s="159"/>
       <c r="K46" s="159"/>
       <c r="L46" s="159"/>
       <c r="M46" s="159"/>
@@ -12439,10 +14509,10 @@
     <row r="47">
       <c r="A47" s="133"/>
       <c r="B47" s="151" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C47" s="144" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D47" s="135"/>
       <c r="E47" s="135"/>
@@ -12460,20 +14530,20 @@
     </row>
     <row r="48">
       <c r="A48" s="133"/>
-      <c r="B48" s="151" t="s">
+      <c r="B48" s="74" t="s">
         <v>139</v>
       </c>
       <c r="C48" s="144" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D48" s="135"/>
       <c r="E48" s="135"/>
       <c r="F48" s="135"/>
       <c r="G48" s="135"/>
       <c r="H48" s="135"/>
-      <c r="I48" s="159"/>
+      <c r="I48" s="165"/>
       <c r="J48" s="159"/>
-      <c r="K48" s="159"/>
+      <c r="K48" s="160"/>
       <c r="L48" s="159"/>
       <c r="M48" s="159"/>
       <c r="N48" s="159"/>
@@ -12482,22 +14552,22 @@
     </row>
     <row r="49">
       <c r="A49" s="133"/>
-      <c r="B49" s="74" t="s">
+      <c r="B49" s="166" t="s">
         <v>139</v>
       </c>
       <c r="C49" s="144" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D49" s="135"/>
       <c r="E49" s="135"/>
       <c r="F49" s="135"/>
       <c r="G49" s="135"/>
       <c r="H49" s="135"/>
-      <c r="I49" s="165"/>
+      <c r="I49" s="160"/>
       <c r="J49" s="159"/>
       <c r="K49" s="160"/>
       <c r="L49" s="159"/>
-      <c r="M49" s="159"/>
+      <c r="M49" s="167"/>
       <c r="N49" s="159"/>
       <c r="O49" s="135"/>
       <c r="Q49" s="164"/>
@@ -12508,7 +14578,7 @@
         <v>139</v>
       </c>
       <c r="C50" s="144" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D50" s="135"/>
       <c r="E50" s="135"/>
@@ -12530,7 +14600,7 @@
         <v>139</v>
       </c>
       <c r="C51" s="144" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D51" s="135"/>
       <c r="E51" s="135"/>
@@ -12552,7 +14622,7 @@
         <v>139</v>
       </c>
       <c r="C52" s="144" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D52" s="135"/>
       <c r="E52" s="135"/>
@@ -12574,11 +14644,11 @@
         <v>139</v>
       </c>
       <c r="C53" s="144" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D53" s="135"/>
       <c r="E53" s="135"/>
-      <c r="F53" s="135"/>
+      <c r="F53" s="168"/>
       <c r="G53" s="135"/>
       <c r="H53" s="135"/>
       <c r="I53" s="160"/>
@@ -12596,7 +14666,7 @@
         <v>139</v>
       </c>
       <c r="C54" s="144" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D54" s="135"/>
       <c r="E54" s="135"/>
@@ -12618,7 +14688,7 @@
         <v>139</v>
       </c>
       <c r="C55" s="144" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D55" s="135"/>
       <c r="E55" s="135"/>
@@ -12640,7 +14710,7 @@
         <v>139</v>
       </c>
       <c r="C56" s="144" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D56" s="135"/>
       <c r="E56" s="135"/>
@@ -12662,11 +14732,11 @@
         <v>139</v>
       </c>
       <c r="C57" s="144" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D57" s="135"/>
       <c r="E57" s="135"/>
-      <c r="F57" s="168"/>
+      <c r="F57" s="135"/>
       <c r="G57" s="135"/>
       <c r="H57" s="135"/>
       <c r="I57" s="160"/>
@@ -12684,7 +14754,7 @@
         <v>139</v>
       </c>
       <c r="C58" s="144" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D58" s="135"/>
       <c r="E58" s="135"/>
@@ -12706,7 +14776,7 @@
         <v>139</v>
       </c>
       <c r="C59" s="144" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D59" s="135"/>
       <c r="E59" s="135"/>
@@ -12724,14 +14794,18 @@
     </row>
     <row r="60">
       <c r="A60" s="133"/>
-      <c r="B60" s="166" t="s">
+      <c r="B60" s="74" t="s">
         <v>139</v>
       </c>
       <c r="C60" s="144" t="s">
-        <v>152</v>
-      </c>
-      <c r="D60" s="135"/>
-      <c r="E60" s="135"/>
+        <v>91</v>
+      </c>
+      <c r="D60" s="169" t="s">
+        <v>139</v>
+      </c>
+      <c r="E60" s="170" t="s">
+        <v>153</v>
+      </c>
       <c r="F60" s="135"/>
       <c r="G60" s="135"/>
       <c r="H60" s="135"/>
@@ -12746,18 +14820,14 @@
     </row>
     <row r="61">
       <c r="A61" s="133"/>
-      <c r="B61" s="74" t="s">
+      <c r="B61" s="171" t="s">
         <v>139</v>
       </c>
-      <c r="C61" s="144" t="s">
-        <v>91</v>
-      </c>
-      <c r="D61" s="169" t="s">
-        <v>139</v>
-      </c>
-      <c r="E61" s="170" t="s">
-        <v>153</v>
-      </c>
+      <c r="C61" s="172" t="s">
+        <v>154</v>
+      </c>
+      <c r="D61" s="173"/>
+      <c r="E61" s="174"/>
       <c r="F61" s="135"/>
       <c r="G61" s="135"/>
       <c r="H61" s="135"/>
@@ -12772,14 +14842,14 @@
     </row>
     <row r="62">
       <c r="A62" s="133"/>
-      <c r="B62" s="171" t="s">
+      <c r="B62" s="166" t="s">
         <v>139</v>
       </c>
-      <c r="C62" s="172" t="s">
-        <v>154</v>
-      </c>
-      <c r="D62" s="173"/>
-      <c r="E62" s="174"/>
+      <c r="C62" s="144" t="s">
+        <v>155</v>
+      </c>
+      <c r="D62" s="135"/>
+      <c r="E62" s="135"/>
       <c r="F62" s="135"/>
       <c r="G62" s="135"/>
       <c r="H62" s="135"/>
@@ -12797,8 +14867,8 @@
       <c r="B63" s="166" t="s">
         <v>139</v>
       </c>
-      <c r="C63" s="144" t="s">
-        <v>155</v>
+      <c r="C63" s="172" t="s">
+        <v>153</v>
       </c>
       <c r="D63" s="135"/>
       <c r="E63" s="135"/>
@@ -12816,11 +14886,11 @@
     </row>
     <row r="64">
       <c r="A64" s="133"/>
-      <c r="B64" s="166" t="s">
+      <c r="B64" s="171" t="s">
         <v>139</v>
       </c>
       <c r="C64" s="172" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D64" s="135"/>
       <c r="E64" s="135"/>
@@ -12838,12 +14908,8 @@
     </row>
     <row r="65">
       <c r="A65" s="133"/>
-      <c r="B65" s="171" t="s">
-        <v>139</v>
-      </c>
-      <c r="C65" s="172" t="s">
-        <v>156</v>
-      </c>
+      <c r="B65" s="166"/>
+      <c r="C65" s="144"/>
       <c r="D65" s="135"/>
       <c r="E65" s="135"/>
       <c r="F65" s="135"/>
@@ -12860,8 +14926,12 @@
     </row>
     <row r="66">
       <c r="A66" s="133"/>
-      <c r="B66" s="166"/>
-      <c r="C66" s="144"/>
+      <c r="B66" s="151" t="s">
+        <v>157</v>
+      </c>
+      <c r="C66" s="144" t="s">
+        <v>158</v>
+      </c>
       <c r="D66" s="135"/>
       <c r="E66" s="135"/>
       <c r="F66" s="135"/>
@@ -12878,19 +14948,15 @@
     </row>
     <row r="67">
       <c r="A67" s="133"/>
-      <c r="B67" s="151" t="s">
-        <v>157</v>
-      </c>
-      <c r="C67" s="144" t="s">
-        <v>158</v>
-      </c>
+      <c r="B67" s="175"/>
+      <c r="C67" s="176"/>
       <c r="D67" s="135"/>
       <c r="E67" s="135"/>
       <c r="F67" s="135"/>
       <c r="G67" s="135"/>
       <c r="H67" s="135"/>
-      <c r="I67" s="160"/>
-      <c r="J67" s="159"/>
+      <c r="I67" s="159"/>
+      <c r="J67" s="177"/>
       <c r="K67" s="160"/>
       <c r="L67" s="159"/>
       <c r="M67" s="167"/>
@@ -12908,10 +14974,10 @@
       <c r="G68" s="135"/>
       <c r="H68" s="135"/>
       <c r="I68" s="159"/>
-      <c r="J68" s="177"/>
-      <c r="K68" s="160"/>
+      <c r="J68" s="159"/>
+      <c r="K68" s="159"/>
       <c r="L68" s="159"/>
-      <c r="M68" s="167"/>
+      <c r="M68" s="159"/>
       <c r="N68" s="159"/>
       <c r="O68" s="135"/>
       <c r="Q68" s="164"/>
@@ -12920,38 +14986,28 @@
       <c r="A69" s="133"/>
       <c r="B69" s="175"/>
       <c r="C69" s="176"/>
-      <c r="D69" s="135"/>
-      <c r="E69" s="135"/>
-      <c r="F69" s="135"/>
-      <c r="G69" s="135"/>
-      <c r="H69" s="135"/>
-      <c r="I69" s="159"/>
-      <c r="J69" s="159"/>
-      <c r="K69" s="159"/>
-      <c r="L69" s="159"/>
-      <c r="M69" s="159"/>
-      <c r="N69" s="159"/>
-      <c r="O69" s="135"/>
-      <c r="Q69" s="164"/>
+      <c r="D69" s="178"/>
+      <c r="E69" s="178"/>
+      <c r="F69" s="178"/>
+      <c r="G69" s="178"/>
+      <c r="H69" s="178"/>
+      <c r="I69" s="179" t="s">
+        <v>27</v>
+      </c>
+      <c r="J69" s="180"/>
+      <c r="K69" s="180"/>
+      <c r="L69" s="180"/>
+      <c r="M69" s="181"/>
+      <c r="N69" s="180"/>
+      <c r="O69" s="178"/>
     </row>
     <row r="70">
-      <c r="A70" s="133"/>
-      <c r="B70" s="175"/>
-      <c r="C70" s="176"/>
-      <c r="D70" s="178"/>
-      <c r="E70" s="178"/>
-      <c r="F70" s="178"/>
-      <c r="G70" s="178"/>
-      <c r="H70" s="178"/>
-      <c r="I70" s="179" t="s">
-        <v>27</v>
-      </c>
+      <c r="I70" s="180"/>
       <c r="J70" s="180"/>
       <c r="K70" s="180"/>
       <c r="L70" s="180"/>
-      <c r="M70" s="181"/>
+      <c r="M70" s="180"/>
       <c r="N70" s="180"/>
-      <c r="O70" s="178"/>
     </row>
     <row r="71">
       <c r="I71" s="180"/>
@@ -12962,516 +15018,537 @@
       <c r="N71" s="180"/>
     </row>
     <row r="72">
-      <c r="I72" s="180"/>
-      <c r="J72" s="180"/>
-      <c r="K72" s="180"/>
-      <c r="L72" s="180"/>
-      <c r="M72" s="180"/>
-      <c r="N72" s="180"/>
-    </row>
-    <row r="73">
-      <c r="B73" s="61" t="s">
+      <c r="B72" s="61" t="s">
         <v>159</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" s="61" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" s="61" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="B76" s="61" t="s">
         <v>161</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="D79" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="I79" s="61" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="80">
       <c r="B80" s="61" t="s">
-        <v>162</v>
-      </c>
-      <c r="D80" s="61" t="s">
-        <v>163</v>
-      </c>
-      <c r="I80" s="61" t="s">
-        <v>164</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="D80" s="61"/>
+      <c r="I80" s="61"/>
     </row>
     <row r="81">
-      <c r="B81" s="61" t="s">
-        <v>165</v>
-      </c>
-      <c r="D81" s="61"/>
-      <c r="I81" s="61"/>
+      <c r="B81" s="116" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="82">
       <c r="B82" s="116" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="B83" s="116" t="s">
         <v>167</v>
       </c>
     </row>
+    <row r="86">
+      <c r="B86" s="119" t="s">
+        <v>168</v>
+      </c>
+    </row>
     <row r="87">
-      <c r="B87" s="119" t="s">
-        <v>168</v>
-      </c>
+      <c r="B87" s="182"/>
     </row>
     <row r="88">
-      <c r="B88" s="182"/>
+      <c r="B88" s="183" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="89">
       <c r="B89" s="183" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="90">
       <c r="B90" s="183" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="91">
-      <c r="B91" s="183" t="s">
-        <v>171</v>
-      </c>
+      <c r="B91" s="182"/>
     </row>
     <row r="92">
-      <c r="B92" s="182"/>
-    </row>
-    <row r="93">
-      <c r="B93" s="184" t="s">
+      <c r="B92" s="184" t="s">
         <v>172</v>
       </c>
     </row>
+    <row r="94">
+      <c r="B94" s="185" t="s">
+        <v>173</v>
+      </c>
+    </row>
     <row r="95">
-      <c r="B95" s="185" t="s">
-        <v>173</v>
-      </c>
+      <c r="B95" s="186"/>
     </row>
     <row r="96">
-      <c r="B96" s="186"/>
+      <c r="B96" s="187" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="97">
       <c r="B97" s="187" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="98">
       <c r="B98" s="187" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="B99" s="187" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="188" t="s">
+    <row r="102">
+      <c r="A102" s="188" t="s">
         <v>177</v>
       </c>
-      <c r="B103" s="189"/>
-      <c r="C103" s="189"/>
-      <c r="D103" s="189"/>
-      <c r="E103" s="189"/>
-      <c r="F103" s="189"/>
-      <c r="G103" s="189"/>
-      <c r="H103" s="189"/>
-      <c r="I103" s="189"/>
-      <c r="J103" s="189"/>
-      <c r="K103" s="189"/>
-      <c r="L103" s="189"/>
-      <c r="M103" s="189"/>
-      <c r="N103" s="189"/>
-      <c r="O103" s="189"/>
+      <c r="B102" s="189"/>
+      <c r="C102" s="189"/>
+      <c r="D102" s="189"/>
+      <c r="E102" s="189"/>
+      <c r="F102" s="189"/>
+      <c r="G102" s="189"/>
+      <c r="H102" s="189"/>
+      <c r="I102" s="189"/>
+      <c r="J102" s="189"/>
+      <c r="K102" s="189"/>
+      <c r="L102" s="189"/>
+      <c r="M102" s="189"/>
+      <c r="N102" s="189"/>
+      <c r="O102" s="189"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="B104" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E104" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="F104" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="G104" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="H104" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="I104" s="64"/>
+      <c r="J104" s="66"/>
+      <c r="K104" s="66"/>
+      <c r="L104" s="67"/>
+      <c r="M104" s="66"/>
+      <c r="N104" s="66"/>
+      <c r="O104" s="68"/>
+      <c r="P104" s="68"/>
+      <c r="Q104" s="68"/>
+      <c r="R104" s="68"/>
+      <c r="S104" s="68"/>
+      <c r="T104" s="68"/>
+      <c r="U104" s="68"/>
+      <c r="V104" s="68"/>
+      <c r="W104" s="68"/>
+      <c r="X104" s="69"/>
     </row>
     <row r="105">
-      <c r="A105" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="B105" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="C105" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="D105" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="E105" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="F105" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="G105" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="H105" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="I105" s="64"/>
-      <c r="J105" s="66"/>
-      <c r="K105" s="66"/>
-      <c r="L105" s="67"/>
-      <c r="M105" s="66"/>
-      <c r="N105" s="66"/>
-      <c r="O105" s="68"/>
-      <c r="P105" s="68"/>
-      <c r="Q105" s="68"/>
-      <c r="R105" s="68"/>
-      <c r="S105" s="68"/>
-      <c r="T105" s="68"/>
-      <c r="U105" s="68"/>
-      <c r="V105" s="68"/>
-      <c r="W105" s="68"/>
-      <c r="X105" s="69"/>
+      <c r="A105" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" s="190" t="s">
+        <v>178</v>
+      </c>
+      <c r="E105" s="71" t="s">
+        <v>179</v>
+      </c>
+      <c r="F105" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="G105" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="H105" s="71"/>
+      <c r="I105" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="J105" s="77"/>
+      <c r="K105" s="77"/>
+      <c r="L105" s="77"/>
+      <c r="M105" s="77"/>
+      <c r="N105" s="77"/>
+      <c r="O105" s="78"/>
+      <c r="P105" s="78"/>
+      <c r="Q105" s="78"/>
+      <c r="R105" s="78"/>
+      <c r="S105" s="78"/>
+      <c r="T105" s="78"/>
+      <c r="U105" s="78"/>
+      <c r="V105" s="78"/>
+      <c r="W105" s="78"/>
+      <c r="X105" s="79"/>
     </row>
     <row r="106">
-      <c r="A106" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="B106" s="71" t="s">
-        <v>9</v>
-      </c>
-      <c r="C106" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="D106" s="190" t="s">
-        <v>178</v>
-      </c>
-      <c r="E106" s="71" t="s">
-        <v>179</v>
-      </c>
-      <c r="F106" s="75" t="s">
-        <v>13</v>
-      </c>
-      <c r="G106" s="75" t="s">
+      <c r="A106" s="80"/>
+      <c r="B106" s="81"/>
+      <c r="C106" s="81"/>
+      <c r="D106" s="81"/>
+      <c r="E106" s="81"/>
+      <c r="F106" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="G106" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="H106" s="71"/>
-      <c r="I106" s="76" t="s">
-        <v>16</v>
-      </c>
+      <c r="H106" s="82"/>
+      <c r="I106" s="83"/>
       <c r="J106" s="77"/>
       <c r="K106" s="77"/>
       <c r="L106" s="77"/>
       <c r="M106" s="77"/>
       <c r="N106" s="77"/>
-      <c r="O106" s="78"/>
-      <c r="P106" s="78"/>
-      <c r="Q106" s="78"/>
-      <c r="R106" s="78"/>
-      <c r="S106" s="78"/>
-      <c r="T106" s="78"/>
-      <c r="U106" s="78"/>
-      <c r="V106" s="78"/>
-      <c r="W106" s="78"/>
-      <c r="X106" s="79"/>
+      <c r="O106" s="84"/>
+      <c r="P106" s="84"/>
+      <c r="Q106" s="84"/>
+      <c r="R106" s="84"/>
+      <c r="S106" s="84"/>
+      <c r="T106" s="84"/>
+      <c r="U106" s="84"/>
+      <c r="V106" s="84"/>
+      <c r="W106" s="84"/>
+      <c r="X106" s="85"/>
     </row>
     <row r="107">
       <c r="A107" s="80"/>
-      <c r="B107" s="81"/>
-      <c r="C107" s="81"/>
-      <c r="D107" s="81"/>
-      <c r="E107" s="81"/>
-      <c r="F107" s="82" t="s">
-        <v>17</v>
-      </c>
-      <c r="G107" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="H107" s="82"/>
-      <c r="I107" s="83"/>
+      <c r="B107" s="86"/>
+      <c r="C107" s="86"/>
+      <c r="D107" s="86"/>
+      <c r="E107" s="86"/>
+      <c r="F107" s="86"/>
+      <c r="G107" s="81"/>
+      <c r="H107" s="81"/>
+      <c r="I107" s="87"/>
       <c r="J107" s="77"/>
       <c r="K107" s="77"/>
       <c r="L107" s="77"/>
       <c r="M107" s="77"/>
       <c r="N107" s="77"/>
-      <c r="O107" s="84"/>
-      <c r="P107" s="84"/>
-      <c r="Q107" s="84"/>
-      <c r="R107" s="84"/>
-      <c r="S107" s="84"/>
-      <c r="T107" s="84"/>
-      <c r="U107" s="84"/>
-      <c r="V107" s="84"/>
-      <c r="W107" s="84"/>
-      <c r="X107" s="85"/>
+      <c r="O107" s="88" t="s">
+        <v>180</v>
+      </c>
+      <c r="P107" s="89"/>
+      <c r="Q107" s="89"/>
+      <c r="R107" s="89"/>
+      <c r="S107" s="89"/>
+      <c r="T107" s="89"/>
+      <c r="U107" s="89"/>
+      <c r="V107" s="90"/>
+      <c r="W107" s="90"/>
+      <c r="X107" s="191"/>
     </row>
     <row r="108">
       <c r="A108" s="80"/>
-      <c r="B108" s="86"/>
-      <c r="C108" s="86"/>
-      <c r="D108" s="86"/>
-      <c r="E108" s="86"/>
-      <c r="F108" s="86"/>
-      <c r="G108" s="81"/>
-      <c r="H108" s="81"/>
-      <c r="I108" s="87"/>
+      <c r="B108" s="92"/>
+      <c r="C108" s="92"/>
+      <c r="D108" s="92"/>
+      <c r="E108" s="92"/>
+      <c r="F108" s="92"/>
+      <c r="G108" s="93"/>
+      <c r="H108" s="93"/>
+      <c r="I108" s="94"/>
       <c r="J108" s="77"/>
       <c r="K108" s="77"/>
       <c r="L108" s="77"/>
       <c r="M108" s="77"/>
       <c r="N108" s="77"/>
-      <c r="O108" s="88" t="s">
-        <v>180</v>
-      </c>
-      <c r="P108" s="89"/>
-      <c r="Q108" s="89"/>
-      <c r="R108" s="89"/>
-      <c r="S108" s="89"/>
-      <c r="T108" s="89"/>
-      <c r="U108" s="89"/>
-      <c r="V108" s="90"/>
-      <c r="W108" s="90"/>
-      <c r="X108" s="191"/>
+      <c r="O108" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="P108" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q108" s="192"/>
+      <c r="R108" s="96"/>
+      <c r="S108" s="98"/>
+      <c r="T108" s="98"/>
+      <c r="U108" s="98"/>
+      <c r="V108" s="98"/>
+      <c r="W108" s="98"/>
+      <c r="X108" s="193"/>
     </row>
     <row r="109">
-      <c r="A109" s="80"/>
-      <c r="B109" s="92"/>
-      <c r="C109" s="92"/>
-      <c r="D109" s="92"/>
-      <c r="E109" s="92"/>
-      <c r="F109" s="92"/>
-      <c r="G109" s="93"/>
-      <c r="H109" s="93"/>
-      <c r="I109" s="94"/>
-      <c r="J109" s="77"/>
-      <c r="K109" s="77"/>
-      <c r="L109" s="77"/>
-      <c r="M109" s="77"/>
-      <c r="N109" s="77"/>
-      <c r="O109" s="95" t="s">
-        <v>181</v>
-      </c>
-      <c r="P109" s="96" t="s">
+      <c r="A109" s="100"/>
+      <c r="B109" s="101" t="s">
+        <v>22</v>
+      </c>
+      <c r="C109" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="D109" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="E109" s="104" t="s">
+        <v>25</v>
+      </c>
+      <c r="F109" s="104" t="s">
+        <v>26</v>
+      </c>
+      <c r="G109" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="H109" s="102" t="s">
+        <v>182</v>
+      </c>
+      <c r="I109" s="105" t="s">
+        <v>29</v>
+      </c>
+      <c r="J109" s="106"/>
+      <c r="K109" s="106"/>
+      <c r="L109" s="106"/>
+      <c r="M109" s="106"/>
+      <c r="N109" s="107"/>
+      <c r="O109" s="194" t="s">
+        <v>183</v>
+      </c>
+      <c r="P109" s="195"/>
+      <c r="Q109" s="196"/>
+      <c r="R109" s="197"/>
+      <c r="S109" s="197"/>
+      <c r="T109" s="197"/>
+      <c r="U109" s="197"/>
+      <c r="V109" s="197"/>
+      <c r="W109" s="197"/>
+      <c r="X109" s="198"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="113"/>
+      <c r="B110" s="114" t="s">
+        <v>43</v>
+      </c>
+      <c r="C110" s="115"/>
+      <c r="D110" s="115"/>
+      <c r="E110" s="115"/>
+      <c r="F110" s="199" t="s">
+        <v>184</v>
+      </c>
+      <c r="G110" s="115"/>
+      <c r="H110" s="115"/>
+      <c r="I110" s="116" t="s">
+        <v>185</v>
+      </c>
+      <c r="J110" s="117" t="s">
+        <v>16</v>
+      </c>
+      <c r="K110" s="77"/>
+      <c r="L110" s="77"/>
+      <c r="M110" s="77"/>
+      <c r="N110" s="77"/>
+      <c r="O110" s="118"/>
+      <c r="X110" s="120"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="Q109" s="192"/>
-      <c r="R109" s="96"/>
-      <c r="S109" s="98"/>
-      <c r="T109" s="98"/>
-      <c r="U109" s="98"/>
-      <c r="V109" s="98"/>
-      <c r="W109" s="98"/>
-      <c r="X109" s="193"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="100"/>
-      <c r="B110" s="101" t="s">
-        <v>22</v>
-      </c>
-      <c r="C110" s="102" t="s">
-        <v>23</v>
-      </c>
-      <c r="D110" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="E110" s="104" t="s">
-        <v>25</v>
-      </c>
-      <c r="F110" s="104" t="s">
-        <v>26</v>
-      </c>
-      <c r="G110" s="102" t="s">
-        <v>27</v>
-      </c>
-      <c r="H110" s="102" t="s">
-        <v>182</v>
-      </c>
-      <c r="I110" s="105" t="s">
-        <v>29</v>
-      </c>
-      <c r="J110" s="106"/>
-      <c r="K110" s="106"/>
-      <c r="L110" s="106"/>
-      <c r="M110" s="106"/>
-      <c r="N110" s="107"/>
-      <c r="O110" s="194" t="s">
-        <v>183</v>
-      </c>
-      <c r="P110" s="195"/>
-      <c r="Q110" s="196"/>
-      <c r="R110" s="197"/>
-      <c r="S110" s="197"/>
-      <c r="T110" s="197"/>
-      <c r="U110" s="197"/>
-      <c r="V110" s="197"/>
-      <c r="W110" s="197"/>
-      <c r="X110" s="198"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="113"/>
-      <c r="B111" s="114" t="s">
-        <v>43</v>
-      </c>
-      <c r="C111" s="115"/>
-      <c r="D111" s="115"/>
-      <c r="E111" s="115"/>
-      <c r="F111" s="199" t="s">
-        <v>184</v>
-      </c>
-      <c r="G111" s="115"/>
-      <c r="H111" s="115"/>
-      <c r="I111" s="116" t="s">
-        <v>185</v>
-      </c>
-      <c r="J111" s="117" t="s">
-        <v>16</v>
-      </c>
+      <c r="B111" s="121"/>
+      <c r="C111" s="122"/>
+      <c r="D111" s="122"/>
+      <c r="E111" s="122"/>
+      <c r="F111" s="121"/>
+      <c r="G111" s="122"/>
+      <c r="H111" s="122"/>
+      <c r="I111" s="123"/>
+      <c r="J111" s="117"/>
       <c r="K111" s="77"/>
       <c r="L111" s="77"/>
       <c r="M111" s="77"/>
       <c r="N111" s="77"/>
-      <c r="O111" s="118"/>
+      <c r="O111" s="125"/>
+      <c r="P111" s="74"/>
       <c r="X111" s="120"/>
     </row>
     <row r="112">
-      <c r="A112" s="113" t="s">
-        <v>20</v>
-      </c>
-      <c r="B112" s="121"/>
-      <c r="C112" s="122"/>
-      <c r="D112" s="122"/>
-      <c r="E112" s="122"/>
-      <c r="F112" s="121"/>
-      <c r="G112" s="122"/>
-      <c r="H112" s="122"/>
-      <c r="I112" s="123"/>
-      <c r="J112" s="117"/>
-      <c r="K112" s="77"/>
-      <c r="L112" s="77"/>
-      <c r="M112" s="77"/>
-      <c r="N112" s="77"/>
-      <c r="O112" s="125"/>
-      <c r="P112" s="74"/>
-      <c r="X112" s="120"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="126"/>
-      <c r="B113" s="127"/>
-      <c r="C113" s="127"/>
-      <c r="D113" s="127"/>
-      <c r="E113" s="127"/>
-      <c r="F113" s="127"/>
-      <c r="G113" s="127"/>
-      <c r="H113" s="127"/>
-      <c r="I113" s="200"/>
-      <c r="J113" s="201"/>
-      <c r="K113" s="201"/>
-      <c r="L113" s="201"/>
-      <c r="M113" s="201"/>
-      <c r="N113" s="201"/>
-      <c r="O113" s="202"/>
-      <c r="P113" s="127"/>
-      <c r="Q113" s="127"/>
-      <c r="R113" s="127"/>
-      <c r="S113" s="127"/>
-      <c r="T113" s="127"/>
-      <c r="U113" s="127"/>
-      <c r="V113" s="127"/>
-      <c r="W113" s="127"/>
-      <c r="X113" s="131"/>
+      <c r="A112" s="126"/>
+      <c r="B112" s="127"/>
+      <c r="C112" s="127"/>
+      <c r="D112" s="127"/>
+      <c r="E112" s="127"/>
+      <c r="F112" s="127"/>
+      <c r="G112" s="127"/>
+      <c r="H112" s="127"/>
+      <c r="I112" s="200"/>
+      <c r="J112" s="201"/>
+      <c r="K112" s="201"/>
+      <c r="L112" s="201"/>
+      <c r="M112" s="201"/>
+      <c r="N112" s="201"/>
+      <c r="O112" s="202"/>
+      <c r="P112" s="127"/>
+      <c r="Q112" s="127"/>
+      <c r="R112" s="127"/>
+      <c r="S112" s="127"/>
+      <c r="T112" s="127"/>
+      <c r="U112" s="127"/>
+      <c r="V112" s="127"/>
+      <c r="W112" s="127"/>
+      <c r="X112" s="131"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="203" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="115">
-      <c r="A115" s="203" t="s">
-        <v>29</v>
-      </c>
+      <c r="A115" s="204" t="s">
+        <v>185</v>
+      </c>
+      <c r="B115" s="116"/>
+      <c r="C115" s="116"/>
+      <c r="G115" s="116"/>
+      <c r="K115" s="61"/>
     </row>
     <row r="116">
-      <c r="A116" s="204" t="s">
-        <v>185</v>
-      </c>
+      <c r="A116" s="205"/>
       <c r="B116" s="116"/>
       <c r="C116" s="116"/>
       <c r="G116" s="116"/>
       <c r="K116" s="61"/>
     </row>
     <row r="117">
-      <c r="A117" s="205"/>
+      <c r="A117" s="205" t="s">
+        <v>186</v>
+      </c>
       <c r="B117" s="116"/>
       <c r="C117" s="116"/>
-      <c r="G117" s="116"/>
-      <c r="K117" s="61"/>
+      <c r="G117" s="116" t="s">
+        <v>187</v>
+      </c>
+      <c r="K117" s="61" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="205" t="s">
-        <v>186</v>
-      </c>
-      <c r="B118" s="116"/>
-      <c r="C118" s="116"/>
-      <c r="G118" s="116" t="s">
-        <v>187</v>
-      </c>
-      <c r="K118" s="61" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="G118" s="61" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="205" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G119" s="61" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="205" t="s">
-        <v>191</v>
-      </c>
-      <c r="G120" s="61" t="s">
         <v>192</v>
       </c>
     </row>
+    <row r="122">
+      <c r="A122" s="206" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="123">
-      <c r="A123" s="206" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="116" t="s">
+      <c r="A123" s="116" t="s">
         <v>193</v>
       </c>
     </row>
+    <row r="126">
+      <c r="A126" s="207" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="127">
-      <c r="A127" s="207" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="61" t="s">
+      <c r="A127" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="I128" s="61" t="s">
+      <c r="I127" s="61" t="s">
         <v>194</v>
       </c>
     </row>
+    <row r="131">
+      <c r="A131" s="208"/>
+      <c r="B131" s="209"/>
+      <c r="C131" s="209"/>
+      <c r="D131" s="209"/>
+      <c r="E131" s="209"/>
+      <c r="F131" s="209"/>
+      <c r="G131" s="209"/>
+      <c r="H131" s="209"/>
+      <c r="I131" s="209"/>
+      <c r="J131" s="209"/>
+      <c r="K131" s="209"/>
+      <c r="L131" s="209"/>
+      <c r="M131" s="209"/>
+      <c r="N131" s="209"/>
+      <c r="O131" s="210"/>
+      <c r="P131" s="211"/>
+      <c r="Q131" s="211"/>
+      <c r="R131" s="211"/>
+      <c r="S131" s="211"/>
+      <c r="T131" s="211"/>
+      <c r="U131" s="211"/>
+      <c r="V131" s="211"/>
+      <c r="W131" s="211"/>
+      <c r="X131" s="212"/>
+      <c r="Y131" s="213"/>
+      <c r="Z131" s="214"/>
+      <c r="AA131" s="173"/>
+    </row>
     <row r="132">
-      <c r="A132" s="208"/>
-      <c r="B132" s="209"/>
-      <c r="C132" s="209"/>
-      <c r="D132" s="209"/>
-      <c r="E132" s="209"/>
-      <c r="F132" s="209"/>
-      <c r="G132" s="209"/>
-      <c r="H132" s="209"/>
-      <c r="I132" s="209"/>
-      <c r="J132" s="209"/>
-      <c r="K132" s="209"/>
-      <c r="L132" s="209"/>
-      <c r="M132" s="209"/>
-      <c r="N132" s="209"/>
-      <c r="O132" s="210"/>
-      <c r="P132" s="211"/>
-      <c r="Q132" s="211"/>
-      <c r="R132" s="211"/>
-      <c r="S132" s="211"/>
-      <c r="T132" s="211"/>
-      <c r="U132" s="211"/>
-      <c r="V132" s="211"/>
-      <c r="W132" s="211"/>
-      <c r="X132" s="212"/>
+      <c r="A132" s="215"/>
+      <c r="B132" s="216"/>
+      <c r="C132" s="216"/>
+      <c r="D132" s="216"/>
+      <c r="E132" s="216"/>
+      <c r="F132" s="216"/>
+      <c r="G132" s="216"/>
+      <c r="H132" s="216"/>
+      <c r="I132" s="216"/>
+      <c r="J132" s="216"/>
+      <c r="K132" s="216"/>
+      <c r="L132" s="216"/>
+      <c r="M132" s="216"/>
+      <c r="N132" s="216"/>
+      <c r="O132" s="217"/>
+      <c r="P132" s="218"/>
+      <c r="Q132" s="218"/>
+      <c r="R132" s="218"/>
+      <c r="S132" s="218"/>
+      <c r="T132" s="218"/>
+      <c r="U132" s="218"/>
+      <c r="V132" s="218"/>
+      <c r="W132" s="218"/>
+      <c r="X132" s="219"/>
       <c r="Y132" s="213"/>
       <c r="Z132" s="214"/>
       <c r="AA132" s="173"/>
@@ -13535,413 +15612,394 @@
       <c r="AA134" s="173"/>
     </row>
     <row r="135">
-      <c r="A135" s="215"/>
-      <c r="B135" s="216"/>
-      <c r="C135" s="216"/>
-      <c r="D135" s="216"/>
-      <c r="E135" s="216"/>
-      <c r="F135" s="216"/>
-      <c r="G135" s="216"/>
-      <c r="H135" s="216"/>
-      <c r="I135" s="216"/>
-      <c r="J135" s="216"/>
-      <c r="K135" s="216"/>
-      <c r="L135" s="216"/>
-      <c r="M135" s="216"/>
-      <c r="N135" s="216"/>
-      <c r="O135" s="217"/>
-      <c r="P135" s="218"/>
-      <c r="Q135" s="218"/>
-      <c r="R135" s="218"/>
-      <c r="S135" s="218"/>
-      <c r="T135" s="218"/>
-      <c r="U135" s="218"/>
-      <c r="V135" s="218"/>
-      <c r="W135" s="218"/>
-      <c r="X135" s="219"/>
+      <c r="A135" s="220"/>
+      <c r="B135" s="221" t="s">
+        <v>36</v>
+      </c>
+      <c r="C135" s="222"/>
+      <c r="D135" s="222"/>
+      <c r="E135" s="222"/>
+      <c r="F135" s="222"/>
+      <c r="G135" s="222"/>
+      <c r="H135" s="222"/>
+      <c r="I135" s="222"/>
+      <c r="J135" s="222"/>
+      <c r="K135" s="222"/>
+      <c r="L135" s="222"/>
+      <c r="M135" s="222"/>
+      <c r="N135" s="222"/>
+      <c r="O135" s="223"/>
+      <c r="P135" s="224"/>
+      <c r="Q135" s="224"/>
+      <c r="R135" s="224"/>
+      <c r="S135" s="224"/>
+      <c r="T135" s="224"/>
+      <c r="U135" s="224"/>
+      <c r="V135" s="224"/>
+      <c r="W135" s="224"/>
+      <c r="X135" s="225"/>
       <c r="Y135" s="213"/>
       <c r="Z135" s="214"/>
       <c r="AA135" s="173"/>
     </row>
     <row r="136">
-      <c r="A136" s="220"/>
-      <c r="B136" s="221" t="s">
-        <v>36</v>
-      </c>
-      <c r="C136" s="222"/>
-      <c r="D136" s="222"/>
-      <c r="E136" s="222"/>
-      <c r="F136" s="222"/>
-      <c r="G136" s="222"/>
-      <c r="H136" s="222"/>
-      <c r="I136" s="222"/>
-      <c r="J136" s="222"/>
-      <c r="K136" s="222"/>
-      <c r="L136" s="222"/>
-      <c r="M136" s="222"/>
-      <c r="N136" s="222"/>
-      <c r="O136" s="223"/>
-      <c r="P136" s="224"/>
-      <c r="Q136" s="224"/>
-      <c r="R136" s="224"/>
-      <c r="S136" s="224"/>
-      <c r="T136" s="224"/>
-      <c r="U136" s="224"/>
-      <c r="V136" s="224"/>
-      <c r="W136" s="224"/>
-      <c r="X136" s="225"/>
+      <c r="A136" s="226" t="s">
+        <v>37</v>
+      </c>
+      <c r="B136" s="227" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D136" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E136" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="F136" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="G136" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="H136" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="I136" s="64"/>
+      <c r="J136" s="66"/>
+      <c r="K136" s="66"/>
+      <c r="L136" s="67"/>
+      <c r="M136" s="66"/>
+      <c r="N136" s="66"/>
+      <c r="O136" s="68"/>
+      <c r="P136" s="68"/>
+      <c r="Q136" s="68"/>
+      <c r="R136" s="68"/>
+      <c r="S136" s="68"/>
+      <c r="T136" s="68"/>
+      <c r="U136" s="68"/>
+      <c r="V136" s="68"/>
+      <c r="W136" s="68"/>
+      <c r="X136" s="69"/>
       <c r="Y136" s="213"/>
       <c r="Z136" s="214"/>
       <c r="AA136" s="173"/>
     </row>
     <row r="137">
-      <c r="A137" s="226" t="s">
-        <v>37</v>
-      </c>
-      <c r="B137" s="227" t="s">
-        <v>1</v>
-      </c>
-      <c r="C137" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="D137" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="E137" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="F137" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="G137" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="H137" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="I137" s="64"/>
-      <c r="J137" s="66"/>
-      <c r="K137" s="66"/>
-      <c r="L137" s="67"/>
-      <c r="M137" s="66"/>
-      <c r="N137" s="66"/>
-      <c r="O137" s="68"/>
-      <c r="P137" s="68"/>
-      <c r="Q137" s="68"/>
-      <c r="R137" s="68"/>
-      <c r="S137" s="68"/>
-      <c r="T137" s="68"/>
-      <c r="U137" s="68"/>
-      <c r="V137" s="68"/>
-      <c r="W137" s="68"/>
-      <c r="X137" s="69"/>
-      <c r="Y137" s="213"/>
-      <c r="Z137" s="214"/>
-      <c r="AA137" s="173"/>
+      <c r="A137" s="228" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="E137" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="F137" s="75"/>
+      <c r="G137" s="75"/>
+      <c r="H137" s="71"/>
+      <c r="I137" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="J137" s="77"/>
+      <c r="K137" s="77"/>
+      <c r="L137" s="77"/>
+      <c r="M137" s="77"/>
+      <c r="N137" s="77"/>
+      <c r="O137" s="78"/>
+      <c r="P137" s="78"/>
+      <c r="Q137" s="78"/>
+      <c r="R137" s="78"/>
+      <c r="S137" s="78"/>
+      <c r="T137" s="78"/>
+      <c r="U137" s="78"/>
+      <c r="V137" s="78"/>
+      <c r="W137" s="78"/>
+      <c r="X137" s="79"/>
+      <c r="Y137" s="229"/>
+      <c r="Z137" s="230"/>
+      <c r="AA137" s="132"/>
     </row>
     <row r="138">
-      <c r="A138" s="228" t="s">
-        <v>8</v>
-      </c>
-      <c r="B138" s="71" t="s">
-        <v>9</v>
-      </c>
-      <c r="C138" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="D138" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="E138" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="F138" s="75"/>
-      <c r="G138" s="75"/>
-      <c r="H138" s="71"/>
-      <c r="I138" s="76" t="s">
-        <v>16</v>
-      </c>
+      <c r="A138" s="80"/>
+      <c r="B138" s="81"/>
+      <c r="C138" s="81"/>
+      <c r="D138" s="81"/>
+      <c r="E138" s="81"/>
+      <c r="F138" s="82"/>
+      <c r="G138" s="71"/>
+      <c r="H138" s="82"/>
+      <c r="I138" s="83"/>
       <c r="J138" s="77"/>
       <c r="K138" s="77"/>
       <c r="L138" s="77"/>
       <c r="M138" s="77"/>
       <c r="N138" s="77"/>
-      <c r="O138" s="78"/>
-      <c r="P138" s="78"/>
-      <c r="Q138" s="78"/>
-      <c r="R138" s="78"/>
-      <c r="S138" s="78"/>
-      <c r="T138" s="78"/>
-      <c r="U138" s="78"/>
-      <c r="V138" s="78"/>
-      <c r="W138" s="78"/>
-      <c r="X138" s="79"/>
-      <c r="Y138" s="229"/>
-      <c r="Z138" s="230"/>
-      <c r="AA138" s="132"/>
+      <c r="O138" s="84"/>
+      <c r="P138" s="84"/>
+      <c r="Q138" s="84"/>
+      <c r="R138" s="84"/>
+      <c r="S138" s="84"/>
+      <c r="T138" s="84"/>
+      <c r="U138" s="84"/>
+      <c r="V138" s="84"/>
+      <c r="W138" s="84"/>
+      <c r="X138" s="85"/>
+      <c r="Y138" s="213"/>
+      <c r="Z138" s="214"/>
+      <c r="AA138" s="173"/>
     </row>
     <row r="139">
       <c r="A139" s="80"/>
-      <c r="B139" s="81"/>
-      <c r="C139" s="81"/>
-      <c r="D139" s="81"/>
-      <c r="E139" s="81"/>
-      <c r="F139" s="82"/>
-      <c r="G139" s="71"/>
-      <c r="H139" s="82"/>
-      <c r="I139" s="83"/>
+      <c r="B139" s="86"/>
+      <c r="C139" s="86"/>
+      <c r="D139" s="86"/>
+      <c r="E139" s="86"/>
+      <c r="F139" s="86"/>
+      <c r="G139" s="81"/>
+      <c r="H139" s="81"/>
+      <c r="I139" s="87"/>
       <c r="J139" s="77"/>
       <c r="K139" s="77"/>
       <c r="L139" s="77"/>
       <c r="M139" s="77"/>
       <c r="N139" s="77"/>
-      <c r="O139" s="84"/>
-      <c r="P139" s="84"/>
-      <c r="Q139" s="84"/>
-      <c r="R139" s="84"/>
-      <c r="S139" s="84"/>
-      <c r="T139" s="84"/>
-      <c r="U139" s="84"/>
-      <c r="V139" s="84"/>
-      <c r="W139" s="84"/>
-      <c r="X139" s="85"/>
-      <c r="Y139" s="213"/>
-      <c r="Z139" s="214"/>
-      <c r="AA139" s="173"/>
+      <c r="O139" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="P139" s="89"/>
+      <c r="Q139" s="89"/>
+      <c r="R139" s="89"/>
+      <c r="S139" s="89"/>
+      <c r="T139" s="89"/>
+      <c r="U139" s="89"/>
+      <c r="V139" s="90"/>
+      <c r="W139" s="90"/>
+      <c r="X139" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y139" s="229"/>
+      <c r="Z139" s="230"/>
+      <c r="AA139" s="132"/>
     </row>
     <row r="140">
       <c r="A140" s="80"/>
-      <c r="B140" s="86"/>
-      <c r="C140" s="86"/>
-      <c r="D140" s="86"/>
-      <c r="E140" s="86"/>
-      <c r="F140" s="86"/>
-      <c r="G140" s="81"/>
-      <c r="H140" s="81"/>
-      <c r="I140" s="87"/>
+      <c r="B140" s="92"/>
+      <c r="C140" s="92"/>
+      <c r="D140" s="92"/>
+      <c r="E140" s="92"/>
+      <c r="F140" s="92"/>
+      <c r="G140" s="93"/>
+      <c r="H140" s="93"/>
+      <c r="I140" s="94"/>
       <c r="J140" s="77"/>
       <c r="K140" s="77"/>
       <c r="L140" s="77"/>
       <c r="M140" s="77"/>
       <c r="N140" s="77"/>
-      <c r="O140" s="88" t="s">
-        <v>39</v>
-      </c>
-      <c r="P140" s="89"/>
-      <c r="Q140" s="89"/>
-      <c r="R140" s="89"/>
-      <c r="S140" s="89"/>
-      <c r="T140" s="89"/>
-      <c r="U140" s="89"/>
-      <c r="V140" s="90"/>
-      <c r="W140" s="90"/>
-      <c r="X140" s="91" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y140" s="229"/>
-      <c r="Z140" s="230"/>
-      <c r="AA140" s="132"/>
+      <c r="O140" s="95" t="s">
+        <v>40</v>
+      </c>
+      <c r="P140" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q140" s="192"/>
+      <c r="R140" s="96"/>
+      <c r="S140" s="98"/>
+      <c r="T140" s="98"/>
+      <c r="U140" s="98"/>
+      <c r="V140" s="98"/>
+      <c r="W140" s="98"/>
+      <c r="X140" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y140" s="213"/>
+      <c r="Z140" s="214"/>
+      <c r="AA140" s="173"/>
     </row>
     <row r="141">
-      <c r="A141" s="80"/>
-      <c r="B141" s="92"/>
-      <c r="C141" s="92"/>
-      <c r="D141" s="92"/>
-      <c r="E141" s="92"/>
-      <c r="F141" s="92"/>
-      <c r="G141" s="93"/>
-      <c r="H141" s="93"/>
-      <c r="I141" s="94"/>
-      <c r="J141" s="77"/>
-      <c r="K141" s="77"/>
-      <c r="L141" s="77"/>
-      <c r="M141" s="77"/>
-      <c r="N141" s="77"/>
-      <c r="O141" s="95" t="s">
-        <v>40</v>
-      </c>
-      <c r="P141" s="96" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q141" s="192"/>
-      <c r="R141" s="96"/>
-      <c r="S141" s="98"/>
-      <c r="T141" s="98"/>
-      <c r="U141" s="98"/>
-      <c r="V141" s="98"/>
-      <c r="W141" s="98"/>
-      <c r="X141" s="99" t="s">
-        <v>21</v>
+      <c r="A141" s="100"/>
+      <c r="B141" s="101" t="s">
+        <v>22</v>
+      </c>
+      <c r="C141" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="D141" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="E141" s="104" t="s">
+        <v>25</v>
+      </c>
+      <c r="F141" s="104" t="s">
+        <v>26</v>
+      </c>
+      <c r="G141" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="H141" s="102" t="s">
+        <v>195</v>
+      </c>
+      <c r="I141" s="105" t="s">
+        <v>29</v>
+      </c>
+      <c r="J141" s="106"/>
+      <c r="K141" s="106"/>
+      <c r="L141" s="106"/>
+      <c r="M141" s="106"/>
+      <c r="N141" s="107"/>
+      <c r="O141" s="108" t="s">
+        <v>42</v>
+      </c>
+      <c r="P141" s="109"/>
+      <c r="Q141" s="110"/>
+      <c r="R141" s="111"/>
+      <c r="S141" s="111"/>
+      <c r="T141" s="111"/>
+      <c r="U141" s="111"/>
+      <c r="V141" s="111"/>
+      <c r="W141" s="111"/>
+      <c r="X141" s="112" t="s">
+        <v>30</v>
       </c>
       <c r="Y141" s="213"/>
       <c r="Z141" s="214"/>
       <c r="AA141" s="173"/>
     </row>
     <row r="142">
-      <c r="A142" s="100"/>
-      <c r="B142" s="101" t="s">
-        <v>22</v>
-      </c>
-      <c r="C142" s="102" t="s">
-        <v>23</v>
-      </c>
-      <c r="D142" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="E142" s="104" t="s">
-        <v>25</v>
-      </c>
-      <c r="F142" s="104" t="s">
-        <v>26</v>
-      </c>
-      <c r="G142" s="102" t="s">
-        <v>27</v>
-      </c>
-      <c r="H142" s="102" t="s">
-        <v>195</v>
-      </c>
-      <c r="I142" s="105" t="s">
-        <v>29</v>
-      </c>
-      <c r="J142" s="106"/>
-      <c r="K142" s="106"/>
-      <c r="L142" s="106"/>
-      <c r="M142" s="106"/>
-      <c r="N142" s="107"/>
-      <c r="O142" s="108" t="s">
+      <c r="A142" s="113"/>
+      <c r="B142" s="114" t="s">
+        <v>43</v>
+      </c>
+      <c r="C142" s="115"/>
+      <c r="D142" s="115"/>
+      <c r="E142" s="115"/>
+      <c r="F142" s="114">
+        <v>200.0</v>
+      </c>
+      <c r="G142" s="114"/>
+      <c r="H142" s="115"/>
+      <c r="I142" s="231" t="s">
+        <v>44</v>
+      </c>
+      <c r="J142" s="117" t="s">
+        <v>16</v>
+      </c>
+      <c r="K142" s="77"/>
+      <c r="L142" s="77"/>
+      <c r="M142" s="77"/>
+      <c r="N142" s="77"/>
+      <c r="O142" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="P142" s="109"/>
-      <c r="Q142" s="110"/>
-      <c r="R142" s="111"/>
-      <c r="S142" s="111"/>
-      <c r="T142" s="111"/>
-      <c r="U142" s="111"/>
-      <c r="V142" s="111"/>
-      <c r="W142" s="111"/>
-      <c r="X142" s="112" t="s">
-        <v>30</v>
-      </c>
+      <c r="X142" s="120"/>
       <c r="Y142" s="213"/>
       <c r="Z142" s="214"/>
       <c r="AA142" s="173"/>
     </row>
     <row r="143">
-      <c r="A143" s="113"/>
-      <c r="B143" s="114" t="s">
-        <v>43</v>
-      </c>
-      <c r="C143" s="115"/>
-      <c r="D143" s="115"/>
-      <c r="E143" s="115"/>
-      <c r="F143" s="114">
-        <v>200.0</v>
-      </c>
-      <c r="G143" s="114"/>
-      <c r="H143" s="115"/>
-      <c r="I143" s="231" t="s">
-        <v>44</v>
-      </c>
-      <c r="J143" s="117" t="s">
-        <v>16</v>
-      </c>
+      <c r="A143" s="232" t="s">
+        <v>20</v>
+      </c>
+      <c r="B143" s="132"/>
+      <c r="C143" s="173"/>
+      <c r="D143" s="173"/>
+      <c r="E143" s="173"/>
+      <c r="F143" s="132"/>
+      <c r="G143" s="132"/>
+      <c r="H143" s="173"/>
+      <c r="I143" s="132"/>
+      <c r="J143" s="117"/>
       <c r="K143" s="77"/>
       <c r="L143" s="77"/>
       <c r="M143" s="77"/>
       <c r="N143" s="77"/>
-      <c r="O143" s="118" t="s">
-        <v>42</v>
-      </c>
+      <c r="O143" s="54"/>
       <c r="X143" s="120"/>
       <c r="Y143" s="213"/>
       <c r="Z143" s="214"/>
       <c r="AA143" s="173"/>
     </row>
     <row r="144">
-      <c r="A144" s="232" t="s">
-        <v>20</v>
-      </c>
-      <c r="B144" s="132"/>
-      <c r="C144" s="173"/>
-      <c r="D144" s="173"/>
-      <c r="E144" s="173"/>
-      <c r="F144" s="132"/>
-      <c r="G144" s="132"/>
-      <c r="H144" s="173"/>
-      <c r="I144" s="132"/>
-      <c r="J144" s="117"/>
-      <c r="K144" s="77"/>
-      <c r="L144" s="77"/>
-      <c r="M144" s="77"/>
-      <c r="N144" s="77"/>
-      <c r="O144" s="54"/>
-      <c r="X144" s="120"/>
+      <c r="A144" s="233"/>
+      <c r="B144" s="234"/>
+      <c r="C144" s="127"/>
+      <c r="D144" s="127"/>
+      <c r="E144" s="127"/>
+      <c r="F144" s="127"/>
+      <c r="G144" s="127"/>
+      <c r="H144" s="127"/>
+      <c r="I144" s="200"/>
+      <c r="J144" s="201"/>
+      <c r="K144" s="201"/>
+      <c r="L144" s="201"/>
+      <c r="M144" s="201"/>
+      <c r="N144" s="201"/>
+      <c r="O144" s="202"/>
+      <c r="P144" s="127"/>
+      <c r="Q144" s="127"/>
+      <c r="R144" s="127"/>
+      <c r="S144" s="127"/>
+      <c r="T144" s="127"/>
+      <c r="U144" s="127"/>
+      <c r="V144" s="127"/>
+      <c r="W144" s="127"/>
+      <c r="X144" s="131"/>
       <c r="Y144" s="213"/>
       <c r="Z144" s="214"/>
       <c r="AA144" s="173"/>
     </row>
-    <row r="145">
-      <c r="A145" s="233"/>
-      <c r="B145" s="234"/>
-      <c r="C145" s="127"/>
-      <c r="D145" s="127"/>
-      <c r="E145" s="127"/>
-      <c r="F145" s="127"/>
-      <c r="G145" s="127"/>
-      <c r="H145" s="127"/>
-      <c r="I145" s="200"/>
-      <c r="J145" s="201"/>
-      <c r="K145" s="201"/>
-      <c r="L145" s="201"/>
-      <c r="M145" s="201"/>
-      <c r="N145" s="201"/>
-      <c r="O145" s="202"/>
-      <c r="P145" s="127"/>
-      <c r="Q145" s="127"/>
-      <c r="R145" s="127"/>
-      <c r="S145" s="127"/>
-      <c r="T145" s="127"/>
-      <c r="U145" s="127"/>
-      <c r="V145" s="127"/>
-      <c r="W145" s="127"/>
-      <c r="X145" s="131"/>
-      <c r="Y145" s="213"/>
-      <c r="Z145" s="214"/>
-      <c r="AA145" s="173"/>
+    <row r="163">
+      <c r="A163" s="235" t="s">
+        <v>196</v>
+      </c>
+      <c r="B163" s="236"/>
+      <c r="C163" s="236"/>
+      <c r="D163" s="237" t="s">
+        <v>197</v>
+      </c>
+      <c r="E163" s="238"/>
+      <c r="F163" s="239" t="s">
+        <v>198</v>
+      </c>
+      <c r="G163" s="240"/>
+      <c r="H163" s="240"/>
+      <c r="I163" s="240"/>
+      <c r="J163" s="241"/>
+      <c r="K163" s="241"/>
+      <c r="L163" s="241"/>
     </row>
     <row r="164">
-      <c r="A164" s="235" t="s">
-        <v>196</v>
-      </c>
-      <c r="B164" s="236"/>
-      <c r="C164" s="236"/>
-      <c r="D164" s="237" t="s">
-        <v>197</v>
-      </c>
-      <c r="E164" s="238"/>
-      <c r="F164" s="239" t="s">
-        <v>198</v>
-      </c>
-      <c r="G164" s="240"/>
-      <c r="H164" s="240"/>
-      <c r="I164" s="240"/>
-      <c r="J164" s="241"/>
-      <c r="K164" s="241"/>
-      <c r="L164" s="241"/>
+      <c r="A164" s="242" t="s">
+        <v>199</v>
+      </c>
+      <c r="B164" s="243"/>
+      <c r="C164" s="243"/>
+      <c r="D164" s="244" t="s">
+        <v>200</v>
+      </c>
+      <c r="E164" s="245"/>
+      <c r="F164" s="246" t="s">
+        <v>201</v>
+      </c>
+      <c r="G164" s="247"/>
+      <c r="H164" s="247"/>
+      <c r="I164" s="247"/>
+      <c r="J164" s="247"/>
+      <c r="K164" s="247"/>
+      <c r="L164" s="247"/>
     </row>
     <row r="165">
-      <c r="A165" s="242" t="s">
-        <v>199</v>
-      </c>
-      <c r="B165" s="243"/>
-      <c r="C165" s="243"/>
-      <c r="D165" s="244" t="s">
-        <v>200</v>
-      </c>
       <c r="E165" s="245"/>
-      <c r="F165" s="246" t="s">
-        <v>201</v>
-      </c>
+      <c r="F165" s="247"/>
       <c r="G165" s="247"/>
       <c r="H165" s="247"/>
       <c r="I165" s="247"/>
@@ -13951,70 +16009,72 @@
     </row>
     <row r="166">
       <c r="E166" s="245"/>
-      <c r="F166" s="247"/>
-      <c r="G166" s="247"/>
-      <c r="H166" s="247"/>
-      <c r="I166" s="247"/>
-      <c r="J166" s="247"/>
-      <c r="K166" s="247"/>
-      <c r="L166" s="247"/>
+      <c r="F166" s="248" t="s">
+        <v>202</v>
+      </c>
+      <c r="G166" s="249"/>
+      <c r="H166" s="248" t="s">
+        <v>203</v>
+      </c>
+      <c r="I166" s="250"/>
+      <c r="J166" s="249"/>
+      <c r="K166" s="249"/>
+      <c r="L166" s="249"/>
     </row>
     <row r="167">
       <c r="E167" s="245"/>
-      <c r="F167" s="248" t="s">
-        <v>202</v>
-      </c>
-      <c r="G167" s="249"/>
-      <c r="H167" s="248" t="s">
-        <v>203</v>
-      </c>
-      <c r="I167" s="250"/>
-      <c r="J167" s="249"/>
-      <c r="K167" s="249"/>
-      <c r="L167" s="249"/>
+      <c r="F167" s="247"/>
+      <c r="G167" s="247"/>
+      <c r="H167" s="246" t="s">
+        <v>204</v>
+      </c>
+      <c r="I167" s="251"/>
+      <c r="J167" s="251"/>
+      <c r="K167" s="251"/>
+      <c r="L167" s="251"/>
     </row>
     <row r="168">
       <c r="E168" s="245"/>
-      <c r="F168" s="247"/>
-      <c r="G168" s="247"/>
-      <c r="H168" s="246" t="s">
-        <v>204</v>
-      </c>
-      <c r="I168" s="251"/>
-      <c r="J168" s="251"/>
-      <c r="K168" s="251"/>
-      <c r="L168" s="251"/>
+      <c r="F168" s="243"/>
+      <c r="G168" s="243"/>
+      <c r="H168" s="252" t="s">
+        <v>205</v>
+      </c>
+      <c r="I168" s="253"/>
+      <c r="J168" s="253"/>
+      <c r="K168" s="253"/>
+      <c r="L168" s="243"/>
     </row>
     <row r="169">
       <c r="E169" s="245"/>
       <c r="F169" s="243"/>
       <c r="G169" s="243"/>
-      <c r="H169" s="252" t="s">
-        <v>205</v>
+      <c r="H169" s="254" t="s">
+        <v>206</v>
       </c>
       <c r="I169" s="253"/>
-      <c r="J169" s="253"/>
-      <c r="K169" s="253"/>
+      <c r="J169" s="243"/>
+      <c r="K169" s="243"/>
       <c r="L169" s="243"/>
     </row>
     <row r="170">
       <c r="E170" s="245"/>
-      <c r="F170" s="243"/>
-      <c r="G170" s="243"/>
-      <c r="H170" s="254" t="s">
-        <v>206</v>
-      </c>
-      <c r="I170" s="253"/>
+      <c r="F170" s="255" t="s">
+        <v>207</v>
+      </c>
+      <c r="G170" s="253"/>
+      <c r="H170" s="243"/>
+      <c r="I170" s="243"/>
       <c r="J170" s="243"/>
       <c r="K170" s="243"/>
       <c r="L170" s="243"/>
     </row>
     <row r="171">
       <c r="E171" s="245"/>
-      <c r="F171" s="255" t="s">
-        <v>207</v>
-      </c>
-      <c r="G171" s="253"/>
+      <c r="F171" s="256" t="s">
+        <v>208</v>
+      </c>
+      <c r="G171" s="247"/>
       <c r="H171" s="243"/>
       <c r="I171" s="243"/>
       <c r="J171" s="243"/>
@@ -14023,8 +16083,8 @@
     </row>
     <row r="172">
       <c r="E172" s="245"/>
-      <c r="F172" s="256" t="s">
-        <v>208</v>
+      <c r="F172" s="257" t="s">
+        <v>209</v>
       </c>
       <c r="G172" s="247"/>
       <c r="H172" s="243"/>
@@ -14035,8 +16095,8 @@
     </row>
     <row r="173">
       <c r="E173" s="245"/>
-      <c r="F173" s="257" t="s">
-        <v>209</v>
+      <c r="F173" s="258" t="s">
+        <v>210</v>
       </c>
       <c r="G173" s="247"/>
       <c r="H173" s="243"/>
@@ -14047,9 +16107,7 @@
     </row>
     <row r="174">
       <c r="E174" s="245"/>
-      <c r="F174" s="258" t="s">
-        <v>210</v>
-      </c>
+      <c r="F174" s="247"/>
       <c r="G174" s="247"/>
       <c r="H174" s="243"/>
       <c r="I174" s="243"/>
@@ -14059,18 +16117,20 @@
     </row>
     <row r="175">
       <c r="E175" s="245"/>
-      <c r="F175" s="247"/>
+      <c r="F175" s="247" t="s">
+        <v>211</v>
+      </c>
       <c r="G175" s="247"/>
-      <c r="H175" s="243"/>
-      <c r="I175" s="243"/>
-      <c r="J175" s="243"/>
-      <c r="K175" s="243"/>
-      <c r="L175" s="243"/>
+      <c r="H175" s="247"/>
+      <c r="I175" s="247"/>
+      <c r="J175" s="247"/>
+      <c r="K175" s="247"/>
+      <c r="L175" s="247"/>
     </row>
     <row r="176">
       <c r="E176" s="245"/>
-      <c r="F176" s="247" t="s">
-        <v>211</v>
+      <c r="F176" s="259" t="s">
+        <v>212</v>
       </c>
       <c r="G176" s="247"/>
       <c r="H176" s="247"/>
@@ -14081,11 +16141,11 @@
     </row>
     <row r="177">
       <c r="E177" s="245"/>
-      <c r="F177" s="259" t="s">
-        <v>212</v>
-      </c>
-      <c r="G177" s="247"/>
-      <c r="H177" s="247"/>
+      <c r="F177" s="260" t="s">
+        <v>213</v>
+      </c>
+      <c r="G177" s="251"/>
+      <c r="H177" s="251"/>
       <c r="I177" s="247"/>
       <c r="J177" s="247"/>
       <c r="K177" s="247"/>
@@ -14093,11 +16153,9 @@
     </row>
     <row r="178">
       <c r="E178" s="245"/>
-      <c r="F178" s="260" t="s">
-        <v>213</v>
-      </c>
-      <c r="G178" s="251"/>
-      <c r="H178" s="251"/>
+      <c r="F178" s="247"/>
+      <c r="G178" s="247"/>
+      <c r="H178" s="247"/>
       <c r="I178" s="247"/>
       <c r="J178" s="247"/>
       <c r="K178" s="247"/>
@@ -14125,8 +16183,10 @@
     </row>
     <row r="181">
       <c r="E181" s="245"/>
-      <c r="F181" s="247"/>
-      <c r="G181" s="247"/>
+      <c r="F181" s="246" t="s">
+        <v>214</v>
+      </c>
+      <c r="G181" s="251"/>
       <c r="H181" s="247"/>
       <c r="I181" s="247"/>
       <c r="J181" s="247"/>
@@ -14136,9 +16196,9 @@
     <row r="182">
       <c r="E182" s="245"/>
       <c r="F182" s="246" t="s">
-        <v>214</v>
-      </c>
-      <c r="G182" s="251"/>
+        <v>215</v>
+      </c>
+      <c r="G182" s="247"/>
       <c r="H182" s="247"/>
       <c r="I182" s="247"/>
       <c r="J182" s="247"/>
@@ -14147,9 +16207,7 @@
     </row>
     <row r="183">
       <c r="E183" s="245"/>
-      <c r="F183" s="246" t="s">
-        <v>215</v>
-      </c>
+      <c r="F183" s="247"/>
       <c r="G183" s="247"/>
       <c r="H183" s="247"/>
       <c r="I183" s="247"/>
@@ -14179,21 +16237,23 @@
     </row>
     <row r="186">
       <c r="E186" s="245"/>
-      <c r="F186" s="247"/>
-      <c r="G186" s="247"/>
-      <c r="H186" s="247"/>
-      <c r="I186" s="247"/>
-      <c r="J186" s="247"/>
-      <c r="K186" s="247"/>
+      <c r="F186" s="261" t="s">
+        <v>216</v>
+      </c>
+      <c r="G186" s="262"/>
+      <c r="H186" s="6"/>
+      <c r="I186" s="6"/>
+      <c r="J186" s="6"/>
+      <c r="K186" s="263"/>
       <c r="L186" s="247"/>
     </row>
     <row r="187">
       <c r="E187" s="245"/>
-      <c r="F187" s="261" t="s">
-        <v>216</v>
+      <c r="F187" s="264" t="s">
+        <v>15</v>
       </c>
       <c r="G187" s="262"/>
-      <c r="H187" s="6"/>
+      <c r="H187" s="262"/>
       <c r="I187" s="6"/>
       <c r="J187" s="6"/>
       <c r="K187" s="263"/>
@@ -14201,11 +16261,9 @@
     </row>
     <row r="188">
       <c r="E188" s="245"/>
-      <c r="F188" s="264" t="s">
-        <v>15</v>
-      </c>
-      <c r="G188" s="262"/>
-      <c r="H188" s="262"/>
+      <c r="F188" s="6"/>
+      <c r="G188" s="6"/>
+      <c r="H188" s="6"/>
       <c r="I188" s="6"/>
       <c r="J188" s="6"/>
       <c r="K188" s="263"/>
@@ -14213,7 +16271,9 @@
     </row>
     <row r="189">
       <c r="E189" s="245"/>
-      <c r="F189" s="6"/>
+      <c r="F189" s="265" t="s">
+        <v>217</v>
+      </c>
       <c r="G189" s="6"/>
       <c r="H189" s="6"/>
       <c r="I189" s="6"/>
@@ -14223,25 +16283,23 @@
     </row>
     <row r="190">
       <c r="E190" s="245"/>
-      <c r="F190" s="265" t="s">
-        <v>217</v>
-      </c>
-      <c r="G190" s="6"/>
-      <c r="H190" s="6"/>
-      <c r="I190" s="6"/>
-      <c r="J190" s="6"/>
-      <c r="K190" s="263"/>
+      <c r="F190" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G190" s="181" t="s">
+        <v>218</v>
+      </c>
+      <c r="H190" s="266"/>
+      <c r="I190" s="1"/>
+      <c r="J190" s="1"/>
+      <c r="K190" s="267"/>
       <c r="L190" s="247"/>
     </row>
     <row r="191">
       <c r="E191" s="245"/>
-      <c r="F191" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G191" s="181" t="s">
-        <v>218</v>
-      </c>
-      <c r="H191" s="266"/>
+      <c r="F191" s="1"/>
+      <c r="G191" s="1"/>
+      <c r="H191" s="1"/>
       <c r="I191" s="1"/>
       <c r="J191" s="1"/>
       <c r="K191" s="267"/>
@@ -14259,407 +16317,397 @@
     </row>
     <row r="193">
       <c r="E193" s="245"/>
-      <c r="F193" s="1"/>
-      <c r="G193" s="1"/>
-      <c r="H193" s="1"/>
-      <c r="I193" s="1"/>
-      <c r="J193" s="1"/>
-      <c r="K193" s="267"/>
+      <c r="F193" s="268" t="s">
+        <v>219</v>
+      </c>
+      <c r="G193" s="20"/>
+      <c r="H193" s="269" t="s">
+        <v>220</v>
+      </c>
+      <c r="I193" s="20"/>
+      <c r="J193" s="20"/>
+      <c r="K193" s="270"/>
       <c r="L193" s="247"/>
     </row>
     <row r="194">
       <c r="E194" s="245"/>
-      <c r="F194" s="268" t="s">
-        <v>219</v>
-      </c>
-      <c r="G194" s="20"/>
-      <c r="H194" s="269" t="s">
-        <v>220</v>
-      </c>
-      <c r="I194" s="20"/>
-      <c r="J194" s="20"/>
-      <c r="K194" s="270"/>
+      <c r="F194" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G194" s="1"/>
+      <c r="H194" s="181" t="s">
+        <v>221</v>
+      </c>
+      <c r="I194" s="266"/>
+      <c r="J194" s="266"/>
+      <c r="K194" s="267"/>
       <c r="L194" s="247"/>
     </row>
     <row r="195">
       <c r="E195" s="245"/>
-      <c r="F195" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G195" s="1"/>
+      <c r="F195" s="1"/>
+      <c r="G195" s="266" t="s">
+        <v>222</v>
+      </c>
       <c r="H195" s="181" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I195" s="266"/>
       <c r="J195" s="266"/>
       <c r="K195" s="267"/>
       <c r="L195" s="247"/>
     </row>
-    <row r="196">
-      <c r="E196" s="245"/>
-      <c r="F196" s="1"/>
-      <c r="G196" s="266" t="s">
-        <v>222</v>
-      </c>
-      <c r="H196" s="181" t="s">
-        <v>223</v>
-      </c>
-      <c r="I196" s="266"/>
-      <c r="J196" s="266"/>
-      <c r="K196" s="267"/>
-      <c r="L196" s="247"/>
+    <row r="205">
+      <c r="A205" s="271"/>
+      <c r="B205" s="272" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="206">
-      <c r="A206" s="271"/>
-      <c r="B206" s="272" t="s">
-        <v>224</v>
+      <c r="A206" s="273" t="s">
+        <v>225</v>
+      </c>
+      <c r="B206" s="274" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="273" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B207" s="274" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="273" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B208" s="274" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="273" t="s">
-        <v>229</v>
-      </c>
-      <c r="B209" s="274" t="s">
-        <v>230</v>
+        <v>231</v>
+      </c>
+      <c r="B209" s="275" t="str">
+        <f>HYPERLINK("https://westernunion.atlassian.net/browse/JO-1","Jordan")</f>
+        <v>Jordan</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="273" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B210" s="275" t="str">
-        <f>HYPERLINK("https://westernunion.atlassian.net/browse/JO-1","Jordan")</f>
-        <v>Jordan</v>
+        <f>HYPERLINK("https://westernunion.atlassian.net/browse/KZ-1","Kazakhstan")</f>
+        <v>Kazakhstan</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="273" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B211" s="275" t="str">
-        <f>HYPERLINK("https://westernunion.atlassian.net/browse/KZ-1","Kazakhstan")</f>
-        <v>Kazakhstan</v>
+        <f>HYPERLINK("https://kenya.pi.wuamerigo.com/bank_client.html","Kenya")</f>
+        <v>Kenya</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="273" t="s">
-        <v>233</v>
-      </c>
-      <c r="B212" s="275" t="str">
-        <f>HYPERLINK("https://kenya.pi.wuamerigo.com/bank_client.html","Kenya")</f>
-        <v>Kenya</v>
+        <v>234</v>
+      </c>
+      <c r="B212" s="274" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="273" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B213" s="274" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="273" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B214" s="274" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="273" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B215" s="274" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="273" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B216" s="274" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="273" t="s">
-        <v>242</v>
-      </c>
-      <c r="B217" s="274" t="s">
-        <v>243</v>
+        <v>244</v>
+      </c>
+      <c r="B217" s="275" t="str">
+        <f>HYPERLINK("https://westernunion.atlassian.net/browse/AMD-1","Moldova")</f>
+        <v>Moldova</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="273" t="s">
-        <v>244</v>
-      </c>
-      <c r="B218" s="275" t="str">
-        <f>HYPERLINK("https://westernunion.atlassian.net/browse/AMD-1","Moldova")</f>
-        <v>Moldova</v>
+        <v>245</v>
+      </c>
+      <c r="B218" s="274" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="273" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B219" s="274" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="273" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B220" s="274" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="273" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B221" s="274" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="273" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B222" s="274" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="273" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B223" s="274" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="273" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B224" s="274" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="273" t="s">
-        <v>257</v>
-      </c>
-      <c r="B225" s="274" t="s">
-        <v>258</v>
+      <c r="A225" s="276" t="s">
+        <v>259</v>
+      </c>
+      <c r="B225" s="277" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="276" t="s">
-        <v>259</v>
-      </c>
-      <c r="B226" s="277" t="s">
-        <v>260</v>
+      <c r="A226" s="273" t="s">
+        <v>261</v>
+      </c>
+      <c r="B226" s="274" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="273" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B227" s="274" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="273" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B228" s="274" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="273" t="s">
-        <v>265</v>
-      </c>
-      <c r="B229" s="274" t="s">
-        <v>266</v>
+        <v>267</v>
+      </c>
+      <c r="B229" s="275" t="str">
+        <f>HYPERLINK("https://westernunion.atlassian.net/browse/RS-1","Serbia")</f>
+        <v>Serbia</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="273" t="s">
-        <v>267</v>
-      </c>
-      <c r="B230" s="275" t="str">
-        <f>HYPERLINK("https://westernunion.atlassian.net/browse/RS-1","Serbia")</f>
-        <v>Serbia</v>
+        <v>268</v>
+      </c>
+      <c r="B230" s="274" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="273" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B231" s="274" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="273" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B232" s="274" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="273" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B233" s="274" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="273" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B234" s="274" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="273" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B235" s="274" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="273" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B236" s="274" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="273" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B237" s="274" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="273" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B238" s="274" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="273" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B239" s="274" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="273" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B240" s="274" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="273" t="s">
-        <v>288</v>
-      </c>
-      <c r="B241" s="274" t="s">
-        <v>289</v>
+        <v>290</v>
+      </c>
+      <c r="B241" s="275" t="str">
+        <f>HYPERLINK("https://westernunion.atlassian.net/browse/TT-1","Turks &amp; Caicos")</f>
+        <v>Turks &amp; Caicos</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="273" t="s">
-        <v>290</v>
-      </c>
-      <c r="B242" s="275" t="str">
-        <f>HYPERLINK("https://westernunion.atlassian.net/browse/TT-1","Turks &amp; Caicos")</f>
-        <v>Turks &amp; Caicos</v>
+        <v>291</v>
+      </c>
+      <c r="B242" s="274" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="273" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B243" s="274" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="273" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B244" s="274" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="273" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B245" s="274" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="273" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B246" s="274" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="273" t="s">
-        <v>299</v>
-      </c>
+      <c r="A247" s="6"/>
       <c r="B247" s="274" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="6"/>
-      <c r="B248" s="274" t="s">
         <v>301</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B93"/>
-    <hyperlink r:id="rId2" ref="D106"/>
-    <hyperlink r:id="rId3" ref="H194"/>
+    <hyperlink r:id="rId1" ref="B92"/>
+    <hyperlink r:id="rId2" ref="D105"/>
+    <hyperlink r:id="rId3" ref="H193"/>
   </hyperlinks>
   <drawing r:id="rId4"/>
 </worksheet>
@@ -15770,16 +17818,24 @@
       <c r="B36" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="115"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="115"/>
+      <c r="C36" s="458" t="s">
+        <v>772</v>
+      </c>
+      <c r="D36" s="458" t="s">
+        <v>773</v>
+      </c>
+      <c r="E36" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F36" s="114">
         <v>200.0</v>
       </c>
       <c r="G36" s="114" t="s">
         <v>320</v>
       </c>
-      <c r="H36" s="115"/>
+      <c r="H36" s="459" t="s">
+        <v>774</v>
+      </c>
       <c r="I36" s="116"/>
       <c r="J36" s="117" t="s">
         <v>16</v>
@@ -16196,16 +18252,24 @@
       <c r="B50" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="115"/>
-      <c r="D50" s="115"/>
-      <c r="E50" s="115"/>
+      <c r="C50" s="458" t="s">
+        <v>775</v>
+      </c>
+      <c r="D50" s="458" t="s">
+        <v>776</v>
+      </c>
+      <c r="E50" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F50" s="114">
         <v>200.0</v>
       </c>
       <c r="G50" s="116" t="s">
         <v>324</v>
       </c>
-      <c r="H50" s="115"/>
+      <c r="H50" s="459" t="s">
+        <v>777</v>
+      </c>
       <c r="I50" s="116"/>
       <c r="J50" s="117" t="s">
         <v>16</v>
@@ -16622,16 +18686,24 @@
       <c r="B64" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C64" s="115"/>
-      <c r="D64" s="115"/>
-      <c r="E64" s="115"/>
+      <c r="C64" s="458" t="s">
+        <v>778</v>
+      </c>
+      <c r="D64" s="458" t="s">
+        <v>779</v>
+      </c>
+      <c r="E64" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F64" s="114">
         <v>200.0</v>
       </c>
       <c r="G64" s="116" t="s">
         <v>328</v>
       </c>
-      <c r="H64" s="115"/>
+      <c r="H64" s="459" t="s">
+        <v>780</v>
+      </c>
       <c r="I64" s="116"/>
       <c r="J64" s="117" t="s">
         <v>16</v>
@@ -17048,16 +19120,24 @@
       <c r="B78" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C78" s="115"/>
-      <c r="D78" s="115"/>
-      <c r="E78" s="115"/>
+      <c r="C78" s="458" t="s">
+        <v>781</v>
+      </c>
+      <c r="D78" s="458" t="s">
+        <v>779</v>
+      </c>
+      <c r="E78" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F78" s="114">
         <v>200.0</v>
       </c>
       <c r="G78" s="116" t="s">
         <v>328</v>
       </c>
-      <c r="H78" s="115"/>
+      <c r="H78" s="459" t="s">
+        <v>780</v>
+      </c>
       <c r="I78" s="116"/>
       <c r="J78" s="117" t="s">
         <v>16</v>
@@ -17486,16 +19566,24 @@
       <c r="B92" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C92" s="115"/>
-      <c r="D92" s="115"/>
-      <c r="E92" s="115"/>
+      <c r="C92" s="458" t="s">
+        <v>782</v>
+      </c>
+      <c r="D92" s="458" t="s">
+        <v>783</v>
+      </c>
+      <c r="E92" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F92" s="114">
         <v>200.0</v>
       </c>
       <c r="G92" s="116" t="s">
         <v>328</v>
       </c>
-      <c r="H92" s="115"/>
+      <c r="H92" s="459" t="s">
+        <v>780</v>
+      </c>
       <c r="I92" s="116"/>
       <c r="J92" s="117" t="s">
         <v>16</v>
@@ -17924,16 +20012,24 @@
       <c r="B106" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C106" s="115"/>
-      <c r="D106" s="115"/>
-      <c r="E106" s="115"/>
+      <c r="C106" s="458" t="s">
+        <v>784</v>
+      </c>
+      <c r="D106" s="458" t="s">
+        <v>785</v>
+      </c>
+      <c r="E106" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F106" s="114">
         <v>200.0</v>
       </c>
       <c r="G106" s="116" t="s">
         <v>328</v>
       </c>
-      <c r="H106" s="115"/>
+      <c r="H106" s="459" t="s">
+        <v>780</v>
+      </c>
       <c r="I106" s="116"/>
       <c r="J106" s="117" t="s">
         <v>16</v>
@@ -18350,16 +20446,24 @@
       <c r="B120" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C120" s="115"/>
-      <c r="D120" s="115"/>
-      <c r="E120" s="115"/>
+      <c r="C120" s="458" t="s">
+        <v>786</v>
+      </c>
+      <c r="D120" s="458" t="s">
+        <v>787</v>
+      </c>
+      <c r="E120" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F120" s="114">
         <v>200.0</v>
       </c>
       <c r="G120" s="116" t="s">
         <v>328</v>
       </c>
-      <c r="H120" s="115"/>
+      <c r="H120" s="459" t="s">
+        <v>780</v>
+      </c>
       <c r="I120" s="116"/>
       <c r="J120" s="117" t="s">
         <v>16</v>
@@ -18776,16 +20880,24 @@
       <c r="B134" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C134" s="115"/>
-      <c r="D134" s="115"/>
-      <c r="E134" s="115"/>
+      <c r="C134" s="458" t="s">
+        <v>788</v>
+      </c>
+      <c r="D134" s="458" t="s">
+        <v>789</v>
+      </c>
+      <c r="E134" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F134" s="114">
         <v>200.0</v>
       </c>
       <c r="G134" s="116" t="s">
         <v>328</v>
       </c>
-      <c r="H134" s="115"/>
+      <c r="H134" s="459" t="s">
+        <v>780</v>
+      </c>
       <c r="I134" s="116"/>
       <c r="J134" s="117" t="s">
         <v>16</v>
@@ -19206,16 +21318,24 @@
       <c r="B148" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C148" s="115"/>
-      <c r="D148" s="115"/>
-      <c r="E148" s="115"/>
+      <c r="C148" s="458" t="s">
+        <v>790</v>
+      </c>
+      <c r="D148" s="458" t="s">
+        <v>791</v>
+      </c>
+      <c r="E148" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F148" s="114">
         <v>200.0</v>
       </c>
       <c r="G148" s="116" t="s">
         <v>328</v>
       </c>
-      <c r="H148" s="115"/>
+      <c r="H148" s="459" t="s">
+        <v>780</v>
+      </c>
       <c r="I148" s="116"/>
       <c r="J148" s="117" t="s">
         <v>16</v>
@@ -19636,16 +21756,24 @@
       <c r="B162" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C162" s="115"/>
-      <c r="D162" s="115"/>
-      <c r="E162" s="115"/>
+      <c r="C162" s="458" t="s">
+        <v>792</v>
+      </c>
+      <c r="D162" s="458" t="s">
+        <v>793</v>
+      </c>
+      <c r="E162" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F162" s="114">
         <v>200.0</v>
       </c>
       <c r="G162" s="116" t="s">
         <v>328</v>
       </c>
-      <c r="H162" s="115"/>
+      <c r="H162" s="459" t="s">
+        <v>780</v>
+      </c>
       <c r="I162" s="116"/>
       <c r="J162" s="117" t="s">
         <v>16</v>
@@ -20066,16 +22194,24 @@
       <c r="B176" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C176" s="115"/>
-      <c r="D176" s="115"/>
-      <c r="E176" s="115"/>
+      <c r="C176" s="458" t="s">
+        <v>794</v>
+      </c>
+      <c r="D176" s="458" t="s">
+        <v>795</v>
+      </c>
+      <c r="E176" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F176" s="114">
         <v>200.0</v>
       </c>
       <c r="G176" s="116" t="s">
         <v>328</v>
       </c>
-      <c r="H176" s="115"/>
+      <c r="H176" s="459" t="s">
+        <v>780</v>
+      </c>
       <c r="I176" s="116"/>
       <c r="J176" s="117" t="s">
         <v>16</v>
@@ -20496,16 +22632,24 @@
       <c r="B190" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C190" s="115"/>
-      <c r="D190" s="115"/>
-      <c r="E190" s="115"/>
+      <c r="C190" s="458" t="s">
+        <v>796</v>
+      </c>
+      <c r="D190" s="458" t="s">
+        <v>797</v>
+      </c>
+      <c r="E190" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F190" s="114">
         <v>200.0</v>
       </c>
       <c r="G190" s="116" t="s">
         <v>328</v>
       </c>
-      <c r="H190" s="115"/>
+      <c r="H190" s="459" t="s">
+        <v>780</v>
+      </c>
       <c r="I190" s="116"/>
       <c r="J190" s="117" t="s">
         <v>16</v>
@@ -20922,16 +23066,24 @@
       <c r="B204" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C204" s="115"/>
-      <c r="D204" s="115"/>
-      <c r="E204" s="115"/>
+      <c r="C204" s="458" t="s">
+        <v>798</v>
+      </c>
+      <c r="D204" s="458" t="s">
+        <v>799</v>
+      </c>
+      <c r="E204" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F204" s="114">
         <v>200.0</v>
       </c>
       <c r="G204" s="116" t="s">
         <v>328</v>
       </c>
-      <c r="H204" s="115"/>
+      <c r="H204" s="459" t="s">
+        <v>780</v>
+      </c>
       <c r="I204" s="116"/>
       <c r="J204" s="117" t="s">
         <v>16</v>
@@ -21348,16 +23500,24 @@
       <c r="B218" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C218" s="115"/>
-      <c r="D218" s="115"/>
-      <c r="E218" s="115"/>
+      <c r="C218" s="458" t="s">
+        <v>800</v>
+      </c>
+      <c r="D218" s="458" t="s">
+        <v>801</v>
+      </c>
+      <c r="E218" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F218" s="114">
         <v>200.0</v>
       </c>
       <c r="G218" s="116" t="s">
         <v>328</v>
       </c>
-      <c r="H218" s="115"/>
+      <c r="H218" s="459" t="s">
+        <v>780</v>
+      </c>
       <c r="I218" s="116"/>
       <c r="J218" s="117" t="s">
         <v>16</v>
@@ -21778,16 +23938,24 @@
       <c r="B232" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C232" s="115"/>
-      <c r="D232" s="115"/>
-      <c r="E232" s="115"/>
+      <c r="C232" s="458" t="s">
+        <v>802</v>
+      </c>
+      <c r="D232" s="458" t="s">
+        <v>803</v>
+      </c>
+      <c r="E232" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F232" s="114">
         <v>200.0</v>
       </c>
       <c r="G232" s="116" t="s">
         <v>328</v>
       </c>
-      <c r="H232" s="115"/>
+      <c r="H232" s="459" t="s">
+        <v>780</v>
+      </c>
       <c r="I232" s="116"/>
       <c r="J232" s="284" t="s">
         <v>16</v>
@@ -21855,23 +24023,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AA73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.29"/>
-    <col customWidth="1" min="7" max="7" width="25.43"/>
-    <col customWidth="1" min="8" max="8" width="25.29"/>
-    <col customWidth="1" min="9" max="10" width="18.0"/>
-    <col customWidth="1" min="11" max="11" width="26.29"/>
-    <col customWidth="1" min="12" max="12" width="1.43"/>
-    <col customWidth="1" min="13" max="13" width="1.71"/>
-    <col customWidth="1" min="14" max="14" width="1.43"/>
+    <col min="1" max="1" width="28.29" customWidth="true"/>
+    <col min="7" max="7" width="25.43" customWidth="true"/>
+    <col min="8" max="8" width="25.29" customWidth="true"/>
+    <col min="9" max="10" width="18" customWidth="true"/>
+    <col min="11" max="11" width="26.29" customWidth="true"/>
+    <col min="12" max="12" width="1.43" customWidth="true"/>
+    <col min="13" max="13" width="1.71" customWidth="true"/>
+    <col min="14" max="14" width="1.43" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -22235,16 +24404,24 @@
       <c r="B12" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
+      <c r="C12" s="458" t="s">
+        <v>809</v>
+      </c>
+      <c r="D12" s="458" t="s">
+        <v>810</v>
+      </c>
+      <c r="E12" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F12" s="114">
         <v>200.0</v>
       </c>
       <c r="G12" s="116" t="s">
         <v>328</v>
       </c>
-      <c r="H12" s="115"/>
+      <c r="H12" s="459" t="s">
+        <v>780</v>
+      </c>
       <c r="I12" s="116"/>
       <c r="J12" s="117" t="s">
         <v>367</v>
@@ -22546,16 +24723,24 @@
       <c r="B26" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
+      <c r="C26" s="458" t="s">
+        <v>811</v>
+      </c>
+      <c r="D26" s="458" t="s">
+        <v>812</v>
+      </c>
+      <c r="E26" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F26" s="114">
         <v>200.0</v>
       </c>
       <c r="G26" s="116" t="s">
         <v>328</v>
       </c>
-      <c r="H26" s="115"/>
+      <c r="H26" s="459" t="s">
+        <v>780</v>
+      </c>
       <c r="I26" s="116"/>
       <c r="J26" s="117" t="s">
         <v>16</v>
@@ -22965,14 +25150,22 @@
       <c r="B39" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
+      <c r="C39" s="458" t="s">
+        <v>813</v>
+      </c>
+      <c r="D39" s="458" t="s">
+        <v>814</v>
+      </c>
+      <c r="E39" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F39" s="306" t="s">
         <v>184</v>
       </c>
       <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
+      <c r="H39" s="459" t="s">
+        <v>758</v>
+      </c>
       <c r="I39" s="307" t="s">
         <v>381</v>
       </c>
@@ -23457,16 +25650,24 @@
       <c r="B53" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
+      <c r="C53" s="458" t="s">
+        <v>815</v>
+      </c>
+      <c r="D53" s="458" t="s">
+        <v>816</v>
+      </c>
+      <c r="E53" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F53" s="19">
         <v>200.0</v>
       </c>
       <c r="G53" s="53" t="s">
         <v>328</v>
       </c>
-      <c r="H53" s="6"/>
+      <c r="H53" s="459" t="s">
+        <v>780</v>
+      </c>
       <c r="I53" s="307"/>
       <c r="J53" s="5" t="s">
         <v>16</v>
@@ -23806,16 +26007,24 @@
       <c r="B70" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C70" s="115"/>
-      <c r="D70" s="115"/>
-      <c r="E70" s="115"/>
+      <c r="C70" s="458" t="s">
+        <v>817</v>
+      </c>
+      <c r="D70" s="458" t="s">
+        <v>818</v>
+      </c>
+      <c r="E70" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F70" s="114">
         <v>200.0</v>
       </c>
       <c r="G70" s="116" t="s">
         <v>328</v>
       </c>
-      <c r="H70" s="115"/>
+      <c r="H70" s="459" t="s">
+        <v>780</v>
+      </c>
       <c r="I70" s="116"/>
       <c r="J70" s="117"/>
       <c r="K70" s="117"/>
@@ -23878,33 +26087,34 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="E31"/>
+    <hyperlink ref="E31" r:id="rId1"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <drawing xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" relationships:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AD129"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="33.14"/>
-    <col customWidth="1" min="2" max="2" width="22.71"/>
-    <col customWidth="1" min="4" max="4" width="16.0"/>
-    <col customWidth="1" min="7" max="7" width="19.57"/>
-    <col customWidth="1" min="8" max="8" width="19.14"/>
-    <col customWidth="1" min="9" max="9" width="20.71"/>
-    <col customWidth="1" min="10" max="10" width="16.14"/>
-    <col customWidth="1" min="11" max="11" width="21.0"/>
-    <col customWidth="1" min="12" max="12" width="1.29"/>
-    <col customWidth="1" min="13" max="13" width="1.43"/>
-    <col customWidth="1" min="14" max="14" width="0.86"/>
+    <col min="1" max="1" width="33.14" customWidth="true"/>
+    <col min="2" max="2" width="22.71" customWidth="true"/>
+    <col min="4" max="4" width="16" customWidth="true"/>
+    <col min="7" max="7" width="19.57" customWidth="true"/>
+    <col min="8" max="8" width="19.14" customWidth="true"/>
+    <col min="9" max="9" width="20.71" customWidth="true"/>
+    <col min="10" max="10" width="16.14" customWidth="true"/>
+    <col min="11" max="11" width="21" customWidth="true"/>
+    <col min="12" max="12" width="1.29" customWidth="true"/>
+    <col min="13" max="13" width="1.43" customWidth="true"/>
+    <col min="14" max="14" width="0.86" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -24338,16 +26548,24 @@
       <c r="B12" s="317" t="s">
         <v>412</v>
       </c>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
+      <c r="C12" s="458" t="s">
+        <v>819</v>
+      </c>
+      <c r="D12" s="458" t="s">
+        <v>820</v>
+      </c>
+      <c r="E12" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F12" s="199" t="s">
         <v>184</v>
       </c>
       <c r="G12" s="114" t="s">
         <v>413</v>
       </c>
-      <c r="H12" s="115"/>
+      <c r="H12" s="459" t="s">
+        <v>821</v>
+      </c>
       <c r="I12" s="116"/>
       <c r="J12" s="117" t="s">
         <v>16</v>
@@ -24370,16 +26588,24 @@
       <c r="B13" s="317" t="s">
         <v>415</v>
       </c>
-      <c r="C13" s="115"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
+      <c r="C13" s="458" t="s">
+        <v>822</v>
+      </c>
+      <c r="D13" s="458" t="s">
+        <v>820</v>
+      </c>
+      <c r="E13" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F13" s="319" t="s">
         <v>184</v>
       </c>
       <c r="G13" s="114" t="s">
         <v>413</v>
       </c>
-      <c r="H13" s="115"/>
+      <c r="H13" s="459" t="s">
+        <v>821</v>
+      </c>
       <c r="I13" s="132"/>
       <c r="J13" s="124"/>
       <c r="K13" s="124"/>
@@ -24402,16 +26628,24 @@
       <c r="B14" s="320" t="s">
         <v>418</v>
       </c>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
+      <c r="C14" s="458" t="s">
+        <v>823</v>
+      </c>
+      <c r="D14" s="458" t="s">
+        <v>824</v>
+      </c>
+      <c r="E14" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F14" s="319" t="s">
         <v>184</v>
       </c>
       <c r="G14" s="114" t="s">
         <v>419</v>
       </c>
-      <c r="H14" s="115"/>
+      <c r="H14" s="459" t="s">
+        <v>825</v>
+      </c>
       <c r="I14" s="132"/>
       <c r="J14" s="124"/>
       <c r="K14" s="124"/>
@@ -24433,16 +26667,24 @@
       <c r="B15" s="317" t="s">
         <v>421</v>
       </c>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
+      <c r="C15" s="458" t="s">
+        <v>826</v>
+      </c>
+      <c r="D15" s="458" t="s">
+        <v>827</v>
+      </c>
+      <c r="E15" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F15" s="319" t="s">
         <v>184</v>
       </c>
       <c r="G15" s="114" t="s">
         <v>422</v>
       </c>
-      <c r="H15" s="115"/>
+      <c r="H15" s="459" t="s">
+        <v>828</v>
+      </c>
       <c r="I15" s="132"/>
       <c r="J15" s="124"/>
       <c r="K15" s="124"/>
@@ -24464,16 +26706,24 @@
       <c r="B16" s="320" t="s">
         <v>424</v>
       </c>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
+      <c r="C16" s="458" t="s">
+        <v>829</v>
+      </c>
+      <c r="D16" s="458" t="s">
+        <v>830</v>
+      </c>
+      <c r="E16" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F16" s="319" t="s">
         <v>184</v>
       </c>
       <c r="G16" s="114" t="s">
         <v>419</v>
       </c>
-      <c r="H16" s="115"/>
+      <c r="H16" s="459" t="s">
+        <v>825</v>
+      </c>
       <c r="I16" s="132"/>
       <c r="J16" s="124"/>
       <c r="K16" s="124"/>
@@ -24496,16 +26746,24 @@
       <c r="B17" s="317" t="s">
         <v>425</v>
       </c>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
+      <c r="C17" s="458" t="s">
+        <v>831</v>
+      </c>
+      <c r="D17" s="458" t="s">
+        <v>832</v>
+      </c>
+      <c r="E17" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F17" s="319" t="s">
         <v>184</v>
       </c>
       <c r="G17" s="114" t="s">
         <v>422</v>
       </c>
-      <c r="H17" s="115"/>
+      <c r="H17" s="459" t="s">
+        <v>828</v>
+      </c>
       <c r="I17" s="132"/>
       <c r="J17" s="124"/>
       <c r="K17" s="124"/>
@@ -24527,16 +26785,24 @@
       <c r="B18" s="317" t="s">
         <v>427</v>
       </c>
-      <c r="C18" s="115"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="115"/>
+      <c r="C18" s="458" t="s">
+        <v>833</v>
+      </c>
+      <c r="D18" s="458" t="s">
+        <v>832</v>
+      </c>
+      <c r="E18" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F18" s="319" t="s">
         <v>184</v>
       </c>
       <c r="G18" s="114" t="s">
         <v>422</v>
       </c>
-      <c r="H18" s="115"/>
+      <c r="H18" s="459" t="s">
+        <v>828</v>
+      </c>
       <c r="I18" s="132"/>
       <c r="J18" s="124"/>
       <c r="K18" s="124"/>
@@ -24558,16 +26824,24 @@
       <c r="B19" s="317" t="s">
         <v>429</v>
       </c>
-      <c r="C19" s="115"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
+      <c r="C19" s="458" t="s">
+        <v>834</v>
+      </c>
+      <c r="D19" s="458" t="s">
+        <v>835</v>
+      </c>
+      <c r="E19" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F19" s="319" t="s">
         <v>184</v>
       </c>
       <c r="G19" s="114" t="s">
         <v>422</v>
       </c>
-      <c r="H19" s="115"/>
+      <c r="H19" s="459" t="s">
+        <v>828</v>
+      </c>
       <c r="I19" s="132"/>
       <c r="J19" s="124"/>
       <c r="K19" s="124"/>
@@ -24588,16 +26862,24 @@
       <c r="B20" s="321" t="s">
         <v>431</v>
       </c>
-      <c r="C20" s="115"/>
-      <c r="D20" s="115"/>
-      <c r="E20" s="115"/>
+      <c r="C20" s="458" t="s">
+        <v>836</v>
+      </c>
+      <c r="D20" s="458" t="s">
+        <v>835</v>
+      </c>
+      <c r="E20" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F20" s="319" t="s">
         <v>184</v>
       </c>
       <c r="G20" s="114" t="s">
         <v>422</v>
       </c>
-      <c r="H20" s="115"/>
+      <c r="H20" s="459" t="s">
+        <v>828</v>
+      </c>
       <c r="I20" s="132"/>
       <c r="J20" s="124"/>
       <c r="K20" s="124"/>
@@ -24618,16 +26900,24 @@
       <c r="B21" s="114" t="s">
         <v>433</v>
       </c>
-      <c r="C21" s="115"/>
-      <c r="D21" s="115"/>
-      <c r="E21" s="115"/>
+      <c r="C21" s="458" t="s">
+        <v>837</v>
+      </c>
+      <c r="D21" s="458" t="s">
+        <v>838</v>
+      </c>
+      <c r="E21" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F21" s="319" t="s">
         <v>184</v>
       </c>
       <c r="G21" s="114" t="s">
         <v>422</v>
       </c>
-      <c r="H21" s="115"/>
+      <c r="H21" s="459" t="s">
+        <v>828</v>
+      </c>
       <c r="I21" s="132"/>
       <c r="J21" s="124"/>
       <c r="K21" s="124"/>
@@ -24648,16 +26938,24 @@
       <c r="B22" s="114" t="s">
         <v>435</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
+      <c r="C22" s="458" t="s">
+        <v>839</v>
+      </c>
+      <c r="D22" s="458" t="s">
+        <v>838</v>
+      </c>
+      <c r="E22" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F22" s="319" t="s">
         <v>184</v>
       </c>
       <c r="G22" s="114" t="s">
         <v>422</v>
       </c>
-      <c r="H22" s="115"/>
+      <c r="H22" s="459" t="s">
+        <v>828</v>
+      </c>
       <c r="I22" s="132"/>
       <c r="J22" s="124"/>
       <c r="K22" s="124"/>
@@ -24679,16 +26977,24 @@
         <v>437</v>
       </c>
       <c r="B23" s="114"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
+      <c r="C23" s="458" t="s">
+        <v>840</v>
+      </c>
+      <c r="D23" s="458" t="s">
+        <v>841</v>
+      </c>
+      <c r="E23" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F23" s="319" t="s">
         <v>184</v>
       </c>
       <c r="G23" s="323" t="s">
         <v>328</v>
       </c>
-      <c r="H23" s="324"/>
+      <c r="H23" s="459" t="s">
+        <v>780</v>
+      </c>
       <c r="I23" s="132"/>
       <c r="J23" s="124"/>
       <c r="K23" s="325"/>
@@ -25137,16 +27443,24 @@
       <c r="B37" s="114" t="s">
         <v>452</v>
       </c>
-      <c r="C37" s="115"/>
-      <c r="D37" s="115"/>
-      <c r="E37" s="115"/>
+      <c r="C37" s="458" t="s">
+        <v>842</v>
+      </c>
+      <c r="D37" s="458" t="s">
+        <v>843</v>
+      </c>
+      <c r="E37" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F37" s="199" t="s">
         <v>184</v>
       </c>
       <c r="G37" s="114" t="s">
         <v>419</v>
       </c>
-      <c r="H37" s="115"/>
+      <c r="H37" s="459" t="s">
+        <v>825</v>
+      </c>
       <c r="I37" s="116"/>
       <c r="J37" s="117" t="s">
         <v>16</v>
@@ -25169,16 +27483,24 @@
       <c r="B38" s="114" t="s">
         <v>453</v>
       </c>
-      <c r="C38" s="115"/>
-      <c r="D38" s="115"/>
-      <c r="E38" s="115"/>
+      <c r="C38" s="458" t="s">
+        <v>844</v>
+      </c>
+      <c r="D38" s="458" t="s">
+        <v>845</v>
+      </c>
+      <c r="E38" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F38" s="330" t="s">
         <v>184</v>
       </c>
       <c r="G38" s="132" t="s">
         <v>454</v>
       </c>
-      <c r="H38" s="173"/>
+      <c r="H38" s="459" t="s">
+        <v>846</v>
+      </c>
       <c r="I38" s="116"/>
       <c r="J38" s="325"/>
       <c r="K38" s="124"/>
@@ -25202,16 +27524,24 @@
       <c r="B39" s="114" t="s">
         <v>456</v>
       </c>
-      <c r="C39" s="115"/>
-      <c r="D39" s="115"/>
-      <c r="E39" s="115"/>
+      <c r="C39" s="458" t="s">
+        <v>847</v>
+      </c>
+      <c r="D39" s="458" t="s">
+        <v>848</v>
+      </c>
+      <c r="E39" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F39" s="330" t="s">
         <v>184</v>
       </c>
       <c r="G39" s="132" t="s">
         <v>328</v>
       </c>
-      <c r="H39" s="173"/>
+      <c r="H39" s="459" t="s">
+        <v>780</v>
+      </c>
       <c r="I39" s="116"/>
       <c r="J39" s="325"/>
       <c r="K39" s="124"/>
@@ -25234,16 +27564,24 @@
       <c r="B40" s="114" t="s">
         <v>458</v>
       </c>
-      <c r="C40" s="115"/>
-      <c r="D40" s="115"/>
-      <c r="E40" s="115"/>
+      <c r="C40" s="458" t="s">
+        <v>849</v>
+      </c>
+      <c r="D40" s="458" t="s">
+        <v>850</v>
+      </c>
+      <c r="E40" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F40" s="330" t="s">
         <v>184</v>
       </c>
       <c r="G40" s="132" t="s">
         <v>459</v>
       </c>
-      <c r="H40" s="173"/>
+      <c r="H40" s="459" t="s">
+        <v>851</v>
+      </c>
       <c r="I40" s="116"/>
       <c r="J40" s="325"/>
       <c r="K40" s="124"/>
@@ -25265,16 +27603,24 @@
       <c r="B41" s="114" t="s">
         <v>460</v>
       </c>
-      <c r="C41" s="115"/>
-      <c r="D41" s="115"/>
-      <c r="E41" s="115"/>
+      <c r="C41" s="458" t="s">
+        <v>852</v>
+      </c>
+      <c r="D41" s="458" t="s">
+        <v>853</v>
+      </c>
+      <c r="E41" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F41" s="330" t="s">
         <v>184</v>
       </c>
       <c r="G41" s="132" t="s">
         <v>422</v>
       </c>
-      <c r="H41" s="173"/>
+      <c r="H41" s="459" t="s">
+        <v>828</v>
+      </c>
       <c r="I41" s="116"/>
       <c r="J41" s="325"/>
       <c r="K41" s="124"/>
@@ -25298,18 +27644,24 @@
       <c r="B42" s="61" t="s">
         <v>463</v>
       </c>
-      <c r="C42" s="114" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" s="115"/>
-      <c r="E42" s="115"/>
+      <c r="C42" s="458" t="s">
+        <v>854</v>
+      </c>
+      <c r="D42" s="458" t="s">
+        <v>855</v>
+      </c>
+      <c r="E42" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F42" s="330" t="s">
         <v>464</v>
       </c>
       <c r="G42" s="132" t="s">
         <v>422</v>
       </c>
-      <c r="H42" s="173"/>
+      <c r="H42" s="460" t="s">
+        <v>856</v>
+      </c>
       <c r="I42" s="116"/>
       <c r="J42" s="325"/>
       <c r="K42" s="124"/>
@@ -25331,18 +27683,24 @@
       <c r="B43" s="61" t="s">
         <v>465</v>
       </c>
-      <c r="C43" s="114" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="115"/>
-      <c r="E43" s="115"/>
+      <c r="C43" s="458" t="s">
+        <v>857</v>
+      </c>
+      <c r="D43" s="458" t="s">
+        <v>466</v>
+      </c>
+      <c r="E43" s="458" t="s">
+        <v>464</v>
+      </c>
       <c r="F43" s="330" t="s">
         <v>464</v>
       </c>
       <c r="G43" s="132" t="s">
         <v>466</v>
       </c>
-      <c r="H43" s="173"/>
+      <c r="H43" s="459" t="s">
+        <v>858</v>
+      </c>
       <c r="I43" s="116"/>
       <c r="J43" s="325"/>
       <c r="K43" s="124"/>
@@ -25364,18 +27722,24 @@
       <c r="B44" s="61" t="s">
         <v>468</v>
       </c>
-      <c r="C44" s="114" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="115"/>
-      <c r="E44" s="115"/>
+      <c r="C44" s="458" t="s">
+        <v>859</v>
+      </c>
+      <c r="D44" s="458" t="s">
+        <v>466</v>
+      </c>
+      <c r="E44" s="458" t="s">
+        <v>464</v>
+      </c>
       <c r="F44" s="319" t="s">
         <v>464</v>
       </c>
       <c r="G44" s="132" t="s">
         <v>466</v>
       </c>
-      <c r="H44" s="173"/>
+      <c r="H44" s="459" t="s">
+        <v>858</v>
+      </c>
       <c r="I44" s="116"/>
       <c r="J44" s="325"/>
       <c r="K44" s="124"/>
@@ -25397,18 +27761,24 @@
       <c r="B45" s="61" t="s">
         <v>470</v>
       </c>
-      <c r="C45" s="114" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" s="115"/>
-      <c r="E45" s="115"/>
+      <c r="C45" s="458" t="s">
+        <v>860</v>
+      </c>
+      <c r="D45" s="458" t="s">
+        <v>466</v>
+      </c>
+      <c r="E45" s="458" t="s">
+        <v>464</v>
+      </c>
       <c r="F45" s="319" t="s">
         <v>464</v>
       </c>
       <c r="G45" s="132" t="s">
         <v>466</v>
       </c>
-      <c r="H45" s="173"/>
+      <c r="H45" s="459" t="s">
+        <v>858</v>
+      </c>
       <c r="I45" s="116"/>
       <c r="J45" s="325"/>
       <c r="K45" s="124"/>
@@ -25430,18 +27800,24 @@
       <c r="B46" s="279" t="s">
         <v>472</v>
       </c>
-      <c r="C46" s="114" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" s="115"/>
-      <c r="E46" s="115"/>
+      <c r="C46" s="458" t="s">
+        <v>861</v>
+      </c>
+      <c r="D46" s="458" t="s">
+        <v>466</v>
+      </c>
+      <c r="E46" s="458" t="s">
+        <v>464</v>
+      </c>
       <c r="F46" s="319" t="s">
         <v>464</v>
       </c>
       <c r="G46" s="132" t="s">
         <v>466</v>
       </c>
-      <c r="H46" s="173"/>
+      <c r="H46" s="459" t="s">
+        <v>858</v>
+      </c>
       <c r="I46" s="116"/>
       <c r="J46" s="325"/>
       <c r="K46" s="124"/>
@@ -25463,18 +27839,24 @@
       <c r="B47" s="61" t="s">
         <v>474</v>
       </c>
-      <c r="C47" s="114" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="115"/>
-      <c r="E47" s="115"/>
+      <c r="C47" s="458" t="s">
+        <v>862</v>
+      </c>
+      <c r="D47" s="458" t="s">
+        <v>863</v>
+      </c>
+      <c r="E47" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F47" s="319" t="s">
         <v>464</v>
       </c>
       <c r="G47" s="132" t="s">
         <v>466</v>
       </c>
-      <c r="H47" s="173"/>
+      <c r="H47" s="460" t="s">
+        <v>864</v>
+      </c>
       <c r="I47" s="116"/>
       <c r="J47" s="325"/>
       <c r="K47" s="124"/>
@@ -25496,16 +27878,24 @@
       <c r="B48" s="114" t="s">
         <v>476</v>
       </c>
-      <c r="C48" s="115"/>
-      <c r="D48" s="115"/>
-      <c r="E48" s="115"/>
+      <c r="C48" s="458" t="s">
+        <v>865</v>
+      </c>
+      <c r="D48" s="458" t="s">
+        <v>866</v>
+      </c>
+      <c r="E48" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F48" s="330" t="s">
         <v>184</v>
       </c>
       <c r="G48" s="132" t="s">
         <v>422</v>
       </c>
-      <c r="H48" s="173"/>
+      <c r="H48" s="459" t="s">
+        <v>828</v>
+      </c>
       <c r="I48" s="116"/>
       <c r="J48" s="325"/>
       <c r="K48" s="124"/>
@@ -25525,16 +27915,24 @@
     <row r="49">
       <c r="A49" s="113"/>
       <c r="B49" s="114"/>
-      <c r="C49" s="115"/>
-      <c r="D49" s="115"/>
-      <c r="E49" s="115"/>
+      <c r="C49" s="458" t="s">
+        <v>867</v>
+      </c>
+      <c r="D49" s="458" t="s">
+        <v>843</v>
+      </c>
+      <c r="E49" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F49" s="331" t="s">
         <v>184</v>
       </c>
       <c r="G49" s="116" t="s">
         <v>328</v>
       </c>
-      <c r="H49" s="6"/>
+      <c r="H49" s="459" t="s">
+        <v>780</v>
+      </c>
       <c r="I49" s="332"/>
       <c r="J49" s="124"/>
       <c r="K49" s="325"/>
@@ -25981,16 +28379,24 @@
       <c r="B63" s="114" t="s">
         <v>488</v>
       </c>
-      <c r="C63" s="115"/>
-      <c r="D63" s="115"/>
-      <c r="E63" s="115"/>
+      <c r="C63" s="458" t="s">
+        <v>868</v>
+      </c>
+      <c r="D63" s="458" t="s">
+        <v>869</v>
+      </c>
+      <c r="E63" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F63" s="199" t="s">
         <v>184</v>
       </c>
       <c r="G63" s="114" t="s">
         <v>489</v>
       </c>
-      <c r="H63" s="115"/>
+      <c r="H63" s="459" t="s">
+        <v>870</v>
+      </c>
       <c r="I63" s="116"/>
       <c r="J63" s="117" t="s">
         <v>16</v>
@@ -26013,16 +28419,24 @@
       <c r="B64" s="114" t="s">
         <v>491</v>
       </c>
-      <c r="C64" s="115"/>
-      <c r="D64" s="115"/>
-      <c r="E64" s="115"/>
+      <c r="C64" s="458" t="s">
+        <v>871</v>
+      </c>
+      <c r="D64" s="458" t="s">
+        <v>466</v>
+      </c>
+      <c r="E64" s="458" t="s">
+        <v>464</v>
+      </c>
       <c r="F64" s="199" t="s">
         <v>464</v>
       </c>
       <c r="G64" s="114" t="s">
         <v>466</v>
       </c>
-      <c r="H64" s="173"/>
+      <c r="H64" s="459" t="s">
+        <v>858</v>
+      </c>
       <c r="I64" s="116"/>
       <c r="J64" s="325"/>
       <c r="K64" s="124"/>
@@ -26044,16 +28458,24 @@
       <c r="B65" s="114" t="s">
         <v>493</v>
       </c>
-      <c r="C65" s="115"/>
-      <c r="D65" s="115"/>
-      <c r="E65" s="115"/>
+      <c r="C65" s="458" t="s">
+        <v>872</v>
+      </c>
+      <c r="D65" s="458" t="s">
+        <v>873</v>
+      </c>
+      <c r="E65" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F65" s="330" t="s">
         <v>184</v>
       </c>
       <c r="G65" s="132" t="s">
         <v>494</v>
       </c>
-      <c r="H65" s="173"/>
+      <c r="H65" s="459" t="s">
+        <v>874</v>
+      </c>
       <c r="I65" s="116"/>
       <c r="J65" s="325"/>
       <c r="K65" s="124"/>
@@ -26075,16 +28497,24 @@
       <c r="B66" s="114" t="s">
         <v>496</v>
       </c>
-      <c r="C66" s="115"/>
-      <c r="D66" s="115"/>
-      <c r="E66" s="115"/>
+      <c r="C66" s="458" t="s">
+        <v>875</v>
+      </c>
+      <c r="D66" s="458" t="s">
+        <v>873</v>
+      </c>
+      <c r="E66" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F66" s="330" t="s">
         <v>184</v>
       </c>
       <c r="G66" s="132" t="s">
         <v>494</v>
       </c>
-      <c r="H66" s="173"/>
+      <c r="H66" s="459" t="s">
+        <v>874</v>
+      </c>
       <c r="I66" s="116"/>
       <c r="J66" s="325"/>
       <c r="K66" s="124"/>
@@ -26106,16 +28536,24 @@
       <c r="B67" s="114" t="s">
         <v>498</v>
       </c>
-      <c r="C67" s="115"/>
-      <c r="D67" s="115"/>
-      <c r="E67" s="115"/>
+      <c r="C67" s="458" t="s">
+        <v>876</v>
+      </c>
+      <c r="D67" s="458" t="s">
+        <v>877</v>
+      </c>
+      <c r="E67" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F67" s="330" t="s">
         <v>184</v>
       </c>
       <c r="G67" s="132" t="s">
         <v>422</v>
       </c>
-      <c r="H67" s="173"/>
+      <c r="H67" s="459" t="s">
+        <v>828</v>
+      </c>
       <c r="I67" s="116"/>
       <c r="J67" s="325"/>
       <c r="K67" s="124"/>
@@ -26137,16 +28575,24 @@
       <c r="B68" s="114" t="s">
         <v>499</v>
       </c>
-      <c r="C68" s="115"/>
-      <c r="D68" s="115"/>
-      <c r="E68" s="115"/>
+      <c r="C68" s="458" t="s">
+        <v>878</v>
+      </c>
+      <c r="D68" s="458" t="s">
+        <v>877</v>
+      </c>
+      <c r="E68" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F68" s="330" t="s">
         <v>184</v>
       </c>
       <c r="G68" s="132" t="s">
         <v>422</v>
       </c>
-      <c r="H68" s="173"/>
+      <c r="H68" s="459" t="s">
+        <v>828</v>
+      </c>
       <c r="I68" s="116"/>
       <c r="J68" s="325"/>
       <c r="K68" s="124"/>
@@ -26168,16 +28614,24 @@
       <c r="B69" s="114" t="s">
         <v>437</v>
       </c>
-      <c r="C69" s="115"/>
-      <c r="D69" s="115"/>
-      <c r="E69" s="115"/>
+      <c r="C69" s="458" t="s">
+        <v>879</v>
+      </c>
+      <c r="D69" s="458" t="s">
+        <v>880</v>
+      </c>
+      <c r="E69" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F69" s="331" t="s">
         <v>184</v>
       </c>
       <c r="G69" s="339" t="s">
         <v>328</v>
       </c>
-      <c r="H69" s="6"/>
+      <c r="H69" s="459" t="s">
+        <v>780</v>
+      </c>
       <c r="I69" s="332"/>
       <c r="J69" s="124"/>
       <c r="K69" s="325"/>
@@ -26672,16 +29126,24 @@
       <c r="B83" s="320" t="s">
         <v>503</v>
       </c>
-      <c r="C83" s="115"/>
-      <c r="D83" s="115"/>
-      <c r="E83" s="115"/>
+      <c r="C83" s="458" t="s">
+        <v>897</v>
+      </c>
+      <c r="D83" s="458" t="s">
+        <v>898</v>
+      </c>
+      <c r="E83" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F83" s="199" t="s">
         <v>184</v>
       </c>
       <c r="G83" s="114" t="s">
         <v>422</v>
       </c>
-      <c r="H83" s="115"/>
+      <c r="H83" s="459" t="s">
+        <v>828</v>
+      </c>
       <c r="I83" s="116"/>
       <c r="J83" s="117"/>
       <c r="K83" s="77"/>
@@ -26702,16 +29164,24 @@
       <c r="B84" s="320" t="s">
         <v>505</v>
       </c>
-      <c r="C84" s="115"/>
-      <c r="D84" s="115"/>
-      <c r="E84" s="115"/>
+      <c r="C84" s="458" t="s">
+        <v>899</v>
+      </c>
+      <c r="D84" s="458" t="s">
+        <v>900</v>
+      </c>
+      <c r="E84" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F84" s="319" t="s">
         <v>184</v>
       </c>
       <c r="G84" s="114" t="s">
         <v>422</v>
       </c>
-      <c r="H84" s="115"/>
+      <c r="H84" s="459" t="s">
+        <v>828</v>
+      </c>
       <c r="I84" s="132"/>
       <c r="J84" s="124"/>
       <c r="K84" s="124"/>
@@ -26733,16 +29203,24 @@
       <c r="B85" s="320" t="s">
         <v>506</v>
       </c>
-      <c r="C85" s="115"/>
-      <c r="D85" s="115"/>
-      <c r="E85" s="115"/>
+      <c r="C85" s="458" t="s">
+        <v>901</v>
+      </c>
+      <c r="D85" s="458" t="s">
+        <v>902</v>
+      </c>
+      <c r="E85" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F85" s="319" t="s">
         <v>184</v>
       </c>
       <c r="G85" s="114" t="s">
         <v>422</v>
       </c>
-      <c r="H85" s="115"/>
+      <c r="H85" s="459" t="s">
+        <v>828</v>
+      </c>
       <c r="I85" s="132"/>
       <c r="J85" s="124"/>
       <c r="K85" s="124"/>
@@ -26765,16 +29243,24 @@
       <c r="B86" s="320" t="s">
         <v>508</v>
       </c>
-      <c r="C86" s="115"/>
-      <c r="D86" s="115"/>
-      <c r="E86" s="115"/>
+      <c r="C86" s="458" t="s">
+        <v>903</v>
+      </c>
+      <c r="D86" s="458" t="s">
+        <v>904</v>
+      </c>
+      <c r="E86" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F86" s="319" t="s">
         <v>184</v>
       </c>
       <c r="G86" s="114" t="s">
         <v>422</v>
       </c>
-      <c r="H86" s="115"/>
+      <c r="H86" s="459" t="s">
+        <v>828</v>
+      </c>
       <c r="I86" s="132"/>
       <c r="J86" s="124"/>
       <c r="K86" s="124"/>
@@ -26796,16 +29282,24 @@
       <c r="B87" s="320" t="s">
         <v>510</v>
       </c>
-      <c r="C87" s="115"/>
-      <c r="D87" s="115"/>
-      <c r="E87" s="115"/>
+      <c r="C87" s="458" t="s">
+        <v>905</v>
+      </c>
+      <c r="D87" s="458" t="s">
+        <v>906</v>
+      </c>
+      <c r="E87" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F87" s="319" t="s">
         <v>184</v>
       </c>
       <c r="G87" s="114" t="s">
         <v>422</v>
       </c>
-      <c r="H87" s="115"/>
+      <c r="H87" s="459" t="s">
+        <v>828</v>
+      </c>
       <c r="I87" s="132"/>
       <c r="J87" s="124"/>
       <c r="K87" s="124"/>
@@ -26827,16 +29321,24 @@
       <c r="B88" s="317" t="s">
         <v>429</v>
       </c>
-      <c r="C88" s="115"/>
-      <c r="D88" s="115"/>
-      <c r="E88" s="115"/>
+      <c r="C88" s="458" t="s">
+        <v>907</v>
+      </c>
+      <c r="D88" s="458" t="s">
+        <v>908</v>
+      </c>
+      <c r="E88" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F88" s="319" t="s">
         <v>184</v>
       </c>
       <c r="G88" s="114" t="s">
         <v>422</v>
       </c>
-      <c r="H88" s="115"/>
+      <c r="H88" s="459" t="s">
+        <v>828</v>
+      </c>
       <c r="I88" s="132"/>
       <c r="J88" s="124"/>
       <c r="K88" s="124"/>
@@ -26857,16 +29359,24 @@
       <c r="B89" s="114" t="s">
         <v>513</v>
       </c>
-      <c r="C89" s="115"/>
-      <c r="D89" s="115"/>
-      <c r="E89" s="115"/>
+      <c r="C89" s="458" t="s">
+        <v>909</v>
+      </c>
+      <c r="D89" s="458" t="s">
+        <v>910</v>
+      </c>
+      <c r="E89" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F89" s="319" t="s">
         <v>184</v>
       </c>
       <c r="G89" s="114" t="s">
         <v>422</v>
       </c>
-      <c r="H89" s="115"/>
+      <c r="H89" s="459" t="s">
+        <v>828</v>
+      </c>
       <c r="I89" s="132"/>
       <c r="J89" s="124"/>
       <c r="K89" s="124"/>
@@ -26887,16 +29397,24 @@
       <c r="B90" s="114" t="s">
         <v>515</v>
       </c>
-      <c r="C90" s="115"/>
-      <c r="D90" s="115"/>
-      <c r="E90" s="115"/>
+      <c r="C90" s="458" t="s">
+        <v>911</v>
+      </c>
+      <c r="D90" s="458" t="s">
+        <v>912</v>
+      </c>
+      <c r="E90" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F90" s="319" t="s">
         <v>184</v>
       </c>
       <c r="G90" s="114" t="s">
         <v>422</v>
       </c>
-      <c r="H90" s="115"/>
+      <c r="H90" s="459" t="s">
+        <v>828</v>
+      </c>
       <c r="I90" s="132"/>
       <c r="J90" s="124"/>
       <c r="K90" s="124"/>
@@ -27348,16 +29866,24 @@
       <c r="B104" s="114" t="s">
         <v>519</v>
       </c>
-      <c r="C104" s="115"/>
-      <c r="D104" s="115"/>
-      <c r="E104" s="115"/>
+      <c r="C104" s="458" t="s">
+        <v>913</v>
+      </c>
+      <c r="D104" s="458" t="s">
+        <v>914</v>
+      </c>
+      <c r="E104" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F104" s="330" t="s">
         <v>184</v>
       </c>
       <c r="G104" s="132" t="s">
         <v>419</v>
       </c>
-      <c r="H104" s="173"/>
+      <c r="H104" s="460" t="s">
+        <v>915</v>
+      </c>
       <c r="I104" s="116"/>
       <c r="J104" s="325"/>
       <c r="K104" s="124"/>
@@ -27382,16 +29908,24 @@
       <c r="B105" s="114" t="s">
         <v>522</v>
       </c>
-      <c r="C105" s="115"/>
-      <c r="D105" s="115"/>
-      <c r="E105" s="115"/>
+      <c r="C105" s="458" t="s">
+        <v>916</v>
+      </c>
+      <c r="D105" s="458" t="s">
+        <v>917</v>
+      </c>
+      <c r="E105" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F105" s="330" t="s">
         <v>184</v>
       </c>
       <c r="G105" s="132" t="s">
         <v>419</v>
       </c>
-      <c r="H105" s="173"/>
+      <c r="H105" s="460" t="s">
+        <v>915</v>
+      </c>
       <c r="I105" s="116"/>
       <c r="J105" s="325"/>
       <c r="K105" s="124"/>
@@ -27416,16 +29950,24 @@
       <c r="B106" s="114" t="s">
         <v>524</v>
       </c>
-      <c r="C106" s="115"/>
-      <c r="D106" s="115"/>
-      <c r="E106" s="115"/>
+      <c r="C106" s="458" t="s">
+        <v>918</v>
+      </c>
+      <c r="D106" s="458" t="s">
+        <v>919</v>
+      </c>
+      <c r="E106" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F106" s="330" t="s">
         <v>184</v>
       </c>
       <c r="G106" s="132" t="s">
         <v>419</v>
       </c>
-      <c r="H106" s="173"/>
+      <c r="H106" s="460" t="s">
+        <v>915</v>
+      </c>
       <c r="I106" s="116"/>
       <c r="J106" s="325"/>
       <c r="K106" s="124"/>
@@ -27452,18 +29994,24 @@
       <c r="B107" s="61" t="s">
         <v>463</v>
       </c>
-      <c r="C107" s="114" t="s">
-        <v>16</v>
-      </c>
-      <c r="D107" s="115"/>
-      <c r="E107" s="115"/>
+      <c r="C107" s="458" t="s">
+        <v>920</v>
+      </c>
+      <c r="D107" s="458" t="s">
+        <v>921</v>
+      </c>
+      <c r="E107" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F107" s="330" t="s">
         <v>184</v>
       </c>
       <c r="G107" s="132" t="s">
         <v>419</v>
       </c>
-      <c r="H107" s="173"/>
+      <c r="H107" s="460" t="s">
+        <v>915</v>
+      </c>
       <c r="I107" s="116"/>
       <c r="J107" s="325"/>
       <c r="K107" s="124"/>
@@ -27485,16 +30033,24 @@
       <c r="B108" s="114" t="s">
         <v>476</v>
       </c>
-      <c r="C108" s="115"/>
-      <c r="D108" s="115"/>
-      <c r="E108" s="115"/>
+      <c r="C108" s="458" t="s">
+        <v>922</v>
+      </c>
+      <c r="D108" s="458" t="s">
+        <v>923</v>
+      </c>
+      <c r="E108" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F108" s="330" t="s">
         <v>184</v>
       </c>
       <c r="G108" s="132" t="s">
         <v>419</v>
       </c>
-      <c r="H108" s="173"/>
+      <c r="H108" s="460" t="s">
+        <v>915</v>
+      </c>
       <c r="I108" s="116"/>
       <c r="J108" s="325"/>
       <c r="K108" s="124"/>
@@ -27946,16 +30502,24 @@
       <c r="B122" s="114" t="s">
         <v>531</v>
       </c>
-      <c r="C122" s="115"/>
-      <c r="D122" s="115"/>
-      <c r="E122" s="115"/>
+      <c r="C122" s="458" t="s">
+        <v>924</v>
+      </c>
+      <c r="D122" s="458" t="s">
+        <v>925</v>
+      </c>
+      <c r="E122" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F122" s="330" t="s">
         <v>184</v>
       </c>
       <c r="G122" s="114" t="s">
         <v>422</v>
       </c>
-      <c r="H122" s="173"/>
+      <c r="H122" s="459" t="s">
+        <v>828</v>
+      </c>
       <c r="I122" s="116"/>
       <c r="J122" s="325"/>
       <c r="K122" s="124"/>
@@ -27977,16 +30541,24 @@
       <c r="B123" s="114" t="s">
         <v>532</v>
       </c>
-      <c r="C123" s="115"/>
-      <c r="D123" s="115"/>
-      <c r="E123" s="115"/>
+      <c r="C123" s="458" t="s">
+        <v>926</v>
+      </c>
+      <c r="D123" s="458" t="s">
+        <v>927</v>
+      </c>
+      <c r="E123" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F123" s="330" t="s">
         <v>184</v>
       </c>
       <c r="G123" s="132" t="s">
         <v>422</v>
       </c>
-      <c r="H123" s="173"/>
+      <c r="H123" s="459" t="s">
+        <v>828</v>
+      </c>
       <c r="I123" s="116"/>
       <c r="J123" s="325"/>
       <c r="K123" s="124"/>
@@ -28009,16 +30581,24 @@
       <c r="B124" s="114" t="s">
         <v>496</v>
       </c>
-      <c r="C124" s="115"/>
-      <c r="D124" s="115"/>
-      <c r="E124" s="115"/>
+      <c r="C124" s="458" t="s">
+        <v>928</v>
+      </c>
+      <c r="D124" s="458" t="s">
+        <v>929</v>
+      </c>
+      <c r="E124" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F124" s="330" t="s">
         <v>184</v>
       </c>
       <c r="G124" s="132" t="s">
         <v>422</v>
       </c>
-      <c r="H124" s="173"/>
+      <c r="H124" s="459" t="s">
+        <v>828</v>
+      </c>
       <c r="I124" s="116"/>
       <c r="J124" s="325"/>
       <c r="K124" s="124"/>
@@ -28040,16 +30620,24 @@
       <c r="B125" s="114" t="s">
         <v>498</v>
       </c>
-      <c r="C125" s="115"/>
-      <c r="D125" s="115"/>
-      <c r="E125" s="115"/>
+      <c r="C125" s="458" t="s">
+        <v>930</v>
+      </c>
+      <c r="D125" s="458" t="s">
+        <v>931</v>
+      </c>
+      <c r="E125" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F125" s="330" t="s">
         <v>184</v>
       </c>
       <c r="G125" s="132" t="s">
         <v>422</v>
       </c>
-      <c r="H125" s="173"/>
+      <c r="H125" s="459" t="s">
+        <v>828</v>
+      </c>
       <c r="I125" s="116"/>
       <c r="J125" s="325"/>
       <c r="K125" s="124"/>
@@ -28071,16 +30659,24 @@
       <c r="B126" s="114" t="s">
         <v>499</v>
       </c>
-      <c r="C126" s="115"/>
-      <c r="D126" s="115"/>
-      <c r="E126" s="115"/>
+      <c r="C126" s="458" t="s">
+        <v>932</v>
+      </c>
+      <c r="D126" s="458" t="s">
+        <v>933</v>
+      </c>
+      <c r="E126" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F126" s="330" t="s">
         <v>184</v>
       </c>
       <c r="G126" s="132" t="s">
         <v>422</v>
       </c>
-      <c r="H126" s="173"/>
+      <c r="H126" s="459" t="s">
+        <v>828</v>
+      </c>
       <c r="I126" s="116"/>
       <c r="J126" s="325"/>
       <c r="K126" s="124"/>
@@ -28102,16 +30698,24 @@
       <c r="B127" s="114" t="s">
         <v>437</v>
       </c>
-      <c r="C127" s="115"/>
-      <c r="D127" s="115"/>
-      <c r="E127" s="115"/>
+      <c r="C127" s="458" t="s">
+        <v>924</v>
+      </c>
+      <c r="D127" s="458" t="s">
+        <v>934</v>
+      </c>
+      <c r="E127" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F127" s="331" t="s">
         <v>184</v>
       </c>
       <c r="G127" s="116" t="s">
         <v>422</v>
       </c>
-      <c r="H127" s="6"/>
+      <c r="H127" s="459" t="s">
+        <v>828</v>
+      </c>
       <c r="I127" s="332"/>
       <c r="J127" s="124"/>
       <c r="K127" s="325"/>
@@ -28182,28 +30786,29 @@
       <c r="AD129" s="131"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <drawing xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" relationships:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AA81"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.29"/>
-    <col customWidth="1" min="7" max="7" width="25.43"/>
-    <col customWidth="1" min="8" max="8" width="25.29"/>
-    <col customWidth="1" min="9" max="10" width="18.0"/>
-    <col customWidth="1" min="11" max="11" width="26.29"/>
-    <col customWidth="1" min="12" max="12" width="1.43"/>
-    <col customWidth="1" min="13" max="13" width="1.71"/>
-    <col customWidth="1" min="14" max="14" width="1.43"/>
+    <col min="1" max="1" width="28.29" customWidth="true"/>
+    <col min="7" max="7" width="25.43" customWidth="true"/>
+    <col min="8" max="8" width="25.29" customWidth="true"/>
+    <col min="9" max="10" width="18" customWidth="true"/>
+    <col min="11" max="11" width="26.29" customWidth="true"/>
+    <col min="12" max="12" width="1.43" customWidth="true"/>
+    <col min="13" max="13" width="1.71" customWidth="true"/>
+    <col min="14" max="14" width="1.43" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -28567,16 +31172,24 @@
       <c r="B12" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
+      <c r="C12" s="458" t="s">
+        <v>886</v>
+      </c>
+      <c r="D12" s="458" t="s">
+        <v>810</v>
+      </c>
+      <c r="E12" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F12" s="114">
         <v>200.0</v>
       </c>
       <c r="G12" s="116" t="s">
         <v>328</v>
       </c>
-      <c r="H12" s="115"/>
+      <c r="H12" s="459" t="s">
+        <v>780</v>
+      </c>
       <c r="I12" s="116"/>
       <c r="J12" s="117" t="s">
         <v>537</v>
@@ -28878,16 +31491,24 @@
       <c r="B26" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
+      <c r="C26" s="458" t="s">
+        <v>887</v>
+      </c>
+      <c r="D26" s="458" t="s">
+        <v>888</v>
+      </c>
+      <c r="E26" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F26" s="114">
         <v>200.0</v>
       </c>
       <c r="G26" s="116" t="s">
         <v>328</v>
       </c>
-      <c r="H26" s="115"/>
+      <c r="H26" s="459" t="s">
+        <v>780</v>
+      </c>
       <c r="I26" s="116"/>
       <c r="J26" s="117" t="s">
         <v>16</v>
@@ -29297,14 +31918,22 @@
       <c r="B39" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
+      <c r="C39" s="458" t="s">
+        <v>813</v>
+      </c>
+      <c r="D39" s="458" t="s">
+        <v>889</v>
+      </c>
+      <c r="E39" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F39" s="306" t="s">
         <v>184</v>
       </c>
       <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
+      <c r="H39" s="459" t="s">
+        <v>758</v>
+      </c>
       <c r="I39" s="307" t="s">
         <v>381</v>
       </c>
@@ -29785,16 +32414,24 @@
       <c r="B53" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
+      <c r="C53" s="458" t="s">
+        <v>890</v>
+      </c>
+      <c r="D53" s="458" t="s">
+        <v>891</v>
+      </c>
+      <c r="E53" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F53" s="19">
         <v>200.0</v>
       </c>
       <c r="G53" s="53" t="s">
         <v>541</v>
       </c>
-      <c r="H53" s="6"/>
+      <c r="H53" s="459" t="s">
+        <v>892</v>
+      </c>
       <c r="I53" s="307"/>
       <c r="J53" s="5" t="s">
         <v>16</v>
@@ -30118,16 +32755,24 @@
       <c r="B66" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C66" s="115"/>
-      <c r="D66" s="115"/>
-      <c r="E66" s="115"/>
+      <c r="C66" s="458" t="s">
+        <v>893</v>
+      </c>
+      <c r="D66" s="458" t="s">
+        <v>894</v>
+      </c>
+      <c r="E66" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F66" s="114">
         <v>200.0</v>
       </c>
       <c r="G66" s="116" t="s">
         <v>328</v>
       </c>
-      <c r="H66" s="115"/>
+      <c r="H66" s="459" t="s">
+        <v>780</v>
+      </c>
       <c r="I66" s="116"/>
       <c r="J66" s="117" t="s">
         <v>16</v>
@@ -30426,16 +33071,24 @@
       <c r="B79" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C79" s="115"/>
-      <c r="D79" s="115"/>
-      <c r="E79" s="115"/>
+      <c r="C79" s="458" t="s">
+        <v>895</v>
+      </c>
+      <c r="D79" s="458" t="s">
+        <v>896</v>
+      </c>
+      <c r="E79" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F79" s="114">
         <v>200.0</v>
       </c>
       <c r="G79" s="116" t="s">
         <v>328</v>
       </c>
-      <c r="H79" s="115"/>
+      <c r="H79" s="459" t="s">
+        <v>780</v>
+      </c>
       <c r="I79" s="116"/>
       <c r="J79" s="117" t="s">
         <v>16</v>
@@ -30497,32 +33150,33 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="E31"/>
+    <hyperlink ref="E31" r:id="rId1"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <drawing xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" relationships:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:X131"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="33.14"/>
-    <col customWidth="1" min="2" max="2" width="22.71"/>
-    <col customWidth="1" min="4" max="4" width="16.0"/>
-    <col customWidth="1" min="7" max="7" width="19.57"/>
-    <col customWidth="1" min="8" max="8" width="19.14"/>
-    <col customWidth="1" min="9" max="9" width="20.71"/>
-    <col customWidth="1" min="10" max="10" width="1.14"/>
-    <col customWidth="1" min="11" max="12" width="1.29"/>
-    <col customWidth="1" min="13" max="13" width="1.43"/>
-    <col customWidth="1" min="14" max="14" width="0.86"/>
+    <col min="1" max="1" width="33.14" customWidth="true"/>
+    <col min="2" max="2" width="22.71" customWidth="true"/>
+    <col min="4" max="4" width="16" customWidth="true"/>
+    <col min="7" max="7" width="19.57" customWidth="true"/>
+    <col min="8" max="8" width="19.14" customWidth="true"/>
+    <col min="9" max="9" width="20.71" customWidth="true"/>
+    <col min="10" max="10" width="1.14" customWidth="true"/>
+    <col min="11" max="12" width="1.29" customWidth="true"/>
+    <col min="13" max="13" width="1.43" customWidth="true"/>
+    <col min="14" max="14" width="0.86" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -30778,16 +33432,24 @@
       <c r="B8" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
+      <c r="C8" s="458" t="s">
+        <v>935</v>
+      </c>
+      <c r="D8" s="458" t="s">
+        <v>936</v>
+      </c>
+      <c r="E8" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F8" s="114">
         <v>200.0</v>
       </c>
       <c r="G8" s="116" t="s">
         <v>328</v>
       </c>
-      <c r="H8" s="115"/>
+      <c r="H8" s="459" t="s">
+        <v>780</v>
+      </c>
       <c r="I8" s="116"/>
       <c r="J8" s="117" t="s">
         <v>16</v>
@@ -31204,16 +33866,24 @@
       <c r="B22" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
+      <c r="C22" s="458" t="s">
+        <v>937</v>
+      </c>
+      <c r="D22" s="458" t="s">
+        <v>938</v>
+      </c>
+      <c r="E22" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F22" s="114">
         <v>200.0</v>
       </c>
       <c r="G22" s="116" t="s">
         <v>328</v>
       </c>
-      <c r="H22" s="115"/>
+      <c r="H22" s="459" t="s">
+        <v>780</v>
+      </c>
       <c r="I22" s="116"/>
       <c r="J22" s="117" t="s">
         <v>16</v>
@@ -31634,16 +34304,24 @@
       <c r="B36" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="115"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="115"/>
+      <c r="C36" s="458" t="s">
+        <v>939</v>
+      </c>
+      <c r="D36" s="458" t="s">
+        <v>940</v>
+      </c>
+      <c r="E36" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F36" s="114">
         <v>200.0</v>
       </c>
       <c r="G36" s="116" t="s">
         <v>328</v>
       </c>
-      <c r="H36" s="115"/>
+      <c r="H36" s="459" t="s">
+        <v>780</v>
+      </c>
       <c r="I36" s="116" t="s">
         <v>555</v>
       </c>
@@ -32068,16 +34746,24 @@
       <c r="B50" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="115"/>
-      <c r="D50" s="115"/>
-      <c r="E50" s="115"/>
+      <c r="C50" s="458" t="s">
+        <v>941</v>
+      </c>
+      <c r="D50" s="458" t="s">
+        <v>942</v>
+      </c>
+      <c r="E50" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F50" s="114">
         <v>200.0</v>
       </c>
       <c r="G50" s="116" t="s">
         <v>328</v>
       </c>
-      <c r="H50" s="115"/>
+      <c r="H50" s="459" t="s">
+        <v>780</v>
+      </c>
       <c r="I50" s="116"/>
       <c r="J50" s="117" t="s">
         <v>16</v>
@@ -32500,16 +35186,24 @@
       <c r="B64" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C64" s="115"/>
-      <c r="D64" s="115"/>
-      <c r="E64" s="115"/>
+      <c r="C64" s="458" t="s">
+        <v>943</v>
+      </c>
+      <c r="D64" s="458" t="s">
+        <v>944</v>
+      </c>
+      <c r="E64" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F64" s="114">
         <v>200.0</v>
       </c>
       <c r="G64" s="116" t="s">
         <v>328</v>
       </c>
-      <c r="H64" s="115"/>
+      <c r="H64" s="459" t="s">
+        <v>780</v>
+      </c>
       <c r="I64" s="116"/>
       <c r="J64" s="117" t="s">
         <v>16</v>
@@ -32812,16 +35506,24 @@
       <c r="B77" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C77" s="115"/>
-      <c r="D77" s="115"/>
-      <c r="E77" s="115"/>
+      <c r="C77" s="458" t="s">
+        <v>945</v>
+      </c>
+      <c r="D77" s="458" t="s">
+        <v>946</v>
+      </c>
+      <c r="E77" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F77" s="114">
         <v>200.0</v>
       </c>
       <c r="G77" s="116" t="s">
         <v>328</v>
       </c>
-      <c r="H77" s="115"/>
+      <c r="H77" s="459" t="s">
+        <v>780</v>
+      </c>
       <c r="I77" s="116" t="s">
         <v>568</v>
       </c>
@@ -33133,16 +35835,24 @@
       <c r="B90" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C90" s="115"/>
-      <c r="D90" s="115"/>
-      <c r="E90" s="115"/>
+      <c r="C90" s="458" t="s">
+        <v>947</v>
+      </c>
+      <c r="D90" s="458" t="s">
+        <v>948</v>
+      </c>
+      <c r="E90" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F90" s="114">
         <v>200.0</v>
       </c>
       <c r="G90" s="116" t="s">
         <v>328</v>
       </c>
-      <c r="H90" s="115"/>
+      <c r="H90" s="459" t="s">
+        <v>780</v>
+      </c>
       <c r="I90" s="116"/>
       <c r="J90" s="117" t="s">
         <v>16</v>
@@ -33598,16 +36308,24 @@
       <c r="B104" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C104" s="115"/>
-      <c r="D104" s="115"/>
-      <c r="E104" s="115"/>
+      <c r="C104" s="458" t="s">
+        <v>949</v>
+      </c>
+      <c r="D104" s="458" t="s">
+        <v>950</v>
+      </c>
+      <c r="E104" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F104" s="114">
         <v>200.0</v>
       </c>
       <c r="G104" s="116" t="s">
         <v>328</v>
       </c>
-      <c r="H104" s="115"/>
+      <c r="H104" s="459" t="s">
+        <v>780</v>
+      </c>
       <c r="I104" s="116"/>
       <c r="J104" s="117" t="s">
         <v>16</v>
@@ -33975,30 +36693,31 @@
       <c r="X131" s="131"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <drawing xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" relationships:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:X42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="33.14"/>
-    <col customWidth="1" min="2" max="2" width="22.71"/>
-    <col customWidth="1" min="4" max="4" width="16.0"/>
-    <col customWidth="1" min="7" max="7" width="19.57"/>
-    <col customWidth="1" min="8" max="8" width="19.14"/>
-    <col customWidth="1" min="9" max="9" width="20.71"/>
-    <col customWidth="1" min="10" max="10" width="1.14"/>
-    <col customWidth="1" min="11" max="12" width="1.29"/>
-    <col customWidth="1" min="13" max="13" width="1.43"/>
-    <col customWidth="1" min="14" max="14" width="0.86"/>
+    <col min="1" max="1" width="33.14" customWidth="true"/>
+    <col min="2" max="2" width="22.71" customWidth="true"/>
+    <col min="4" max="4" width="16" customWidth="true"/>
+    <col min="7" max="7" width="19.57" customWidth="true"/>
+    <col min="8" max="8" width="19.14" customWidth="true"/>
+    <col min="9" max="9" width="20.71" customWidth="true"/>
+    <col min="10" max="10" width="1.14" customWidth="true"/>
+    <col min="11" max="12" width="1.29" customWidth="true"/>
+    <col min="13" max="13" width="1.43" customWidth="true"/>
+    <col min="14" max="14" width="0.86" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -34358,16 +37077,24 @@
       <c r="B12" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
+      <c r="C12" s="458" t="s">
+        <v>951</v>
+      </c>
+      <c r="D12" s="458" t="s">
+        <v>952</v>
+      </c>
+      <c r="E12" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F12" s="114">
         <v>200.0</v>
       </c>
       <c r="G12" s="114" t="s">
         <v>328</v>
       </c>
-      <c r="H12" s="115"/>
+      <c r="H12" s="459" t="s">
+        <v>780</v>
+      </c>
       <c r="I12" s="116"/>
       <c r="J12" s="117" t="s">
         <v>16</v>
@@ -34784,16 +37511,24 @@
       <c r="B26" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
+      <c r="C26" s="458" t="s">
+        <v>953</v>
+      </c>
+      <c r="D26" s="458" t="s">
+        <v>954</v>
+      </c>
+      <c r="E26" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F26" s="114">
         <v>200.0</v>
       </c>
       <c r="G26" s="116" t="s">
         <v>328</v>
       </c>
-      <c r="H26" s="115"/>
+      <c r="H26" s="459" t="s">
+        <v>780</v>
+      </c>
       <c r="I26" s="116"/>
       <c r="J26" s="117" t="s">
         <v>16</v>
@@ -35214,16 +37949,24 @@
       <c r="B40" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="115"/>
-      <c r="D40" s="115"/>
-      <c r="E40" s="115"/>
+      <c r="C40" s="458" t="s">
+        <v>955</v>
+      </c>
+      <c r="D40" s="458" t="s">
+        <v>956</v>
+      </c>
+      <c r="E40" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F40" s="114">
         <v>200.0</v>
       </c>
       <c r="G40" s="116" t="s">
         <v>328</v>
       </c>
-      <c r="H40" s="115"/>
+      <c r="H40" s="459" t="s">
+        <v>780</v>
+      </c>
       <c r="I40" s="116"/>
       <c r="J40" s="117" t="s">
         <v>16</v>
@@ -35284,31 +38027,32 @@
       <c r="X42" s="131"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <drawing xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" relationships:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AJ270"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="33.14"/>
-    <col customWidth="1" min="2" max="2" width="22.71"/>
-    <col customWidth="1" min="4" max="4" width="16.0"/>
-    <col customWidth="1" min="7" max="7" width="19.57"/>
-    <col customWidth="1" min="8" max="8" width="19.14"/>
-    <col customWidth="1" min="9" max="9" width="20.71"/>
-    <col customWidth="1" min="10" max="10" width="17.0"/>
-    <col customWidth="1" min="11" max="11" width="16.29"/>
-    <col customWidth="1" min="12" max="12" width="1.29"/>
-    <col customWidth="1" min="13" max="13" width="1.43"/>
-    <col customWidth="1" min="14" max="14" width="0.86"/>
+    <col min="1" max="1" width="33.14" customWidth="true"/>
+    <col min="2" max="2" width="22.71" customWidth="true"/>
+    <col min="4" max="4" width="16" customWidth="true"/>
+    <col min="7" max="7" width="19.57" customWidth="true"/>
+    <col min="8" max="8" width="19.14" customWidth="true"/>
+    <col min="9" max="9" width="20.71" customWidth="true"/>
+    <col min="10" max="10" width="17" customWidth="true"/>
+    <col min="11" max="11" width="16.29" customWidth="true"/>
+    <col min="12" max="12" width="1.29" customWidth="true"/>
+    <col min="13" max="13" width="1.43" customWidth="true"/>
+    <col min="14" max="14" width="0.86" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -35668,16 +38412,24 @@
       <c r="B12" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
+      <c r="C12" s="458" t="s">
+        <v>957</v>
+      </c>
+      <c r="D12" s="458" t="s">
+        <v>958</v>
+      </c>
+      <c r="E12" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F12" s="114">
         <v>200.0</v>
       </c>
       <c r="G12" s="116" t="s">
         <v>328</v>
       </c>
-      <c r="H12" s="115"/>
+      <c r="H12" s="459" t="s">
+        <v>780</v>
+      </c>
       <c r="I12" s="116"/>
       <c r="J12" s="117" t="s">
         <v>16</v>
@@ -36102,16 +38854,24 @@
       <c r="B26" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
+      <c r="C26" s="458" t="s">
+        <v>959</v>
+      </c>
+      <c r="D26" s="458" t="s">
+        <v>960</v>
+      </c>
+      <c r="E26" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F26" s="114">
         <v>200.0</v>
       </c>
       <c r="G26" s="116" t="s">
         <v>601</v>
       </c>
-      <c r="H26" s="115"/>
+      <c r="H26" s="459" t="s">
+        <v>961</v>
+      </c>
       <c r="I26" s="116" t="s">
         <v>602</v>
       </c>
@@ -36668,12 +39428,20 @@
       <c r="B40" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
+      <c r="C40" s="458" t="s">
+        <v>302</v>
+      </c>
+      <c r="D40" s="458" t="s">
+        <v>962</v>
+      </c>
+      <c r="E40" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F40" s="19"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
+      <c r="H40" s="459" t="s">
+        <v>302</v>
+      </c>
       <c r="I40" s="53" t="s">
         <v>611</v>
       </c>
@@ -37338,12 +40106,20 @@
       <c r="B54" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
+      <c r="C54" s="458" t="s">
+        <v>963</v>
+      </c>
+      <c r="D54" s="458" t="s">
+        <v>964</v>
+      </c>
+      <c r="E54" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F54" s="366"/>
       <c r="G54" s="367"/>
-      <c r="H54" s="6"/>
+      <c r="H54" s="459" t="s">
+        <v>302</v>
+      </c>
       <c r="I54" s="53" t="s">
         <v>655</v>
       </c>
@@ -37864,12 +40640,20 @@
       <c r="B68" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C68" s="115"/>
-      <c r="D68" s="115"/>
-      <c r="E68" s="115"/>
+      <c r="C68" s="458" t="s">
+        <v>302</v>
+      </c>
+      <c r="D68" s="458" t="s">
+        <v>302</v>
+      </c>
+      <c r="E68" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F68" s="376"/>
       <c r="G68" s="377"/>
-      <c r="H68" s="115"/>
+      <c r="H68" s="459" t="s">
+        <v>302</v>
+      </c>
       <c r="I68" s="116"/>
       <c r="J68" s="378" t="s">
         <v>16</v>
@@ -38454,12 +41238,20 @@
       <c r="B82" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C82" s="115"/>
-      <c r="D82" s="115"/>
-      <c r="E82" s="115"/>
+      <c r="C82" s="458" t="s">
+        <v>965</v>
+      </c>
+      <c r="D82" s="458" t="s">
+        <v>966</v>
+      </c>
+      <c r="E82" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F82" s="376"/>
       <c r="G82" s="377"/>
-      <c r="H82" s="115"/>
+      <c r="H82" s="459" t="s">
+        <v>302</v>
+      </c>
       <c r="I82" s="116"/>
       <c r="J82" s="378" t="s">
         <v>16</v>
@@ -38930,12 +41722,20 @@
       <c r="B95" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C95" s="115"/>
-      <c r="D95" s="115"/>
-      <c r="E95" s="115"/>
+      <c r="C95" s="458" t="s">
+        <v>967</v>
+      </c>
+      <c r="D95" s="458" t="s">
+        <v>968</v>
+      </c>
+      <c r="E95" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F95" s="376"/>
       <c r="G95" s="377"/>
-      <c r="H95" s="115"/>
+      <c r="H95" s="459" t="s">
+        <v>302</v>
+      </c>
       <c r="I95" s="116"/>
       <c r="J95" s="378" t="s">
         <v>16</v>
@@ -39444,12 +42244,20 @@
       <c r="B108" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C108" s="115"/>
-      <c r="D108" s="115"/>
-      <c r="E108" s="115"/>
+      <c r="C108" s="458" t="s">
+        <v>969</v>
+      </c>
+      <c r="D108" s="458" t="s">
+        <v>970</v>
+      </c>
+      <c r="E108" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F108" s="376"/>
       <c r="G108" s="377"/>
-      <c r="H108" s="115"/>
+      <c r="H108" s="459" t="s">
+        <v>302</v>
+      </c>
       <c r="I108" s="116" t="s">
         <v>708</v>
       </c>
@@ -39966,12 +42774,20 @@
       <c r="B121" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C121" s="115"/>
-      <c r="D121" s="115"/>
-      <c r="E121" s="115"/>
+      <c r="C121" s="458" t="s">
+        <v>971</v>
+      </c>
+      <c r="D121" s="458" t="s">
+        <v>972</v>
+      </c>
+      <c r="E121" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F121" s="376"/>
       <c r="G121" s="377"/>
-      <c r="H121" s="115"/>
+      <c r="H121" s="459" t="s">
+        <v>302</v>
+      </c>
       <c r="I121" s="116" t="s">
         <v>724</v>
       </c>
@@ -40518,12 +43334,20 @@
       <c r="B135" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C135" s="115"/>
-      <c r="D135" s="115"/>
-      <c r="E135" s="115"/>
+      <c r="C135" s="458" t="s">
+        <v>973</v>
+      </c>
+      <c r="D135" s="458" t="s">
+        <v>974</v>
+      </c>
+      <c r="E135" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F135" s="376"/>
       <c r="G135" s="377"/>
-      <c r="H135" s="115"/>
+      <c r="H135" s="459" t="s">
+        <v>302</v>
+      </c>
       <c r="I135" s="116"/>
       <c r="J135" s="378" t="s">
         <v>16</v>
@@ -41018,12 +43842,20 @@
       <c r="B148" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C148" s="115"/>
-      <c r="D148" s="115"/>
-      <c r="E148" s="115"/>
+      <c r="C148" s="458" t="s">
+        <v>975</v>
+      </c>
+      <c r="D148" s="458" t="s">
+        <v>976</v>
+      </c>
+      <c r="E148" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F148" s="376"/>
       <c r="G148" s="377"/>
-      <c r="H148" s="115"/>
+      <c r="H148" s="459" t="s">
+        <v>302</v>
+      </c>
       <c r="I148" s="116"/>
       <c r="J148" s="378" t="s">
         <v>16</v>
@@ -41456,12 +44288,20 @@
       <c r="B161" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C161" s="115"/>
-      <c r="D161" s="115"/>
-      <c r="E161" s="115"/>
+      <c r="C161" s="458" t="s">
+        <v>977</v>
+      </c>
+      <c r="D161" s="458" t="s">
+        <v>968</v>
+      </c>
+      <c r="E161" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F161" s="376"/>
       <c r="G161" s="377"/>
-      <c r="H161" s="115"/>
+      <c r="H161" s="459" t="s">
+        <v>302</v>
+      </c>
       <c r="I161" s="116"/>
       <c r="J161" s="378" t="s">
         <v>16</v>
@@ -41922,12 +44762,20 @@
       <c r="B174" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C174" s="115"/>
-      <c r="D174" s="115"/>
-      <c r="E174" s="115"/>
+      <c r="C174" s="458" t="s">
+        <v>978</v>
+      </c>
+      <c r="D174" s="458" t="s">
+        <v>979</v>
+      </c>
+      <c r="E174" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F174" s="376"/>
       <c r="G174" s="377"/>
-      <c r="H174" s="115"/>
+      <c r="H174" s="459" t="s">
+        <v>302</v>
+      </c>
       <c r="I174" s="116"/>
       <c r="J174" s="378" t="s">
         <v>16</v>
@@ -42308,14 +45156,22 @@
       <c r="B187" s="435" t="s">
         <v>43</v>
       </c>
-      <c r="C187" s="436"/>
-      <c r="D187" s="436"/>
-      <c r="E187" s="436"/>
+      <c r="C187" s="458" t="s">
+        <v>980</v>
+      </c>
+      <c r="D187" s="458" t="s">
+        <v>985</v>
+      </c>
+      <c r="E187" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F187" s="435">
         <v>200.0</v>
       </c>
       <c r="G187" s="436"/>
-      <c r="H187" s="436"/>
+      <c r="H187" s="459" t="s">
+        <v>758</v>
+      </c>
       <c r="I187" s="437"/>
       <c r="J187" s="438" t="s">
         <v>16</v>
@@ -42786,14 +45642,22 @@
       <c r="B204" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C204" s="115"/>
-      <c r="D204" s="115"/>
-      <c r="E204" s="115"/>
+      <c r="C204" s="458" t="s">
+        <v>980</v>
+      </c>
+      <c r="D204" s="458" t="s">
+        <v>981</v>
+      </c>
+      <c r="E204" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F204" s="114">
         <v>200.0</v>
       </c>
       <c r="G204" s="115"/>
-      <c r="H204" s="115"/>
+      <c r="H204" s="459" t="s">
+        <v>758</v>
+      </c>
       <c r="I204" s="294"/>
       <c r="J204" s="117" t="s">
         <v>16</v>
@@ -43184,14 +46048,22 @@
       <c r="B217" s="435" t="s">
         <v>43</v>
       </c>
-      <c r="C217" s="436"/>
-      <c r="D217" s="436"/>
-      <c r="E217" s="436"/>
+      <c r="C217" s="458" t="s">
+        <v>980</v>
+      </c>
+      <c r="D217" s="458" t="s">
+        <v>982</v>
+      </c>
+      <c r="E217" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F217" s="435">
         <v>200.0</v>
       </c>
       <c r="G217" s="436"/>
-      <c r="H217" s="436"/>
+      <c r="H217" s="459" t="s">
+        <v>758</v>
+      </c>
       <c r="I217" s="437"/>
       <c r="J217" s="438" t="s">
         <v>16</v>
@@ -43722,14 +46594,22 @@
       <c r="B237" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C237" s="115"/>
-      <c r="D237" s="115"/>
-      <c r="E237" s="115"/>
+      <c r="C237" s="458" t="s">
+        <v>983</v>
+      </c>
+      <c r="D237" s="458" t="s">
+        <v>984</v>
+      </c>
+      <c r="E237" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F237" s="114">
         <v>200.0</v>
       </c>
       <c r="G237" s="115"/>
-      <c r="H237" s="115"/>
+      <c r="H237" s="459" t="s">
+        <v>758</v>
+      </c>
       <c r="I237" s="294"/>
       <c r="J237" s="117" t="s">
         <v>16</v>
@@ -44582,14 +47462,22 @@
       <c r="B266" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C266" s="115"/>
-      <c r="D266" s="115"/>
-      <c r="E266" s="115"/>
+      <c r="C266" s="458" t="s">
+        <v>986</v>
+      </c>
+      <c r="D266" s="458" t="s">
+        <v>987</v>
+      </c>
+      <c r="E266" s="458" t="s">
+        <v>184</v>
+      </c>
       <c r="F266" s="114">
         <v>200.0</v>
       </c>
       <c r="G266" s="115"/>
-      <c r="H266" s="115"/>
+      <c r="H266" s="459" t="s">
+        <v>758</v>
+      </c>
       <c r="I266" s="294"/>
       <c r="J266" s="438"/>
       <c r="K266" s="77"/>
@@ -44677,7 +47565,7 @@
       <c r="Z269" s="173"/>
       <c r="AA269" s="173"/>
     </row>
-    <row r="270" ht="19.5" customHeight="1">
+    <row r="270" ht="19.5" customHeight="true">
       <c r="A270" s="287"/>
       <c r="B270" s="288"/>
       <c r="C270" s="288"/>
@@ -44699,9 +47587,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="G37"/>
-    <hyperlink r:id="rId2" ref="D63"/>
+    <hyperlink ref="G37" r:id="rId1"/>
+    <hyperlink ref="D63" r:id="rId2"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <drawing xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" relationships:id="rId3"/>
 </worksheet>
 </file>